--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganeshsilwal/Downloads/Project/cse3310-sp25-004/FinalRequirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serah\Examples\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB174199-9C36-6A4F-9CA1-461F81DAD83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95DA6D6-1AAD-441F-8AA6-5AA4FCACE5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="504">
   <si>
     <t>Tested By</t>
   </si>
@@ -1362,13 +1362,190 @@
   </si>
   <si>
     <t>The sortTable function shall handle numeric and string-based sorting in ascending/descending order</t>
+  </si>
+  <si>
+    <t>Two 'bots' shall be provided. They will play with different strategies</t>
+  </si>
+  <si>
+    <t>general case, makeMove()</t>
+  </si>
+  <si>
+    <t>BotI shall play checkers like a real players</t>
+  </si>
+  <si>
+    <t>makeMove()</t>
+  </si>
+  <si>
+    <t>BotI shall negotiate with Bot II and Game Manager for game decisions and strategies</t>
+  </si>
+  <si>
+    <t>in general</t>
+  </si>
+  <si>
+    <t>BotI shall consistently follow game rules and strategies without failure, ensuring a fair playing environment</t>
+  </si>
+  <si>
+    <t>getAvailableCheckers(), getAllJumpMoves(), getAllNormalMoves()</t>
+  </si>
+  <si>
+    <t>BotI shall go before Bot II</t>
+  </si>
+  <si>
+    <t>updateBoard() -&gt;game manager</t>
+  </si>
+  <si>
+    <t>BotI shall exceute each move within 1 second of the opponent's move</t>
+  </si>
+  <si>
+    <t>BotI shall execute moves correctly</t>
+  </si>
+  <si>
+    <t>executeMove()</t>
+  </si>
+  <si>
+    <t>BotI shall respond and execute moves efficiently</t>
+  </si>
+  <si>
+    <t>moveChecker(), moveKing()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BotI will go first during the bot match </t>
+  </si>
+  <si>
+    <t>BotI wins if the opponent has no legal moves or the opponent has no pieces left.</t>
+  </si>
+  <si>
+    <t>BotI shall be designed to accommodate future changes</t>
+  </si>
+  <si>
+    <t>general case</t>
+  </si>
+  <si>
+    <t>BotI shall attempt to block opponent's moves when possible</t>
+  </si>
+  <si>
+    <t>isSafeMove()</t>
+  </si>
+  <si>
+    <t>BotI shall prioritize offensive moves when safe</t>
+  </si>
+  <si>
+    <t>selectBestJumpMove(), selectBestNormalMove()</t>
+  </si>
+  <si>
+    <t>BotI shall avoid moving backline peices unless necessary</t>
+  </si>
+  <si>
+    <t>IsAdvancingMove()</t>
+  </si>
+  <si>
+    <t>BotI shall support multiple kings on the board</t>
+  </si>
+  <si>
+    <t>isKing(), wouldBecomeKing()</t>
+  </si>
+  <si>
+    <t>BotI shall check ande exectue multiple jumps if available</t>
+  </si>
+  <si>
+    <t>getAllJumpMoves()</t>
+  </si>
+  <si>
+    <t>BotI shall support Player vs Bot 1 matches</t>
+  </si>
+  <si>
+    <t>updateBoard(), makeMove()</t>
+  </si>
+  <si>
+    <t>BotI shall suppport Bot 1 vs Bot 2</t>
+  </si>
+  <si>
+    <t>Bot I shall operate independently in Player vs Player matches</t>
+  </si>
+  <si>
+    <t>BotI shall keep updating board after moves</t>
+  </si>
+  <si>
+    <t>updateBoard()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BotI should end game </t>
+  </si>
+  <si>
+    <t>endGame()</t>
+  </si>
+  <si>
+    <t>Bot1 - 18</t>
+  </si>
+  <si>
+    <t>BI - 1</t>
+  </si>
+  <si>
+    <t>BI - 2</t>
+  </si>
+  <si>
+    <t>BI - 3</t>
+  </si>
+  <si>
+    <t>BI - 4</t>
+  </si>
+  <si>
+    <t>BI - 5</t>
+  </si>
+  <si>
+    <t>BI - 6</t>
+  </si>
+  <si>
+    <t>BI - 7</t>
+  </si>
+  <si>
+    <t>BI - 8</t>
+  </si>
+  <si>
+    <t>BI - 9</t>
+  </si>
+  <si>
+    <t>BI - 10</t>
+  </si>
+  <si>
+    <t>BI - 11</t>
+  </si>
+  <si>
+    <t>BI - 12</t>
+  </si>
+  <si>
+    <t>BI - 13</t>
+  </si>
+  <si>
+    <t>BI - 14</t>
+  </si>
+  <si>
+    <t>BI - 15</t>
+  </si>
+  <si>
+    <t>BI - 16</t>
+  </si>
+  <si>
+    <t>BI - 17</t>
+  </si>
+  <si>
+    <t>BI - 18</t>
+  </si>
+  <si>
+    <t>BI - 19</t>
+  </si>
+  <si>
+    <t>BI - 20</t>
+  </si>
+  <si>
+    <t>BI - 21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,6 +1597,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1466,7 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1502,6 +1685,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Neutral" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1764,33 +1948,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S153"/>
+  <dimension ref="A1:S174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="123.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="2" customWidth="1"/>
-    <col min="7" max="16" width="8.6640625" style="1"/>
-    <col min="17" max="17" width="8.6640625" style="3"/>
-    <col min="18" max="18" width="8.6640625" style="1"/>
-    <col min="19" max="19" width="36.5" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16" width="8.7109375" style="1"/>
+    <col min="17" max="17" width="8.7109375" style="3"/>
+    <col min="18" max="18" width="8.7109375" style="1"/>
+    <col min="19" max="19" width="36.42578125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1828,7 +2012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1848,7 +2032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1871,7 +2055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1879,27 +2063,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1913,7 +2097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -1927,7 +2111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1941,7 +2125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -1955,7 +2139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -1969,7 +2153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -1983,7 +2167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -1997,7 +2181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2011,7 +2195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
@@ -2025,7 +2209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2039,7 +2223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
@@ -2053,7 +2237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
@@ -2067,7 +2251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -2081,7 +2265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -2095,7 +2279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2110,7 +2294,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2125,7 +2309,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -2140,7 +2324,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2155,7 +2339,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2172,7 +2356,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -2187,7 +2371,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -2203,7 +2387,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -2220,7 +2404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -2237,7 +2421,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2251,7 +2435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -2265,7 +2449,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -2279,7 +2463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2293,7 +2477,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2307,7 +2491,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -2321,7 +2505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
@@ -2335,7 +2519,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -2349,7 +2533,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -2363,7 +2547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -2377,7 +2561,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
@@ -2391,7 +2575,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -2405,7 +2589,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -2419,7 +2603,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>131</v>
       </c>
@@ -2433,7 +2617,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -2447,7 +2631,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -2461,7 +2645,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -2475,7 +2659,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -2489,7 +2673,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
@@ -2503,7 +2687,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -2517,7 +2701,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
@@ -2531,7 +2715,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>153</v>
       </c>
@@ -2545,7 +2729,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>155</v>
       </c>
@@ -2559,7 +2743,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>157</v>
       </c>
@@ -2573,7 +2757,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -2590,7 +2774,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>164</v>
       </c>
@@ -2604,7 +2788,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -2618,7 +2802,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -2632,7 +2816,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -2646,7 +2830,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -2660,7 +2844,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
@@ -2674,7 +2858,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>188</v>
       </c>
@@ -2688,7 +2872,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -2702,7 +2886,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -2716,7 +2900,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
@@ -2730,7 +2914,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>202</v>
       </c>
@@ -2744,7 +2928,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>205</v>
       </c>
@@ -2758,7 +2942,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>208</v>
       </c>
@@ -2772,7 +2956,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>211</v>
       </c>
@@ -2786,7 +2970,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
@@ -2800,7 +2984,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>217</v>
       </c>
@@ -2814,7 +2998,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -2828,7 +3012,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -2842,7 +3026,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
@@ -2856,7 +3040,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>232</v>
       </c>
@@ -2870,7 +3054,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>235</v>
       </c>
@@ -2884,7 +3068,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>238</v>
       </c>
@@ -2898,7 +3082,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -2912,7 +3096,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -2926,7 +3110,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -2940,7 +3124,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -2954,7 +3138,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -2968,7 +3152,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -2982,7 +3166,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>260</v>
       </c>
@@ -2996,7 +3180,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -3010,7 +3194,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -3024,7 +3208,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -3038,7 +3222,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -3052,7 +3236,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>275</v>
       </c>
@@ -3066,7 +3250,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>279</v>
       </c>
@@ -3080,7 +3264,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>281</v>
       </c>
@@ -3094,7 +3278,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -3108,7 +3292,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -3122,7 +3306,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
@@ -3136,7 +3320,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>293</v>
       </c>
@@ -3150,7 +3334,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>296</v>
       </c>
@@ -3164,7 +3348,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>299</v>
       </c>
@@ -3178,7 +3362,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>302</v>
       </c>
@@ -3192,7 +3376,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>305</v>
       </c>
@@ -3206,7 +3390,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>307</v>
       </c>
@@ -3220,7 +3404,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>309</v>
       </c>
@@ -3234,7 +3418,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>312</v>
       </c>
@@ -3248,7 +3432,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>315</v>
       </c>
@@ -3262,7 +3446,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>318</v>
       </c>
@@ -3276,7 +3460,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
@@ -3290,7 +3474,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>324</v>
       </c>
@@ -3304,7 +3488,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>326</v>
       </c>
@@ -3318,7 +3502,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>329</v>
       </c>
@@ -3332,7 +3516,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>331</v>
       </c>
@@ -3346,7 +3530,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>333</v>
       </c>
@@ -3360,7 +3544,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>335</v>
       </c>
@@ -3374,7 +3558,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>338</v>
       </c>
@@ -3388,7 +3572,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>340</v>
       </c>
@@ -3402,7 +3586,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>342</v>
       </c>
@@ -3416,7 +3600,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>345</v>
       </c>
@@ -3430,7 +3614,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>347</v>
       </c>
@@ -3444,7 +3628,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>349</v>
       </c>
@@ -3458,7 +3642,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>351</v>
       </c>
@@ -3472,7 +3656,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>353</v>
       </c>
@@ -3486,7 +3670,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>356</v>
       </c>
@@ -3500,7 +3684,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>358</v>
       </c>
@@ -3514,7 +3698,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>360</v>
       </c>
@@ -3528,7 +3712,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>362</v>
       </c>
@@ -3542,7 +3726,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>364</v>
       </c>
@@ -3556,7 +3740,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>366</v>
       </c>
@@ -3570,7 +3754,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>370</v>
       </c>
@@ -3584,7 +3768,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>373</v>
       </c>
@@ -3598,7 +3782,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>376</v>
       </c>
@@ -3612,7 +3796,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>378</v>
       </c>
@@ -3626,7 +3810,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>381</v>
       </c>
@@ -3640,7 +3824,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>384</v>
       </c>
@@ -3654,7 +3838,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>387</v>
       </c>
@@ -3668,7 +3852,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>390</v>
       </c>
@@ -3682,7 +3866,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>393</v>
       </c>
@@ -3696,7 +3880,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>396</v>
       </c>
@@ -3710,7 +3894,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>399</v>
       </c>
@@ -3724,7 +3908,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>402</v>
       </c>
@@ -3738,7 +3922,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>406</v>
       </c>
@@ -3752,7 +3936,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="16" t="s">
         <v>409</v>
       </c>
@@ -3766,7 +3950,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="16" t="s">
         <v>411</v>
       </c>
@@ -3780,7 +3964,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="16" t="s">
         <v>412</v>
       </c>
@@ -3794,7 +3978,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="16" t="s">
         <v>413</v>
       </c>
@@ -3808,7 +3992,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="16" t="s">
         <v>414</v>
       </c>
@@ -3822,7 +4006,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="16" t="s">
         <v>415</v>
       </c>
@@ -3836,7 +4020,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
         <v>416</v>
       </c>
@@ -3850,7 +4034,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
         <v>417</v>
       </c>
@@ -3864,7 +4048,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="16" t="s">
         <v>418</v>
       </c>
@@ -3878,7 +4062,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
         <v>419</v>
       </c>
@@ -3892,7 +4076,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="16" t="s">
         <v>442</v>
       </c>
@@ -3906,7 +4090,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
         <v>443</v>
       </c>
@@ -3920,9 +4104,307 @@
         <v>441</v>
       </c>
     </row>
+    <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C167" r:id="rId1" display="https://github.com/Hsankesara/Draughts-AI/blob/master/gamebot.py" xr:uid="{51761E68-DD75-4215-9046-87CDC68AF759}"/>
+    <hyperlink ref="C168" r:id="rId2" display="https://github.com/Hsankesara/Draughts-AI/blob/master/gamebot.py" xr:uid="{9E08AF25-8089-4FD1-AE41-6E629C6FF93D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serah\Examples\cse3310-sp25-004\FinalRequirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95DA6D6-1AAD-441F-8AA6-5AA4FCACE5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE3C0BA-C38D-42CB-BB42-145B56C6D64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="612">
   <si>
     <t>Tested By</t>
   </si>
@@ -1539,13 +1539,337 @@
   </si>
   <si>
     <t>BI - 21</t>
+  </si>
+  <si>
+    <t>The Page Manager should receive data from Pair Up in Java format and convert it into JSON format before sending it to the Game Display.</t>
+  </si>
+  <si>
+    <t>getGameMove(jsonObj, Id) to get the Json object and turn it to java class that can be sent to Game Manger</t>
+  </si>
+  <si>
+    <t>The Page Manager should send the player data (received from Pair Up) as a JSON-formatted string to the Game Display using WebSockets.</t>
+  </si>
+  <si>
+    <t>Using GameManager GM = new GameManager();  so that we can send them the Java objects</t>
+  </si>
+  <si>
+    <t>The Page Manager should receive a Java object from the Game Manager, containing game updates (e.g., move validity, game status), and convert it into a JSON-formatted string before sending it to the Game Display.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created a pubic class GameUpdate to represent a move in the game. It alloess us to store updates </t>
+  </si>
+  <si>
+    <t>The Page Manager should send updates from the Game Manager as a JSON-formatted string to the Game Display, including whether the move was valid or invalid, the game status (win, loss, draw, or in progress), and the winner's name (if applicable).</t>
+  </si>
+  <si>
+    <t>Using import com.google.gson.Gson and import com.google.gson.GsonBuilder so that we can use gson.fromJson() and gson.toJson() to convert between JSON strings and Java objects.</t>
+  </si>
+  <si>
+    <t>The Page Manager should receive a JSON-formatted string from the Game Display with the move made in the game. The Page Manager should then convert this JSON data into a Java object (GameMove) and send it to the Game Manager.</t>
+  </si>
+  <si>
+    <t>The Page Manager should send a Java object (GameMove) to the Game Manager containing the move data. This data will be received from the Game Display and converted from JSON format.</t>
+  </si>
+  <si>
+    <t>Created a public class GameMove to represent a move in the game. It allows us to store move details and send them to GameManager for processing</t>
+  </si>
+  <si>
+    <t>The Page Manager shall recieve data from the client-side in the form of a JSON-formatted string</t>
+  </si>
+  <si>
+    <t>UserEvent class</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send data to the client-side in the form of a JSON-formatted string</t>
+  </si>
+  <si>
+    <t>UserEventReply class, omMessage() or onSend()</t>
+  </si>
+  <si>
+    <t>The Page Manager shall  associate each player as a HumanPlayer object</t>
+  </si>
+  <si>
+    <t>HumanPlayer()</t>
+  </si>
+  <si>
+    <t>The Page Manager shall store all player information in the respective HumanPlayer object</t>
+  </si>
+  <si>
+    <t>HumanPlayer class</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send client ID to Pair Up subsystem if the client chooses to queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joinQueue(jsonObj, Id) </t>
+  </si>
+  <si>
+    <t>The Page Manager shall send client ID and opponenets ID to Pair Up subsystem if the client chooses to challenge a player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">challengePlayer(jsonObj, Id) , challengePlayerReply(jsonObj, Id) </t>
+  </si>
+  <si>
+    <t>The Page Manager shall send client ID and bot type to Pair Up subsystem if the client chooses to challenge a bot</t>
+  </si>
+  <si>
+    <t>challengeBot(jsonObj, Id)  : requirement will be fufilled in implementation</t>
+  </si>
+  <si>
+    <t>The Page Manager shall recieve from the Join Game subsystem whether the client wants to queue, challenge a player, and  challenge a bot</t>
+  </si>
+  <si>
+    <t>joinQueue(jsonObj, Id), challengeBot(jsonObj, Id), challengePlayer(jsonObj, Id), challengePlayerReply(jsonObj, Id)</t>
+  </si>
+  <si>
+    <t>The Page Manager shall  send that the pair has failed to the Join Game subsystem if the request to challenge a player has expired or failed</t>
+  </si>
+  <si>
+    <t>challengePlayerReply(jsonObj, Id)</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send the list of active players to the Join Game subsystem</t>
+  </si>
+  <si>
+    <t>getActivePlayers(jsonObj, Id)</t>
+  </si>
+  <si>
+    <t>The Page Manager will be updated on client's locations (such as if they are currently logging in or playing a game)</t>
+  </si>
+  <si>
+    <t>Human Player()</t>
+  </si>
+  <si>
+    <t>The Page Manager will produce Json with a "tag" to let other modules know if the information is for them</t>
+  </si>
+  <si>
+    <t>UserEventReply class</t>
+  </si>
+  <si>
+    <t>The Page Manager will provide the "Summary" module with Json-formatted data about the current players and top ten players. Java information will be converted to JSON to send to summary module.</t>
+  </si>
+  <si>
+    <t>JsonObject retrieveUserJson(int player_ID), JsonObject retrieveUserJson()</t>
+  </si>
+  <si>
+    <t>The Page Manager will get returning active player from the database to store on the active player list. New IDs created for new players</t>
+  </si>
+  <si>
+    <t>current player list and handleNewUser()</t>
+  </si>
+  <si>
+    <t>The Login module shall allow the player to input a handle upon loading the page.</t>
+  </si>
+  <si>
+    <t>onMessage()</t>
+  </si>
+  <si>
+    <t>The Login module shall send the inputted handle as a JSON-formatted WebSocket message to the Page Manager.</t>
+  </si>
+  <si>
+    <t>The Page Manager shall check with the Database subsystem to verify if the player handle already exists.</t>
+  </si>
+  <si>
+    <t>handleLogin(userEvent U)</t>
+  </si>
+  <si>
+    <t>If the handle exists, the Database shall return the associated player information to the Page Manager.</t>
+  </si>
+  <si>
+    <t>db.getPasswordForUser()</t>
+  </si>
+  <si>
+    <t>The Page Manager shall forward the existing player information to the Login module as a JSON response.</t>
+  </si>
+  <si>
+    <t>If the handle does not exist, the Page Manager shall create a new player record by sending the handle to the Database subsystem.</t>
+  </si>
+  <si>
+    <t>handleNewUser(UserEvent U)</t>
+  </si>
+  <si>
+    <t>The Database shall create a new player entry with a unique client ID and return it to the Page Manager.</t>
+  </si>
+  <si>
+    <t>db.adduser()</t>
+  </si>
+  <si>
+    <t>The Page Manager shall forward the new player’s information (including client ID) to the Login module as a JSON message</t>
+  </si>
+  <si>
+    <t>The Login module shall display a welcome message upon successful login or account creation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontend, but our response triggers it </t>
+  </si>
+  <si>
+    <t>The Login module shall alert the player if the handle is invalid (e.g., blank or too long).</t>
+  </si>
+  <si>
+    <t>frontend validation, but backed by backend enforcement</t>
+  </si>
+  <si>
+    <t>The Login module shall not allow the player to proceed unless a valid handle is entered and accepted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontend , but backed by our response </t>
+  </si>
+  <si>
+    <t>All communication between the Login module and the backend shall occur using JSON over WebSockets.</t>
+  </si>
+  <si>
+    <t>onMessage() + userEvent+userEventReplay</t>
+  </si>
+  <si>
+    <t>Page manager should store list of active players.</t>
+  </si>
+  <si>
+    <t>Hashtable&lt;HumanPlayer, Integer&gt; activePlayers = new Hashtable&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>Page manager should efficiently handle the converison back and forth between json and java.</t>
+  </si>
+  <si>
+    <t>handled inside each method.</t>
+  </si>
+  <si>
+    <t>Page manager should manage the process of switching webpage information when user goes from one subsystem to theh other</t>
+  </si>
+  <si>
+    <t>transitionPage(int clientId, GameState newState) - automatic transitions of pages,  backToHome(int clientId) - transitions from summary to home page via button press</t>
+  </si>
+  <si>
+    <t>Page manager should track the player current state (in which subsytem they are at) - for transitioning purpose</t>
+  </si>
+  <si>
+    <t>HashMap&lt;Integer, GameState&gt; clientStates = new HashMap&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>Page Manager should handle the case a user closes the tab and update clients and player info accordingly</t>
+  </si>
+  <si>
+    <t>App.Java onClose, pm.userLeave</t>
+  </si>
+  <si>
+    <t>Page Manager - 5</t>
+  </si>
+  <si>
+    <t>PG - 1</t>
+  </si>
+  <si>
+    <t>PG - 2</t>
+  </si>
+  <si>
+    <t>PG - 3</t>
+  </si>
+  <si>
+    <t>PG - 4</t>
+  </si>
+  <si>
+    <t>PG - 5</t>
+  </si>
+  <si>
+    <t>PG - 6</t>
+  </si>
+  <si>
+    <t>PG - 7</t>
+  </si>
+  <si>
+    <t>PG - 8</t>
+  </si>
+  <si>
+    <t>PG - 9</t>
+  </si>
+  <si>
+    <t>PG - 10</t>
+  </si>
+  <si>
+    <t>PG - 11</t>
+  </si>
+  <si>
+    <t>PG - 12</t>
+  </si>
+  <si>
+    <t>PG - 13</t>
+  </si>
+  <si>
+    <t>PG - 14</t>
+  </si>
+  <si>
+    <t>PG - 15</t>
+  </si>
+  <si>
+    <t>PG - 16</t>
+  </si>
+  <si>
+    <t>PG - 17</t>
+  </si>
+  <si>
+    <t>PG - 18</t>
+  </si>
+  <si>
+    <t>PG - 19</t>
+  </si>
+  <si>
+    <t>PG - 20</t>
+  </si>
+  <si>
+    <t>PG - 21</t>
+  </si>
+  <si>
+    <t>PG - 22</t>
+  </si>
+  <si>
+    <t>PG - 23</t>
+  </si>
+  <si>
+    <t>PG - 24</t>
+  </si>
+  <si>
+    <t>PG - 25</t>
+  </si>
+  <si>
+    <t>PG - 26</t>
+  </si>
+  <si>
+    <t>PG - 27</t>
+  </si>
+  <si>
+    <t>PG - 28</t>
+  </si>
+  <si>
+    <t>PG - 29</t>
+  </si>
+  <si>
+    <t>PG - 30</t>
+  </si>
+  <si>
+    <t>PG - 31</t>
+  </si>
+  <si>
+    <t>PG - 32</t>
+  </si>
+  <si>
+    <t>PG - 33</t>
+  </si>
+  <si>
+    <t>PG - 34</t>
+  </si>
+  <si>
+    <t>PG - 35</t>
+  </si>
+  <si>
+    <t>PG - 36</t>
+  </si>
+  <si>
+    <t>PG - 37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,8 +1927,28 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,6 +1959,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1649,7 +1999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1686,6 +2036,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Neutral" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1948,33 +2311,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:S211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="123.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16" width="8.7109375" style="1"/>
-    <col min="17" max="17" width="8.7109375" style="3"/>
-    <col min="18" max="18" width="8.7109375" style="1"/>
-    <col min="19" max="19" width="36.42578125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="16" width="8.6640625" style="1"/>
+    <col min="17" max="17" width="8.6640625" style="3"/>
+    <col min="18" max="18" width="8.6640625" style="1"/>
+    <col min="19" max="19" width="36.44140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2012,7 +2375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2032,7 +2395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2055,7 +2418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2063,27 +2426,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2097,7 +2460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -2111,7 +2474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2125,7 +2488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -2139,7 +2502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -2153,7 +2516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -2167,7 +2530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -2181,7 +2544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2195,7 +2558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
@@ -2209,7 +2572,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2223,7 +2586,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
@@ -2237,7 +2600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
@@ -2251,7 +2614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -2265,7 +2628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -2279,7 +2642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2294,7 +2657,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2309,7 +2672,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -2324,7 +2687,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2339,7 +2702,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2356,7 +2719,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -2371,7 +2734,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -2387,7 +2750,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -2404,7 +2767,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -2421,7 +2784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2435,7 +2798,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -2449,7 +2812,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -2463,7 +2826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2477,7 +2840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2491,7 +2854,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -2505,7 +2868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
@@ -2519,7 +2882,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -2533,7 +2896,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -2547,7 +2910,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -2561,7 +2924,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
@@ -2575,7 +2938,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -2589,7 +2952,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -2603,7 +2966,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>131</v>
       </c>
@@ -2617,7 +2980,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -2631,7 +2994,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -2645,7 +3008,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -2659,7 +3022,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -2673,7 +3036,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
@@ -2687,7 +3050,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -2701,7 +3064,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
@@ -2715,7 +3078,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>153</v>
       </c>
@@ -2729,7 +3092,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>155</v>
       </c>
@@ -2743,7 +3106,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>157</v>
       </c>
@@ -2757,7 +3120,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -2774,7 +3137,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>164</v>
       </c>
@@ -2788,7 +3151,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -2802,7 +3165,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -2816,7 +3179,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -2830,7 +3193,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -2844,7 +3207,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
@@ -2858,7 +3221,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>188</v>
       </c>
@@ -2872,7 +3235,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -2886,7 +3249,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -2900,7 +3263,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
@@ -2914,7 +3277,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>202</v>
       </c>
@@ -2928,7 +3291,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>205</v>
       </c>
@@ -2942,7 +3305,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>208</v>
       </c>
@@ -2956,7 +3319,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>211</v>
       </c>
@@ -2970,7 +3333,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
@@ -2984,7 +3347,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>217</v>
       </c>
@@ -2998,7 +3361,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3012,7 +3375,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -3026,7 +3389,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
@@ -3040,7 +3403,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>232</v>
       </c>
@@ -3054,7 +3417,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>235</v>
       </c>
@@ -3068,7 +3431,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>238</v>
       </c>
@@ -3082,7 +3445,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3096,7 +3459,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3110,7 +3473,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3124,7 +3487,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3138,7 +3501,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3152,7 +3515,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -3166,7 +3529,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>260</v>
       </c>
@@ -3180,7 +3543,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -3194,7 +3557,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -3208,7 +3571,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -3222,7 +3585,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -3236,7 +3599,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>275</v>
       </c>
@@ -3250,7 +3613,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>279</v>
       </c>
@@ -3264,7 +3627,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>281</v>
       </c>
@@ -3278,7 +3641,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -3292,7 +3655,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -3306,7 +3669,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
@@ -3320,7 +3683,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>293</v>
       </c>
@@ -3334,7 +3697,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>296</v>
       </c>
@@ -3348,7 +3711,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>299</v>
       </c>
@@ -3362,7 +3725,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>302</v>
       </c>
@@ -3376,7 +3739,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>305</v>
       </c>
@@ -3390,7 +3753,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>307</v>
       </c>
@@ -3404,7 +3767,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>309</v>
       </c>
@@ -3418,7 +3781,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>312</v>
       </c>
@@ -3432,7 +3795,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>315</v>
       </c>
@@ -3446,7 +3809,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>318</v>
       </c>
@@ -3460,7 +3823,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
@@ -3474,7 +3837,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>324</v>
       </c>
@@ -3488,7 +3851,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>326</v>
       </c>
@@ -3502,7 +3865,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>329</v>
       </c>
@@ -3516,7 +3879,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>331</v>
       </c>
@@ -3530,7 +3893,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>333</v>
       </c>
@@ -3544,7 +3907,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>335</v>
       </c>
@@ -3558,7 +3921,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>338</v>
       </c>
@@ -3572,7 +3935,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>340</v>
       </c>
@@ -3586,7 +3949,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>342</v>
       </c>
@@ -3600,7 +3963,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>345</v>
       </c>
@@ -3614,7 +3977,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>347</v>
       </c>
@@ -3628,7 +3991,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>349</v>
       </c>
@@ -3642,7 +4005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>351</v>
       </c>
@@ -3656,7 +4019,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>353</v>
       </c>
@@ -3670,7 +4033,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>356</v>
       </c>
@@ -3684,7 +4047,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>358</v>
       </c>
@@ -3698,7 +4061,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>360</v>
       </c>
@@ -3712,7 +4075,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>362</v>
       </c>
@@ -3726,7 +4089,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>364</v>
       </c>
@@ -3740,7 +4103,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>366</v>
       </c>
@@ -3754,7 +4117,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>370</v>
       </c>
@@ -3768,7 +4131,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>373</v>
       </c>
@@ -3782,7 +4145,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>376</v>
       </c>
@@ -3796,7 +4159,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>378</v>
       </c>
@@ -3810,7 +4173,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>381</v>
       </c>
@@ -3824,7 +4187,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>384</v>
       </c>
@@ -3838,7 +4201,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>387</v>
       </c>
@@ -3852,7 +4215,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>390</v>
       </c>
@@ -3866,7 +4229,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>393</v>
       </c>
@@ -3880,7 +4243,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>396</v>
       </c>
@@ -3894,7 +4257,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>399</v>
       </c>
@@ -3908,7 +4271,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>402</v>
       </c>
@@ -3922,7 +4285,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>406</v>
       </c>
@@ -3936,7 +4299,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="16" t="s">
         <v>409</v>
       </c>
@@ -3950,7 +4313,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="16" t="s">
         <v>411</v>
       </c>
@@ -3964,7 +4327,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="16" t="s">
         <v>412</v>
       </c>
@@ -3978,7 +4341,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="16" t="s">
         <v>413</v>
       </c>
@@ -3992,7 +4355,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="16" t="s">
         <v>414</v>
       </c>
@@ -4006,7 +4369,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="16" t="s">
         <v>415</v>
       </c>
@@ -4020,7 +4383,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="16" t="s">
         <v>416</v>
       </c>
@@ -4034,7 +4397,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="16" t="s">
         <v>417</v>
       </c>
@@ -4048,7 +4411,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="16" t="s">
         <v>418</v>
       </c>
@@ -4062,7 +4425,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="16" t="s">
         <v>419</v>
       </c>
@@ -4076,7 +4439,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="16" t="s">
         <v>442</v>
       </c>
@@ -4090,7 +4453,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="16" t="s">
         <v>443</v>
       </c>
@@ -4104,7 +4467,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>483</v>
       </c>
@@ -4118,7 +4481,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>484</v>
       </c>
@@ -4132,7 +4495,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>485</v>
       </c>
@@ -4146,7 +4509,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>486</v>
       </c>
@@ -4160,7 +4523,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>487</v>
       </c>
@@ -4174,7 +4537,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>488</v>
       </c>
@@ -4188,7 +4551,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>489</v>
       </c>
@@ -4202,7 +4565,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>490</v>
       </c>
@@ -4216,7 +4579,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>491</v>
       </c>
@@ -4230,7 +4593,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>492</v>
       </c>
@@ -4244,7 +4607,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>493</v>
       </c>
@@ -4258,7 +4621,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>494</v>
       </c>
@@ -4272,7 +4635,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>495</v>
       </c>
@@ -4286,7 +4649,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>496</v>
       </c>
@@ -4300,7 +4663,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>497</v>
       </c>
@@ -4314,7 +4677,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>498</v>
       </c>
@@ -4328,7 +4691,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>499</v>
       </c>
@@ -4342,7 +4705,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>500</v>
       </c>
@@ -4356,7 +4719,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>501</v>
       </c>
@@ -4370,7 +4733,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>502</v>
       </c>
@@ -4384,7 +4747,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>503</v>
       </c>
@@ -4396,6 +4759,524 @@
       </c>
       <c r="D174" s="17" t="s">
         <v>481</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A175" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A176" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="D176" s="18" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A177" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+      <c r="A178" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D178" s="19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+      <c r="A179" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="D179" s="19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+      <c r="A180" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A181" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A182" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A183" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A184" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A185" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="B185" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A186" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A187" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+      <c r="A188" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="B188" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A189" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A190" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A191" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A192" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A193" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A194" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="B194" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A195" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="B195" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A196" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A197" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="B197" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A198" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A199" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A200" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A201" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A202" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="B202" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C202" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A203" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="B203" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A204" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="B204" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A205" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C205" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A206" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="B206" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C206" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A207" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="B207" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A208" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="B208" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+      <c r="A209" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="B209" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A210" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A211" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE3C0BA-C38D-42CB-BB42-145B56C6D64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C0D5F-ACB0-4B13-B904-F91414B04D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2036,16 +2036,16 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2313,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15176dbdb68e5a3b/Desktop/CSE3310/cse3310-sp25-004/FinalRequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE3C0BA-C38D-42CB-BB42-145B56C6D64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{7AE3C0BA-C38D-42CB-BB42-145B56C6D64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C73C20-20AA-41CF-8CF6-30C58CAD13C3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="13170" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="642">
   <si>
     <t>Tested By</t>
   </si>
@@ -1863,6 +1863,96 @@
   </si>
   <si>
     <t>PG - 37</t>
+  </si>
+  <si>
+    <t>GD - 1</t>
+  </si>
+  <si>
+    <t>Game Display - 3</t>
+  </si>
+  <si>
+    <t>Game Display shall display board with appropriate places</t>
+  </si>
+  <si>
+    <t>createBoard()</t>
+  </si>
+  <si>
+    <t>GD - 2</t>
+  </si>
+  <si>
+    <t>Game display shall communicate with Page Manager through web sockets</t>
+  </si>
+  <si>
+    <t>socket.js</t>
+  </si>
+  <si>
+    <t>GD - 3</t>
+  </si>
+  <si>
+    <t>Game Display shall display the piece movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handleClick(clickedId), movePiece(fromId, toId), </t>
+  </si>
+  <si>
+    <t>GD - 4</t>
+  </si>
+  <si>
+    <t>Game Display shall display the current players of the game</t>
+  </si>
+  <si>
+    <t>updatePlayerTurn(), switchPlayer()</t>
+  </si>
+  <si>
+    <t>GD - 5</t>
+  </si>
+  <si>
+    <t>game Display shall have a log that dislays the history of moves as well as status of the game</t>
+  </si>
+  <si>
+    <t>addLog(message, type='info')</t>
+  </si>
+  <si>
+    <t>GD - 6</t>
+  </si>
+  <si>
+    <t>Game Display shall allow users to quit and request draw with buttons</t>
+  </si>
+  <si>
+    <t>quitGame(), sendDrawRequest()</t>
+  </si>
+  <si>
+    <t>GD - 7</t>
+  </si>
+  <si>
+    <t>Game Display shall allow users to move pieces</t>
+  </si>
+  <si>
+    <t>movePiece(fromId, toId), handleClick(clickedId), sendGameMove(fromId, toId)</t>
+  </si>
+  <si>
+    <t>GD - 8</t>
+  </si>
+  <si>
+    <t>Game Display shall show whose turn it is</t>
+  </si>
+  <si>
+    <t>GD - 9</t>
+  </si>
+  <si>
+    <t>Game Display Shall validate if a move is legal with backend before executing</t>
+  </si>
+  <si>
+    <t>sendGameMove(fromtId, toId)</t>
+  </si>
+  <si>
+    <t>GD - 10</t>
+  </si>
+  <si>
+    <t>Game Display shall remove caputred pieces from the board upon successful jump</t>
+  </si>
+  <si>
+    <t>handleMoveResult(moveData)</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2036,19 +2126,20 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Neutral" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2311,33 +2402,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S211"/>
+  <dimension ref="A1:S221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="C209" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="123.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16" width="8.6640625" style="1"/>
-    <col min="17" max="17" width="8.6640625" style="3"/>
-    <col min="18" max="18" width="8.6640625" style="1"/>
-    <col min="19" max="19" width="36.44140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16" width="8.7109375" style="1"/>
+    <col min="17" max="17" width="8.7109375" style="3"/>
+    <col min="18" max="18" width="8.7109375" style="1"/>
+    <col min="19" max="19" width="36.42578125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2375,7 +2466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2395,7 +2486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2418,7 +2509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2426,27 +2517,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2460,7 +2551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -2474,7 +2565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2488,7 +2579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -2502,7 +2593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -2516,7 +2607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -2530,7 +2621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -2544,7 +2635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2558,7 +2649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
@@ -2572,7 +2663,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2586,7 +2677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
@@ -2600,7 +2691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
@@ -2614,7 +2705,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -2628,7 +2719,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -2642,7 +2733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2657,7 +2748,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2672,7 +2763,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -2687,7 +2778,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2702,7 +2793,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2719,7 +2810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -2734,7 +2825,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -2750,7 +2841,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -2767,7 +2858,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -2784,7 +2875,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2798,7 +2889,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -2812,7 +2903,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -2826,7 +2917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2840,7 +2931,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2854,7 +2945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -2868,7 +2959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
@@ -2882,7 +2973,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -2896,7 +2987,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -2910,7 +3001,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -2924,7 +3015,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
@@ -2938,7 +3029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -2952,7 +3043,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -2966,7 +3057,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>131</v>
       </c>
@@ -2980,7 +3071,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -2994,7 +3085,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -3008,7 +3099,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -3022,7 +3113,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -3036,7 +3127,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
@@ -3050,7 +3141,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -3064,7 +3155,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
@@ -3078,7 +3169,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>153</v>
       </c>
@@ -3092,7 +3183,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>155</v>
       </c>
@@ -3106,7 +3197,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>157</v>
       </c>
@@ -3120,7 +3211,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -3137,7 +3228,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>164</v>
       </c>
@@ -3151,7 +3242,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -3165,7 +3256,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -3179,7 +3270,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -3193,7 +3284,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -3207,7 +3298,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
@@ -3221,7 +3312,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>188</v>
       </c>
@@ -3235,7 +3326,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -3249,7 +3340,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -3263,7 +3354,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
@@ -3277,7 +3368,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>202</v>
       </c>
@@ -3291,7 +3382,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>205</v>
       </c>
@@ -3305,7 +3396,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>208</v>
       </c>
@@ -3319,7 +3410,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>211</v>
       </c>
@@ -3333,7 +3424,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
@@ -3347,7 +3438,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>217</v>
       </c>
@@ -3361,7 +3452,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3375,7 +3466,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -3389,7 +3480,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
@@ -3403,7 +3494,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>232</v>
       </c>
@@ -3417,7 +3508,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>235</v>
       </c>
@@ -3431,7 +3522,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>238</v>
       </c>
@@ -3445,7 +3536,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3459,7 +3550,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3473,7 +3564,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3487,7 +3578,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3501,7 +3592,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3515,7 +3606,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -3529,7 +3620,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>260</v>
       </c>
@@ -3543,7 +3634,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -3557,7 +3648,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -3571,7 +3662,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -3585,7 +3676,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -3599,7 +3690,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>275</v>
       </c>
@@ -3613,7 +3704,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>279</v>
       </c>
@@ -3627,7 +3718,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>281</v>
       </c>
@@ -3641,7 +3732,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -3655,7 +3746,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -3669,7 +3760,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
@@ -3683,7 +3774,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>293</v>
       </c>
@@ -3697,7 +3788,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>296</v>
       </c>
@@ -3711,7 +3802,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>299</v>
       </c>
@@ -3725,7 +3816,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>302</v>
       </c>
@@ -3739,7 +3830,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>305</v>
       </c>
@@ -3753,7 +3844,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>307</v>
       </c>
@@ -3767,7 +3858,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>309</v>
       </c>
@@ -3781,7 +3872,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>312</v>
       </c>
@@ -3795,7 +3886,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>315</v>
       </c>
@@ -3809,7 +3900,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>318</v>
       </c>
@@ -3823,7 +3914,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
@@ -3837,7 +3928,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>324</v>
       </c>
@@ -3851,7 +3942,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>326</v>
       </c>
@@ -3865,7 +3956,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>329</v>
       </c>
@@ -3879,7 +3970,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>331</v>
       </c>
@@ -3893,7 +3984,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>333</v>
       </c>
@@ -3907,7 +3998,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>335</v>
       </c>
@@ -3921,7 +4012,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>338</v>
       </c>
@@ -3935,7 +4026,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>340</v>
       </c>
@@ -3949,7 +4040,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>342</v>
       </c>
@@ -3963,7 +4054,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>345</v>
       </c>
@@ -3977,7 +4068,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>347</v>
       </c>
@@ -3991,7 +4082,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>349</v>
       </c>
@@ -4005,7 +4096,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>351</v>
       </c>
@@ -4019,7 +4110,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>353</v>
       </c>
@@ -4033,7 +4124,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>356</v>
       </c>
@@ -4047,7 +4138,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>358</v>
       </c>
@@ -4061,7 +4152,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>360</v>
       </c>
@@ -4075,7 +4166,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>362</v>
       </c>
@@ -4089,7 +4180,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>364</v>
       </c>
@@ -4103,7 +4194,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>366</v>
       </c>
@@ -4117,7 +4208,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>370</v>
       </c>
@@ -4131,7 +4222,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>373</v>
       </c>
@@ -4145,7 +4236,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>376</v>
       </c>
@@ -4159,7 +4250,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>378</v>
       </c>
@@ -4173,7 +4264,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>381</v>
       </c>
@@ -4187,7 +4278,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>384</v>
       </c>
@@ -4201,7 +4292,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>387</v>
       </c>
@@ -4215,7 +4306,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>390</v>
       </c>
@@ -4229,7 +4320,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>393</v>
       </c>
@@ -4243,7 +4334,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>396</v>
       </c>
@@ -4257,7 +4348,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>399</v>
       </c>
@@ -4271,7 +4362,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>402</v>
       </c>
@@ -4285,7 +4376,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>406</v>
       </c>
@@ -4299,7 +4390,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="16" t="s">
         <v>409</v>
       </c>
@@ -4313,7 +4404,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="16" t="s">
         <v>411</v>
       </c>
@@ -4327,7 +4418,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="16" t="s">
         <v>412</v>
       </c>
@@ -4341,7 +4432,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="16" t="s">
         <v>413</v>
       </c>
@@ -4355,7 +4446,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="16" t="s">
         <v>414</v>
       </c>
@@ -4369,7 +4460,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="16" t="s">
         <v>415</v>
       </c>
@@ -4383,7 +4474,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
         <v>416</v>
       </c>
@@ -4397,7 +4488,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
         <v>417</v>
       </c>
@@ -4411,7 +4502,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="16" t="s">
         <v>418</v>
       </c>
@@ -4425,7 +4516,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
         <v>419</v>
       </c>
@@ -4439,7 +4530,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="16" t="s">
         <v>442</v>
       </c>
@@ -4453,7 +4544,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
         <v>443</v>
       </c>
@@ -4467,7 +4558,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>483</v>
       </c>
@@ -4481,7 +4572,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>484</v>
       </c>
@@ -4495,7 +4586,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>485</v>
       </c>
@@ -4509,7 +4600,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>486</v>
       </c>
@@ -4523,7 +4614,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>487</v>
       </c>
@@ -4537,7 +4628,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>488</v>
       </c>
@@ -4551,7 +4642,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>489</v>
       </c>
@@ -4565,7 +4656,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>490</v>
       </c>
@@ -4579,7 +4670,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>491</v>
       </c>
@@ -4593,7 +4684,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>492</v>
       </c>
@@ -4607,7 +4698,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>493</v>
       </c>
@@ -4621,7 +4712,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>494</v>
       </c>
@@ -4635,7 +4726,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>495</v>
       </c>
@@ -4649,7 +4740,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>496</v>
       </c>
@@ -4663,7 +4754,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>497</v>
       </c>
@@ -4677,7 +4768,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>498</v>
       </c>
@@ -4691,7 +4782,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>499</v>
       </c>
@@ -4705,7 +4796,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>500</v>
       </c>
@@ -4719,7 +4810,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>501</v>
       </c>
@@ -4733,7 +4824,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>502</v>
       </c>
@@ -4747,7 +4838,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>503</v>
       </c>
@@ -4761,7 +4852,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A175" s="22" t="s">
         <v>575</v>
       </c>
@@ -4775,7 +4866,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A176" s="22" t="s">
         <v>576</v>
       </c>
@@ -4789,7 +4880,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A177" s="22" t="s">
         <v>577</v>
       </c>
@@ -4803,7 +4894,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A178" s="22" t="s">
         <v>578</v>
       </c>
@@ -4817,7 +4908,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A179" s="22" t="s">
         <v>579</v>
       </c>
@@ -4831,7 +4922,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A180" s="22" t="s">
         <v>580</v>
       </c>
@@ -4845,7 +4936,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="22" t="s">
         <v>581</v>
       </c>
@@ -4859,7 +4950,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="22" t="s">
         <v>582</v>
       </c>
@@ -4873,7 +4964,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="22" t="s">
         <v>583</v>
       </c>
@@ -4887,7 +4978,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="22" t="s">
         <v>584</v>
       </c>
@@ -4901,7 +4992,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="22" t="s">
         <v>585</v>
       </c>
@@ -4915,7 +5006,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A186" s="22" t="s">
         <v>586</v>
       </c>
@@ -4929,7 +5020,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A187" s="22" t="s">
         <v>587</v>
       </c>
@@ -4943,7 +5034,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A188" s="22" t="s">
         <v>588</v>
       </c>
@@ -4957,7 +5048,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A189" s="22" t="s">
         <v>589</v>
       </c>
@@ -4971,7 +5062,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="22" t="s">
         <v>590</v>
       </c>
@@ -4985,7 +5076,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A191" s="22" t="s">
         <v>591</v>
       </c>
@@ -4999,7 +5090,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="22" t="s">
         <v>592</v>
       </c>
@@ -5013,7 +5104,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A193" s="22" t="s">
         <v>593</v>
       </c>
@@ -5027,7 +5118,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A194" s="22" t="s">
         <v>594</v>
       </c>
@@ -5041,7 +5132,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="22" t="s">
         <v>595</v>
       </c>
@@ -5055,7 +5146,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A196" s="22" t="s">
         <v>596</v>
       </c>
@@ -5069,7 +5160,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="22" t="s">
         <v>597</v>
       </c>
@@ -5083,7 +5174,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="22" t="s">
         <v>598</v>
       </c>
@@ -5097,7 +5188,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="22" t="s">
         <v>599</v>
       </c>
@@ -5111,7 +5202,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A200" s="22" t="s">
         <v>600</v>
       </c>
@@ -5125,7 +5216,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="22" t="s">
         <v>601</v>
       </c>
@@ -5139,7 +5230,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A202" s="22" t="s">
         <v>602</v>
       </c>
@@ -5153,7 +5244,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="22" t="s">
         <v>603</v>
       </c>
@@ -5167,7 +5258,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A204" s="22" t="s">
         <v>604</v>
       </c>
@@ -5181,7 +5272,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="22" t="s">
         <v>605</v>
       </c>
@@ -5195,7 +5286,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="22" t="s">
         <v>606</v>
       </c>
@@ -5209,7 +5300,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A207" s="22" t="s">
         <v>607</v>
       </c>
@@ -5223,7 +5314,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="22" t="s">
         <v>608</v>
       </c>
@@ -5237,7 +5328,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A209" s="22" t="s">
         <v>609</v>
       </c>
@@ -5251,7 +5342,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A210" s="22" t="s">
         <v>610</v>
       </c>
@@ -5265,7 +5356,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="22" t="s">
         <v>611</v>
       </c>
@@ -5277,6 +5368,146 @@
       </c>
       <c r="D211" s="18" t="s">
         <v>573</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15176dbdb68e5a3b/Desktop/CSE3310/cse3310-sp25-004/FinalRequirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a314dec4b6146c21/Desktop/school/spring2025/cse3310/cse3310-sp25-004/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{7AE3C0BA-C38D-42CB-BB42-145B56C6D64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C73C20-20AA-41CF-8CF6-30C58CAD13C3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F63872B2-2440-446F-8C73-0073951D60A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="13170" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5950" yWindow="2990" windowWidth="19200" windowHeight="11170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="648">
   <si>
     <t>Tested By</t>
   </si>
@@ -1953,6 +1953,24 @@
   </si>
   <si>
     <t>handleMoveResult(moveData)</t>
+  </si>
+  <si>
+    <t>GD- 11</t>
+  </si>
+  <si>
+    <t>Game Display shall implement CSS styling</t>
+  </si>
+  <si>
+    <t>display.css</t>
+  </si>
+  <si>
+    <t>GD-12</t>
+  </si>
+  <si>
+    <t>Game Display shall contain all HTML on one page</t>
+  </si>
+  <si>
+    <t>index.html</t>
   </si>
 </sst>
 </file>
@@ -2402,33 +2420,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S221"/>
+  <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C209" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="123.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16" width="8.7109375" style="1"/>
-    <col min="17" max="17" width="8.7109375" style="3"/>
-    <col min="18" max="18" width="8.7109375" style="1"/>
-    <col min="19" max="19" width="36.42578125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="36.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="2" customWidth="1"/>
+    <col min="7" max="16" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="8.7265625" style="3"/>
+    <col min="18" max="18" width="8.7265625" style="1"/>
+    <col min="19" max="19" width="36.453125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2486,7 +2504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2509,7 +2527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2517,27 +2535,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2551,7 +2569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +2583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2579,7 +2597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -2593,7 +2611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -2621,7 +2639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2649,7 +2667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2677,7 +2695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
@@ -2691,7 +2709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
@@ -2705,7 +2723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2748,7 +2766,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2763,7 +2781,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -2778,7 +2796,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2793,7 +2811,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2810,7 +2828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -2825,7 +2843,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -2841,7 +2859,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -2858,7 +2876,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -2875,7 +2893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2889,7 +2907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -2903,7 +2921,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -2917,7 +2935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2931,7 +2949,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2945,7 +2963,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -2959,7 +2977,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
@@ -2973,7 +2991,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -2987,7 +3005,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -3001,7 +3019,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
@@ -3029,7 +3047,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -3043,7 +3061,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -3057,7 +3075,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>131</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -3085,7 +3103,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -3099,7 +3117,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -3113,7 +3131,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -3127,7 +3145,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
@@ -3141,7 +3159,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -3155,7 +3173,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
@@ -3169,7 +3187,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>153</v>
       </c>
@@ -3183,7 +3201,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>155</v>
       </c>
@@ -3197,7 +3215,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>157</v>
       </c>
@@ -3211,7 +3229,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -3228,7 +3246,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>164</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -3256,7 +3274,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -3270,7 +3288,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -3284,7 +3302,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -3298,7 +3316,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
@@ -3312,7 +3330,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>188</v>
       </c>
@@ -3326,7 +3344,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -3354,7 +3372,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
@@ -3368,7 +3386,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>202</v>
       </c>
@@ -3382,7 +3400,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>205</v>
       </c>
@@ -3396,7 +3414,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>208</v>
       </c>
@@ -3410,7 +3428,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>211</v>
       </c>
@@ -3424,7 +3442,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>217</v>
       </c>
@@ -3452,7 +3470,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3466,7 +3484,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -3480,7 +3498,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
@@ -3494,7 +3512,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>232</v>
       </c>
@@ -3508,7 +3526,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>235</v>
       </c>
@@ -3522,7 +3540,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>238</v>
       </c>
@@ -3536,7 +3554,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3550,7 +3568,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3564,7 +3582,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3592,7 +3610,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3606,7 +3624,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -3620,7 +3638,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>260</v>
       </c>
@@ -3634,7 +3652,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -3648,7 +3666,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -3676,7 +3694,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -3690,7 +3708,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>275</v>
       </c>
@@ -3704,7 +3722,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>279</v>
       </c>
@@ -3718,7 +3736,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>281</v>
       </c>
@@ -3732,7 +3750,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -3746,7 +3764,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -3760,7 +3778,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
@@ -3774,7 +3792,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>293</v>
       </c>
@@ -3788,7 +3806,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>296</v>
       </c>
@@ -3802,7 +3820,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>299</v>
       </c>
@@ -3816,7 +3834,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>302</v>
       </c>
@@ -3830,7 +3848,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>305</v>
       </c>
@@ -3844,7 +3862,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>307</v>
       </c>
@@ -3858,7 +3876,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>309</v>
       </c>
@@ -3872,7 +3890,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>312</v>
       </c>
@@ -3886,7 +3904,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>315</v>
       </c>
@@ -3900,7 +3918,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>318</v>
       </c>
@@ -3914,7 +3932,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
@@ -3928,7 +3946,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>324</v>
       </c>
@@ -3942,7 +3960,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>326</v>
       </c>
@@ -3956,7 +3974,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>329</v>
       </c>
@@ -3970,7 +3988,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>331</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>333</v>
       </c>
@@ -3998,7 +4016,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>335</v>
       </c>
@@ -4012,7 +4030,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>338</v>
       </c>
@@ -4026,7 +4044,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>340</v>
       </c>
@@ -4040,7 +4058,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>342</v>
       </c>
@@ -4054,7 +4072,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>345</v>
       </c>
@@ -4068,7 +4086,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>347</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>349</v>
       </c>
@@ -4096,7 +4114,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>351</v>
       </c>
@@ -4110,7 +4128,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>353</v>
       </c>
@@ -4124,7 +4142,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>356</v>
       </c>
@@ -4138,7 +4156,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>358</v>
       </c>
@@ -4152,7 +4170,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>360</v>
       </c>
@@ -4166,7 +4184,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>362</v>
       </c>
@@ -4180,7 +4198,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>364</v>
       </c>
@@ -4194,7 +4212,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>366</v>
       </c>
@@ -4208,7 +4226,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
         <v>370</v>
       </c>
@@ -4222,7 +4240,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
         <v>373</v>
       </c>
@@ -4236,7 +4254,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
         <v>376</v>
       </c>
@@ -4250,7 +4268,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>378</v>
       </c>
@@ -4264,7 +4282,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>381</v>
       </c>
@@ -4278,7 +4296,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>384</v>
       </c>
@@ -4292,7 +4310,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>387</v>
       </c>
@@ -4306,7 +4324,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>390</v>
       </c>
@@ -4320,7 +4338,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>393</v>
       </c>
@@ -4334,7 +4352,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
         <v>396</v>
       </c>
@@ -4348,7 +4366,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
         <v>399</v>
       </c>
@@ -4362,7 +4380,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
         <v>402</v>
       </c>
@@ -4376,7 +4394,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>406</v>
       </c>
@@ -4390,7 +4408,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A142" s="16" t="s">
         <v>409</v>
       </c>
@@ -4404,7 +4422,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A143" s="16" t="s">
         <v>411</v>
       </c>
@@ -4418,7 +4436,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A144" s="16" t="s">
         <v>412</v>
       </c>
@@ -4432,7 +4450,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="16" t="s">
         <v>413</v>
       </c>
@@ -4446,7 +4464,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A146" s="16" t="s">
         <v>414</v>
       </c>
@@ -4460,7 +4478,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A147" s="16" t="s">
         <v>415</v>
       </c>
@@ -4474,7 +4492,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A148" s="16" t="s">
         <v>416</v>
       </c>
@@ -4488,7 +4506,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A149" s="16" t="s">
         <v>417</v>
       </c>
@@ -4502,7 +4520,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A150" s="16" t="s">
         <v>418</v>
       </c>
@@ -4516,7 +4534,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A151" s="16" t="s">
         <v>419</v>
       </c>
@@ -4530,7 +4548,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A152" s="16" t="s">
         <v>442</v>
       </c>
@@ -4544,7 +4562,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A153" s="16" t="s">
         <v>443</v>
       </c>
@@ -4558,7 +4576,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>483</v>
       </c>
@@ -4572,7 +4590,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>484</v>
       </c>
@@ -4586,7 +4604,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>485</v>
       </c>
@@ -4600,7 +4618,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>486</v>
       </c>
@@ -4614,7 +4632,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>487</v>
       </c>
@@ -4628,7 +4646,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>488</v>
       </c>
@@ -4642,7 +4660,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>489</v>
       </c>
@@ -4656,7 +4674,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>490</v>
       </c>
@@ -4670,7 +4688,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>491</v>
       </c>
@@ -4684,7 +4702,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>492</v>
       </c>
@@ -4698,7 +4716,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>493</v>
       </c>
@@ -4712,7 +4730,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>494</v>
       </c>
@@ -4726,7 +4744,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>495</v>
       </c>
@@ -4740,7 +4758,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>496</v>
       </c>
@@ -4754,7 +4772,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>497</v>
       </c>
@@ -4768,7 +4786,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>498</v>
       </c>
@@ -4782,7 +4800,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>499</v>
       </c>
@@ -4796,7 +4814,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>500</v>
       </c>
@@ -4810,7 +4828,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>501</v>
       </c>
@@ -4824,7 +4842,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>502</v>
       </c>
@@ -4838,7 +4856,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>503</v>
       </c>
@@ -4852,7 +4870,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A175" s="22" t="s">
         <v>575</v>
       </c>
@@ -4866,7 +4884,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A176" s="22" t="s">
         <v>576</v>
       </c>
@@ -4880,7 +4898,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A177" s="22" t="s">
         <v>577</v>
       </c>
@@ -4894,7 +4912,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="74" x14ac:dyDescent="0.45">
       <c r="A178" s="22" t="s">
         <v>578</v>
       </c>
@@ -4908,7 +4926,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="74" x14ac:dyDescent="0.45">
       <c r="A179" s="22" t="s">
         <v>579</v>
       </c>
@@ -4922,7 +4940,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A180" s="22" t="s">
         <v>580</v>
       </c>
@@ -4936,7 +4954,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A181" s="22" t="s">
         <v>581</v>
       </c>
@@ -4950,7 +4968,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A182" s="22" t="s">
         <v>582</v>
       </c>
@@ -4964,7 +4982,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="22" t="s">
         <v>583</v>
       </c>
@@ -4978,7 +4996,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="22" t="s">
         <v>584</v>
       </c>
@@ -4992,7 +5010,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A185" s="22" t="s">
         <v>585</v>
       </c>
@@ -5006,7 +5024,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A186" s="22" t="s">
         <v>586</v>
       </c>
@@ -5020,7 +5038,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A187" s="22" t="s">
         <v>587</v>
       </c>
@@ -5034,7 +5052,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A188" s="22" t="s">
         <v>588</v>
       </c>
@@ -5048,7 +5066,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A189" s="22" t="s">
         <v>589</v>
       </c>
@@ -5062,7 +5080,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A190" s="22" t="s">
         <v>590</v>
       </c>
@@ -5076,7 +5094,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A191" s="22" t="s">
         <v>591</v>
       </c>
@@ -5090,7 +5108,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A192" s="22" t="s">
         <v>592</v>
       </c>
@@ -5104,7 +5122,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A193" s="22" t="s">
         <v>593</v>
       </c>
@@ -5118,7 +5136,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A194" s="22" t="s">
         <v>594</v>
       </c>
@@ -5132,7 +5150,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A195" s="22" t="s">
         <v>595</v>
       </c>
@@ -5146,7 +5164,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A196" s="22" t="s">
         <v>596</v>
       </c>
@@ -5160,7 +5178,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A197" s="22" t="s">
         <v>597</v>
       </c>
@@ -5174,7 +5192,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A198" s="22" t="s">
         <v>598</v>
       </c>
@@ -5188,7 +5206,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A199" s="22" t="s">
         <v>599</v>
       </c>
@@ -5202,7 +5220,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A200" s="22" t="s">
         <v>600</v>
       </c>
@@ -5216,7 +5234,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A201" s="22" t="s">
         <v>601</v>
       </c>
@@ -5230,7 +5248,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A202" s="22" t="s">
         <v>602</v>
       </c>
@@ -5244,7 +5262,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A203" s="22" t="s">
         <v>603</v>
       </c>
@@ -5258,7 +5276,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A204" s="22" t="s">
         <v>604</v>
       </c>
@@ -5272,7 +5290,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A205" s="22" t="s">
         <v>605</v>
       </c>
@@ -5286,7 +5304,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A206" s="22" t="s">
         <v>606</v>
       </c>
@@ -5300,7 +5318,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A207" s="22" t="s">
         <v>607</v>
       </c>
@@ -5314,7 +5332,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A208" s="22" t="s">
         <v>608</v>
       </c>
@@ -5328,7 +5346,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A209" s="22" t="s">
         <v>609</v>
       </c>
@@ -5342,7 +5360,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A210" s="22" t="s">
         <v>610</v>
       </c>
@@ -5356,7 +5374,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A211" s="22" t="s">
         <v>611</v>
       </c>
@@ -5370,7 +5388,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>612</v>
       </c>
@@ -5384,7 +5402,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>616</v>
       </c>
@@ -5398,7 +5416,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>619</v>
       </c>
@@ -5412,7 +5430,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>622</v>
       </c>
@@ -5426,7 +5444,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>625</v>
       </c>
@@ -5440,7 +5458,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>628</v>
       </c>
@@ -5454,7 +5472,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>631</v>
       </c>
@@ -5468,7 +5486,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>634</v>
       </c>
@@ -5482,7 +5500,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>636</v>
       </c>
@@ -5496,7 +5514,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>639</v>
       </c>
@@ -5508,6 +5526,34 @@
       </c>
       <c r="D221" s="1" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a314dec4b6146c21/Desktop/school/spring2025/cse3310/cse3310-sp25-004/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15176dbdb68e5a3b/Desktop/CSE3310/cse3310-sp25-004/FinalRequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F63872B2-2440-446F-8C73-0073951D60A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{F63872B2-2440-446F-8C73-0073951D60A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342078CC-4055-47C1-8794-2B9F8C87EF82}"/>
   <bookViews>
-    <workbookView xWindow="5950" yWindow="2990" windowWidth="19200" windowHeight="11170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="1485" windowWidth="24945" windowHeight="14010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,60 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="4">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="4">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="655">
   <si>
     <t>Tested By</t>
   </si>
@@ -1971,6 +2023,27 @@
   </si>
   <si>
     <t>index.html</t>
+  </si>
+  <si>
+    <t>UI_001</t>
+  </si>
+  <si>
+    <t>UI_002</t>
+  </si>
+  <si>
+    <t>UI_004</t>
+  </si>
+  <si>
+    <t>UI_005</t>
+  </si>
+  <si>
+    <t>UI_006</t>
+  </si>
+  <si>
+    <t>UI_007</t>
+  </si>
+  <si>
+    <t>UI_003</t>
   </si>
 </sst>
 </file>
@@ -2244,6 +2317,85 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+</richValueRels>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2422,31 +2574,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" topLeftCell="C210" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R220" sqref="R220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="36.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="123.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" style="2" customWidth="1"/>
-    <col min="7" max="16" width="8.7265625" style="1"/>
-    <col min="17" max="17" width="8.7265625" style="3"/>
-    <col min="18" max="18" width="8.7265625" style="1"/>
-    <col min="19" max="19" width="36.453125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16" width="8.7109375" style="1"/>
+    <col min="17" max="17" width="8.7109375" style="3"/>
+    <col min="18" max="18" width="26.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="36.42578125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2484,7 +2636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2504,7 +2656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2527,7 +2679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2535,27 +2687,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2569,7 +2721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -2583,7 +2735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2597,7 +2749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -2611,7 +2763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -2625,7 +2777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -2639,7 +2791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -2653,7 +2805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2667,7 +2819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
@@ -2681,7 +2833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2695,7 +2847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
@@ -2709,7 +2861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
@@ -2723,7 +2875,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -2737,7 +2889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -2751,7 +2903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2766,7 +2918,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2781,7 +2933,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -2796,7 +2948,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2811,7 +2963,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2828,7 +2980,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -2843,7 +2995,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -2859,7 +3011,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -2876,7 +3028,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -2893,7 +3045,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2907,7 +3059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -2921,7 +3073,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -2935,7 +3087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2949,7 +3101,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2963,7 +3115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -2977,7 +3129,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
@@ -2991,7 +3143,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -3005,7 +3157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -3019,7 +3171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -3033,7 +3185,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
@@ -3047,7 +3199,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -3061,7 +3213,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -3075,7 +3227,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>131</v>
       </c>
@@ -3089,7 +3241,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -3103,7 +3255,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -3117,7 +3269,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -3131,7 +3283,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -3145,7 +3297,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
@@ -3159,7 +3311,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -3173,7 +3325,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
@@ -3187,7 +3339,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>153</v>
       </c>
@@ -3201,7 +3353,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>155</v>
       </c>
@@ -3215,7 +3367,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>157</v>
       </c>
@@ -3229,7 +3381,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -3246,7 +3398,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>164</v>
       </c>
@@ -3260,7 +3412,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -3274,7 +3426,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -3288,7 +3440,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -3302,7 +3454,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -3316,7 +3468,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
@@ -3330,7 +3482,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>188</v>
       </c>
@@ -3344,7 +3496,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -3358,7 +3510,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -3372,7 +3524,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
@@ -3386,7 +3538,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>202</v>
       </c>
@@ -3400,7 +3552,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>205</v>
       </c>
@@ -3414,7 +3566,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>208</v>
       </c>
@@ -3428,7 +3580,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>211</v>
       </c>
@@ -3442,7 +3594,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
@@ -3456,7 +3608,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>217</v>
       </c>
@@ -3470,7 +3622,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3484,7 +3636,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -3498,7 +3650,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
@@ -3512,7 +3664,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>232</v>
       </c>
@@ -3526,7 +3678,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>235</v>
       </c>
@@ -3540,7 +3692,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>238</v>
       </c>
@@ -3554,7 +3706,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3568,7 +3720,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3582,7 +3734,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3596,7 +3748,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3610,7 +3762,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3624,7 +3776,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -3638,7 +3790,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>260</v>
       </c>
@@ -3652,7 +3804,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -3666,7 +3818,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -3680,7 +3832,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -3694,7 +3846,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -3708,7 +3860,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>275</v>
       </c>
@@ -3722,7 +3874,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>279</v>
       </c>
@@ -3736,7 +3888,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>281</v>
       </c>
@@ -3750,7 +3902,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -3764,7 +3916,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -3778,7 +3930,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
@@ -3792,7 +3944,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>293</v>
       </c>
@@ -3806,7 +3958,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>296</v>
       </c>
@@ -3820,7 +3972,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>299</v>
       </c>
@@ -3834,7 +3986,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>302</v>
       </c>
@@ -3848,7 +4000,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>305</v>
       </c>
@@ -3862,7 +4014,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>307</v>
       </c>
@@ -3876,7 +4028,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>309</v>
       </c>
@@ -3890,7 +4042,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>312</v>
       </c>
@@ -3904,7 +4056,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>315</v>
       </c>
@@ -3918,7 +4070,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>318</v>
       </c>
@@ -3932,7 +4084,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
@@ -3946,7 +4098,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>324</v>
       </c>
@@ -3960,7 +4112,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>326</v>
       </c>
@@ -3974,7 +4126,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>329</v>
       </c>
@@ -3988,7 +4140,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>331</v>
       </c>
@@ -4002,7 +4154,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>333</v>
       </c>
@@ -4016,7 +4168,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>335</v>
       </c>
@@ -4030,7 +4182,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>338</v>
       </c>
@@ -4044,7 +4196,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>340</v>
       </c>
@@ -4058,7 +4210,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>342</v>
       </c>
@@ -4072,7 +4224,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>345</v>
       </c>
@@ -4086,7 +4238,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>347</v>
       </c>
@@ -4100,7 +4252,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>349</v>
       </c>
@@ -4114,7 +4266,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>351</v>
       </c>
@@ -4128,7 +4280,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>353</v>
       </c>
@@ -4142,7 +4294,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>356</v>
       </c>
@@ -4156,7 +4308,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>358</v>
       </c>
@@ -4170,7 +4322,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>360</v>
       </c>
@@ -4184,7 +4336,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>362</v>
       </c>
@@ -4198,7 +4350,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>364</v>
       </c>
@@ -4212,7 +4364,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>366</v>
       </c>
@@ -4226,7 +4378,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>370</v>
       </c>
@@ -4240,7 +4392,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>373</v>
       </c>
@@ -4254,7 +4406,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>376</v>
       </c>
@@ -4268,7 +4420,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>378</v>
       </c>
@@ -4282,7 +4434,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>381</v>
       </c>
@@ -4296,7 +4448,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>384</v>
       </c>
@@ -4310,7 +4462,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>387</v>
       </c>
@@ -4324,7 +4476,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>390</v>
       </c>
@@ -4338,7 +4490,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>393</v>
       </c>
@@ -4352,7 +4504,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>396</v>
       </c>
@@ -4366,7 +4518,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>399</v>
       </c>
@@ -4380,7 +4532,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>402</v>
       </c>
@@ -4394,7 +4546,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>406</v>
       </c>
@@ -4408,7 +4560,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="16" t="s">
         <v>409</v>
       </c>
@@ -4422,7 +4574,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="16" t="s">
         <v>411</v>
       </c>
@@ -4436,7 +4588,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="16" t="s">
         <v>412</v>
       </c>
@@ -4450,7 +4602,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="16" t="s">
         <v>413</v>
       </c>
@@ -4464,7 +4616,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="16" t="s">
         <v>414</v>
       </c>
@@ -4478,7 +4630,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="16" t="s">
         <v>415</v>
       </c>
@@ -4492,7 +4644,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
         <v>416</v>
       </c>
@@ -4506,7 +4658,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
         <v>417</v>
       </c>
@@ -4520,7 +4672,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="16" t="s">
         <v>418</v>
       </c>
@@ -4534,7 +4686,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
         <v>419</v>
       </c>
@@ -4548,7 +4700,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="16" t="s">
         <v>442</v>
       </c>
@@ -4562,7 +4714,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
         <v>443</v>
       </c>
@@ -4576,7 +4728,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>483</v>
       </c>
@@ -4590,7 +4742,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>484</v>
       </c>
@@ -4604,7 +4756,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>485</v>
       </c>
@@ -4618,7 +4770,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>486</v>
       </c>
@@ -4632,7 +4784,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>487</v>
       </c>
@@ -4646,7 +4798,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>488</v>
       </c>
@@ -4660,7 +4812,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>489</v>
       </c>
@@ -4674,7 +4826,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>490</v>
       </c>
@@ -4688,7 +4840,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>491</v>
       </c>
@@ -4702,7 +4854,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>492</v>
       </c>
@@ -4716,7 +4868,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>493</v>
       </c>
@@ -4730,7 +4882,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>494</v>
       </c>
@@ -4744,7 +4896,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>495</v>
       </c>
@@ -4758,7 +4910,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>496</v>
       </c>
@@ -4772,7 +4924,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>497</v>
       </c>
@@ -4786,7 +4938,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>498</v>
       </c>
@@ -4800,7 +4952,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>499</v>
       </c>
@@ -4814,7 +4966,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>500</v>
       </c>
@@ -4828,7 +4980,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>501</v>
       </c>
@@ -4842,7 +4994,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>502</v>
       </c>
@@ -4856,7 +5008,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>503</v>
       </c>
@@ -4870,7 +5022,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A175" s="22" t="s">
         <v>575</v>
       </c>
@@ -4884,7 +5036,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A176" s="22" t="s">
         <v>576</v>
       </c>
@@ -4898,7 +5050,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A177" s="22" t="s">
         <v>577</v>
       </c>
@@ -4912,7 +5064,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="74" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A178" s="22" t="s">
         <v>578</v>
       </c>
@@ -4926,7 +5078,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="74" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A179" s="22" t="s">
         <v>579</v>
       </c>
@@ -4940,7 +5092,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A180" s="22" t="s">
         <v>580</v>
       </c>
@@ -4954,7 +5106,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="22" t="s">
         <v>581</v>
       </c>
@@ -4968,7 +5120,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="22" t="s">
         <v>582</v>
       </c>
@@ -4982,7 +5134,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="22" t="s">
         <v>583</v>
       </c>
@@ -4996,7 +5148,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="22" t="s">
         <v>584</v>
       </c>
@@ -5010,7 +5162,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="22" t="s">
         <v>585</v>
       </c>
@@ -5024,7 +5176,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A186" s="22" t="s">
         <v>586</v>
       </c>
@@ -5038,7 +5190,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A187" s="22" t="s">
         <v>587</v>
       </c>
@@ -5052,7 +5204,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A188" s="22" t="s">
         <v>588</v>
       </c>
@@ -5066,7 +5218,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A189" s="22" t="s">
         <v>589</v>
       </c>
@@ -5080,7 +5232,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="22" t="s">
         <v>590</v>
       </c>
@@ -5094,7 +5246,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A191" s="22" t="s">
         <v>591</v>
       </c>
@@ -5108,7 +5260,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="22" t="s">
         <v>592</v>
       </c>
@@ -5122,7 +5274,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A193" s="22" t="s">
         <v>593</v>
       </c>
@@ -5136,7 +5288,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A194" s="22" t="s">
         <v>594</v>
       </c>
@@ -5150,7 +5302,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="22" t="s">
         <v>595</v>
       </c>
@@ -5164,7 +5316,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A196" s="22" t="s">
         <v>596</v>
       </c>
@@ -5178,7 +5330,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="22" t="s">
         <v>597</v>
       </c>
@@ -5192,7 +5344,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="22" t="s">
         <v>598</v>
       </c>
@@ -5206,7 +5358,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="22" t="s">
         <v>599</v>
       </c>
@@ -5220,7 +5372,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A200" s="22" t="s">
         <v>600</v>
       </c>
@@ -5234,7 +5386,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="22" t="s">
         <v>601</v>
       </c>
@@ -5248,7 +5400,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A202" s="22" t="s">
         <v>602</v>
       </c>
@@ -5262,7 +5414,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="22" t="s">
         <v>603</v>
       </c>
@@ -5276,7 +5428,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="22" t="s">
         <v>604</v>
       </c>
@@ -5290,7 +5442,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="22" t="s">
         <v>605</v>
       </c>
@@ -5304,7 +5456,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="22" t="s">
         <v>606</v>
       </c>
@@ -5318,7 +5470,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A207" s="22" t="s">
         <v>607</v>
       </c>
@@ -5332,7 +5484,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="22" t="s">
         <v>608</v>
       </c>
@@ -5346,7 +5498,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A209" s="22" t="s">
         <v>609</v>
       </c>
@@ -5360,7 +5512,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A210" s="22" t="s">
         <v>610</v>
       </c>
@@ -5374,7 +5526,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="22" t="s">
         <v>611</v>
       </c>
@@ -5388,7 +5540,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>612</v>
       </c>
@@ -5401,8 +5553,11 @@
       <c r="D212" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E212" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>616</v>
       </c>
@@ -5416,7 +5571,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>619</v>
       </c>
@@ -5429,8 +5584,11 @@
       <c r="D214" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E214" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>622</v>
       </c>
@@ -5443,8 +5601,11 @@
       <c r="D215" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E215" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>625</v>
       </c>
@@ -5457,8 +5618,11 @@
       <c r="D216" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E216" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>628</v>
       </c>
@@ -5471,8 +5635,11 @@
       <c r="D217" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E217" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>631</v>
       </c>
@@ -5485,8 +5652,11 @@
       <c r="D218" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E218" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>634</v>
       </c>
@@ -5499,8 +5669,11 @@
       <c r="D219" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E219" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>636</v>
       </c>
@@ -5513,8 +5686,11 @@
       <c r="D220" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="R220" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>639</v>
       </c>
@@ -5527,8 +5703,11 @@
       <c r="D221" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="R221" s="1" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>642</v>
       </c>
@@ -5541,8 +5720,11 @@
       <c r="D222" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="R222" s="1" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>645</v>
       </c>
@@ -5554,6 +5736,9 @@
       </c>
       <c r="D223" s="1" t="s">
         <v>647</v>
+      </c>
+      <c r="R223" s="1" t="e" vm="4">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15176dbdb68e5a3b/Desktop/CSE3310/cse3310-sp25-004/FinalRequirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a314dec4b6146c21/Desktop/school/spring2025/cse3310/cse3310-sp25-004/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{F63872B2-2440-446F-8C73-0073951D60A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342078CC-4055-47C1-8794-2B9F8C87EF82}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F63872B2-2440-446F-8C73-0073951D60A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="1485" windowWidth="24945" windowHeight="14010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5950" yWindow="2990" windowWidth="19200" windowHeight="11170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,60 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="4">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="4">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-    <bk>
-      <rc t="1" v="3"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="648">
   <si>
     <t>Tested By</t>
   </si>
@@ -2023,27 +1971,6 @@
   </si>
   <si>
     <t>index.html</t>
-  </si>
-  <si>
-    <t>UI_001</t>
-  </si>
-  <si>
-    <t>UI_002</t>
-  </si>
-  <si>
-    <t>UI_004</t>
-  </si>
-  <si>
-    <t>UI_005</t>
-  </si>
-  <si>
-    <t>UI_006</t>
-  </si>
-  <si>
-    <t>UI_007</t>
-  </si>
-  <si>
-    <t>UI_003</t>
   </si>
 </sst>
 </file>
@@ -2317,85 +2244,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
-</richValueRels>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2574,31 +2422,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C210" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R220" sqref="R220"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="123.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16" width="8.7109375" style="1"/>
-    <col min="17" max="17" width="8.7109375" style="3"/>
-    <col min="18" max="18" width="26.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="36.42578125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="36.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="2" customWidth="1"/>
+    <col min="7" max="16" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="8.7265625" style="3"/>
+    <col min="18" max="18" width="8.7265625" style="1"/>
+    <col min="19" max="19" width="36.453125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2636,7 +2484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2656,7 +2504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2679,7 +2527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2687,27 +2535,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2721,7 +2569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -2735,7 +2583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2749,7 +2597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -2763,7 +2611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -2777,7 +2625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -2791,7 +2639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -2805,7 +2653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2819,7 +2667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
@@ -2833,7 +2681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2847,7 +2695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
@@ -2861,7 +2709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
@@ -2875,7 +2723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -2889,7 +2737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -2903,7 +2751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2918,7 +2766,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2933,7 +2781,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -2948,7 +2796,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2963,7 +2811,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2980,7 +2828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -2995,7 +2843,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -3011,7 +2859,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -3028,7 +2876,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -3045,7 +2893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -3059,7 +2907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -3073,7 +2921,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -3087,7 +2935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -3101,7 +2949,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -3115,7 +2963,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -3129,7 +2977,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
@@ -3143,7 +2991,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -3157,7 +3005,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -3171,7 +3019,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -3185,7 +3033,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
@@ -3199,7 +3047,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -3213,7 +3061,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -3227,7 +3075,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>131</v>
       </c>
@@ -3241,7 +3089,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -3255,7 +3103,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -3269,7 +3117,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -3283,7 +3131,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -3297,7 +3145,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
@@ -3311,7 +3159,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -3325,7 +3173,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
@@ -3339,7 +3187,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>153</v>
       </c>
@@ -3353,7 +3201,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>155</v>
       </c>
@@ -3367,7 +3215,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>157</v>
       </c>
@@ -3381,7 +3229,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -3398,7 +3246,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>164</v>
       </c>
@@ -3412,7 +3260,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -3426,7 +3274,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -3440,7 +3288,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -3454,7 +3302,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -3468,7 +3316,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
@@ -3482,7 +3330,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>188</v>
       </c>
@@ -3496,7 +3344,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -3510,7 +3358,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -3524,7 +3372,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
@@ -3538,7 +3386,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>202</v>
       </c>
@@ -3552,7 +3400,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>205</v>
       </c>
@@ -3566,7 +3414,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>208</v>
       </c>
@@ -3580,7 +3428,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>211</v>
       </c>
@@ -3594,7 +3442,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
@@ -3608,7 +3456,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>217</v>
       </c>
@@ -3622,7 +3470,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3636,7 +3484,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -3650,7 +3498,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
@@ -3664,7 +3512,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>232</v>
       </c>
@@ -3678,7 +3526,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>235</v>
       </c>
@@ -3692,7 +3540,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>238</v>
       </c>
@@ -3706,7 +3554,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3720,7 +3568,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3734,7 +3582,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3748,7 +3596,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3762,7 +3610,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3776,7 +3624,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -3790,7 +3638,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>260</v>
       </c>
@@ -3804,7 +3652,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -3818,7 +3666,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -3832,7 +3680,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -3846,7 +3694,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -3860,7 +3708,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>275</v>
       </c>
@@ -3874,7 +3722,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>279</v>
       </c>
@@ -3888,7 +3736,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>281</v>
       </c>
@@ -3902,7 +3750,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -3916,7 +3764,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -3930,7 +3778,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
@@ -3944,7 +3792,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>293</v>
       </c>
@@ -3958,7 +3806,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>296</v>
       </c>
@@ -3972,7 +3820,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>299</v>
       </c>
@@ -3986,7 +3834,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>302</v>
       </c>
@@ -4000,7 +3848,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>305</v>
       </c>
@@ -4014,7 +3862,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>307</v>
       </c>
@@ -4028,7 +3876,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>309</v>
       </c>
@@ -4042,7 +3890,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>312</v>
       </c>
@@ -4056,7 +3904,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>315</v>
       </c>
@@ -4070,7 +3918,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>318</v>
       </c>
@@ -4084,7 +3932,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
@@ -4098,7 +3946,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>324</v>
       </c>
@@ -4112,7 +3960,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>326</v>
       </c>
@@ -4126,7 +3974,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>329</v>
       </c>
@@ -4140,7 +3988,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>331</v>
       </c>
@@ -4154,7 +4002,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>333</v>
       </c>
@@ -4168,7 +4016,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>335</v>
       </c>
@@ -4182,7 +4030,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>338</v>
       </c>
@@ -4196,7 +4044,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>340</v>
       </c>
@@ -4210,7 +4058,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>342</v>
       </c>
@@ -4224,7 +4072,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>345</v>
       </c>
@@ -4238,7 +4086,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>347</v>
       </c>
@@ -4252,7 +4100,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>349</v>
       </c>
@@ -4266,7 +4114,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>351</v>
       </c>
@@ -4280,7 +4128,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>353</v>
       </c>
@@ -4294,7 +4142,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>356</v>
       </c>
@@ -4308,7 +4156,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>358</v>
       </c>
@@ -4322,7 +4170,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>360</v>
       </c>
@@ -4336,7 +4184,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>362</v>
       </c>
@@ -4350,7 +4198,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>364</v>
       </c>
@@ -4364,7 +4212,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>366</v>
       </c>
@@ -4378,7 +4226,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
         <v>370</v>
       </c>
@@ -4392,7 +4240,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
         <v>373</v>
       </c>
@@ -4406,7 +4254,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
         <v>376</v>
       </c>
@@ -4420,7 +4268,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>378</v>
       </c>
@@ -4434,7 +4282,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>381</v>
       </c>
@@ -4448,7 +4296,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>384</v>
       </c>
@@ -4462,7 +4310,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>387</v>
       </c>
@@ -4476,7 +4324,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>390</v>
       </c>
@@ -4490,7 +4338,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>393</v>
       </c>
@@ -4504,7 +4352,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
         <v>396</v>
       </c>
@@ -4518,7 +4366,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
         <v>399</v>
       </c>
@@ -4532,7 +4380,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
         <v>402</v>
       </c>
@@ -4546,7 +4394,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>406</v>
       </c>
@@ -4560,7 +4408,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A142" s="16" t="s">
         <v>409</v>
       </c>
@@ -4574,7 +4422,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A143" s="16" t="s">
         <v>411</v>
       </c>
@@ -4588,7 +4436,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A144" s="16" t="s">
         <v>412</v>
       </c>
@@ -4602,7 +4450,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="16" t="s">
         <v>413</v>
       </c>
@@ -4616,7 +4464,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A146" s="16" t="s">
         <v>414</v>
       </c>
@@ -4630,7 +4478,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A147" s="16" t="s">
         <v>415</v>
       </c>
@@ -4644,7 +4492,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A148" s="16" t="s">
         <v>416</v>
       </c>
@@ -4658,7 +4506,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A149" s="16" t="s">
         <v>417</v>
       </c>
@@ -4672,7 +4520,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A150" s="16" t="s">
         <v>418</v>
       </c>
@@ -4686,7 +4534,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A151" s="16" t="s">
         <v>419</v>
       </c>
@@ -4700,7 +4548,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A152" s="16" t="s">
         <v>442</v>
       </c>
@@ -4714,7 +4562,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A153" s="16" t="s">
         <v>443</v>
       </c>
@@ -4728,7 +4576,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>483</v>
       </c>
@@ -4742,7 +4590,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>484</v>
       </c>
@@ -4756,7 +4604,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>485</v>
       </c>
@@ -4770,7 +4618,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>486</v>
       </c>
@@ -4784,7 +4632,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>487</v>
       </c>
@@ -4798,7 +4646,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>488</v>
       </c>
@@ -4812,7 +4660,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>489</v>
       </c>
@@ -4826,7 +4674,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>490</v>
       </c>
@@ -4840,7 +4688,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>491</v>
       </c>
@@ -4854,7 +4702,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>492</v>
       </c>
@@ -4868,7 +4716,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>493</v>
       </c>
@@ -4882,7 +4730,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>494</v>
       </c>
@@ -4896,7 +4744,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>495</v>
       </c>
@@ -4910,7 +4758,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>496</v>
       </c>
@@ -4924,7 +4772,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>497</v>
       </c>
@@ -4938,7 +4786,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>498</v>
       </c>
@@ -4952,7 +4800,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>499</v>
       </c>
@@ -4966,7 +4814,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>500</v>
       </c>
@@ -4980,7 +4828,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>501</v>
       </c>
@@ -4994,7 +4842,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>502</v>
       </c>
@@ -5008,7 +4856,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>503</v>
       </c>
@@ -5022,7 +4870,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A175" s="22" t="s">
         <v>575</v>
       </c>
@@ -5036,7 +4884,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A176" s="22" t="s">
         <v>576</v>
       </c>
@@ -5050,7 +4898,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A177" s="22" t="s">
         <v>577</v>
       </c>
@@ -5064,7 +4912,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="74" x14ac:dyDescent="0.45">
       <c r="A178" s="22" t="s">
         <v>578</v>
       </c>
@@ -5078,7 +4926,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="74" x14ac:dyDescent="0.45">
       <c r="A179" s="22" t="s">
         <v>579</v>
       </c>
@@ -5092,7 +4940,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A180" s="22" t="s">
         <v>580</v>
       </c>
@@ -5106,7 +4954,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A181" s="22" t="s">
         <v>581</v>
       </c>
@@ -5120,7 +4968,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A182" s="22" t="s">
         <v>582</v>
       </c>
@@ -5134,7 +4982,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="22" t="s">
         <v>583</v>
       </c>
@@ -5148,7 +4996,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="22" t="s">
         <v>584</v>
       </c>
@@ -5162,7 +5010,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A185" s="22" t="s">
         <v>585</v>
       </c>
@@ -5176,7 +5024,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A186" s="22" t="s">
         <v>586</v>
       </c>
@@ -5190,7 +5038,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A187" s="22" t="s">
         <v>587</v>
       </c>
@@ -5204,7 +5052,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A188" s="22" t="s">
         <v>588</v>
       </c>
@@ -5218,7 +5066,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A189" s="22" t="s">
         <v>589</v>
       </c>
@@ -5232,7 +5080,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A190" s="22" t="s">
         <v>590</v>
       </c>
@@ -5246,7 +5094,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A191" s="22" t="s">
         <v>591</v>
       </c>
@@ -5260,7 +5108,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A192" s="22" t="s">
         <v>592</v>
       </c>
@@ -5274,7 +5122,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A193" s="22" t="s">
         <v>593</v>
       </c>
@@ -5288,7 +5136,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A194" s="22" t="s">
         <v>594</v>
       </c>
@@ -5302,7 +5150,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A195" s="22" t="s">
         <v>595</v>
       </c>
@@ -5316,7 +5164,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A196" s="22" t="s">
         <v>596</v>
       </c>
@@ -5330,7 +5178,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A197" s="22" t="s">
         <v>597</v>
       </c>
@@ -5344,7 +5192,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A198" s="22" t="s">
         <v>598</v>
       </c>
@@ -5358,7 +5206,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A199" s="22" t="s">
         <v>599</v>
       </c>
@@ -5372,7 +5220,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A200" s="22" t="s">
         <v>600</v>
       </c>
@@ -5386,7 +5234,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A201" s="22" t="s">
         <v>601</v>
       </c>
@@ -5400,7 +5248,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A202" s="22" t="s">
         <v>602</v>
       </c>
@@ -5414,7 +5262,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A203" s="22" t="s">
         <v>603</v>
       </c>
@@ -5428,7 +5276,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A204" s="22" t="s">
         <v>604</v>
       </c>
@@ -5442,7 +5290,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A205" s="22" t="s">
         <v>605</v>
       </c>
@@ -5456,7 +5304,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A206" s="22" t="s">
         <v>606</v>
       </c>
@@ -5470,7 +5318,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A207" s="22" t="s">
         <v>607</v>
       </c>
@@ -5484,7 +5332,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A208" s="22" t="s">
         <v>608</v>
       </c>
@@ -5498,7 +5346,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A209" s="22" t="s">
         <v>609</v>
       </c>
@@ -5512,7 +5360,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A210" s="22" t="s">
         <v>610</v>
       </c>
@@ -5526,7 +5374,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A211" s="22" t="s">
         <v>611</v>
       </c>
@@ -5540,7 +5388,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>612</v>
       </c>
@@ -5553,11 +5401,8 @@
       <c r="D212" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>616</v>
       </c>
@@ -5571,7 +5416,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>619</v>
       </c>
@@ -5584,11 +5429,8 @@
       <c r="D214" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>622</v>
       </c>
@@ -5601,11 +5443,8 @@
       <c r="D215" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>625</v>
       </c>
@@ -5618,11 +5457,8 @@
       <c r="D216" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>628</v>
       </c>
@@ -5635,11 +5471,8 @@
       <c r="D217" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>631</v>
       </c>
@@ -5652,11 +5485,8 @@
       <c r="D218" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>634</v>
       </c>
@@ -5669,11 +5499,8 @@
       <c r="D219" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>636</v>
       </c>
@@ -5686,11 +5513,8 @@
       <c r="D220" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="R220" s="1" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>639</v>
       </c>
@@ -5703,11 +5527,8 @@
       <c r="D221" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="R221" s="1" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>642</v>
       </c>
@@ -5720,11 +5541,8 @@
       <c r="D222" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="R222" s="1" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>645</v>
       </c>
@@ -5736,9 +5554,6 @@
       </c>
       <c r="D223" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="R223" s="1" t="e" vm="4">
-        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a314dec4b6146c21/Desktop/school/spring2025/cse3310/cse3310-sp25-004/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F63872B2-2440-446F-8C73-0073951D60A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11D9435-17E6-B54E-907E-47E0CB1E1C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5950" yWindow="2990" windowWidth="19200" windowHeight="11170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5960" yWindow="3000" windowWidth="21460" windowHeight="13280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,60 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="4">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="4">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="655">
   <si>
     <t>Tested By</t>
   </si>
@@ -1971,6 +2023,27 @@
   </si>
   <si>
     <t>index.html</t>
+  </si>
+  <si>
+    <t>UI_001</t>
+  </si>
+  <si>
+    <t>UI_002</t>
+  </si>
+  <si>
+    <t>UI_003</t>
+  </si>
+  <si>
+    <t>UI_004</t>
+  </si>
+  <si>
+    <t>UI_005</t>
+  </si>
+  <si>
+    <t>UI_006</t>
+  </si>
+  <si>
+    <t>UI_007</t>
   </si>
 </sst>
 </file>
@@ -2244,6 +2317,85 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+</richValueRels>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2422,31 +2574,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="36.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="123.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" style="2" customWidth="1"/>
-    <col min="7" max="16" width="8.7265625" style="1"/>
-    <col min="17" max="17" width="8.7265625" style="3"/>
-    <col min="18" max="18" width="8.7265625" style="1"/>
-    <col min="19" max="19" width="36.453125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="2" customWidth="1"/>
+    <col min="7" max="16" width="8.6640625" style="1"/>
+    <col min="17" max="17" width="8.6640625" style="3"/>
+    <col min="18" max="18" width="8.6640625" style="1"/>
+    <col min="19" max="19" width="36.5" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2484,7 +2636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2504,7 +2656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2527,7 +2679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2535,27 +2687,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2569,7 +2721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -2583,7 +2735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2597,7 +2749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -2611,7 +2763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -2625,7 +2777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -2639,7 +2791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -2653,7 +2805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -2667,7 +2819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
@@ -2681,7 +2833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2695,7 +2847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
@@ -2709,7 +2861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
@@ -2723,7 +2875,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -2737,7 +2889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -2751,7 +2903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2766,7 +2918,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2781,7 +2933,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -2796,7 +2948,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2811,7 +2963,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2828,7 +2980,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -2843,7 +2995,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -2859,7 +3011,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -2876,7 +3028,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -2893,7 +3045,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2907,7 +3059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -2921,7 +3073,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -2935,7 +3087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2949,7 +3101,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2963,7 +3115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -2977,7 +3129,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
@@ -2991,7 +3143,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -3005,7 +3157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -3019,7 +3171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -3033,7 +3185,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
@@ -3047,7 +3199,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -3061,7 +3213,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -3075,7 +3227,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>131</v>
       </c>
@@ -3089,7 +3241,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -3103,7 +3255,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -3117,7 +3269,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -3131,7 +3283,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -3145,7 +3297,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
@@ -3159,7 +3311,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -3173,7 +3325,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
@@ -3187,7 +3339,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>153</v>
       </c>
@@ -3201,7 +3353,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>155</v>
       </c>
@@ -3215,7 +3367,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>157</v>
       </c>
@@ -3229,7 +3381,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -3246,7 +3398,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>164</v>
       </c>
@@ -3260,7 +3412,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -3274,7 +3426,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -3288,7 +3440,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -3302,7 +3454,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -3316,7 +3468,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
@@ -3330,7 +3482,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>188</v>
       </c>
@@ -3344,7 +3496,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -3358,7 +3510,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -3372,7 +3524,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
@@ -3386,7 +3538,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>202</v>
       </c>
@@ -3400,7 +3552,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>205</v>
       </c>
@@ -3414,7 +3566,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>208</v>
       </c>
@@ -3428,7 +3580,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>211</v>
       </c>
@@ -3442,7 +3594,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
@@ -3456,7 +3608,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>217</v>
       </c>
@@ -3470,7 +3622,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3484,7 +3636,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -3498,7 +3650,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
@@ -3512,7 +3664,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>232</v>
       </c>
@@ -3526,7 +3678,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>235</v>
       </c>
@@ -3540,7 +3692,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>238</v>
       </c>
@@ -3554,7 +3706,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3568,7 +3720,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3582,7 +3734,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3596,7 +3748,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3610,7 +3762,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3624,7 +3776,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -3638,7 +3790,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>260</v>
       </c>
@@ -3652,7 +3804,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -3666,7 +3818,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -3680,7 +3832,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -3694,7 +3846,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -3708,7 +3860,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>275</v>
       </c>
@@ -3722,7 +3874,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>279</v>
       </c>
@@ -3736,7 +3888,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>281</v>
       </c>
@@ -3750,7 +3902,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -3764,7 +3916,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -3778,7 +3930,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
@@ -3792,7 +3944,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>293</v>
       </c>
@@ -3806,7 +3958,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>296</v>
       </c>
@@ -3820,7 +3972,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>299</v>
       </c>
@@ -3834,7 +3986,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>302</v>
       </c>
@@ -3848,7 +4000,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>305</v>
       </c>
@@ -3862,7 +4014,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>307</v>
       </c>
@@ -3876,7 +4028,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>309</v>
       </c>
@@ -3890,7 +4042,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>312</v>
       </c>
@@ -3904,7 +4056,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>315</v>
       </c>
@@ -3918,7 +4070,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>318</v>
       </c>
@@ -3932,7 +4084,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
@@ -3946,7 +4098,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>324</v>
       </c>
@@ -3960,7 +4112,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>326</v>
       </c>
@@ -3974,7 +4126,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>329</v>
       </c>
@@ -3988,7 +4140,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>331</v>
       </c>
@@ -4002,7 +4154,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>333</v>
       </c>
@@ -4016,7 +4168,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>335</v>
       </c>
@@ -4030,7 +4182,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>338</v>
       </c>
@@ -4044,7 +4196,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>340</v>
       </c>
@@ -4058,7 +4210,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>342</v>
       </c>
@@ -4072,7 +4224,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>345</v>
       </c>
@@ -4086,7 +4238,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>347</v>
       </c>
@@ -4100,7 +4252,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>349</v>
       </c>
@@ -4114,7 +4266,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>351</v>
       </c>
@@ -4128,7 +4280,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>353</v>
       </c>
@@ -4142,7 +4294,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>356</v>
       </c>
@@ -4156,7 +4308,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>358</v>
       </c>
@@ -4170,7 +4322,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>360</v>
       </c>
@@ -4184,7 +4336,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>362</v>
       </c>
@@ -4198,7 +4350,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>364</v>
       </c>
@@ -4212,7 +4364,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>366</v>
       </c>
@@ -4226,7 +4378,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>370</v>
       </c>
@@ -4240,7 +4392,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>373</v>
       </c>
@@ -4254,7 +4406,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>376</v>
       </c>
@@ -4268,7 +4420,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>378</v>
       </c>
@@ -4282,7 +4434,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>381</v>
       </c>
@@ -4296,7 +4448,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>384</v>
       </c>
@@ -4310,7 +4462,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>387</v>
       </c>
@@ -4324,7 +4476,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>390</v>
       </c>
@@ -4338,7 +4490,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>393</v>
       </c>
@@ -4352,7 +4504,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>396</v>
       </c>
@@ -4366,7 +4518,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>399</v>
       </c>
@@ -4380,7 +4532,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>402</v>
       </c>
@@ -4394,7 +4546,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>406</v>
       </c>
@@ -4408,7 +4560,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="16" t="s">
         <v>409</v>
       </c>
@@ -4422,7 +4574,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="16" t="s">
         <v>411</v>
       </c>
@@ -4436,7 +4588,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="16" t="s">
         <v>412</v>
       </c>
@@ -4450,7 +4602,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="16" t="s">
         <v>413</v>
       </c>
@@ -4464,7 +4616,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="16" t="s">
         <v>414</v>
       </c>
@@ -4478,7 +4630,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
         <v>415</v>
       </c>
@@ -4492,7 +4644,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="16" t="s">
         <v>416</v>
       </c>
@@ -4506,7 +4658,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="16" t="s">
         <v>417</v>
       </c>
@@ -4520,7 +4672,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="16" t="s">
         <v>418</v>
       </c>
@@ -4534,7 +4686,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="16" t="s">
         <v>419</v>
       </c>
@@ -4548,7 +4700,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
         <v>442</v>
       </c>
@@ -4562,7 +4714,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
         <v>443</v>
       </c>
@@ -4576,7 +4728,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>483</v>
       </c>
@@ -4590,7 +4742,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>484</v>
       </c>
@@ -4604,7 +4756,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>485</v>
       </c>
@@ -4618,7 +4770,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>486</v>
       </c>
@@ -4632,7 +4784,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>487</v>
       </c>
@@ -4646,7 +4798,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>488</v>
       </c>
@@ -4660,7 +4812,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>489</v>
       </c>
@@ -4674,7 +4826,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>490</v>
       </c>
@@ -4688,7 +4840,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>491</v>
       </c>
@@ -4702,7 +4854,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>492</v>
       </c>
@@ -4716,7 +4868,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>493</v>
       </c>
@@ -4730,7 +4882,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>494</v>
       </c>
@@ -4744,7 +4896,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>495</v>
       </c>
@@ -4758,7 +4910,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>496</v>
       </c>
@@ -4772,7 +4924,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>497</v>
       </c>
@@ -4786,7 +4938,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>498</v>
       </c>
@@ -4800,7 +4952,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>499</v>
       </c>
@@ -4814,7 +4966,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>500</v>
       </c>
@@ -4828,7 +4980,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>501</v>
       </c>
@@ -4842,7 +4994,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>502</v>
       </c>
@@ -4856,7 +5008,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>503</v>
       </c>
@@ -4870,7 +5022,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A175" s="22" t="s">
         <v>575</v>
       </c>
@@ -4884,7 +5036,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A176" s="22" t="s">
         <v>576</v>
       </c>
@@ -4898,7 +5050,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A177" s="22" t="s">
         <v>577</v>
       </c>
@@ -4912,7 +5064,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="74" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" ht="80" x14ac:dyDescent="0.25">
       <c r="A178" s="22" t="s">
         <v>578</v>
       </c>
@@ -4926,7 +5078,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="74" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" ht="80" x14ac:dyDescent="0.25">
       <c r="A179" s="22" t="s">
         <v>579</v>
       </c>
@@ -4940,7 +5092,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="22" t="s">
         <v>580</v>
       </c>
@@ -4954,7 +5106,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A181" s="22" t="s">
         <v>581</v>
       </c>
@@ -4968,7 +5120,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A182" s="22" t="s">
         <v>582</v>
       </c>
@@ -4982,7 +5134,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A183" s="22" t="s">
         <v>583</v>
       </c>
@@ -4996,7 +5148,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A184" s="22" t="s">
         <v>584</v>
       </c>
@@ -5010,7 +5162,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A185" s="22" t="s">
         <v>585</v>
       </c>
@@ -5024,7 +5176,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A186" s="22" t="s">
         <v>586</v>
       </c>
@@ -5038,7 +5190,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="s">
         <v>587</v>
       </c>
@@ -5052,7 +5204,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A188" s="22" t="s">
         <v>588</v>
       </c>
@@ -5066,7 +5218,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A189" s="22" t="s">
         <v>589</v>
       </c>
@@ -5080,7 +5232,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A190" s="22" t="s">
         <v>590</v>
       </c>
@@ -5094,7 +5246,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A191" s="22" t="s">
         <v>591</v>
       </c>
@@ -5108,7 +5260,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A192" s="22" t="s">
         <v>592</v>
       </c>
@@ -5122,7 +5274,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A193" s="22" t="s">
         <v>593</v>
       </c>
@@ -5136,7 +5288,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A194" s="22" t="s">
         <v>594</v>
       </c>
@@ -5150,7 +5302,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A195" s="22" t="s">
         <v>595</v>
       </c>
@@ -5164,7 +5316,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A196" s="22" t="s">
         <v>596</v>
       </c>
@@ -5178,7 +5330,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A197" s="22" t="s">
         <v>597</v>
       </c>
@@ -5192,7 +5344,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A198" s="22" t="s">
         <v>598</v>
       </c>
@@ -5206,7 +5358,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A199" s="22" t="s">
         <v>599</v>
       </c>
@@ -5220,7 +5372,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A200" s="22" t="s">
         <v>600</v>
       </c>
@@ -5234,7 +5386,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A201" s="22" t="s">
         <v>601</v>
       </c>
@@ -5248,7 +5400,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A202" s="22" t="s">
         <v>602</v>
       </c>
@@ -5262,7 +5414,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A203" s="22" t="s">
         <v>603</v>
       </c>
@@ -5276,7 +5428,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A204" s="22" t="s">
         <v>604</v>
       </c>
@@ -5290,7 +5442,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A205" s="22" t="s">
         <v>605</v>
       </c>
@@ -5304,7 +5456,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A206" s="22" t="s">
         <v>606</v>
       </c>
@@ -5318,7 +5470,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A207" s="22" t="s">
         <v>607</v>
       </c>
@@ -5332,7 +5484,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A208" s="22" t="s">
         <v>608</v>
       </c>
@@ -5346,7 +5498,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="22" t="s">
         <v>609</v>
       </c>
@@ -5360,7 +5512,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A210" s="22" t="s">
         <v>610</v>
       </c>
@@ -5374,7 +5526,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A211" s="22" t="s">
         <v>611</v>
       </c>
@@ -5388,7 +5540,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>612</v>
       </c>
@@ -5401,8 +5553,11 @@
       <c r="D212" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E212" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>616</v>
       </c>
@@ -5416,7 +5571,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>619</v>
       </c>
@@ -5429,8 +5584,11 @@
       <c r="D214" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E214" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>622</v>
       </c>
@@ -5443,8 +5601,11 @@
       <c r="D215" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E215" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>625</v>
       </c>
@@ -5457,8 +5618,11 @@
       <c r="D216" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E216" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>628</v>
       </c>
@@ -5471,8 +5635,11 @@
       <c r="D217" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E217" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>631</v>
       </c>
@@ -5485,8 +5652,11 @@
       <c r="D218" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E218" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>634</v>
       </c>
@@ -5499,8 +5669,11 @@
       <c r="D219" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E219" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>636</v>
       </c>
@@ -5513,8 +5686,11 @@
       <c r="D220" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E220" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>639</v>
       </c>
@@ -5527,8 +5703,11 @@
       <c r="D221" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E221" s="1" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>642</v>
       </c>
@@ -5541,8 +5720,11 @@
       <c r="D222" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E222" s="1" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>645</v>
       </c>
@@ -5554,6 +5736,9 @@
       </c>
       <c r="D223" s="1" t="s">
         <v>647</v>
+      </c>
+      <c r="E223" s="1" t="e" vm="4">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniesoonyadeth/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11D9435-17E6-B54E-907E-47E0CB1E1C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F6E462-323A-9446-A8E5-DE361B996707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="3000" windowWidth="21460" windowHeight="13280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="658">
   <si>
     <t>Tested By</t>
   </si>
@@ -1257,36 +1257,24 @@
     <t>Bot 2 shall be able to detect if a move in the future will be within danger</t>
   </si>
   <si>
-    <t>private static boolean wouldBeInDangerAfterMove(Checker piece, Cord dest, Board board) {</t>
-  </si>
-  <si>
     <t>BII-19</t>
   </si>
   <si>
     <t>Bot 2 shall be able to create a list of all possible safe moves</t>
   </si>
   <si>
-    <t>public static ArrayList&lt;Cord&gt; getSafeMoves(Checker checker, Board board) {</t>
-  </si>
-  <si>
     <t>BII-20</t>
   </si>
   <si>
     <t>Bot 2 shall detect if a piece is in danger after opponent moves</t>
   </si>
   <si>
-    <t>public static boolean isInDanger(Checker checker, Board board) {</t>
-  </si>
-  <si>
     <t>BII-21</t>
   </si>
   <si>
     <t>Bot 2 shall be able to move in order to defend its pieces</t>
   </si>
   <si>
-    <t>public static Move defendPieces(Board board) {</t>
-  </si>
-  <si>
     <t>BII-22</t>
   </si>
   <si>
@@ -2044,13 +2032,34 @@
   </si>
   <si>
     <t>UI_007</t>
+  </si>
+  <si>
+    <t>private static boolean wouldBeInDangerAfterMove(Checker piece, Cord dest, Board board)</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;Cord&gt; getSafeMoves(Checker checker, Board board)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public static boolean isInDanger(Checker checker, Board board) </t>
+  </si>
+  <si>
+    <t>public static Move defendPieces(Board board)</t>
+  </si>
+  <si>
+    <t>BII-4</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to capture opponent's pieces when diagonally passing over an opponent piece.</t>
+  </si>
+  <si>
+    <t>public void capturePiece()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2128,6 +2137,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2180,7 +2195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2231,6 +2246,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Neutral" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2318,7 +2334,7 @@
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <global>
     <keyFlags>
       <key name="_Self">
@@ -2574,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E219" sqref="E219"/>
+    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2875,7 +2891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -3381,7 +3397,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -4487,1204 +4503,1218 @@
         <v>391</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>392</v>
+        <v>651</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>367</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>395</v>
+        <v>652</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>367</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>398</v>
+        <v>653</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>367</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>401</v>
+        <v>654</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B140" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C140" s="9" t="s">
-        <v>407</v>
-      </c>
       <c r="D140" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="B141" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="16" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="16" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="16" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="16" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="16" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C155" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="B153" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="C153" s="16" t="s">
+      <c r="D155" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="D153" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    </row>
+    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="B158" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="B159" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="D156" s="17" t="s">
+      <c r="B160" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D162" s="17" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="B163" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="B164" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="B165" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="B166" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="B167" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="B168" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="B169" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="B170" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="B171" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="D168" s="17" t="s">
+      <c r="B172" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D172" s="17" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+    <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="B173" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="B174" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="A175" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C175" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="D175" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+    </row>
+    <row r="176" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="A176" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C176" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="D176" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A175" s="22" t="s">
+    </row>
+    <row r="177" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="A177" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="76" x14ac:dyDescent="0.25">
+      <c r="A178" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="D178" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="76" x14ac:dyDescent="0.25">
+      <c r="A179" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="B175" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C175" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="D175" s="18" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A176" s="22" t="s">
+      <c r="B179" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="D179" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A180" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="B176" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="D176" s="18" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A177" s="22" t="s">
+      <c r="B180" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A181" s="22" t="s">
         <v>577</v>
       </c>
-      <c r="B177" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="D177" s="18" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A178" s="22" t="s">
+      <c r="B181" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A182" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="B178" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C178" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="D178" s="19" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A179" s="22" t="s">
+      <c r="B182" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A183" s="22" t="s">
         <v>579</v>
       </c>
-      <c r="B179" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="D179" s="19" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A180" s="22" t="s">
+      <c r="B183" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A184" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="B180" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D180" s="18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A181" s="22" t="s">
+      <c r="B184" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A185" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="B181" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="D181" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A182" s="22" t="s">
+      <c r="B185" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A186" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="B182" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D182" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A183" s="22" t="s">
+      <c r="B186" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="A187" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="B183" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="D183" s="18" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A184" s="22" t="s">
+      <c r="B187" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="A188" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="B184" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="D184" s="18" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A185" s="22" t="s">
+      <c r="B188" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="A189" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="B185" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="D185" s="18" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A186" s="22" t="s">
+      <c r="B189" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A190" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="B186" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="D186" s="18" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A187" s="22" t="s">
+      <c r="B190" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A191" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="B187" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C187" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D187" s="18" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A188" s="22" t="s">
+      <c r="B191" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A192" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="B188" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C188" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="D188" s="18" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A189" s="22" t="s">
+      <c r="B192" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="A193" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="B189" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C189" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="D189" s="18" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A190" s="22" t="s">
+      <c r="B193" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="A194" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="B190" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="D190" s="18" t="s">
+      <c r="B194" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A195" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="B195" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A196" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A197" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="B197" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A198" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A199" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D199" s="18" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A191" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="B191" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="D191" s="18" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A192" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="B192" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="D192" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A193" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="B193" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A194" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="B194" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A195" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="B195" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="D195" s="18" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A196" s="22" t="s">
+    <row r="200" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="A200" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="B196" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="D196" s="18" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A197" s="22" t="s">
+      <c r="B200" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A201" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="B197" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D197" s="18" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A198" s="22" t="s">
+      <c r="B201" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A202" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="B198" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="D198" s="18" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A199" s="22" t="s">
+      <c r="B202" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C202" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A203" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="B199" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="D199" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A200" s="22" t="s">
+      <c r="B203" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A204" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="B200" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="D200" s="18" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A201" s="22" t="s">
+      <c r="B204" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A205" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="B201" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="D201" s="18" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A202" s="22" t="s">
+      <c r="B205" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C205" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A206" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="B202" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C202" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="D202" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A203" s="22" t="s">
+      <c r="B206" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C206" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="A207" s="22" t="s">
         <v>603</v>
       </c>
-      <c r="B203" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C203" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="D203" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A204" s="22" t="s">
+      <c r="B207" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A208" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="B204" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C204" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="D204" s="18" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A205" s="22" t="s">
+      <c r="B208" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A209" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="B205" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C205" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D205" s="18" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A206" s="22" t="s">
+      <c r="B209" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A210" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="B206" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C206" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="D206" s="18" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A207" s="22" t="s">
+      <c r="B210" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A211" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="B207" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="D207" s="18" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A208" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="B208" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C208" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D208" s="18" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A209" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="B209" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C209" s="18" t="s">
+      <c r="B211" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C211" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="D209" s="18" t="s">
+      <c r="D211" s="18" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A210" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="B210" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C210" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="D210" s="18" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A211" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="B211" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C211" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="D211" s="18" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="D213" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E220" s="1" t="e" vm="1">
         <v>#VALUE!</v>
@@ -5692,16 +5722,16 @@
     </row>
     <row r="221" spans="1:5" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E221" s="1" t="e" vm="2">
         <v>#VALUE!</v>
@@ -5709,16 +5739,16 @@
     </row>
     <row r="222" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E222" s="1" t="e" vm="3">
         <v>#VALUE!</v>
@@ -5726,16 +5756,16 @@
     </row>
     <row r="223" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E223" s="1" t="e" vm="4">
         <v>#VALUE!</v>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniesoonyadeth/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F6E462-323A-9446-A8E5-DE361B996707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743EC20-6199-420C-9F90-65CDC3FF2254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>cut and paste the screenshot of each page in this part of the spreadsheet, please. use as much space is needed.</t>
   </si>
   <si>
-    <t>2_GP</t>
-  </si>
-  <si>
     <t>21-Gameplay</t>
   </si>
   <si>
@@ -165,102 +162,63 @@
     <t>Class Board, initCheckers()</t>
   </si>
   <si>
-    <t>4_GP</t>
-  </si>
-  <si>
     <t>The system shall be able to receive and send information to the Game Manager and Game termination, Game manager will create an instance of Gameplay and Gameplay will use the Game Termination class</t>
   </si>
   <si>
     <t>move(), getBoard()</t>
   </si>
   <si>
-    <t>5_GP</t>
-  </si>
-  <si>
     <t>The system shall create a starting game board on instance</t>
   </si>
   <si>
-    <t>6_GP</t>
-  </si>
-  <si>
     <t>The system shall receive Player ID, requested checker piece and requested designation place from the Game Manager</t>
   </si>
   <si>
-    <t>7_GP</t>
-  </si>
-  <si>
     <t>The system shall ensure all checkers move diagonally and only diagonally</t>
   </si>
   <si>
     <t>moveForwardCheck(), moveBackwardCheck()</t>
   </si>
   <si>
-    <t>8_GP</t>
-  </si>
-  <si>
     <t>The system shall ensure that all 'men' (non kinged checkers) only move in the foward direction (away from the player controling them)</t>
   </si>
   <si>
     <t>move()</t>
   </si>
   <si>
-    <t>9_GP</t>
-  </si>
-  <si>
     <t>The system shall enusre the checkers are only allowed to move on the dark sqaures of the board</t>
   </si>
   <si>
-    <t>10_GP</t>
-  </si>
-  <si>
     <t>The system shall allow checkers controled by one player to 'jump' checkers controled by the other player by "moving a piece that is diagonally adjacent an opponent's piece, to an empty square immediately beyond it in the same direction"</t>
   </si>
   <si>
     <t>getPossibleForwardJump(), getPossibleBackwardJump()</t>
   </si>
   <si>
-    <t>11_GP</t>
-  </si>
-  <si>
     <t>The system shall mandate a 'jump' (or series of jumps) to be performed when they are available</t>
   </si>
   <si>
     <t>concurrentJumps()</t>
   </si>
   <si>
-    <t>12_GP</t>
-  </si>
-  <si>
     <t>The system shall promote a player's  'men' checker into a 'king' checker with a king's privileges if the checker reaches the closest rank (row) to the opposing player</t>
   </si>
   <si>
     <t>kingMe()</t>
   </si>
   <si>
-    <t>13_GP</t>
-  </si>
-  <si>
     <t>The system shall allow all king checkers to move in both foward and backwards directions (twoards AND away from the player controling them)</t>
   </si>
   <si>
-    <t>14_GP</t>
-  </si>
-  <si>
     <t>The system shall send new game states to the Game Manager once a valid move is proccesed</t>
   </si>
   <si>
     <t>getBoard()</t>
   </si>
   <si>
-    <t>18_GP</t>
-  </si>
-  <si>
     <t xml:space="preserve">The system shall allow the player required to make a jump with a checker to chose which series of jumps to be performed when multiple are availible   </t>
   </si>
   <si>
-    <t>19_GP</t>
-  </si>
-  <si>
     <t>The system shall be assigned an ID by Game Manager on instance</t>
   </si>
   <si>
@@ -2053,6 +2011,48 @@
   </si>
   <si>
     <t>public void capturePiece()</t>
+  </si>
+  <si>
+    <t>GP_2</t>
+  </si>
+  <si>
+    <t>GP_4</t>
+  </si>
+  <si>
+    <t>GP_5</t>
+  </si>
+  <si>
+    <t>GP_6</t>
+  </si>
+  <si>
+    <t>GP_7</t>
+  </si>
+  <si>
+    <t>GP_8</t>
+  </si>
+  <si>
+    <t>GP_9</t>
+  </si>
+  <si>
+    <t>GP_10</t>
+  </si>
+  <si>
+    <t>GP_11</t>
+  </si>
+  <si>
+    <t>GP_12</t>
+  </si>
+  <si>
+    <t>GP_13</t>
+  </si>
+  <si>
+    <t>GP_14</t>
+  </si>
+  <si>
+    <t>GP_18</t>
+  </si>
+  <si>
+    <t>GP_19</t>
   </si>
 </sst>
 </file>
@@ -2085,6 +2085,7 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2115,6 +2116,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2141,6 +2143,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2208,9 +2211,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2247,6 +2247,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Neutral" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2334,7 +2337,7 @@
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
     <keyFlags>
       <key name="_Self">
@@ -2590,31 +2593,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="123.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
     <col min="7" max="16" width="8.6640625" style="1"/>
     <col min="17" max="17" width="8.6640625" style="3"/>
     <col min="18" max="18" width="8.6640625" style="1"/>
-    <col min="19" max="19" width="36.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="36.44140625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2703,3069 +2706,3069 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="6" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="8" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="D20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="8" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="D22" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D24" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="D27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="F28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="9" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="F31" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="F32" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="D33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="4" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="9" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="4" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="B36" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="4" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="B37" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="4" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="D38" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="4" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="4" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="4" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="4" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="D47" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="4" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="4" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="4" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="B50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="4" t="s">
+    </row>
+    <row r="54" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="D54" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="B55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="D55" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="B56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D56" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="C57" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="E57" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="4" t="s">
+    </row>
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="C58" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="D58" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="4" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="C59" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="D59" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="4" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C60" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D60" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D57" s="4" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="B61" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="C61" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="D61" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="9" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="B62" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="C62" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D62" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="9" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="B63" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="C63" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="D63" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="9" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="B64" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="C64" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D64" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="9" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="B65" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="C65" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D65" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C62" s="14" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="B66" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="C66" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="D66" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="B67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="C67" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="D67" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C68" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D68" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C69" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D69" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="C70" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="D70" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="B71" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="C71" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="D71" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="B72" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="C72" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D72" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="B73" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="D73" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="9" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="D74" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C75" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="D75" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="B76" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="D76" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="B77" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="D77" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D78" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C79" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D75" s="4" t="s">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C80" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="D80" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C81" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="D81" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C82" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D82" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C83" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="D83" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="B84" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="C84" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D84" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="B85" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="C85" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="D85" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="B86" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="C86" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="D86" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="B87" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="C87" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="D87" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="B88" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="C88" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="D88" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="B89" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="C89" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D89" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="B90" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="C90" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="D90" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="B91" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="C91" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="D91" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C87" s="9" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="B92" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="D92" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="B93" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="C93" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="D93" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C89" s="9" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="B94" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="D94" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="B95" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="D95" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="B96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D96" s="14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="B97" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D97" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="B102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D102" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C98" s="4" t="s">
+      <c r="D103" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D98" s="15" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="B104" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="D104" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D99" s="15" t="s">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="B105" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C100" s="4" t="s">
+      <c r="D105" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D100" s="15" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="D106" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D101" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="B107" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="C107" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D102" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="D107" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C103" s="4" t="s">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="B108" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="D108" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C104" s="4" t="s">
+      <c r="B109" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D109" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C105" s="9" t="s">
+      <c r="B110" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D110" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="B111" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C106" s="9" t="s">
+      <c r="D111" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D106" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="B112" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="D112" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="B113" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D113" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C108" s="9" t="s">
+      <c r="B114" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C109" s="9" t="s">
+      <c r="B115" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D115" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+      <c r="B116" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C110" s="9" t="s">
+      <c r="D116" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C111" s="9" t="s">
+      <c r="B117" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+      <c r="D117" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C112" s="9" t="s">
+      <c r="B118" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="D118" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C113" s="9" t="s">
+      <c r="B119" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D119" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="B120" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C114" s="9" t="s">
+      <c r="D120" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+      <c r="B121" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C115" s="9" t="s">
+      <c r="D121" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+    </row>
+    <row r="122" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C116" s="9" t="s">
+      <c r="B122" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D122" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="B123" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C117" s="9" t="s">
+      <c r="D123" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+      <c r="B124" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C118" s="9" t="s">
+      <c r="D124" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="B125" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="D125" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
+      <c r="B126" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C120" s="9" t="s">
+      <c r="D126" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+      <c r="B127" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C121" s="9" t="s">
+      <c r="C127" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D127" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C122" s="9" t="s">
+      <c r="B128" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D128" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C126" s="9" t="s">
+      <c r="B131" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="9" t="s">
+      <c r="D131" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B127" s="9" t="s">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="B132" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D132" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="9" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B128" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C128" s="9" t="s">
+      <c r="B133" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D133" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="9" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B129" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C129" s="9" t="s">
+      <c r="B134" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D134" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="9" t="s">
+    <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C130" s="9" t="s">
+      <c r="B135" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
+      <c r="D135" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C131" s="9" t="s">
+      <c r="B136" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D136" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="9" t="s">
+      <c r="B137" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C132" s="9" t="s">
+      <c r="D137" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="B138" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="9" t="s">
+      <c r="D138" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C133" s="9" t="s">
+      <c r="B139" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="C139" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="9" t="s">
+      <c r="D139" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C134" s="9" t="s">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="B140" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A135" s="9" t="s">
+      <c r="D140" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C135" s="9" t="s">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A142" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="9" t="s">
+      <c r="B142" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B136" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C136" s="9" t="s">
+      <c r="C142" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A143" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="9" t="s">
+      <c r="B143" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A144" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C137" s="9" t="s">
+      <c r="B144" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="D137" s="9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="9" t="s">
+      <c r="B145" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A146" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C138" s="9" t="s">
+      <c r="B146" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A147" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="D138" s="9" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="9" t="s">
+      <c r="B147" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A148" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B148" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A149" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="B149" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A150" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="B150" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A151" s="15" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="B141" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A142" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="D142" s="16" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A143" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A144" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C144" s="16" t="s">
+      <c r="B151" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D144" s="16" t="s">
+      <c r="D151" s="15" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C145" s="16" t="s">
+    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A152" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C152" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="D145" s="16" t="s">
+      <c r="D152" s="15" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A146" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="D146" s="16" t="s">
+    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A153" s="15" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A147" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C147" s="16" t="s">
+      <c r="B153" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C153" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="D147" s="16" t="s">
+      <c r="D153" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C154" s="16" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A148" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C148" s="16" t="s">
+      <c r="D154" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="D148" s="16" t="s">
+    </row>
+    <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C155" s="16" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A149" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C149" s="16" t="s">
+      <c r="D155" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C156" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="D149" s="16" t="s">
+      <c r="D156" s="16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="D159" s="16" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A150" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A151" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A152" s="16" t="s">
+    <row r="160" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C160" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="B152" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C152" s="16" t="s">
+      <c r="D160" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D162" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="D152" s="16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A153" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    </row>
+    <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="B168" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="B169" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="B170" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="B171" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="B172" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="B173" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="B174" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A175" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C175" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="D175" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    </row>
+    <row r="176" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A176" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C176" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="D176" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    </row>
+    <row r="177" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A177" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C177" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="D177" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    </row>
+    <row r="178" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+      <c r="A178" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C178" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="D178" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+    </row>
+    <row r="179" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+      <c r="A179" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C179" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="D179" s="18" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+      <c r="A180" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C180" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="D180" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+    </row>
+    <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A181" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C181" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="D181" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+    </row>
+    <row r="182" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A182" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="B182" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C182" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="38" x14ac:dyDescent="0.25">
-      <c r="A175" s="22" t="s">
+      <c r="D182" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A183" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A184" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A185" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A186" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A187" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+      <c r="A188" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A189" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="B175" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C175" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="D175" s="18" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="38" x14ac:dyDescent="0.25">
-      <c r="A176" s="22" t="s">
+      <c r="B189" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A190" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="B176" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="D176" s="18" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="38" x14ac:dyDescent="0.25">
-      <c r="A177" s="22" t="s">
+      <c r="B190" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A191" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="B177" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D177" s="18" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="76" x14ac:dyDescent="0.25">
-      <c r="A178" s="22" t="s">
+      <c r="B191" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A192" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="B178" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C178" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="D178" s="19" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="76" x14ac:dyDescent="0.25">
-      <c r="A179" s="22" t="s">
+      <c r="B192" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A193" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="B179" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="D179" s="19" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A180" s="22" t="s">
+      <c r="B193" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A194" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="B180" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="D180" s="18" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A181" s="22" t="s">
+      <c r="B194" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A195" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="B181" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="D181" s="18" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A182" s="22" t="s">
+      <c r="B195" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A196" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="B182" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D182" s="18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A183" s="22" t="s">
+      <c r="B196" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A197" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="B183" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="D183" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A184" s="22" t="s">
+      <c r="B197" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A198" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="B184" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D184" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A185" s="22" t="s">
+      <c r="B198" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A199" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="B185" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="D185" s="18" t="s">
+      <c r="B199" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="D199" s="17" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A186" s="22" t="s">
+    <row r="200" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A200" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="B186" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="D186" s="18" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="38" x14ac:dyDescent="0.25">
-      <c r="A187" s="22" t="s">
+      <c r="B200" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A201" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="B187" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C187" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="D187" s="18" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="38" x14ac:dyDescent="0.25">
-      <c r="A188" s="22" t="s">
+      <c r="B201" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A202" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="B188" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C188" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="D188" s="18" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="38" x14ac:dyDescent="0.25">
-      <c r="A189" s="22" t="s">
+      <c r="B202" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A203" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="B189" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C189" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D189" s="18" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A190" s="22" t="s">
+      <c r="B203" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A204" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="B190" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A191" s="22" t="s">
+      <c r="B204" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A205" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="B191" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="D191" s="18" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A192" s="22" t="s">
+      <c r="B205" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A206" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="B192" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="D192" s="18" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="38" x14ac:dyDescent="0.25">
-      <c r="A193" s="22" t="s">
+      <c r="B206" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A207" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="B193" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="38" x14ac:dyDescent="0.25">
-      <c r="A194" s="22" t="s">
+      <c r="B207" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A208" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="B194" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A195" s="22" t="s">
+      <c r="B208" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+      <c r="A209" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="B195" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="D195" s="18" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A196" s="22" t="s">
+      <c r="B209" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="A210" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="B196" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="D196" s="18" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A197" s="22" t="s">
+      <c r="B210" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A211" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="B197" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="D197" s="18" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A198" s="22" t="s">
+      <c r="B211" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B198" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="D198" s="18" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A199" s="22" t="s">
+      <c r="B212" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B199" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D199" s="18" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="38" x14ac:dyDescent="0.25">
-      <c r="A200" s="22" t="s">
+      <c r="C212" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="B200" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="D200" s="18" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A201" s="22" t="s">
+      <c r="D212" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B201" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="D201" s="18" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A202" s="22" t="s">
+      <c r="E212" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B202" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C202" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="D202" s="18" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A203" s="22" t="s">
+      <c r="B213" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B203" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C203" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="D203" s="18" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A204" s="22" t="s">
+      <c r="D213" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B204" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C204" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="D204" s="18" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A205" s="22" t="s">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B205" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C205" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="D205" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A206" s="22" t="s">
+      <c r="B214" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B206" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C206" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="D206" s="18" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="38" x14ac:dyDescent="0.25">
-      <c r="A207" s="22" t="s">
+      <c r="D214" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B207" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D207" s="18" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A208" s="22" t="s">
+      <c r="E214" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B208" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C208" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="D208" s="18" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="A209" s="22" t="s">
+      <c r="B215" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B209" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C209" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="D209" s="18" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A210" s="22" t="s">
+      <c r="D215" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B210" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C210" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="D210" s="18" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A211" s="22" t="s">
+      <c r="E215" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B211" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C211" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="D211" s="18" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
+      <c r="B216" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C212" s="23" t="s">
+      <c r="E216" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="B217" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C213" s="1" t="s">
+      <c r="E217" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="B218" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C214" s="1" t="s">
+      <c r="E218" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="B219" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
+      <c r="D219" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="211.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="B220" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="E220" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="E221" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="E222" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="E223" s="1" t="e" vm="4">
         <v>#VALUE!</v>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743EC20-6199-420C-9F90-65CDC3FF2254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8898CB7-5CEE-4B95-BEF9-6214ACA21407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,12 +186,6 @@
     <t>move()</t>
   </si>
   <si>
-    <t>The system shall enusre the checkers are only allowed to move on the dark sqaures of the board</t>
-  </si>
-  <si>
-    <t>The system shall allow checkers controled by one player to 'jump' checkers controled by the other player by "moving a piece that is diagonally adjacent an opponent's piece, to an empty square immediately beyond it in the same direction"</t>
-  </si>
-  <si>
     <t>getPossibleForwardJump(), getPossibleBackwardJump()</t>
   </si>
   <si>
@@ -207,18 +201,9 @@
     <t>kingMe()</t>
   </si>
   <si>
-    <t>The system shall allow all king checkers to move in both foward and backwards directions (twoards AND away from the player controling them)</t>
-  </si>
-  <si>
-    <t>The system shall send new game states to the Game Manager once a valid move is proccesed</t>
-  </si>
-  <si>
     <t>getBoard()</t>
   </si>
   <si>
-    <t xml:space="preserve">The system shall allow the player required to make a jump with a checker to chose which series of jumps to be performed when multiple are availible   </t>
-  </si>
-  <si>
     <t>The system shall be assigned an ID by Game Manager on instance</t>
   </si>
   <si>
@@ -2053,6 +2038,21 @@
   </si>
   <si>
     <t>GP_19</t>
+  </si>
+  <si>
+    <t>The system shall send new game states to the Game Manager once a valid move is processed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall require the player to make a jump with a checker to choose which series of jumps to be performed when multiple are available  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system shall ensure the checkers are only allowed to move on the dark squares of the board</t>
+  </si>
+  <si>
+    <t>The system shall allow checkers controlled by one player to 'jump' checkers controlled by the other player by "moving a piece that is diagonally adjacent an opponent's piece, to an empty square immediately beyond it in the same direction"</t>
+  </si>
+  <si>
+    <t>The system shall allow all king checkers to move in both forward and backwards directions (towards AND away from the player controlling them)</t>
   </si>
 </sst>
 </file>
@@ -2594,7 +2594,7 @@
   <dimension ref="A1:S223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>24</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="11" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>24</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>24</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>24</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>24</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>24</v>
@@ -2812,13 +2812,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>655</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>32</v>
@@ -2826,55 +2826,55 @@
     </row>
     <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>36</v>
+        <v>656</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>42</v>
+        <v>657</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>34</v>
@@ -2882,2842 +2882,2842 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>653</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>45</v>
+        <v>654</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B128" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D128" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B140" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D140" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="23" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="15" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="15" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="15" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="15" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="15" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="15" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="15" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="15" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="15" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A175" s="21" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A176" s="21" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A177" s="21" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="72" x14ac:dyDescent="0.35">
       <c r="A178" s="21" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="72" x14ac:dyDescent="0.35">
       <c r="A179" s="21" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="54" x14ac:dyDescent="0.35">
       <c r="A180" s="21" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="21" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="21" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="21" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="21" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="21" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A186" s="21" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A187" s="21" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="54" x14ac:dyDescent="0.35">
       <c r="A188" s="21" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A189" s="21" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="21" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="21" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="21" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A193" s="21" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A194" s="21" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="21" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="21" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="21" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="21" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="21" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A200" s="21" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="21" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A202" s="21" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="21" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="21" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="21" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="21" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A207" s="21" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="21" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="54" x14ac:dyDescent="0.35">
       <c r="A209" s="21" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A210" s="21" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="21" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="211.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E220" s="1" t="e" vm="1">
         <v>#VALUE!</v>
@@ -5725,16 +5725,16 @@
     </row>
     <row r="221" spans="1:5" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E221" s="1" t="e" vm="2">
         <v>#VALUE!</v>
@@ -5742,16 +5742,16 @@
     </row>
     <row r="222" spans="1:5" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E222" s="1" t="e" vm="3">
         <v>#VALUE!</v>
@@ -5759,16 +5759,16 @@
     </row>
     <row r="223" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E223" s="1" t="e" vm="4">
         <v>#VALUE!</v>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phanm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8898CB7-5CEE-4B95-BEF9-6214ACA21407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716188A6-741C-4B13-9825-02F3953FB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="659">
   <si>
     <t>Tested By</t>
   </si>
@@ -2053,6 +2053,9 @@
   </si>
   <si>
     <t>The system shall allow all king checkers to move in both forward and backwards directions (towards AND away from the player controlling them)</t>
+  </si>
+  <si>
+    <t>untestable</t>
   </si>
 </sst>
 </file>
@@ -2593,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2605,7 +2608,9 @@
     <col min="4" max="4" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16" width="8.6640625" style="1"/>
+    <col min="7" max="9" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="8.6640625" style="1"/>
     <col min="17" max="17" width="8.6640625" style="3"/>
     <col min="18" max="18" width="8.6640625" style="1"/>
     <col min="19" max="19" width="36.44140625" style="1" customWidth="1"/>
@@ -5083,7 +5088,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" ht="36" x14ac:dyDescent="0.35">
       <c r="A177" s="21" t="s">
         <v>554</v>
       </c>
@@ -5097,7 +5102,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" ht="72" x14ac:dyDescent="0.35">
       <c r="A178" s="21" t="s">
         <v>555</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" ht="72" x14ac:dyDescent="0.35">
       <c r="A179" s="21" t="s">
         <v>556</v>
       </c>
@@ -5125,7 +5130,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="54" x14ac:dyDescent="0.35">
       <c r="A180" s="21" t="s">
         <v>557</v>
       </c>
@@ -5139,7 +5144,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="21" t="s">
         <v>558</v>
       </c>
@@ -5152,8 +5157,11 @@
       <c r="D181" s="17" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="J181" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="21" t="s">
         <v>559</v>
       </c>
@@ -5166,8 +5174,11 @@
       <c r="D182" s="17" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="J182" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="21" t="s">
         <v>560</v>
       </c>
@@ -5180,8 +5191,11 @@
       <c r="D183" s="17" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="J183" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="21" t="s">
         <v>561</v>
       </c>
@@ -5194,8 +5208,11 @@
       <c r="D184" s="17" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="J184" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="21" t="s">
         <v>562</v>
       </c>
@@ -5208,8 +5225,11 @@
       <c r="D185" s="17" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="J185" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="36" x14ac:dyDescent="0.35">
       <c r="A186" s="21" t="s">
         <v>563</v>
       </c>
@@ -5222,8 +5242,11 @@
       <c r="D186" s="17" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="J186" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="36" x14ac:dyDescent="0.35">
       <c r="A187" s="21" t="s">
         <v>564</v>
       </c>
@@ -5236,8 +5259,11 @@
       <c r="D187" s="17" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+      <c r="J187" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="54" x14ac:dyDescent="0.35">
       <c r="A188" s="21" t="s">
         <v>565</v>
       </c>
@@ -5250,8 +5276,11 @@
       <c r="D188" s="17" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="J188" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="36" x14ac:dyDescent="0.35">
       <c r="A189" s="21" t="s">
         <v>566</v>
       </c>
@@ -5264,8 +5293,11 @@
       <c r="D189" s="17" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="J189" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="21" t="s">
         <v>567</v>
       </c>
@@ -5278,8 +5310,11 @@
       <c r="D190" s="17" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="J190" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="21" t="s">
         <v>568</v>
       </c>
@@ -5293,7 +5328,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="21" t="s">
         <v>569</v>
       </c>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716188A6-741C-4B13-9825-02F3953FB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A2672-079C-478E-B189-AD9F9341EEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2596,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L192" sqref="L192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2801,7 +2801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>644</v>
       </c>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf526d0a72a0725/Desktop/'24-'25 Year/CSE 3310/Project/cse3310-sp25-004/FinalRequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A2672-079C-478E-B189-AD9F9341EEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{4C0A2672-079C-478E-B189-AD9F9341EEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6B072D-413D-4C97-9B0C-EDC2950F7496}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="660">
   <si>
     <t>Tested By</t>
   </si>
@@ -2056,6 +2056,9 @@
   </si>
   <si>
     <t>untestable</t>
+  </si>
+  <si>
+    <t>Untestable</t>
   </si>
 </sst>
 </file>
@@ -2596,33 +2599,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L192" sqref="L192"/>
+    <sheetView tabSelected="1" topLeftCell="E29" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="123.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6328125" style="1"/>
+    <col min="2" max="2" width="36.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="8.6328125" style="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="8.6640625" style="1"/>
-    <col min="17" max="17" width="8.6640625" style="3"/>
-    <col min="18" max="18" width="8.6640625" style="1"/>
-    <col min="19" max="19" width="36.44140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.6640625" style="1"/>
+    <col min="11" max="12" width="8.6328125" style="1"/>
+    <col min="13" max="13" width="10.90625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.6328125" style="1"/>
+    <col min="17" max="17" width="8.6328125" style="3"/>
+    <col min="18" max="18" width="8.6328125" style="1"/>
+    <col min="19" max="19" width="36.453125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2660,7 +2665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2680,7 +2685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2703,7 +2708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2711,27 +2716,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>639</v>
       </c>
@@ -2745,7 +2750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>640</v>
       </c>
@@ -2759,7 +2764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>641</v>
       </c>
@@ -2773,7 +2778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>642</v>
       </c>
@@ -2787,7 +2792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>643</v>
       </c>
@@ -2801,7 +2806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>644</v>
       </c>
@@ -2815,7 +2820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>645</v>
       </c>
@@ -2829,7 +2834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>646</v>
       </c>
@@ -2843,7 +2848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>647</v>
       </c>
@@ -2857,7 +2862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>648</v>
       </c>
@@ -2871,7 +2876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>649</v>
       </c>
@@ -2885,7 +2890,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>650</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>651</v>
       </c>
@@ -2913,7 +2918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>652</v>
       </c>
@@ -2927,7 +2932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2942,7 +2947,7 @@
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -2957,7 +2962,7 @@
       </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2972,7 +2977,7 @@
       </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -2987,7 +2992,7 @@
       </c>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -3004,7 +3009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -3019,7 +3024,7 @@
       </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -3035,7 +3040,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -3052,7 +3057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -3069,7 +3074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
@@ -3083,7 +3088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -3097,7 +3102,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
@@ -3110,8 +3115,11 @@
       <c r="D35" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M35" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -3124,8 +3132,11 @@
       <c r="D36" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M36" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
@@ -3138,8 +3149,11 @@
       <c r="D37" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M37" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
@@ -3152,8 +3166,11 @@
       <c r="D38" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M38" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
@@ -3167,7 +3184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
@@ -3181,7 +3198,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>96</v>
       </c>
@@ -3195,7 +3212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>99</v>
       </c>
@@ -3209,7 +3226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
@@ -3223,7 +3240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
@@ -3237,7 +3254,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -3251,7 +3268,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
@@ -3265,7 +3282,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
@@ -3279,7 +3296,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
@@ -3293,7 +3310,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -3307,7 +3324,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -3321,7 +3338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
@@ -3335,7 +3352,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>130</v>
       </c>
@@ -3349,7 +3366,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>132</v>
       </c>
@@ -3363,7 +3380,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -3377,7 +3394,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>136</v>
       </c>
@@ -3391,7 +3408,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>138</v>
       </c>
@@ -3405,7 +3422,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>140</v>
       </c>
@@ -3422,7 +3439,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>145</v>
       </c>
@@ -3436,7 +3453,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>149</v>
       </c>
@@ -3450,7 +3467,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>153</v>
       </c>
@@ -3464,7 +3481,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>157</v>
       </c>
@@ -3478,7 +3495,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>161</v>
       </c>
@@ -3492,7 +3509,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>165</v>
       </c>
@@ -3506,7 +3523,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>169</v>
       </c>
@@ -3520,7 +3537,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>173</v>
       </c>
@@ -3534,7 +3551,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>177</v>
       </c>
@@ -3548,7 +3565,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>180</v>
       </c>
@@ -3562,7 +3579,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>183</v>
       </c>
@@ -3576,7 +3593,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>186</v>
       </c>
@@ -3590,7 +3607,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>189</v>
       </c>
@@ -3604,7 +3621,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>192</v>
       </c>
@@ -3618,7 +3635,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>195</v>
       </c>
@@ -3632,7 +3649,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>198</v>
       </c>
@@ -3646,7 +3663,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>202</v>
       </c>
@@ -3660,7 +3677,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>206</v>
       </c>
@@ -3674,7 +3691,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>210</v>
       </c>
@@ -3688,7 +3705,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>213</v>
       </c>
@@ -3702,7 +3719,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>216</v>
       </c>
@@ -3716,7 +3733,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>219</v>
       </c>
@@ -3730,7 +3747,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>223</v>
       </c>
@@ -3744,7 +3761,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>226</v>
       </c>
@@ -3758,7 +3775,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>229</v>
       </c>
@@ -3772,7 +3789,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
@@ -3786,7 +3803,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>235</v>
       </c>
@@ -3800,7 +3817,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>238</v>
       </c>
@@ -3814,7 +3831,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>241</v>
       </c>
@@ -3828,7 +3845,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>244</v>
       </c>
@@ -3842,7 +3859,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>247</v>
       </c>
@@ -3856,7 +3873,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>250</v>
       </c>
@@ -3870,7 +3887,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>253</v>
       </c>
@@ -3884,7 +3901,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>256</v>
       </c>
@@ -3898,7 +3915,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>260</v>
       </c>
@@ -3912,7 +3929,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>262</v>
       </c>
@@ -3926,7 +3943,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>266</v>
       </c>
@@ -3940,7 +3957,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>268</v>
       </c>
@@ -3954,7 +3971,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>271</v>
       </c>
@@ -3968,7 +3985,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>274</v>
       </c>
@@ -3982,7 +3999,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>277</v>
       </c>
@@ -3996,7 +4013,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>280</v>
       </c>
@@ -4010,7 +4027,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>283</v>
       </c>
@@ -4024,7 +4041,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>286</v>
       </c>
@@ -4038,7 +4055,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>288</v>
       </c>
@@ -4052,7 +4069,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>290</v>
       </c>
@@ -4066,7 +4083,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>293</v>
       </c>
@@ -4080,7 +4097,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>296</v>
       </c>
@@ -4094,7 +4111,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>299</v>
       </c>
@@ -4108,7 +4125,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>301</v>
       </c>
@@ -4122,7 +4139,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>305</v>
       </c>
@@ -4136,7 +4153,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>307</v>
       </c>
@@ -4150,7 +4167,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>310</v>
       </c>
@@ -4164,7 +4181,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>312</v>
       </c>
@@ -4178,7 +4195,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>314</v>
       </c>
@@ -4192,7 +4209,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>316</v>
       </c>
@@ -4206,7 +4223,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>319</v>
       </c>
@@ -4220,7 +4237,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>321</v>
       </c>
@@ -4234,7 +4251,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>323</v>
       </c>
@@ -4248,7 +4265,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>326</v>
       </c>
@@ -4262,7 +4279,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>328</v>
       </c>
@@ -4276,7 +4293,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>330</v>
       </c>
@@ -4290,7 +4307,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>332</v>
       </c>
@@ -4304,7 +4321,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>334</v>
       </c>
@@ -4318,7 +4335,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>337</v>
       </c>
@@ -4332,7 +4349,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>339</v>
       </c>
@@ -4346,7 +4363,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>341</v>
       </c>
@@ -4360,7 +4377,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>343</v>
       </c>
@@ -4374,7 +4391,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>345</v>
       </c>
@@ -4388,7 +4405,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>347</v>
       </c>
@@ -4402,7 +4419,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>351</v>
       </c>
@@ -4416,7 +4433,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>354</v>
       </c>
@@ -4430,7 +4447,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>357</v>
       </c>
@@ -4444,7 +4461,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>359</v>
       </c>
@@ -4458,7 +4475,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>362</v>
       </c>
@@ -4472,7 +4489,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>365</v>
       </c>
@@ -4486,7 +4503,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>368</v>
       </c>
@@ -4500,7 +4517,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>371</v>
       </c>
@@ -4514,7 +4531,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>373</v>
       </c>
@@ -4528,7 +4545,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>375</v>
       </c>
@@ -4542,7 +4559,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>377</v>
       </c>
@@ -4556,7 +4573,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>379</v>
       </c>
@@ -4570,7 +4587,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>383</v>
       </c>
@@ -4584,7 +4601,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A141" s="23" t="s">
         <v>636</v>
       </c>
@@ -4598,7 +4615,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A142" s="15" t="s">
         <v>386</v>
       </c>
@@ -4612,7 +4629,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A143" s="15" t="s">
         <v>388</v>
       </c>
@@ -4626,7 +4643,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A144" s="15" t="s">
         <v>389</v>
       </c>
@@ -4640,7 +4657,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="15" t="s">
         <v>390</v>
       </c>
@@ -4654,7 +4671,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A146" s="15" t="s">
         <v>391</v>
       </c>
@@ -4668,7 +4685,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A147" s="15" t="s">
         <v>392</v>
       </c>
@@ -4682,7 +4699,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A148" s="15" t="s">
         <v>393</v>
       </c>
@@ -4696,7 +4713,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A149" s="15" t="s">
         <v>394</v>
       </c>
@@ -4710,7 +4727,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A150" s="15" t="s">
         <v>395</v>
       </c>
@@ -4724,7 +4741,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A151" s="15" t="s">
         <v>396</v>
       </c>
@@ -4738,7 +4755,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A152" s="15" t="s">
         <v>419</v>
       </c>
@@ -4752,7 +4769,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A153" s="15" t="s">
         <v>420</v>
       </c>
@@ -4766,7 +4783,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>460</v>
       </c>
@@ -4780,7 +4797,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>461</v>
       </c>
@@ -4794,7 +4811,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>462</v>
       </c>
@@ -4808,7 +4825,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>463</v>
       </c>
@@ -4822,7 +4839,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>464</v>
       </c>
@@ -4836,7 +4853,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>465</v>
       </c>
@@ -4850,7 +4867,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>466</v>
       </c>
@@ -4864,7 +4881,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>467</v>
       </c>
@@ -4878,7 +4895,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>468</v>
       </c>
@@ -4892,7 +4909,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>469</v>
       </c>
@@ -4906,7 +4923,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>470</v>
       </c>
@@ -4920,7 +4937,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>471</v>
       </c>
@@ -4934,7 +4951,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>472</v>
       </c>
@@ -4948,7 +4965,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>473</v>
       </c>
@@ -4962,7 +4979,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>474</v>
       </c>
@@ -4976,7 +4993,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>475</v>
       </c>
@@ -4990,7 +5007,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>476</v>
       </c>
@@ -5004,7 +5021,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>477</v>
       </c>
@@ -5018,7 +5035,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>478</v>
       </c>
@@ -5032,7 +5049,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>479</v>
       </c>
@@ -5046,7 +5063,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>480</v>
       </c>
@@ -5060,7 +5077,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A175" s="21" t="s">
         <v>552</v>
       </c>
@@ -5074,7 +5091,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A176" s="21" t="s">
         <v>553</v>
       </c>
@@ -5088,7 +5105,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" ht="37" x14ac:dyDescent="0.45">
       <c r="A177" s="21" t="s">
         <v>554</v>
       </c>
@@ -5102,7 +5119,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="72" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" ht="74" x14ac:dyDescent="0.45">
       <c r="A178" s="21" t="s">
         <v>555</v>
       </c>
@@ -5116,7 +5133,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="72" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" ht="74" x14ac:dyDescent="0.45">
       <c r="A179" s="21" t="s">
         <v>556</v>
       </c>
@@ -5130,7 +5147,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A180" s="21" t="s">
         <v>557</v>
       </c>
@@ -5144,7 +5161,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A181" s="21" t="s">
         <v>558</v>
       </c>
@@ -5161,7 +5178,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A182" s="21" t="s">
         <v>559</v>
       </c>
@@ -5178,7 +5195,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="21" t="s">
         <v>560</v>
       </c>
@@ -5195,7 +5212,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="21" t="s">
         <v>561</v>
       </c>
@@ -5212,7 +5229,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A185" s="21" t="s">
         <v>562</v>
       </c>
@@ -5229,7 +5246,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" ht="37" x14ac:dyDescent="0.45">
       <c r="A186" s="21" t="s">
         <v>563</v>
       </c>
@@ -5246,7 +5263,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" ht="37" x14ac:dyDescent="0.45">
       <c r="A187" s="21" t="s">
         <v>564</v>
       </c>
@@ -5263,7 +5280,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A188" s="21" t="s">
         <v>565</v>
       </c>
@@ -5280,7 +5297,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" ht="37" x14ac:dyDescent="0.45">
       <c r="A189" s="21" t="s">
         <v>566</v>
       </c>
@@ -5297,7 +5314,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A190" s="21" t="s">
         <v>567</v>
       </c>
@@ -5314,7 +5331,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A191" s="21" t="s">
         <v>568</v>
       </c>
@@ -5328,7 +5345,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A192" s="21" t="s">
         <v>569</v>
       </c>
@@ -5342,7 +5359,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A193" s="21" t="s">
         <v>570</v>
       </c>
@@ -5356,7 +5373,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A194" s="21" t="s">
         <v>571</v>
       </c>
@@ -5370,7 +5387,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A195" s="21" t="s">
         <v>572</v>
       </c>
@@ -5384,7 +5401,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A196" s="21" t="s">
         <v>573</v>
       </c>
@@ -5398,7 +5415,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A197" s="21" t="s">
         <v>574</v>
       </c>
@@ -5412,7 +5429,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A198" s="21" t="s">
         <v>575</v>
       </c>
@@ -5426,7 +5443,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A199" s="21" t="s">
         <v>576</v>
       </c>
@@ -5440,7 +5457,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A200" s="21" t="s">
         <v>577</v>
       </c>
@@ -5454,7 +5471,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A201" s="21" t="s">
         <v>578</v>
       </c>
@@ -5468,7 +5485,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A202" s="21" t="s">
         <v>579</v>
       </c>
@@ -5482,7 +5499,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A203" s="21" t="s">
         <v>580</v>
       </c>
@@ -5496,7 +5513,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A204" s="21" t="s">
         <v>581</v>
       </c>
@@ -5510,7 +5527,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A205" s="21" t="s">
         <v>582</v>
       </c>
@@ -5524,7 +5541,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A206" s="21" t="s">
         <v>583</v>
       </c>
@@ -5538,7 +5555,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="37" x14ac:dyDescent="0.45">
       <c r="A207" s="21" t="s">
         <v>584</v>
       </c>
@@ -5552,7 +5569,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A208" s="21" t="s">
         <v>585</v>
       </c>
@@ -5566,7 +5583,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A209" s="21" t="s">
         <v>586</v>
       </c>
@@ -5580,7 +5597,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" ht="37" x14ac:dyDescent="0.45">
       <c r="A210" s="21" t="s">
         <v>587</v>
       </c>
@@ -5594,7 +5611,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A211" s="21" t="s">
         <v>588</v>
       </c>
@@ -5608,7 +5625,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>589</v>
       </c>
@@ -5625,7 +5642,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>593</v>
       </c>
@@ -5639,7 +5656,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>596</v>
       </c>
@@ -5656,7 +5673,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>599</v>
       </c>
@@ -5673,7 +5690,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>602</v>
       </c>
@@ -5690,7 +5707,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>605</v>
       </c>
@@ -5707,7 +5724,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>608</v>
       </c>
@@ -5724,7 +5741,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>611</v>
       </c>
@@ -5741,7 +5758,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="211.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="212" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>613</v>
       </c>
@@ -5758,7 +5775,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="205" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>616</v>
       </c>
@@ -5775,7 +5792,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>619</v>
       </c>
@@ -5792,7 +5809,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>622</v>
       </c>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aisha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A854E7-E5A9-4CA6-ABAC-3B36ADD78CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E89A6B-F3C3-4FC3-8FE9-D09A797ECECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="670">
   <si>
     <t>Tested By</t>
   </si>
@@ -2024,6 +2024,30 @@
   </si>
   <si>
     <t>Group 21</t>
+  </si>
+  <si>
+    <t>Test 1, Step 6</t>
+  </si>
+  <si>
+    <t>Test 1, Step 7</t>
+  </si>
+  <si>
+    <t>Test 1, Step 3</t>
+  </si>
+  <si>
+    <t>Test 1, Step 5</t>
+  </si>
+  <si>
+    <t>Test 1, Step 4</t>
+  </si>
+  <si>
+    <t>Test 1, Step 1</t>
+  </si>
+  <si>
+    <t>Test 1, Step 2</t>
+  </si>
+  <si>
+    <t>Test 1, Step 8</t>
   </si>
 </sst>
 </file>
@@ -2472,15 +2496,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T216" sqref="T216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.6328125" style="1"/>
     <col min="2" max="2" width="36.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="123.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="65.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="47.81640625" style="1" customWidth="1"/>
@@ -2490,7 +2514,7 @@
     <col min="12" max="13" width="8.6328125" style="1"/>
     <col min="14" max="14" width="10.90625" style="1" customWidth="1"/>
     <col min="15" max="16" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.7265625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.6328125" style="1"/>
     <col min="20" max="20" width="36.453125" style="1" customWidth="1"/>
@@ -2701,14 +2725,15 @@
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="8" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -2749,14 +2774,15 @@
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="8" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
@@ -2956,6 +2982,9 @@
       <c r="G28" s="11" t="s">
         <v>76</v>
       </c>
+      <c r="Q28" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -2971,6 +3000,9 @@
         <v>79</v>
       </c>
       <c r="G29" s="11"/>
+      <c r="Q29" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -2987,6 +3019,9 @@
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="13"/>
+      <c r="Q30" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -3004,6 +3039,9 @@
       <c r="G31" s="11" t="s">
         <v>76</v>
       </c>
+      <c r="Q31" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -3283,6 +3321,9 @@
       <c r="E46" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="Q46" s="1" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -3546,6 +3587,9 @@
       <c r="E62" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="Q62" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="63" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
@@ -3600,6 +3644,9 @@
       <c r="E65" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="Q65" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
@@ -3648,6 +3695,9 @@
       <c r="E68" s="5" t="s">
         <v>161</v>
       </c>
+      <c r="Q68" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
@@ -3662,6 +3712,9 @@
       <c r="E69" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="Q69" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
@@ -3704,6 +3757,9 @@
       <c r="E72" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="Q72" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
@@ -3800,6 +3856,9 @@
       <c r="E78" s="5" t="s">
         <v>223</v>
       </c>
+      <c r="Q78" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
@@ -3848,6 +3907,9 @@
       <c r="E81" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="Q81" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
@@ -3862,6 +3924,9 @@
       <c r="E82" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="Q82" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
@@ -3876,6 +3941,9 @@
       <c r="E83" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="Q83" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
@@ -3994,6 +4062,9 @@
       <c r="E91" s="15" t="s">
         <v>277</v>
       </c>
+      <c r="Q91" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
@@ -4008,6 +4079,9 @@
       <c r="E92" s="15" t="s">
         <v>277</v>
       </c>
+      <c r="Q92" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
@@ -4022,6 +4096,9 @@
       <c r="E93" s="15" t="s">
         <v>283</v>
       </c>
+      <c r="Q93" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
@@ -4036,6 +4113,9 @@
       <c r="E94" s="15" t="s">
         <v>283</v>
       </c>
+      <c r="Q94" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
@@ -4050,6 +4130,9 @@
       <c r="E95" s="15" t="s">
         <v>288</v>
       </c>
+      <c r="Q95" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
@@ -4064,6 +4147,9 @@
       <c r="E96" s="15" t="s">
         <v>291</v>
       </c>
+      <c r="Q96" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
@@ -4140,6 +4226,9 @@
       <c r="E101" s="15" t="s">
         <v>291</v>
       </c>
+      <c r="Q101" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
@@ -4154,6 +4243,9 @@
       <c r="E102" s="15" t="s">
         <v>291</v>
       </c>
+      <c r="Q102" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
@@ -4168,6 +4260,9 @@
       <c r="E103" s="15" t="s">
         <v>310</v>
       </c>
+      <c r="Q103" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
@@ -4182,6 +4277,9 @@
       <c r="E104" s="15" t="s">
         <v>313</v>
       </c>
+      <c r="Q104" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
@@ -4196,6 +4294,9 @@
       <c r="E105" s="15" t="s">
         <v>316</v>
       </c>
+      <c r="Q105" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
@@ -4210,6 +4311,9 @@
       <c r="E106" s="15" t="s">
         <v>316</v>
       </c>
+      <c r="Q106" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -4782,14 +4886,15 @@
       <c r="B142" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C142" s="17"/>
       <c r="D142" s="17" t="s">
         <v>413</v>
       </c>
       <c r="E142" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="Q142" s="17"/>
+      <c r="Q142" s="1" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A143" s="17" t="s">
@@ -4798,7 +4903,6 @@
       <c r="B143" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C143" s="17"/>
       <c r="D143" s="17" t="s">
         <v>416</v>
       </c>
@@ -4814,14 +4918,15 @@
       <c r="B144" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C144" s="17"/>
       <c r="D144" s="17" t="s">
         <v>419</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q144" s="17"/>
+      <c r="Q144" s="17" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="17" t="s">
@@ -4830,14 +4935,15 @@
       <c r="B145" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C145" s="17"/>
       <c r="D145" s="17" t="s">
         <v>422</v>
       </c>
       <c r="E145" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="Q145" s="17"/>
+      <c r="Q145" s="17" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A146" s="17" t="s">
@@ -5704,14 +5810,15 @@
       <c r="B195" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="C195" s="18"/>
       <c r="D195" s="20" t="s">
         <v>568</v>
       </c>
       <c r="E195" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="Q195" s="18"/>
+      <c r="Q195" s="18" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="196" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A196" s="18" t="s">
@@ -5848,14 +5955,15 @@
       <c r="B203" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="C203" s="18"/>
       <c r="D203" s="20" t="s">
         <v>589</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="Q203" s="18"/>
+      <c r="Q203" s="18" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="204" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A204" s="18" t="s">
@@ -6058,6 +6166,9 @@
       <c r="F214" s="1" t="s">
         <v>626</v>
       </c>
+      <c r="Q214" s="1" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
@@ -6092,6 +6203,9 @@
       <c r="F216" s="1" t="s">
         <v>634</v>
       </c>
+      <c r="Q216" s="1" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
@@ -6109,6 +6223,9 @@
       <c r="F217" s="1" t="s">
         <v>638</v>
       </c>
+      <c r="Q217" s="1" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
@@ -6125,6 +6242,9 @@
       </c>
       <c r="F218" s="1" t="s">
         <v>642</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.35">

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -2205,55 +2205,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2261,35 +2261,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2549,7 +2549,7 @@
       <selection pane="topLeft" activeCell="W220" activeCellId="0" sqref="W220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.45"/>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -2545,7 +2545,7 @@
   </sheetPr>
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W220" activeCellId="0" sqref="W220"/>
     </sheetView>
   </sheetViews>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A42CAD-812B-41E5-BB81-6EA01BC13463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,63 +37,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="670">
-  <si>
-    <t xml:space="preserve">Tested By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNTESTABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI XREF</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="672">
+  <si>
+    <t>Tested By</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>Group 3</t>
+  </si>
+  <si>
+    <t>Group 4</t>
+  </si>
+  <si>
+    <t>Group 5</t>
+  </si>
+  <si>
+    <t>Group 6</t>
+  </si>
+  <si>
+    <t>Group 7</t>
+  </si>
+  <si>
+    <t>Group 8</t>
+  </si>
+  <si>
+    <t>Group 18</t>
+  </si>
+  <si>
+    <t>Group 19</t>
+  </si>
+  <si>
+    <t>Group 20</t>
+  </si>
+  <si>
+    <t>Group 21</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>UNTESTABLE</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Implemented In</t>
+  </si>
+  <si>
+    <t>UI XREF</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -87,1982 +104,1970 @@
 on the Join Game page.</t>
   </si>
   <si>
-    <t xml:space="preserve">displayPlayers()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test 1, steps 10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cut and paste the screenshot of each page in this part of the spreadsheet, please. use as much space is needed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-Gameplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall implement the state of the current checker board as a 2d array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class Board, initCheckers()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untestable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall be able to receive and send information to the Game Manager and Game termination, Game manager will create an instance of Gameplay and Gameplay will use the Game Termination class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move(), getBoard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall create a starting game board on instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall receive Player ID, requested checker piece and requested designation place from the Game Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall ensure all checkers move diagonally and only diagonally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moveForwardCheck(), moveBackwardCheck()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall ensure that all 'men' (non kinged checkers) only move in the foward direction (away from the player controling them)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_9</t>
+    <t>displayPlayers()</t>
+  </si>
+  <si>
+    <t>UI001</t>
+  </si>
+  <si>
+    <t>test 1, steps 10-20</t>
+  </si>
+  <si>
+    <t>cut and paste the screenshot of each page in this part of the spreadsheet, please. use as much space is needed.</t>
+  </si>
+  <si>
+    <t>GP_2</t>
+  </si>
+  <si>
+    <t>21-Gameplay</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>The system shall implement the state of the current checker board as a 2d array</t>
+  </si>
+  <si>
+    <t>Class Board, initCheckers()</t>
+  </si>
+  <si>
+    <t>Untestable</t>
+  </si>
+  <si>
+    <t>GP_4</t>
+  </si>
+  <si>
+    <t>The system shall be able to receive and send information to the Game Manager and Game termination, Game manager will create an instance of Gameplay and Gameplay will use the Game Termination class</t>
+  </si>
+  <si>
+    <t>move(), getBoard()</t>
+  </si>
+  <si>
+    <t>GP_5</t>
+  </si>
+  <si>
+    <t>The system shall create a starting game board on instance</t>
+  </si>
+  <si>
+    <t>GP_6</t>
+  </si>
+  <si>
+    <t>The system shall receive Player ID, requested checker piece and requested designation place from the Game Manager</t>
+  </si>
+  <si>
+    <t>GP_7</t>
+  </si>
+  <si>
+    <t>The system shall ensure all checkers move diagonally and only diagonally</t>
+  </si>
+  <si>
+    <t>moveForwardCheck(), moveBackwardCheck()</t>
+  </si>
+  <si>
+    <t>Test 1, Step 6</t>
+  </si>
+  <si>
+    <t>GP_8</t>
+  </si>
+  <si>
+    <t>The system shall ensure that all 'men' (non kinged checkers) only move in the foward direction (away from the player controling them)</t>
+  </si>
+  <si>
+    <t>move()</t>
+  </si>
+  <si>
+    <t>GP_9</t>
   </si>
   <si>
     <t xml:space="preserve"> The system shall ensure the checkers are only allowed to move on the dark squares of the board</t>
   </si>
   <si>
-    <t xml:space="preserve">GP_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall allow checkers controlled by one player to 'jump' checkers controlled by the other player by "moving a piece that is diagonally adjacent an opponent's piece, to an empty square immediately beyond it in the same direction"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getPossibleForwardJump(), getPossibleBackwardJump()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall mandate a 'jump' (or series of jumps) to be performed when they are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concurrentJumps()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall promote a player's  'men' checker into a 'king' checker with a king's privileges if the checker reaches the closest rank (row) to the opposing player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kingMe()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall allow all king checkers to move in both forward and backwards directions (towards AND away from the player controlling them)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall send new game states to the Game Manager once a valid move is processed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getBoard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_18</t>
+    <t>GP_10</t>
+  </si>
+  <si>
+    <t>The system shall allow checkers controlled by one player to 'jump' checkers controlled by the other player by "moving a piece that is diagonally adjacent an opponent's piece, to an empty square immediately beyond it in the same direction"</t>
+  </si>
+  <si>
+    <t>getPossibleForwardJump(), getPossibleBackwardJump()</t>
+  </si>
+  <si>
+    <t>Test 1, Step 7</t>
+  </si>
+  <si>
+    <t>GP_11</t>
+  </si>
+  <si>
+    <t>The system shall mandate a 'jump' (or series of jumps) to be performed when they are available</t>
+  </si>
+  <si>
+    <t>concurrentJumps()</t>
+  </si>
+  <si>
+    <t>GP_12</t>
+  </si>
+  <si>
+    <t>The system shall promote a player's  'men' checker into a 'king' checker with a king's privileges if the checker reaches the closest rank (row) to the opposing player</t>
+  </si>
+  <si>
+    <t>kingMe()</t>
+  </si>
+  <si>
+    <t>GP_13</t>
+  </si>
+  <si>
+    <t>The system shall allow all king checkers to move in both forward and backwards directions (towards AND away from the player controlling them)</t>
+  </si>
+  <si>
+    <t>GP_14</t>
+  </si>
+  <si>
+    <t>The system shall send new game states to the Game Manager once a valid move is processed</t>
+  </si>
+  <si>
+    <t>getBoard()</t>
+  </si>
+  <si>
+    <t>GP_18</t>
   </si>
   <si>
     <t xml:space="preserve">The system shall require the player to make a jump with a checker to choose which series of jumps to be performed when multiple are available  </t>
   </si>
   <si>
-    <t xml:space="preserve">GP_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall be assigned an ID by Game Manager on instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlay class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Pair Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Player class shall be an abstract class which BotPlayer and HumanPlayer shall extend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botVBot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_2</t>
+    <t>GP_19</t>
+  </si>
+  <si>
+    <t>The system shall be assigned an ID by Game Manager on instance</t>
+  </si>
+  <si>
+    <t>GamePlay class</t>
+  </si>
+  <si>
+    <t>PU_1</t>
+  </si>
+  <si>
+    <t>7 Pair Up</t>
+  </si>
+  <si>
+    <t>The Player class shall be an abstract class which BotPlayer and HumanPlayer shall extend</t>
+  </si>
+  <si>
+    <t>botVBot</t>
+  </si>
+  <si>
+    <t>PU_2</t>
   </si>
   <si>
     <t xml:space="preserve">The system shall have an ELO system to rank the players </t>
   </si>
   <si>
-    <t xml:space="preserve">ELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall not pair players whose ELO is more than 200 apart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isInRange()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall have a linkedlist of all the players. PageManager shall hold it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plpayers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall have a queue of players who are waiting to join a match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall have a match request feature that allows players to match up against whomever they request despite elo disparity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requestChallenge()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Player class shall have a status field that is either "In Game" or "Waiting"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum status{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall accept challenges between bots, between a bot and player, and between two players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Challenge()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall remove players from the queue if they disconnect before joining a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removeFromQueue()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 - Game Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall initialize the first 10 games by creating new objects of games and adding them to the ArrayList games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initializeGames()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall check if a game is null or if the game is active and which returns the number of non-occupied Games</t>
+    <t>ELO</t>
+  </si>
+  <si>
+    <t>PU_3</t>
+  </si>
+  <si>
+    <t>The system shall not pair players whose ELO is more than 200 apart</t>
+  </si>
+  <si>
+    <t>isInRange()</t>
+  </si>
+  <si>
+    <t>PU_4</t>
+  </si>
+  <si>
+    <t>The system shall have a linkedlist of all the players. PageManager shall hold it</t>
+  </si>
+  <si>
+    <t>plpayers</t>
+  </si>
+  <si>
+    <t>PU_5</t>
+  </si>
+  <si>
+    <t>The system shall have a queue of players who are waiting to join a match</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Test 1, Step 3</t>
+  </si>
+  <si>
+    <t>PU_6</t>
+  </si>
+  <si>
+    <t>The system shall have a match request feature that allows players to match up against whomever they request despite elo disparity</t>
+  </si>
+  <si>
+    <t>requestChallenge()</t>
+  </si>
+  <si>
+    <t>PU_7</t>
+  </si>
+  <si>
+    <t>The Player class shall have a status field that is either "In Game" or "Waiting"</t>
+  </si>
+  <si>
+    <t>enum status{}</t>
+  </si>
+  <si>
+    <t>PU_8</t>
+  </si>
+  <si>
+    <t>The system shall accept challenges between bots, between a bot and player, and between two players</t>
+  </si>
+  <si>
+    <t>Challenge()</t>
+  </si>
+  <si>
+    <t>PU_9</t>
+  </si>
+  <si>
+    <t>The system shall remove players from the queue if they disconnect before joining a game</t>
+  </si>
+  <si>
+    <t>removeFromQueue()</t>
+  </si>
+  <si>
+    <t>GM_1</t>
+  </si>
+  <si>
+    <t>8 - Game Manager</t>
+  </si>
+  <si>
+    <t>The system shall initialize the first 10 games by creating new objects of games and adding them to the ArrayList games</t>
+  </si>
+  <si>
+    <t>initializeGames()</t>
+  </si>
+  <si>
+    <t>GM_2</t>
+  </si>
+  <si>
+    <t>The system shall check if a game is null or if the game is active and which returns the number of non-occupied Games</t>
   </si>
   <si>
     <t xml:space="preserve">getNumofGames() </t>
   </si>
   <si>
-    <t xml:space="preserve">GM_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall assign gameID, player1, and player2 upon instantiation of a new Game object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall allow setting player2 using the setPlayer2(int playerId) method after game creation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setPlayer1(), setPlayer2()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall allow retrieval of player1, player2, and gameID using getter methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getPlayer1(), getPlayer2()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall return the GamePlay board object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall return a Updated GameMove object containing Checker piece and destination from Page Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall allow the creation of a new game from two Player objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall remove a Game from the game ArrayList if game is finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removeGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall mark the game as during creation and inactive  during initialization or removal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setGameActive()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall call both Player objects when a game is created to initialize their participation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall send an updated board to the caller after updating the Checker piece's coordinates using processMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendUpdateBoard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 - Game Termination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A leaderboard shall be displayed after each game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: GameTermination Method: generateLeaderboard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The results of every game played shall be stored in a database and used for generating the leaderboard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: GameTermination Method: saveResults()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System Detects if a player leaves early</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: GameTermination Method: endGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall detect a winning player when no moves are left or if all opponent's pieces are captured.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: gameState Method: checkForWinningPlayer()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall detect a draw when neither player has a valid move and display this outcome.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: gameState Method: gameStateDraw()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall receive the game board state from the Game Play module after every move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: gameState gameState (stored in Board object)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall check if the losing player has any available moves by verifying diagonal movement possibilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: gameState Method: canPlayerMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the losing player has no valid moves, the system shall declare the other player as the winner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If both players have the same number of checkers left, the system shall check if any moves are available for either player. If no moves are available, the game shall end in a draw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall log the game termination details, including the winning player, losing player, and final board state, for debugging and analytics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall ensure all game terminations are processed before updating the leaderboard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall notify the Game Play module when a game has ended, indicating whether the result was a win, loss, or draw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data with list of player names shall be fetched from PageManager with a list of players in String Json when a player is logged in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getActivePlayer() method from PageManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface/Team2-Join_Game.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data fetched from PageManager shall be parsed into JSON where a for each loop with iterate through the list of players to get the current player and call T2_33 to dyanmically add players to the html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displayJoinGame(player) , updateJoinGameList(data)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 - Join game</t>
+    <t>GM_3</t>
+  </si>
+  <si>
+    <t>The system shall assign gameID, player1, and player2 upon instantiation of a new Game object.</t>
+  </si>
+  <si>
+    <t>Game()</t>
+  </si>
+  <si>
+    <t>GM_4</t>
+  </si>
+  <si>
+    <t>The system shall allow setting player2 using the setPlayer2(int playerId) method after game creation.</t>
+  </si>
+  <si>
+    <t>setPlayer1(), setPlayer2()</t>
+  </si>
+  <si>
+    <t>GM_5</t>
+  </si>
+  <si>
+    <t>The system shall allow retrieval of player1, player2, and gameID using getter methods.</t>
+  </si>
+  <si>
+    <t>getPlayer1(), getPlayer2()</t>
+  </si>
+  <si>
+    <t>GM_6</t>
+  </si>
+  <si>
+    <t>The system shall return the GamePlay board object</t>
+  </si>
+  <si>
+    <t>GM_7</t>
+  </si>
+  <si>
+    <t>The system shall return a Updated GameMove object containing Checker piece and destination from Page Manager</t>
+  </si>
+  <si>
+    <t>processMove()</t>
+  </si>
+  <si>
+    <t>GM_8</t>
+  </si>
+  <si>
+    <t>The system shall allow the creation of a new game from two Player objects</t>
+  </si>
+  <si>
+    <t>createGame()</t>
+  </si>
+  <si>
+    <t>GM_9</t>
+  </si>
+  <si>
+    <t>The system shall remove a Game from the game ArrayList if game is finished</t>
+  </si>
+  <si>
+    <t>removeGame()</t>
+  </si>
+  <si>
+    <t>GM_10</t>
+  </si>
+  <si>
+    <t>The system shall mark the game as during creation and inactive  during initialization or removal.</t>
+  </si>
+  <si>
+    <t>setGameActive()</t>
+  </si>
+  <si>
+    <t>GM_11</t>
+  </si>
+  <si>
+    <t>The system shall call both Player objects when a game is created to initialize their participation.</t>
+  </si>
+  <si>
+    <t>startGame()</t>
+  </si>
+  <si>
+    <t>GM_12</t>
+  </si>
+  <si>
+    <t>The system shall send an updated board to the caller after updating the Checker piece's coordinates using processMove()</t>
+  </si>
+  <si>
+    <t>sendUpdateBoard()</t>
+  </si>
+  <si>
+    <t>GT-1</t>
+  </si>
+  <si>
+    <t>20 - Game Termination</t>
+  </si>
+  <si>
+    <t>A leaderboard shall be displayed after each game.</t>
+  </si>
+  <si>
+    <t>Class: GameTermination Method: generateLeaderboard()</t>
+  </si>
+  <si>
+    <t>GT-2</t>
+  </si>
+  <si>
+    <t>The results of every game played shall be stored in a database and used for generating the leaderboard.</t>
+  </si>
+  <si>
+    <t>Class: GameTermination Method: saveResults()</t>
+  </si>
+  <si>
+    <t>Test 1, Step 4</t>
+  </si>
+  <si>
+    <t>GT-3</t>
+  </si>
+  <si>
+    <t>System Detects if a player leaves early</t>
+  </si>
+  <si>
+    <t>Class: GameTermination Method: endGame()</t>
+  </si>
+  <si>
+    <t>GT-4</t>
+  </si>
+  <si>
+    <t>The system shall detect a winning player when no moves are left or if all opponent's pieces are captured.</t>
+  </si>
+  <si>
+    <t>Class: gameState Method: checkForWinningPlayer()</t>
+  </si>
+  <si>
+    <t>GT-5</t>
+  </si>
+  <si>
+    <t>The system shall detect a draw when neither player has a valid move and display this outcome.</t>
+  </si>
+  <si>
+    <t>Class: gameState Method: gameStateDraw()</t>
+  </si>
+  <si>
+    <t>GT-6</t>
+  </si>
+  <si>
+    <t>The system shall receive the game board state from the Game Play module after every move.</t>
+  </si>
+  <si>
+    <t>Class: gameState gameState (stored in Board object)</t>
+  </si>
+  <si>
+    <t>GT-7</t>
+  </si>
+  <si>
+    <t>The system shall check if the losing player has any available moves by verifying diagonal movement possibilities.</t>
+  </si>
+  <si>
+    <t>Class: gameState Method: canPlayerMove()</t>
+  </si>
+  <si>
+    <t>GT-8</t>
+  </si>
+  <si>
+    <t>If the losing player has no valid moves, the system shall declare the other player as the winner.</t>
+  </si>
+  <si>
+    <t>GT-9</t>
+  </si>
+  <si>
+    <t>If both players have the same number of checkers left, the system shall check if any moves are available for either player. If no moves are available, the game shall end in a draw.</t>
+  </si>
+  <si>
+    <t>GT-10</t>
+  </si>
+  <si>
+    <t>The system shall log the game termination details, including the winning player, losing player, and final board state, for debugging and analytics.</t>
+  </si>
+  <si>
+    <t>GT-11</t>
+  </si>
+  <si>
+    <t>The system shall ensure all game terminations are processed before updating the leaderboard.</t>
+  </si>
+  <si>
+    <t>GT-12</t>
+  </si>
+  <si>
+    <t>The system shall notify the Game Play module when a game has ended, indicating whether the result was a win, loss, or draw.</t>
+  </si>
+  <si>
+    <t>T2_001</t>
+  </si>
+  <si>
+    <t>2 - Join game</t>
+  </si>
+  <si>
+    <t>Data with list of player names shall be fetched from PageManager with a list of players in String Json when a player is logged in</t>
+  </si>
+  <si>
+    <t>getActivePlayer() method from PageManager</t>
+  </si>
+  <si>
+    <t>Interface/Team2-Join_Game.md</t>
+  </si>
+  <si>
+    <t>T2_002</t>
+  </si>
+  <si>
+    <t>3 - Join game</t>
+  </si>
+  <si>
+    <t>Data fetched from PageManager shall be parsed into JSON where a for each loop with iterate through the list of players to get the current player and call T2_33 to dyanmically add players to the html</t>
+  </si>
+  <si>
+    <t>displayJoinGame(player) , updateJoinGameList(data)</t>
+  </si>
+  <si>
+    <t>T2_003</t>
+  </si>
+  <si>
+    <t>4 - Join game</t>
   </si>
   <si>
     <t xml:space="preserve">any event from each player shall be sent to page manager directly to transfer to other element of the game </t>
   </si>
   <si>
-    <t xml:space="preserve">sendMessage({'action':typeEvent})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human players  shall have a "name, elo" tied to them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displayJoinGame(player)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If selected to join queue shall update the json with message type on that user Id and refer the player to PageManager with type 'JoinQueue'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendMessage({action:'joinQueue', playerClientId: globalClientID})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once a player enters loggined their name shall be added to the list of players in lobby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case loginSuccessful; swapToPage("join_game");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If user select to challenge shall update the json type for  the challenger "req_challenge" and refer to page manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendMessage({ action: "challengePlayer", "opponentClientId": player_info.ClientID });</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If select to view a match shall update the json along with the action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deprecated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a player is active shall be added to list of players for challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateStatus(playerID, status)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Players in a challenge cannot be challenged until they have completed their current match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a player is not online, they won't be in the lobby list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a player is online, status shall show as active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If player is in challenge, status shall show as in challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If player is in queue , status shall as busy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If player views a match,  shall redirect through the updated json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall display number of players currently logged in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 - Join game</t>
+    <t>sendMessage({'action':typeEvent})</t>
+  </si>
+  <si>
+    <t>T2_005</t>
+  </si>
+  <si>
+    <t>6 - Join game</t>
+  </si>
+  <si>
+    <t>Human players  shall have a "name, elo" tied to them</t>
+  </si>
+  <si>
+    <t>displayJoinGame(player)</t>
+  </si>
+  <si>
+    <t>T2_006</t>
+  </si>
+  <si>
+    <t>7 - Join game</t>
+  </si>
+  <si>
+    <t>If selected to join queue shall update the json with message type on that user Id and refer the player to PageManager with type 'JoinQueue'</t>
+  </si>
+  <si>
+    <t>sendMessage({action:'joinQueue', playerClientId: globalClientID})</t>
+  </si>
+  <si>
+    <t>T2_007</t>
+  </si>
+  <si>
+    <t>8 - Join game</t>
+  </si>
+  <si>
+    <t>Once a player enters loggined their name shall be added to the list of players in lobby</t>
+  </si>
+  <si>
+    <t>case loginSuccessful; swapToPage("join_game");</t>
+  </si>
+  <si>
+    <t>T2_008</t>
+  </si>
+  <si>
+    <t>9 - Join game</t>
+  </si>
+  <si>
+    <t>If user select to challenge shall update the json type for  the challenger "req_challenge" and refer to page manager</t>
+  </si>
+  <si>
+    <t>sendMessage({ action: "challengePlayer", "opponentClientId": player_info.ClientID });</t>
+  </si>
+  <si>
+    <t>T2_009</t>
+  </si>
+  <si>
+    <t>10 - Join game</t>
+  </si>
+  <si>
+    <t>If select to view a match shall update the json along with the action</t>
+  </si>
+  <si>
+    <t>deprecated</t>
+  </si>
+  <si>
+    <t>T2_010</t>
+  </si>
+  <si>
+    <t>11 - Join game</t>
+  </si>
+  <si>
+    <t>If a player is active shall be added to list of players for challenge</t>
+  </si>
+  <si>
+    <t>updateStatus(playerID, status)</t>
+  </si>
+  <si>
+    <t>T2_011</t>
+  </si>
+  <si>
+    <t>12 - Join game</t>
+  </si>
+  <si>
+    <t>Players in a challenge cannot be challenged until they have completed their current match</t>
+  </si>
+  <si>
+    <t>T2_012</t>
+  </si>
+  <si>
+    <t>13 - Join game</t>
+  </si>
+  <si>
+    <t>If a player is not online, they won't be in the lobby list</t>
+  </si>
+  <si>
+    <t>T2_013</t>
+  </si>
+  <si>
+    <t>14 - Join game</t>
+  </si>
+  <si>
+    <t>If a player is online, status shall show as active</t>
+  </si>
+  <si>
+    <t>T2_014</t>
+  </si>
+  <si>
+    <t>15 - Join game</t>
+  </si>
+  <si>
+    <t>If player is in challenge, status shall show as in challenge</t>
+  </si>
+  <si>
+    <t>T2_015</t>
+  </si>
+  <si>
+    <t>16 - Join game</t>
+  </si>
+  <si>
+    <t>If player is in queue , status shall as busy</t>
+  </si>
+  <si>
+    <t>T2_016</t>
+  </si>
+  <si>
+    <t>17 - Join game</t>
+  </si>
+  <si>
+    <t>If player views a match,  shall redirect through the updated json</t>
+  </si>
+  <si>
+    <t>T2_017</t>
+  </si>
+  <si>
+    <t>18 - Join game</t>
+  </si>
+  <si>
+    <t>shall display number of players currently logged in</t>
+  </si>
+  <si>
+    <t>T2_019</t>
+  </si>
+  <si>
+    <t>20 - Join game</t>
   </si>
   <si>
     <t xml:space="preserve">players shall have unique userIDs </t>
   </si>
   <si>
-    <t xml:space="preserve">globalClientID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 - Join game</t>
+    <t>globalClientID</t>
+  </si>
+  <si>
+    <t>T2_020</t>
+  </si>
+  <si>
+    <t>21 - Join game</t>
   </si>
   <si>
     <t xml:space="preserve">default shall have 2 bots to be played against </t>
   </si>
   <si>
-    <t xml:space="preserve">sendMessage({'action':'challengeBot', 'botId': 0/1})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall update html and send to Page manager JSON for player request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SwapToPage()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall try to reconnect if matchmaking failed in challenge mode</t>
+    <t>sendMessage({'action':'challengeBot', 'botId': 0/1})</t>
+  </si>
+  <si>
+    <t>T2_021</t>
+  </si>
+  <si>
+    <t>22 - Join game</t>
+  </si>
+  <si>
+    <t>shall update html and send to Page manager JSON for player request</t>
+  </si>
+  <si>
+    <t>SwapToPage()</t>
+  </si>
+  <si>
+    <t>T2_025</t>
+  </si>
+  <si>
+    <t>26 - Join game</t>
+  </si>
+  <si>
+    <t>shall try to reconnect if matchmaking failed in challenge mode</t>
   </si>
   <si>
     <t xml:space="preserve">T2_025 </t>
   </si>
   <si>
-    <t xml:space="preserve">27 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall have a button to request a checkers game between two bots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall have a button for the player to play aganist a bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There shall be a scroll controll in the lobby to preserve height of the div in index page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The join game front end shall show the user in the lobby menu with different action buttons and options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There shall be a color indicator to show the status of the player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The color status indicator shall be green to show that the player is idle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The color status indicator shall be red to show that the player is busy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A function with the parameter of a player's info shall create a list element with the requirements T2_... and append to the id "lobby_list_items"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a paragraph element with the id "UID{player_id}" and the innerText of "{player_username} - (ELO: (player_elo})" and T2_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A span element shall have the class "status free" if the player_status is ONLINE else it will be initialized with "status busy"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A challange button shall have the id "chall_btn-{player_id}", an onclick function that calls T2_37, and the inner text "Challenge"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A challenge function shall take in the parameters of the challenged player and current player then send it to PageManager with the correct format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A view button shall have the id "view_btn-{player_id}", an onclick function that call T2_39, and inner text of "view match"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a view match function shall take in the requested player's info and send to page manager in the corrent JSON format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 - Login/Signup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a username box for the returning user to enter thier unique identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a password box for the returning user to enter their created password.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Login/Signup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a login button for directing returning users to login page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a sign up button for directing new users to new account page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a game title (logo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">img</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a sign up information input to create new accounts for new users.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System users shall have a unique username with at least 4 characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniqueUser, span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System users shall have a password with at least 6 unique characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniquePass, span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall display a message if no account is found matching the entered username.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System will comunicate with Page Manager to send data to database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a username box for the new user to enter thier unique identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a password box for the new user to enter their created password.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a functioning button to log the user in using their entered credentials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login (id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a functioning button to create a user account using their entered credentials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_account (id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a function to show the signup page and simultaneuously hide the login screen upon click. Function for Requirement(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auth.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a function to show the login page and simultaneuously hide the signup screen upon click. Function for Requirement(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 - Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall ensure that each username is unique and associated with a UUID.</t>
+    <t>27 - Join game</t>
+  </si>
+  <si>
+    <t>shall have a button to request a checkers game between two bots</t>
+  </si>
+  <si>
+    <t>T2_026</t>
+  </si>
+  <si>
+    <t>28 - Join game</t>
+  </si>
+  <si>
+    <t>shall have a button for the player to play aganist a bot</t>
+  </si>
+  <si>
+    <t>T2_027</t>
+  </si>
+  <si>
+    <t>29 - Join game</t>
+  </si>
+  <si>
+    <t>There shall be a scroll controll in the lobby to preserve height of the div in index page</t>
+  </si>
+  <si>
+    <t>not implemented</t>
+  </si>
+  <si>
+    <t>T2_029</t>
+  </si>
+  <si>
+    <t>31 - Join game</t>
+  </si>
+  <si>
+    <t>The join game front end shall show the user in the lobby menu with different action buttons and options</t>
+  </si>
+  <si>
+    <t>T2_030</t>
+  </si>
+  <si>
+    <t>32 - Join game</t>
+  </si>
+  <si>
+    <t>There shall be a color indicator to show the status of the player</t>
+  </si>
+  <si>
+    <t>T2_031</t>
+  </si>
+  <si>
+    <t>33 - Join game</t>
+  </si>
+  <si>
+    <t>The color status indicator shall be green to show that the player is idle</t>
+  </si>
+  <si>
+    <t>T2_032</t>
+  </si>
+  <si>
+    <t>34 - Join game</t>
+  </si>
+  <si>
+    <t>The color status indicator shall be red to show that the player is busy</t>
+  </si>
+  <si>
+    <t>T2_33</t>
+  </si>
+  <si>
+    <t>35 - Join game</t>
+  </si>
+  <si>
+    <t>A function with the parameter of a player's info shall create a list element with the requirements T2_... and append to the id "lobby_list_items"</t>
+  </si>
+  <si>
+    <t>T2_34</t>
+  </si>
+  <si>
+    <t>36 - Join game</t>
+  </si>
+  <si>
+    <t>Create a paragraph element with the id "UID{player_id}" and the innerText of "{player_username} - (ELO: (player_elo})" and T2_35</t>
+  </si>
+  <si>
+    <t>T2_35</t>
+  </si>
+  <si>
+    <t>37 - Join game</t>
+  </si>
+  <si>
+    <t>A span element shall have the class "status free" if the player_status is ONLINE else it will be initialized with "status busy"</t>
+  </si>
+  <si>
+    <t>T2_36</t>
+  </si>
+  <si>
+    <t>38 - Join game</t>
+  </si>
+  <si>
+    <t>A challange button shall have the id "chall_btn-{player_id}", an onclick function that calls T2_37, and the inner text "Challenge"</t>
+  </si>
+  <si>
+    <t>T2_37</t>
+  </si>
+  <si>
+    <t>39 - Join game</t>
+  </si>
+  <si>
+    <t>A challenge function shall take in the parameters of the challenged player and current player then send it to PageManager with the correct format</t>
+  </si>
+  <si>
+    <t>T2_38</t>
+  </si>
+  <si>
+    <t>40 - Join game</t>
+  </si>
+  <si>
+    <t>A view button shall have the id "view_btn-{player_id}", an onclick function that call T2_39, and inner text of "view match"</t>
+  </si>
+  <si>
+    <t>T2_39</t>
+  </si>
+  <si>
+    <t>41 - Join game</t>
+  </si>
+  <si>
+    <t>a view match function shall take in the requested player's info and send to page manager in the corrent JSON format</t>
+  </si>
+  <si>
+    <t>LS_01</t>
+  </si>
+  <si>
+    <t>01 - Login/Signup</t>
+  </si>
+  <si>
+    <t>System shall have a username box for the returning user to enter thier unique identifier</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Test 1, Step 1</t>
+  </si>
+  <si>
+    <t>LS_02</t>
+  </si>
+  <si>
+    <t>System shall have a password box for the returning user to enter their created password.</t>
+  </si>
+  <si>
+    <t>LS_03</t>
+  </si>
+  <si>
+    <t>1 - Login/Signup</t>
+  </si>
+  <si>
+    <t>System shall have a login button for directing returning users to login page.</t>
+  </si>
+  <si>
+    <t>btn</t>
+  </si>
+  <si>
+    <t>LS_04</t>
+  </si>
+  <si>
+    <t>System shall have a sign up button for directing new users to new account page.</t>
+  </si>
+  <si>
+    <t>Test 1, Step 2</t>
+  </si>
+  <si>
+    <t>LS_05</t>
+  </si>
+  <si>
+    <t>System shall have a game title (logo)</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>LS_06</t>
+  </si>
+  <si>
+    <t>System shall have a sign up information input to create new accounts for new users.</t>
+  </si>
+  <si>
+    <t>new_account</t>
+  </si>
+  <si>
+    <t>LS_07</t>
+  </si>
+  <si>
+    <t>System users shall have a unique username with at least 4 characters.</t>
+  </si>
+  <si>
+    <t>uniqueUser, span</t>
+  </si>
+  <si>
+    <t>LS_08</t>
+  </si>
+  <si>
+    <t>System users shall have a password with at least 6 unique characters.</t>
+  </si>
+  <si>
+    <t>uniquePass, span</t>
+  </si>
+  <si>
+    <t>LS_09</t>
+  </si>
+  <si>
+    <t>System shall display a message if no account is found matching the entered username.</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>LS_10</t>
+  </si>
+  <si>
+    <t>System will comunicate with Page Manager to send data to database</t>
+  </si>
+  <si>
+    <t>sendInfo</t>
+  </si>
+  <si>
+    <t>LS_11</t>
+  </si>
+  <si>
+    <t>System shall have a username box for the new user to enter thier unique identifier</t>
+  </si>
+  <si>
+    <t>LS_12</t>
+  </si>
+  <si>
+    <t>System shall have a password box for the new user to enter their created password.</t>
+  </si>
+  <si>
+    <t>LS_13</t>
+  </si>
+  <si>
+    <t>System shall have a functioning button to log the user in using their entered credentials.</t>
+  </si>
+  <si>
+    <t>login (id)</t>
+  </si>
+  <si>
+    <t>LS_14</t>
+  </si>
+  <si>
+    <t>System shall have a functioning button to create a user account using their entered credentials.</t>
+  </si>
+  <si>
+    <t>new_account (id)</t>
+  </si>
+  <si>
+    <t>LS_15</t>
+  </si>
+  <si>
+    <t>System shall have a function to show the signup page and simultaneuously hide the login screen upon click. Function for Requirement(4)</t>
+  </si>
+  <si>
+    <t>auth.js</t>
+  </si>
+  <si>
+    <t>LS_16</t>
+  </si>
+  <si>
+    <t>System shall have a function to show the login page and simultaneuously hide the signup screen upon click. Function for Requirement(3)</t>
+  </si>
+  <si>
+    <t>DB_1</t>
+  </si>
+  <si>
+    <t>6 - Database</t>
+  </si>
+  <si>
+    <t>The database shall ensure that each username is unique and associated with a UUID.</t>
   </si>
   <si>
     <t xml:space="preserve">initializeDatabase() </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall generate a UUID for each new user record upon creation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall provide an interface that allows the page manager to request and retrieve stored user information by username, UUID, or other attributes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getPlayer(String username, String password)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support deletion of user records manually if needed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall maintain data and value ranges for all fields to maintain consistency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall respond to requests from page manager and deliver the requested information within a short span of time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall ensure consistency by preventing duplicate names by using the UUID's.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addPlayer(String username, String password)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall be scalable to handle an increasing number of user records.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support the insertion of new user records.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support the update of a user's win count.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recordMatchResult(int winnerId, int loserId)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support the update of a user's loss count.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support the update of a user's total games played.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support the update of a user's elo value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall provide a user's elo value to pair up system upon request.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's username.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updatePlayerStats(int playerId, int wins, int losses, int ELO, int gamesPlayed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's UUID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's wins.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's losses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's total games.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's elo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot II - 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to prioritize defensive moves to protect its own pieces.</t>
+    <t>DB_2</t>
+  </si>
+  <si>
+    <t>The database shall generate a UUID for each new user record upon creation.</t>
+  </si>
+  <si>
+    <t>DB_3</t>
+  </si>
+  <si>
+    <t>The database shall provide an interface that allows the page manager to request and retrieve stored user information by username, UUID, or other attributes.</t>
+  </si>
+  <si>
+    <t>getPlayer(String username, String password)</t>
+  </si>
+  <si>
+    <t>DB_4</t>
+  </si>
+  <si>
+    <t>The database shall support deletion of user records manually if needed.</t>
+  </si>
+  <si>
+    <t>DB_5</t>
+  </si>
+  <si>
+    <t>The database shall maintain data and value ranges for all fields to maintain consistency.</t>
+  </si>
+  <si>
+    <t>DB_6</t>
+  </si>
+  <si>
+    <t>The database shall respond to requests from page manager and deliver the requested information within a short span of time.</t>
+  </si>
+  <si>
+    <t>DB_7</t>
+  </si>
+  <si>
+    <t>The database shall ensure consistency by preventing duplicate names by using the UUID's.</t>
+  </si>
+  <si>
+    <t>addPlayer(String username, String password)</t>
+  </si>
+  <si>
+    <t>DB_8</t>
+  </si>
+  <si>
+    <t>The database shall be scalable to handle an increasing number of user records.</t>
+  </si>
+  <si>
+    <t>DB_9</t>
+  </si>
+  <si>
+    <t>The database shall support the insertion of new user records.</t>
+  </si>
+  <si>
+    <t>DB_10</t>
+  </si>
+  <si>
+    <t>The database shall support the update of a user's win count.</t>
+  </si>
+  <si>
+    <t>recordMatchResult(int winnerId, int loserId)</t>
+  </si>
+  <si>
+    <t>DB_11</t>
+  </si>
+  <si>
+    <t>The database shall support the update of a user's loss count.</t>
+  </si>
+  <si>
+    <t>DB_12</t>
+  </si>
+  <si>
+    <t>The database shall support the update of a user's total games played.</t>
+  </si>
+  <si>
+    <t>DB_13</t>
+  </si>
+  <si>
+    <t>The database shall support the update of a user's elo value.</t>
+  </si>
+  <si>
+    <t>DB_14</t>
+  </si>
+  <si>
+    <t>The database shall provide a user's elo value to pair up system upon request.</t>
+  </si>
+  <si>
+    <t>DB_15</t>
+  </si>
+  <si>
+    <t>The database shall store player's username.</t>
+  </si>
+  <si>
+    <t>updatePlayerStats(int playerId, int wins, int losses, int ELO, int gamesPlayed)</t>
+  </si>
+  <si>
+    <t>DB_16</t>
+  </si>
+  <si>
+    <t>The database shall store player's UUID.</t>
+  </si>
+  <si>
+    <t>DB_17</t>
+  </si>
+  <si>
+    <t>The database shall store player's wins.</t>
+  </si>
+  <si>
+    <t>DB_18</t>
+  </si>
+  <si>
+    <t>The database shall store player's losses.</t>
+  </si>
+  <si>
+    <t>DB_19</t>
+  </si>
+  <si>
+    <t>The database shall store player's total games.</t>
+  </si>
+  <si>
+    <t>DB_20</t>
+  </si>
+  <si>
+    <t>The database shall store player's elo.</t>
+  </si>
+  <si>
+    <t>BII-3</t>
+  </si>
+  <si>
+    <t>Bot II - 19</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to prioritize defensive moves to protect its own pieces.</t>
   </si>
   <si>
     <t xml:space="preserve">public void defendPieces() </t>
   </si>
   <si>
-    <t xml:space="preserve">BII-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall wait until the opponent has made a valid move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public void waitForOpponent()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall adapt its strategy based on the game phase (e.g., early, mid, late game)</t>
+    <t>BII-9</t>
+  </si>
+  <si>
+    <t>Bot 2 shall wait until the opponent has made a valid move.</t>
+  </si>
+  <si>
+    <t>public void waitForOpponent()</t>
+  </si>
+  <si>
+    <t>BII-10</t>
+  </si>
+  <si>
+    <t>Bot 2 shall adapt its strategy based on the game phase (e.g., early, mid, late game)</t>
   </si>
   <si>
     <t xml:space="preserve">public void adjustStrategy() </t>
   </si>
   <si>
-    <t xml:space="preserve">BII-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to optimally figure out the best route to block their opponent in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to recognize when to play "offensive" if there is an opportunity to capture an opponent's piece during a turn.</t>
+    <t>BII-11</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to optimally figure out the best route to block their opponent in.</t>
+  </si>
+  <si>
+    <t>BII-12</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to recognize when to play "offensive" if there is an opportunity to capture an opponent's piece during a turn.</t>
   </si>
   <si>
     <t xml:space="preserve">public void findOffensiveMove() </t>
   </si>
   <si>
-    <t xml:space="preserve">BII-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall recognize when one of its checker pieces have been captured by the opponent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public boolean isPieceCaptured(int pieceId)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall recognize when more than one of its checker pieces have been captured by the opponent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public void adjustStrategy()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall keep the back line pieces in place unless needed</t>
+    <t>BII-13</t>
+  </si>
+  <si>
+    <t>Bot 2 shall recognize when one of its checker pieces have been captured by the opponent.</t>
+  </si>
+  <si>
+    <t>public boolean isPieceCaptured(int pieceId)</t>
+  </si>
+  <si>
+    <t>BII-14</t>
+  </si>
+  <si>
+    <t>Bot 2 shall recognize when more than one of its checker pieces have been captured by the opponent.</t>
+  </si>
+  <si>
+    <t>public void adjustStrategy()</t>
+  </si>
+  <si>
+    <t>BII-15</t>
+  </si>
+  <si>
+    <t>Bot 2 shall keep the back line pieces in place unless needed</t>
   </si>
   <si>
     <t xml:space="preserve">public void protectBackLine() </t>
   </si>
   <si>
-    <t xml:space="preserve">BII-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to detect if a move in the future will be within danger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private static boolean wouldBeInDangerAfterMove(Checker piece, Cord dest, Board board)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to create a list of all possible safe moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public static ArrayList&lt;Cord&gt; getSafeMoves(Checker checker, Board board)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall detect if a piece is in danger after opponent moves</t>
+    <t>BII-18</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to detect if a move in the future will be within danger</t>
+  </si>
+  <si>
+    <t>private static boolean wouldBeInDangerAfterMove(Checker piece, Cord dest, Board board)</t>
+  </si>
+  <si>
+    <t>BII-19</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to create a list of all possible safe moves</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;Cord&gt; getSafeMoves(Checker checker, Board board)</t>
+  </si>
+  <si>
+    <t>BII-20</t>
+  </si>
+  <si>
+    <t>Bot 2 shall detect if a piece is in danger after opponent moves</t>
   </si>
   <si>
     <t xml:space="preserve">public static boolean isInDanger(Checker checker, Board board) </t>
   </si>
   <si>
-    <t xml:space="preserve">BII-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to move in order to defend its pieces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public static Move defendPieces(Board board)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot II -19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall act on its defensive strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public void makeDefensiveMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall determine the safest move for a piece in order to follow its defensive strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private boolean attemptDefensiveMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to capture opponent's pieces when diagonally passing over an opponent piece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public void capturePiece()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 - Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall display gold, silver, and bronze medals for the top three players.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fillTable()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall be shown on page load, populated with sorted player data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renderLeaderboard(), loadData()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall sort players in descending order based on Elo rating.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loadData()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall display each player's total games as the sum of games won and games lost.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player.getTotalGames(), fillTable()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The page shall request summary leaderboard data from the server on load.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renderLeaderboard(), sendMessage()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall clear previous data before displaying new player data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renderLeaderboard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall handle 'summaryData' server messages by passing the top 10 players to the leaderboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loadData(jsonMsg.top10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The UI shall hide the 'LEADERBOARD' button and display the leaderboard on click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summaryShow()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The UI shall display a 'Back to Home' button to hide the leaderboard and show the display button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summaryHide()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall be rendered inside a scrollable HTML table container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">div.scrollable-table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard table columns shall support click-to-sort functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sortTable()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sortTable function shall handle numeric and string-based sorting in ascending/descending order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot1 - 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two 'bots' shall be provided. They will play with different strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general case, makeMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall play checkers like a real players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">makeMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall negotiate with Bot II and Game Manager for game decisions and strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall consistently follow game rules and strategies without failure, ensuring a fair playing environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getAvailableCheckers(), getAllJumpMoves(), getAllNormalMoves()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall go before Bot II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateBoard() -&gt;game manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall exceute each move within 1 second of the opponent's move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall execute moves correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">executeMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall respond and execute moves efficiently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moveChecker(), moveKing()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 9</t>
+    <t>BII-21</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to move in order to defend its pieces</t>
+  </si>
+  <si>
+    <t>public static Move defendPieces(Board board)</t>
+  </si>
+  <si>
+    <t>BII-22</t>
+  </si>
+  <si>
+    <t>Bot II -19</t>
+  </si>
+  <si>
+    <t>Bot 2 shall act on its defensive strategy</t>
+  </si>
+  <si>
+    <t>public void makeDefensiveMove()</t>
+  </si>
+  <si>
+    <t>BII-23</t>
+  </si>
+  <si>
+    <t>Bot 2 shall determine the safest move for a piece in order to follow its defensive strategy</t>
+  </si>
+  <si>
+    <t>private boolean attemptDefensiveMove()</t>
+  </si>
+  <si>
+    <t>BII-4</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to capture opponent's pieces when diagonally passing over an opponent piece.</t>
+  </si>
+  <si>
+    <t>public void capturePiece()</t>
+  </si>
+  <si>
+    <t>SM-001</t>
+  </si>
+  <si>
+    <t>4 - Summary</t>
+  </si>
+  <si>
+    <t>The leaderboard shall display gold, silver, and bronze medals for the top three players.</t>
+  </si>
+  <si>
+    <t>fillTable()</t>
+  </si>
+  <si>
+    <t>Test 1, Step 5</t>
+  </si>
+  <si>
+    <t>SM-002</t>
+  </si>
+  <si>
+    <t>The leaderboard shall be shown on page load, populated with sorted player data.</t>
+  </si>
+  <si>
+    <t>renderLeaderboard(), loadData()</t>
+  </si>
+  <si>
+    <t>SM-003</t>
+  </si>
+  <si>
+    <t>The leaderboard shall sort players in descending order based on Elo rating.</t>
+  </si>
+  <si>
+    <t>loadData()</t>
+  </si>
+  <si>
+    <t>SM-004</t>
+  </si>
+  <si>
+    <t>The leaderboard shall display each player's total games as the sum of games won and games lost.</t>
+  </si>
+  <si>
+    <t>Player.getTotalGames(), fillTable()</t>
+  </si>
+  <si>
+    <t>SM-005</t>
+  </si>
+  <si>
+    <t>The page shall request summary leaderboard data from the server on load.</t>
+  </si>
+  <si>
+    <t>renderLeaderboard(), sendMessage()</t>
+  </si>
+  <si>
+    <t>SM-006</t>
+  </si>
+  <si>
+    <t>The leaderboard shall clear previous data before displaying new player data.</t>
+  </si>
+  <si>
+    <t>renderLeaderboard()</t>
+  </si>
+  <si>
+    <t>SM-007</t>
+  </si>
+  <si>
+    <t>The system shall handle 'summaryData' server messages by passing the top 10 players to the leaderboard</t>
+  </si>
+  <si>
+    <t>loadData(jsonMsg.top10)</t>
+  </si>
+  <si>
+    <t>SM-008</t>
+  </si>
+  <si>
+    <t>The UI shall hide the 'LEADERBOARD' button and display the leaderboard on click</t>
+  </si>
+  <si>
+    <t>summaryShow()</t>
+  </si>
+  <si>
+    <t>SM-009</t>
+  </si>
+  <si>
+    <t>The UI shall display a 'Back to Home' button to hide the leaderboard and show the display button</t>
+  </si>
+  <si>
+    <t>summaryHide()</t>
+  </si>
+  <si>
+    <t>SM-010</t>
+  </si>
+  <si>
+    <t>The leaderboard shall be rendered inside a scrollable HTML table container</t>
+  </si>
+  <si>
+    <t>div.scrollable-table</t>
+  </si>
+  <si>
+    <t>SM-011</t>
+  </si>
+  <si>
+    <t>The leaderboard table columns shall support click-to-sort functionality</t>
+  </si>
+  <si>
+    <t>sortTable()</t>
+  </si>
+  <si>
+    <t>SM-012</t>
+  </si>
+  <si>
+    <t>The sortTable function shall handle numeric and string-based sorting in ascending/descending order</t>
+  </si>
+  <si>
+    <t>BI - 1</t>
+  </si>
+  <si>
+    <t>Bot1 - 18</t>
+  </si>
+  <si>
+    <t>Two 'bots' shall be provided. They will play with different strategies</t>
+  </si>
+  <si>
+    <t>general case, makeMove()</t>
+  </si>
+  <si>
+    <t>BI - 2</t>
+  </si>
+  <si>
+    <t>BotI shall play checkers like a real players</t>
+  </si>
+  <si>
+    <t>makeMove()</t>
+  </si>
+  <si>
+    <t>BI - 3</t>
+  </si>
+  <si>
+    <t>BotI shall negotiate with Bot II and Game Manager for game decisions and strategies</t>
+  </si>
+  <si>
+    <t>in general</t>
+  </si>
+  <si>
+    <t>BI - 4</t>
+  </si>
+  <si>
+    <t>BotI shall consistently follow game rules and strategies without failure, ensuring a fair playing environment</t>
+  </si>
+  <si>
+    <t>getAvailableCheckers(), getAllJumpMoves(), getAllNormalMoves()</t>
+  </si>
+  <si>
+    <t>BI - 5</t>
+  </si>
+  <si>
+    <t>BotI shall go before Bot II</t>
+  </si>
+  <si>
+    <t>updateBoard() -&gt;game manager</t>
+  </si>
+  <si>
+    <t>BI - 6</t>
+  </si>
+  <si>
+    <t>BotI shall exceute each move within 1 second of the opponent's move</t>
+  </si>
+  <si>
+    <t>BI - 7</t>
+  </si>
+  <si>
+    <t>BotI shall execute moves correctly</t>
+  </si>
+  <si>
+    <t>executeMove()</t>
+  </si>
+  <si>
+    <t>BI - 8</t>
+  </si>
+  <si>
+    <t>BotI shall respond and execute moves efficiently</t>
+  </si>
+  <si>
+    <t>moveChecker(), moveKing()</t>
+  </si>
+  <si>
+    <t>BI - 9</t>
   </si>
   <si>
     <t xml:space="preserve">BotI will go first during the bot match </t>
   </si>
   <si>
-    <t xml:space="preserve">BI - 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI wins if the opponent has no legal moves or the opponent has no pieces left.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall be designed to accommodate future changes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall attempt to block opponent's moves when possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isSafeMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall prioritize offensive moves when safe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectBestJumpMove(), selectBestNormalMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall avoid moving backline peices unless necessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IsAdvancingMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall support multiple kings on the board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isKing(), wouldBecomeKing()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall check ande exectue multiple jumps if available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getAllJumpMoves()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall support Player vs Bot 1 matches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateBoard(), makeMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall suppport Bot 1 vs Bot 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot I shall operate independently in Player vs Player matches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall keep updating board after moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateBoard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 21</t>
+    <t>BI - 10</t>
+  </si>
+  <si>
+    <t>BotI wins if the opponent has no legal moves or the opponent has no pieces left.</t>
+  </si>
+  <si>
+    <t>BI - 11</t>
+  </si>
+  <si>
+    <t>BotI shall be designed to accommodate future changes</t>
+  </si>
+  <si>
+    <t>general case</t>
+  </si>
+  <si>
+    <t>BI - 12</t>
+  </si>
+  <si>
+    <t>BotI shall attempt to block opponent's moves when possible</t>
+  </si>
+  <si>
+    <t>isSafeMove()</t>
+  </si>
+  <si>
+    <t>BI - 13</t>
+  </si>
+  <si>
+    <t>BotI shall prioritize offensive moves when safe</t>
+  </si>
+  <si>
+    <t>selectBestJumpMove(), selectBestNormalMove()</t>
+  </si>
+  <si>
+    <t>BI - 14</t>
+  </si>
+  <si>
+    <t>BotI shall avoid moving backline peices unless necessary</t>
+  </si>
+  <si>
+    <t>IsAdvancingMove()</t>
+  </si>
+  <si>
+    <t>BI - 15</t>
+  </si>
+  <si>
+    <t>BotI shall support multiple kings on the board</t>
+  </si>
+  <si>
+    <t>isKing(), wouldBecomeKing()</t>
+  </si>
+  <si>
+    <t>BI - 16</t>
+  </si>
+  <si>
+    <t>BotI shall check ande exectue multiple jumps if available</t>
+  </si>
+  <si>
+    <t>getAllJumpMoves()</t>
+  </si>
+  <si>
+    <t>BI - 17</t>
+  </si>
+  <si>
+    <t>BotI shall support Player vs Bot 1 matches</t>
+  </si>
+  <si>
+    <t>updateBoard(), makeMove()</t>
+  </si>
+  <si>
+    <t>BI - 18</t>
+  </si>
+  <si>
+    <t>BotI shall suppport Bot 1 vs Bot 2</t>
+  </si>
+  <si>
+    <t>BI - 19</t>
+  </si>
+  <si>
+    <t>Bot I shall operate independently in Player vs Player matches</t>
+  </si>
+  <si>
+    <t>BI - 20</t>
+  </si>
+  <si>
+    <t>BotI shall keep updating board after moves</t>
+  </si>
+  <si>
+    <t>updateBoard()</t>
+  </si>
+  <si>
+    <t>BI - 21</t>
   </si>
   <si>
     <t xml:space="preserve">BotI should end game </t>
   </si>
   <si>
-    <t xml:space="preserve">endGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page Manager - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should receive data from Pair Up in Java format and convert it into JSON format before sending it to the Game Display.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getGameMove(jsonObj, Id) to get the Json object and turn it to java class that can be sent to Game Manger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should send the player data (received from Pair Up) as a JSON-formatted string to the Game Display using WebSockets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using GameManager GM = new GameManager();  so that we can send them the Java objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should receive a Java object from the Game Manager, containing game updates (e.g., move validity, game status), and convert it into a JSON-formatted string before sending it to the Game Display.</t>
+    <t>endGame()</t>
+  </si>
+  <si>
+    <t>PG - 1</t>
+  </si>
+  <si>
+    <t>Page Manager - 5</t>
+  </si>
+  <si>
+    <t>The Page Manager should receive data from Pair Up in Java format and convert it into JSON format before sending it to the Game Display.</t>
+  </si>
+  <si>
+    <t>getGameMove(jsonObj, Id) to get the Json object and turn it to java class that can be sent to Game Manger</t>
+  </si>
+  <si>
+    <t>PG - 2</t>
+  </si>
+  <si>
+    <t>The Page Manager should send the player data (received from Pair Up) as a JSON-formatted string to the Game Display using WebSockets.</t>
+  </si>
+  <si>
+    <t>Using GameManager GM = new GameManager();  so that we can send them the Java objects</t>
+  </si>
+  <si>
+    <t>PG - 3</t>
+  </si>
+  <si>
+    <t>The Page Manager should receive a Java object from the Game Manager, containing game updates (e.g., move validity, game status), and convert it into a JSON-formatted string before sending it to the Game Display.</t>
   </si>
   <si>
     <t xml:space="preserve">Created a pubic class GameUpdate to represent a move in the game. It alloess us to store updates </t>
   </si>
   <si>
-    <t xml:space="preserve">PG - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should send updates from the Game Manager as a JSON-formatted string to the Game Display, including whether the move was valid or invalid, the game status (win, loss, draw, or in progress), and the winner's name (if applicable).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using import com.google.gson.Gson and import com.google.gson.GsonBuilder so that we can use gson.fromJson() and gson.toJson() to convert between JSON strings and Java objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should receive a JSON-formatted string from the Game Display with the move made in the game. The Page Manager should then convert this JSON data into a Java object (GameMove) and send it to the Game Manager.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should send a Java object (GameMove) to the Game Manager containing the move data. This data will be received from the Game Display and converted from JSON format.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created a public class GameMove to represent a move in the game. It allows us to store move details and send them to GameManager for processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall recieve data from the client-side in the form of a JSON-formatted string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserEvent class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">untestable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall send data to the client-side in the form of a JSON-formatted string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserEventReply class, omMessage() or onSend()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall  associate each player as a HumanPlayer object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanPlayer()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall store all player information in the respective HumanPlayer object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanPlayer class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall send client ID to Pair Up subsystem if the client chooses to queue</t>
+    <t>PG - 4</t>
+  </si>
+  <si>
+    <t>The Page Manager should send updates from the Game Manager as a JSON-formatted string to the Game Display, including whether the move was valid or invalid, the game status (win, loss, draw, or in progress), and the winner's name (if applicable).</t>
+  </si>
+  <si>
+    <t>Using import com.google.gson.Gson and import com.google.gson.GsonBuilder so that we can use gson.fromJson() and gson.toJson() to convert between JSON strings and Java objects.</t>
+  </si>
+  <si>
+    <t>PG - 5</t>
+  </si>
+  <si>
+    <t>The Page Manager should receive a JSON-formatted string from the Game Display with the move made in the game. The Page Manager should then convert this JSON data into a Java object (GameMove) and send it to the Game Manager.</t>
+  </si>
+  <si>
+    <t>PG - 6</t>
+  </si>
+  <si>
+    <t>The Page Manager should send a Java object (GameMove) to the Game Manager containing the move data. This data will be received from the Game Display and converted from JSON format.</t>
+  </si>
+  <si>
+    <t>Created a public class GameMove to represent a move in the game. It allows us to store move details and send them to GameManager for processing</t>
+  </si>
+  <si>
+    <t>PG - 7</t>
+  </si>
+  <si>
+    <t>The Page Manager shall recieve data from the client-side in the form of a JSON-formatted string</t>
+  </si>
+  <si>
+    <t>UserEvent class</t>
+  </si>
+  <si>
+    <t>untestable</t>
+  </si>
+  <si>
+    <t>PG - 8</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send data to the client-side in the form of a JSON-formatted string</t>
+  </si>
+  <si>
+    <t>UserEventReply class, omMessage() or onSend()</t>
+  </si>
+  <si>
+    <t>PG - 9</t>
+  </si>
+  <si>
+    <t>The Page Manager shall  associate each player as a HumanPlayer object</t>
+  </si>
+  <si>
+    <t>HumanPlayer()</t>
+  </si>
+  <si>
+    <t>PG - 10</t>
+  </si>
+  <si>
+    <t>The Page Manager shall store all player information in the respective HumanPlayer object</t>
+  </si>
+  <si>
+    <t>HumanPlayer class</t>
+  </si>
+  <si>
+    <t>PG - 11</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send client ID to Pair Up subsystem if the client chooses to queue</t>
   </si>
   <si>
     <t xml:space="preserve">joinQueue(jsonObj, Id) </t>
   </si>
   <si>
-    <t xml:space="preserve">PG - 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall send client ID and opponenets ID to Pair Up subsystem if the client chooses to challenge a player</t>
+    <t>PG - 12</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send client ID and opponenets ID to Pair Up subsystem if the client chooses to challenge a player</t>
   </si>
   <si>
     <t xml:space="preserve">challengePlayer(jsonObj, Id) , challengePlayerReply(jsonObj, Id) </t>
   </si>
   <si>
-    <t xml:space="preserve">PG - 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall send client ID and bot type to Pair Up subsystem if the client chooses to challenge a bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">challengeBot(jsonObj, Id)  : requirement will be fufilled in implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall recieve from the Join Game subsystem whether the client wants to queue, challenge a player, and  challenge a bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joinQueue(jsonObj, Id), challengeBot(jsonObj, Id), challengePlayer(jsonObj, Id), challengePlayerReply(jsonObj, Id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall  send that the pair has failed to the Join Game subsystem if the request to challenge a player has expired or failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">challengePlayerReply(jsonObj, Id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall send the list of active players to the Join Game subsystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getActivePlayers(jsonObj, Id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager will be updated on client's locations (such as if they are currently logging in or playing a game)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Player()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager will produce Json with a "tag" to let other modules know if the information is for them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserEventReply class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager will provide the "Summary" module with Json-formatted data about the current players and top ten players. Java information will be converted to JSON to send to summary module.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JsonObject retrieveUserJson(int player_ID), JsonObject retrieveUserJson()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager will get returning active player from the database to store on the active player list. New IDs created for new players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current player list and handleNewUser()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Login module shall allow the player to input a handle upon loading the page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onMessage()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Login module shall send the inputted handle as a JSON-formatted WebSocket message to the Page Manager.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall check with the Database subsystem to verify if the player handle already exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handleLogin(userEvent U)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the handle exists, the Database shall return the associated player information to the Page Manager.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db.getPasswordForUser()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall forward the existing player information to the Login module as a JSON response.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the handle does not exist, the Page Manager shall create a new player record by sending the handle to the Database subsystem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handleNewUser(UserEvent U)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Database shall create a new player entry with a unique client ID and return it to the Page Manager.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db.adduser()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall forward the new player’s information (including client ID) to the Login module as a JSON message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Login module shall display a welcome message upon successful login or account creation.</t>
+    <t>PG - 13</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send client ID and bot type to Pair Up subsystem if the client chooses to challenge a bot</t>
+  </si>
+  <si>
+    <t>challengeBot(jsonObj, Id)  : requirement will be fufilled in implementation</t>
+  </si>
+  <si>
+    <t>PG - 14</t>
+  </si>
+  <si>
+    <t>The Page Manager shall recieve from the Join Game subsystem whether the client wants to queue, challenge a player, and  challenge a bot</t>
+  </si>
+  <si>
+    <t>joinQueue(jsonObj, Id), challengeBot(jsonObj, Id), challengePlayer(jsonObj, Id), challengePlayerReply(jsonObj, Id)</t>
+  </si>
+  <si>
+    <t>PG - 15</t>
+  </si>
+  <si>
+    <t>The Page Manager shall  send that the pair has failed to the Join Game subsystem if the request to challenge a player has expired or failed</t>
+  </si>
+  <si>
+    <t>challengePlayerReply(jsonObj, Id)</t>
+  </si>
+  <si>
+    <t>PG - 16</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send the list of active players to the Join Game subsystem</t>
+  </si>
+  <si>
+    <t>getActivePlayers(jsonObj, Id)</t>
+  </si>
+  <si>
+    <t>PG - 17</t>
+  </si>
+  <si>
+    <t>The Page Manager will be updated on client's locations (such as if they are currently logging in or playing a game)</t>
+  </si>
+  <si>
+    <t>Human Player()</t>
+  </si>
+  <si>
+    <t>PG - 18</t>
+  </si>
+  <si>
+    <t>The Page Manager will produce Json with a "tag" to let other modules know if the information is for them</t>
+  </si>
+  <si>
+    <t>UserEventReply class</t>
+  </si>
+  <si>
+    <t>PG - 19</t>
+  </si>
+  <si>
+    <t>The Page Manager will provide the "Summary" module with Json-formatted data about the current players and top ten players. Java information will be converted to JSON to send to summary module.</t>
+  </si>
+  <si>
+    <t>JsonObject retrieveUserJson(int player_ID), JsonObject retrieveUserJson()</t>
+  </si>
+  <si>
+    <t>PG - 20</t>
+  </si>
+  <si>
+    <t>The Page Manager will get returning active player from the database to store on the active player list. New IDs created for new players</t>
+  </si>
+  <si>
+    <t>current player list and handleNewUser()</t>
+  </si>
+  <si>
+    <t>PG - 21</t>
+  </si>
+  <si>
+    <t>The Login module shall allow the player to input a handle upon loading the page.</t>
+  </si>
+  <si>
+    <t>onMessage()</t>
+  </si>
+  <si>
+    <t>PG - 22</t>
+  </si>
+  <si>
+    <t>The Login module shall send the inputted handle as a JSON-formatted WebSocket message to the Page Manager.</t>
+  </si>
+  <si>
+    <t>PG - 23</t>
+  </si>
+  <si>
+    <t>The Page Manager shall check with the Database subsystem to verify if the player handle already exists.</t>
+  </si>
+  <si>
+    <t>handleLogin(userEvent U)</t>
+  </si>
+  <si>
+    <t>PG - 24</t>
+  </si>
+  <si>
+    <t>If the handle exists, the Database shall return the associated player information to the Page Manager.</t>
+  </si>
+  <si>
+    <t>db.getPasswordForUser()</t>
+  </si>
+  <si>
+    <t>PG - 25</t>
+  </si>
+  <si>
+    <t>The Page Manager shall forward the existing player information to the Login module as a JSON response.</t>
+  </si>
+  <si>
+    <t>PG - 26</t>
+  </si>
+  <si>
+    <t>If the handle does not exist, the Page Manager shall create a new player record by sending the handle to the Database subsystem.</t>
+  </si>
+  <si>
+    <t>handleNewUser(UserEvent U)</t>
+  </si>
+  <si>
+    <t>PG - 27</t>
+  </si>
+  <si>
+    <t>The Database shall create a new player entry with a unique client ID and return it to the Page Manager.</t>
+  </si>
+  <si>
+    <t>db.adduser()</t>
+  </si>
+  <si>
+    <t>PG - 28</t>
+  </si>
+  <si>
+    <t>The Page Manager shall forward the new player’s information (including client ID) to the Login module as a JSON message</t>
+  </si>
+  <si>
+    <t>PG - 29</t>
+  </si>
+  <si>
+    <t>The Login module shall display a welcome message upon successful login or account creation.</t>
   </si>
   <si>
     <t xml:space="preserve">frontend, but our response triggers it </t>
   </si>
   <si>
-    <t xml:space="preserve">PG - 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Login module shall alert the player if the handle is invalid (e.g., blank or too long).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frontend validation, but backed by backend enforcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Login module shall not allow the player to proceed unless a valid handle is entered and accepted.</t>
+    <t>PG - 30</t>
+  </si>
+  <si>
+    <t>The Login module shall alert the player if the handle is invalid (e.g., blank or too long).</t>
+  </si>
+  <si>
+    <t>frontend validation, but backed by backend enforcement</t>
+  </si>
+  <si>
+    <t>PG - 31</t>
+  </si>
+  <si>
+    <t>The Login module shall not allow the player to proceed unless a valid handle is entered and accepted.</t>
   </si>
   <si>
     <t xml:space="preserve">frontend , but backed by our response </t>
   </si>
   <si>
-    <t xml:space="preserve">PG - 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All communication between the Login module and the backend shall occur using JSON over WebSockets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onMessage() + userEvent+userEventReplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page manager should store list of active players.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hashtable&lt;HumanPlayer, Integer&gt; activePlayers = new Hashtable&lt;&gt;();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page manager should efficiently handle the converison back and forth between json and java.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handled inside each method.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page manager should manage the process of switching webpage information when user goes from one subsystem to theh other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transitionPage(int clientId, GameState newState) - automatic transitions of pages,  backToHome(int clientId) - transitions from summary to home page via button press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page manager should track the player current state (in which subsytem they are at) - for transitioning purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HashMap&lt;Integer, GameState&gt; clientStates = new HashMap&lt;&gt;();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page Manager should handle the case a user closes the tab and update clients and player info accordingly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">App.Java onClose, pm.userLeave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall display board with appropriate places</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createBoard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game display shall communicate with Page Manager through web sockets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socket.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall display the piece movement</t>
+    <t>PG - 32</t>
+  </si>
+  <si>
+    <t>All communication between the Login module and the backend shall occur using JSON over WebSockets.</t>
+  </si>
+  <si>
+    <t>onMessage() + userEvent+userEventReplay</t>
+  </si>
+  <si>
+    <t>PG - 33</t>
+  </si>
+  <si>
+    <t>Page manager should store list of active players.</t>
+  </si>
+  <si>
+    <t>Hashtable&lt;HumanPlayer, Integer&gt; activePlayers = new Hashtable&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>PG - 34</t>
+  </si>
+  <si>
+    <t>Page manager should efficiently handle the converison back and forth between json and java.</t>
+  </si>
+  <si>
+    <t>handled inside each method.</t>
+  </si>
+  <si>
+    <t>PG - 35</t>
+  </si>
+  <si>
+    <t>Page manager should manage the process of switching webpage information when user goes from one subsystem to theh other</t>
+  </si>
+  <si>
+    <t>transitionPage(int clientId, GameState newState) - automatic transitions of pages,  backToHome(int clientId) - transitions from summary to home page via button press</t>
+  </si>
+  <si>
+    <t>PG - 36</t>
+  </si>
+  <si>
+    <t>Page manager should track the player current state (in which subsytem they are at) - for transitioning purpose</t>
+  </si>
+  <si>
+    <t>HashMap&lt;Integer, GameState&gt; clientStates = new HashMap&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>PG - 37</t>
+  </si>
+  <si>
+    <t>Page Manager should handle the case a user closes the tab and update clients and player info accordingly</t>
+  </si>
+  <si>
+    <t>App.Java onClose, pm.userLeave</t>
+  </si>
+  <si>
+    <t>GD - 1</t>
+  </si>
+  <si>
+    <t>Game Display - 3</t>
+  </si>
+  <si>
+    <t>Game Display shall display board with appropriate places</t>
+  </si>
+  <si>
+    <t>createBoard()</t>
+  </si>
+  <si>
+    <t>UI_001</t>
+  </si>
+  <si>
+    <t>GD - 2</t>
+  </si>
+  <si>
+    <t>Game display shall communicate with Page Manager through web sockets</t>
+  </si>
+  <si>
+    <t>socket.js</t>
+  </si>
+  <si>
+    <t>GD - 3</t>
+  </si>
+  <si>
+    <t>Game Display shall display the piece movement</t>
   </si>
   <si>
     <t xml:space="preserve">handleClick(clickedId), movePiece(fromId, toId), </t>
   </si>
   <si>
-    <t xml:space="preserve">UI_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall display the current players of the game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updatePlayerTurn(), switchPlayer()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">game Display shall have a log that dislays the history of moves as well as status of the game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addLog(message, type='info')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall allow users to quit and request draw with buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quitGame(), sendDrawRequest()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall allow users to move pieces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">movePiece(fromId, toId), handleClick(clickedId), sendGameMove(fromId, toId)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall show whose turn it is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display Shall validate if a move is legal with backend before executing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendGameMove(fromtId, toId)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall remove caputred pieces from the board upon successful jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handleMoveResult(moveData)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD- 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall implement CSS styling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall contain all HTML on one page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index.html</t>
+    <t>UI_002</t>
+  </si>
+  <si>
+    <t>GD - 4</t>
+  </si>
+  <si>
+    <t>Game Display shall display the current players of the game</t>
+  </si>
+  <si>
+    <t>updatePlayerTurn(), switchPlayer()</t>
+  </si>
+  <si>
+    <t>UI_003</t>
+  </si>
+  <si>
+    <t>GD - 5</t>
+  </si>
+  <si>
+    <t>game Display shall have a log that dislays the history of moves as well as status of the game</t>
+  </si>
+  <si>
+    <t>addLog(message, type='info')</t>
+  </si>
+  <si>
+    <t>UI_004</t>
+  </si>
+  <si>
+    <t>GD - 6</t>
+  </si>
+  <si>
+    <t>Game Display shall allow users to quit and request draw with buttons</t>
+  </si>
+  <si>
+    <t>quitGame(), sendDrawRequest()</t>
+  </si>
+  <si>
+    <t>UI_005</t>
+  </si>
+  <si>
+    <t>Test 1, Step 8</t>
+  </si>
+  <si>
+    <t>GD - 7</t>
+  </si>
+  <si>
+    <t>Game Display shall allow users to move pieces</t>
+  </si>
+  <si>
+    <t>movePiece(fromId, toId), handleClick(clickedId), sendGameMove(fromId, toId)</t>
+  </si>
+  <si>
+    <t>UI_006</t>
+  </si>
+  <si>
+    <t>GD - 8</t>
+  </si>
+  <si>
+    <t>Game Display shall show whose turn it is</t>
+  </si>
+  <si>
+    <t>UI_007</t>
+  </si>
+  <si>
+    <t>GD - 9</t>
+  </si>
+  <si>
+    <t>Game Display Shall validate if a move is legal with backend before executing</t>
+  </si>
+  <si>
+    <t>sendGameMove(fromtId, toId)</t>
+  </si>
+  <si>
+    <t>GD - 10</t>
+  </si>
+  <si>
+    <t>Game Display shall remove caputred pieces from the board upon successful jump</t>
+  </si>
+  <si>
+    <t>handleMoveResult(moveData)</t>
+  </si>
+  <si>
+    <t>GD- 11</t>
+  </si>
+  <si>
+    <t>Game Display shall implement CSS styling</t>
+  </si>
+  <si>
+    <t>display.css</t>
+  </si>
+  <si>
+    <t>GD-12</t>
+  </si>
+  <si>
+    <t>Game Display shall contain all HTML on one page</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2072,7 +2077,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -2150,159 +2155,91 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Neutral" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2361,60 +2298,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF242424"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145f82"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e87331"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186c24"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -2446,7 +2399,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -2470,7 +2423,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2530,52 +2483,51 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W220" activeCellId="0" sqref="W220"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="65.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="47.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="18.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="10.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="36.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="21" style="1" width="8.63"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" style="1"/>
+    <col min="14" max="14" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="1"/>
+    <col min="20" max="20" width="36.44140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +2565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2636,11 +2588,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2659,35 +2611,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2703,6 +2655,9 @@
       <c r="E10" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P10" s="8" t="s">
         <v>30</v>
       </c>
@@ -2710,7 +2665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2726,6 +2681,9 @@
       <c r="E11" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P11" s="8" t="s">
         <v>30</v>
       </c>
@@ -2733,7 +2691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2749,6 +2707,9 @@
       <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P12" s="8" t="s">
         <v>30</v>
       </c>
@@ -2756,7 +2717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -2772,6 +2733,9 @@
       <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P13" s="8" t="s">
         <v>30</v>
       </c>
@@ -2779,7 +2743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -2792,11 +2756,14 @@
       <c r="E14" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="Q14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -2810,9 +2777,12 @@
       <c r="E15" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
@@ -2826,9 +2796,12 @@
       <c r="E16" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="K16" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -2841,11 +2814,14 @@
       <c r="E17" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="K17" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="Q17" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -2859,9 +2835,12 @@
       <c r="E18" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -2875,9 +2854,12 @@
       <c r="E19" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
@@ -2891,9 +2873,12 @@
       <c r="E20" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="K20" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -2909,6 +2894,9 @@
       <c r="E21" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="K21" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P21" s="8" t="s">
         <v>30</v>
       </c>
@@ -2916,7 +2904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -2930,9 +2918,12 @@
       <c r="E22" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
@@ -2948,6 +2939,9 @@
       <c r="E23" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="K23" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P23" s="8" t="s">
         <v>30</v>
       </c>
@@ -2955,7 +2949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -2972,6 +2966,9 @@
         <v>70</v>
       </c>
       <c r="G24" s="11"/>
+      <c r="K24" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P24" s="8" t="s">
         <v>30</v>
       </c>
@@ -2979,7 +2976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -2996,6 +2993,9 @@
         <v>73</v>
       </c>
       <c r="G25" s="11"/>
+      <c r="K25" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P25" s="8" t="s">
         <v>30</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -3017,8 +3017,11 @@
         <v>76</v>
       </c>
       <c r="G26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -3035,6 +3038,9 @@
         <v>79</v>
       </c>
       <c r="G27" s="11"/>
+      <c r="K27" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P27" s="8" t="s">
         <v>30</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -3058,11 +3064,14 @@
       <c r="G28" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="K28" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q28" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -3076,11 +3085,14 @@
         <v>87</v>
       </c>
       <c r="G29" s="11"/>
+      <c r="K29" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,11 +3107,14 @@
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="13"/>
+      <c r="K30" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="Q30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -3115,11 +3130,14 @@
       <c r="G31" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="K31" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -3135,8 +3153,11 @@
       <c r="G32" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3150,7 +3171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3164,7 +3185,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3190,7 +3211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3216,7 +3237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3242,7 +3263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3268,7 +3289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -3291,7 +3312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -3314,7 +3335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -3337,7 +3358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -3351,7 +3372,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -3374,7 +3395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -3397,7 +3418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3411,7 +3432,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -3428,7 +3449,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3442,7 +3463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3456,7 +3477,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3470,7 +3491,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3493,7 +3514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3507,7 +3528,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3521,7 +3542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -3535,7 +3556,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3549,7 +3570,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -3563,7 +3584,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -3586,7 +3607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -3605,6 +3626,9 @@
       <c r="F57" s="5" t="s">
         <v>170</v>
       </c>
+      <c r="K57" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P57" s="8" t="s">
         <v>30</v>
       </c>
@@ -3612,7 +3636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -3628,6 +3652,9 @@
       <c r="E58" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="K58" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P58" s="8" t="s">
         <v>30</v>
       </c>
@@ -3635,7 +3662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3651,6 +3678,9 @@
       <c r="E59" s="5" t="s">
         <v>178</v>
       </c>
+      <c r="K59" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P59" s="8" t="s">
         <v>30</v>
       </c>
@@ -3658,7 +3688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -3671,8 +3701,11 @@
       <c r="E60" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K60" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -3688,6 +3721,9 @@
       <c r="E61" s="5" t="s">
         <v>186</v>
       </c>
+      <c r="K61" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P61" s="8" t="s">
         <v>30</v>
       </c>
@@ -3695,7 +3731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3708,11 +3744,14 @@
       <c r="E62" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="K62" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q62" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>191</v>
       </c>
@@ -3728,6 +3767,9 @@
       <c r="E63" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="K63" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P63" s="8" t="s">
         <v>30</v>
       </c>
@@ -3735,7 +3777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>195</v>
       </c>
@@ -3751,6 +3793,9 @@
       <c r="E64" s="5" t="s">
         <v>198</v>
       </c>
+      <c r="K64" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P64" s="8" t="s">
         <v>30</v>
       </c>
@@ -3758,7 +3803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>199</v>
       </c>
@@ -3771,11 +3816,14 @@
       <c r="E65" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="K65" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q65" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -3788,8 +3836,11 @@
       <c r="E66" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K66" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>206</v>
       </c>
@@ -3805,6 +3856,9 @@
       <c r="E67" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="K67" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P67" s="8" t="s">
         <v>30</v>
       </c>
@@ -3812,7 +3866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>209</v>
       </c>
@@ -3825,11 +3879,14 @@
       <c r="E68" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="K68" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q68" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>212</v>
       </c>
@@ -3842,11 +3899,14 @@
       <c r="E69" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="K69" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q69" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>215</v>
       </c>
@@ -3859,8 +3919,11 @@
       <c r="E70" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K70" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>218</v>
       </c>
@@ -3873,8 +3936,11 @@
       <c r="E71" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K71" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -3887,11 +3953,14 @@
       <c r="E72" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="K72" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q72" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>224</v>
       </c>
@@ -3907,6 +3976,9 @@
       <c r="E73" s="5" t="s">
         <v>227</v>
       </c>
+      <c r="K73" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P73" s="8" t="s">
         <v>30</v>
       </c>
@@ -3914,7 +3986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -3927,8 +3999,11 @@
       <c r="E74" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K74" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>232</v>
       </c>
@@ -3944,6 +4019,9 @@
       <c r="E75" s="5" t="s">
         <v>235</v>
       </c>
+      <c r="K75" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P75" s="8" t="s">
         <v>30</v>
       </c>
@@ -3951,7 +4029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -3964,8 +4042,11 @@
       <c r="E76" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K76" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>239</v>
       </c>
@@ -3978,8 +4059,11 @@
       <c r="E77" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K77" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -3992,11 +4076,14 @@
       <c r="E78" s="5" t="s">
         <v>231</v>
       </c>
+      <c r="K78" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q78" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -4009,8 +4096,11 @@
       <c r="E79" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K79" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>249</v>
       </c>
@@ -4026,6 +4116,9 @@
       <c r="E80" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="K80" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P80" s="8" t="s">
         <v>30</v>
       </c>
@@ -4033,7 +4126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>252</v>
       </c>
@@ -4046,11 +4139,14 @@
       <c r="E81" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="K81" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q81" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>255</v>
       </c>
@@ -4063,11 +4159,14 @@
       <c r="E82" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="K82" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q82" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>258</v>
       </c>
@@ -4080,11 +4179,14 @@
       <c r="E83" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="K83" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q83" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>261</v>
       </c>
@@ -4097,8 +4199,11 @@
       <c r="E84" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K84" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>264</v>
       </c>
@@ -4111,8 +4216,11 @@
       <c r="E85" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K85" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>267</v>
       </c>
@@ -4125,8 +4233,11 @@
       <c r="E86" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K86" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
@@ -4139,8 +4250,11 @@
       <c r="E87" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K87" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>273</v>
       </c>
@@ -4156,6 +4270,9 @@
       <c r="E88" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="K88" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P88" s="8" t="s">
         <v>30</v>
       </c>
@@ -4163,7 +4280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>276</v>
       </c>
@@ -4176,8 +4293,11 @@
       <c r="E89" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K89" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>279</v>
       </c>
@@ -4190,8 +4310,11 @@
       <c r="E90" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K90" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>282</v>
       </c>
@@ -4208,7 +4331,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>287</v>
       </c>
@@ -4225,7 +4348,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
@@ -4242,7 +4365,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>293</v>
       </c>
@@ -4259,7 +4382,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>296</v>
       </c>
@@ -4276,7 +4399,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
@@ -4293,7 +4416,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>302</v>
       </c>
@@ -4307,7 +4430,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>305</v>
       </c>
@@ -4321,7 +4444,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>308</v>
       </c>
@@ -4335,7 +4458,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>311</v>
       </c>
@@ -4358,7 +4481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>314</v>
       </c>
@@ -4375,7 +4498,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>316</v>
       </c>
@@ -4392,7 +4515,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>318</v>
       </c>
@@ -4409,7 +4532,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>321</v>
       </c>
@@ -4426,7 +4549,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>324</v>
       </c>
@@ -4443,7 +4566,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>327</v>
       </c>
@@ -4460,7 +4583,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>329</v>
       </c>
@@ -4476,7 +4599,7 @@
       </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>333</v>
       </c>
@@ -4492,7 +4615,7 @@
       </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>335</v>
       </c>
@@ -4508,7 +4631,7 @@
       </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>338</v>
       </c>
@@ -4524,7 +4647,7 @@
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>340</v>
       </c>
@@ -4540,7 +4663,7 @@
       </c>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>342</v>
       </c>
@@ -4556,7 +4679,7 @@
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>344</v>
       </c>
@@ -4572,7 +4695,7 @@
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>347</v>
       </c>
@@ -4588,7 +4711,7 @@
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>349</v>
       </c>
@@ -4604,7 +4727,7 @@
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>351</v>
       </c>
@@ -4620,7 +4743,7 @@
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>354</v>
       </c>
@@ -4636,7 +4759,7 @@
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>356</v>
       </c>
@@ -4652,7 +4775,7 @@
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>358</v>
       </c>
@@ -4668,7 +4791,7 @@
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>360</v>
       </c>
@@ -4684,7 +4807,7 @@
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>362</v>
       </c>
@@ -4700,7 +4823,7 @@
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>365</v>
       </c>
@@ -4716,7 +4839,7 @@
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>367</v>
       </c>
@@ -4732,7 +4855,7 @@
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>369</v>
       </c>
@@ -4748,7 +4871,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>371</v>
       </c>
@@ -4764,7 +4887,7 @@
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>373</v>
       </c>
@@ -4780,7 +4903,7 @@
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>375</v>
       </c>
@@ -4796,7 +4919,7 @@
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>379</v>
       </c>
@@ -4819,7 +4942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>382</v>
       </c>
@@ -4835,7 +4958,7 @@
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>385</v>
       </c>
@@ -4851,7 +4974,7 @@
       </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>387</v>
       </c>
@@ -4867,7 +4990,7 @@
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>390</v>
       </c>
@@ -4883,7 +5006,7 @@
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>393</v>
       </c>
@@ -4899,7 +5022,7 @@
       </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>396</v>
       </c>
@@ -4915,7 +5038,7 @@
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>399</v>
       </c>
@@ -4931,7 +5054,7 @@
       </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>402</v>
       </c>
@@ -4947,7 +5070,7 @@
       </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>405</v>
       </c>
@@ -4963,7 +5086,7 @@
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>408</v>
       </c>
@@ -4979,7 +5102,7 @@
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>411</v>
       </c>
@@ -4995,7 +5118,7 @@
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>415</v>
       </c>
@@ -5011,7 +5134,7 @@
       </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="16" t="s">
         <v>418</v>
       </c>
@@ -5027,7 +5150,7 @@
       </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="17" t="s">
         <v>421</v>
       </c>
@@ -5044,7 +5167,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="17" t="s">
         <v>426</v>
       </c>
@@ -5059,7 +5182,7 @@
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="17" t="s">
         <v>429</v>
       </c>
@@ -5076,7 +5199,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="17" t="s">
         <v>432</v>
       </c>
@@ -5093,7 +5216,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="17" t="s">
         <v>435</v>
       </c>
@@ -5109,7 +5232,7 @@
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="17" t="s">
         <v>438</v>
       </c>
@@ -5125,7 +5248,7 @@
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="17" t="s">
         <v>441</v>
       </c>
@@ -5141,7 +5264,7 @@
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="17" t="s">
         <v>444</v>
       </c>
@@ -5157,7 +5280,7 @@
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="17" t="s">
         <v>447</v>
       </c>
@@ -5173,7 +5296,7 @@
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="17" t="s">
         <v>450</v>
       </c>
@@ -5189,7 +5312,7 @@
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="17" t="s">
         <v>453</v>
       </c>
@@ -5205,7 +5328,7 @@
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="17" t="s">
         <v>456</v>
       </c>
@@ -5221,7 +5344,7 @@
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>458</v>
       </c>
@@ -5235,7 +5358,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
@@ -5258,7 +5381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>465</v>
       </c>
@@ -5272,7 +5395,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>468</v>
       </c>
@@ -5286,7 +5409,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>471</v>
       </c>
@@ -5300,7 +5423,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>474</v>
       </c>
@@ -5314,7 +5437,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>476</v>
       </c>
@@ -5328,7 +5451,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>479</v>
       </c>
@@ -5342,7 +5465,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>482</v>
       </c>
@@ -5356,7 +5479,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>484</v>
       </c>
@@ -5370,7 +5493,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>486</v>
       </c>
@@ -5384,7 +5507,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>489</v>
       </c>
@@ -5398,7 +5521,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>492</v>
       </c>
@@ -5412,7 +5535,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>495</v>
       </c>
@@ -5426,7 +5549,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>498</v>
       </c>
@@ -5440,7 +5563,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>501</v>
       </c>
@@ -5454,7 +5577,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>504</v>
       </c>
@@ -5468,7 +5591,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>507</v>
       </c>
@@ -5482,7 +5605,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>509</v>
       </c>
@@ -5496,7 +5619,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>511</v>
       </c>
@@ -5510,7 +5633,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>514</v>
       </c>
@@ -5524,7 +5647,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>517</v>
       </c>
@@ -5547,7 +5670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>521</v>
       </c>
@@ -5570,7 +5693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>524</v>
       </c>
@@ -5593,7 +5716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:17" ht="72" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>527</v>
       </c>
@@ -5616,7 +5739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:17" ht="72" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>530</v>
       </c>
@@ -5639,7 +5762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:17" ht="54" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>532</v>
       </c>
@@ -5662,7 +5785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>535</v>
       </c>
@@ -5688,7 +5811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>539</v>
       </c>
@@ -5714,7 +5837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>542</v>
       </c>
@@ -5740,7 +5863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>545</v>
       </c>
@@ -5766,7 +5889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>548</v>
       </c>
@@ -5792,7 +5915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>551</v>
       </c>
@@ -5818,7 +5941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A187" s="18" t="s">
         <v>554</v>
       </c>
@@ -5844,7 +5967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:17" ht="54" x14ac:dyDescent="0.35">
       <c r="A188" s="18" t="s">
         <v>557</v>
       </c>
@@ -5870,7 +5993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A189" s="18" t="s">
         <v>560</v>
       </c>
@@ -5896,7 +6019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="18" t="s">
         <v>563</v>
       </c>
@@ -5922,7 +6045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="18" t="s">
         <v>566</v>
       </c>
@@ -5945,7 +6068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
         <v>569</v>
       </c>
@@ -5968,7 +6091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A193" s="18" t="s">
         <v>572</v>
       </c>
@@ -5991,7 +6114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A194" s="18" t="s">
         <v>575</v>
       </c>
@@ -6014,7 +6137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="18" t="s">
         <v>578</v>
       </c>
@@ -6031,7 +6154,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
         <v>581</v>
       </c>
@@ -6054,7 +6177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
         <v>583</v>
       </c>
@@ -6071,7 +6194,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
         <v>586</v>
       </c>
@@ -6088,7 +6211,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
         <v>589</v>
       </c>
@@ -6111,7 +6234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
         <v>591</v>
       </c>
@@ -6128,7 +6251,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="18" t="s">
         <v>594</v>
       </c>
@@ -6151,7 +6274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A202" s="18" t="s">
         <v>597</v>
       </c>
@@ -6174,7 +6297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>599</v>
       </c>
@@ -6191,7 +6314,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
         <v>602</v>
       </c>
@@ -6207,7 +6330,7 @@
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>605</v>
       </c>
@@ -6223,7 +6346,7 @@
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>608</v>
       </c>
@@ -6239,7 +6362,7 @@
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A207" s="18" t="s">
         <v>611</v>
       </c>
@@ -6262,7 +6385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
         <v>614</v>
       </c>
@@ -6285,7 +6408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:17" ht="54" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>617</v>
       </c>
@@ -6308,7 +6431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
         <v>620</v>
       </c>
@@ -6331,7 +6454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
         <v>623</v>
       </c>
@@ -6354,7 +6477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>626</v>
       </c>
@@ -6371,7 +6494,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>631</v>
       </c>
@@ -6394,7 +6517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>634</v>
       </c>
@@ -6414,7 +6537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>638</v>
       </c>
@@ -6431,7 +6554,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>642</v>
       </c>
@@ -6451,7 +6574,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>646</v>
       </c>
@@ -6471,7 +6594,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>651</v>
       </c>
@@ -6491,7 +6614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>655</v>
       </c>
@@ -6508,7 +6631,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="211.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>658</v>
       </c>
@@ -6522,11 +6645,11 @@
         <v>660</v>
       </c>
       <c r="F220" s="1" t="e">
-        <f aca="false">#VALUE!</f>
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="204.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>661</v>
       </c>
@@ -6540,11 +6663,11 @@
         <v>663</v>
       </c>
       <c r="F221" s="1" t="e">
-        <f aca="false">#VALUE!</f>
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="169.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>664</v>
       </c>
@@ -6558,11 +6681,11 @@
         <v>666</v>
       </c>
       <c r="F222" s="1" t="e">
-        <f aca="false">#VALUE!</f>
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>667</v>
       </c>
@@ -6576,21 +6699,28 @@
         <v>669</v>
       </c>
       <c r="F223" s="1" t="e">
-        <f aca="false">#VALUE!</f>
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D167" r:id="rId1" display="BotI shall avoid moving backline peices unless necessary"/>
-    <hyperlink ref="D168" r:id="rId2" display="BotI shall support multiple kings on the board"/>
+    <hyperlink ref="D167" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D168" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E37C232-79F2-40BF-8492-ECD04340236D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A42CAD-812B-41E5-BB81-6EA01BC13463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6411A18-4D47-4D96-8248-6D898C7FD866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2497,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I176" sqref="I176"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2757,7 +2757,7 @@
         <v>40</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>41</v>
@@ -2778,7 +2778,7 @@
         <v>44</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q15" s="8"/>
     </row>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6411A18-4D47-4D96-8248-6D898C7FD866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E637128-77D8-4633-A9A4-BE894A1BEDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2497,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2763,7 +2763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>53</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q22" s="8"/>
     </row>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E637128-77D8-4633-A9A4-BE894A1BEDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13E766-2D3E-43FF-A925-997D9A2AA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27840" yWindow="960" windowWidth="21600" windowHeight="11235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardankarki/Desktop/cse3310-sp25-004/FinalRequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13E766-2D3E-43FF-A925-997D9A2AA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34788134-EBA4-CE4D-9431-B18B33C71783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="960" windowWidth="21600" windowHeight="11235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="680">
   <si>
     <t>Tested By</t>
   </si>
@@ -2055,6 +2055,30 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>Step 1, pass</t>
+  </si>
+  <si>
+    <t>Step 4, pass</t>
+  </si>
+  <si>
+    <t>Step 2, pass</t>
+  </si>
+  <si>
+    <t>Step 5, fail</t>
+  </si>
+  <si>
+    <t>Step 8, pass</t>
+  </si>
+  <si>
+    <t>Step 3, pass</t>
+  </si>
+  <si>
+    <t>Step 5, pass</t>
+  </si>
+  <si>
+    <t>Step 4, fail</t>
   </si>
 </sst>
 </file>
@@ -2497,37 +2521,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="63" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="2" customWidth="1"/>
     <col min="8" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.6640625" style="1"/>
-    <col min="14" max="14" width="10.88671875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.21875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.6640625" style="1"/>
-    <col min="20" max="20" width="36.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="36.5" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2565,7 +2589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2588,7 +2612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2611,7 +2635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2619,27 +2643,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2665,7 +2689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2691,7 +2715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2717,7 +2741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -2743,7 +2767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -2763,7 +2787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -2782,7 +2806,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
@@ -2801,7 +2825,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -2821,7 +2845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -2840,7 +2864,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -2859,7 +2883,7 @@
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
@@ -2878,7 +2902,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -2904,7 +2928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -2923,7 +2947,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
@@ -2949,7 +2973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -2976,7 +3000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -3003,7 +3027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -3021,7 +3045,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -3048,7 +3072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -3071,7 +3095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -3092,7 +3116,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -3114,7 +3138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -3137,7 +3161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -3157,7 +3181,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3171,7 +3195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3185,7 +3209,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3211,7 +3235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3237,7 +3261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3263,7 +3287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3289,7 +3313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -3312,7 +3336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -3335,7 +3359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -3358,7 +3382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -3372,7 +3396,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -3395,7 +3419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -3418,7 +3442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3432,7 +3456,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -3449,7 +3473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3463,7 +3487,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3477,7 +3501,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3491,7 +3515,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3514,7 +3538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3528,7 +3552,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3542,7 +3566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -3556,7 +3580,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3570,7 +3594,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -3584,7 +3608,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -3607,7 +3631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -3636,7 +3660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -3662,7 +3686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3688,7 +3712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -3705,7 +3729,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -3731,7 +3755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3751,7 +3775,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>191</v>
       </c>
@@ -3777,7 +3801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>195</v>
       </c>
@@ -3803,7 +3827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>199</v>
       </c>
@@ -3823,7 +3847,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -3840,7 +3864,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>206</v>
       </c>
@@ -3866,7 +3890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>209</v>
       </c>
@@ -3886,7 +3910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>212</v>
       </c>
@@ -3906,7 +3930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>215</v>
       </c>
@@ -3923,7 +3947,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>218</v>
       </c>
@@ -3940,7 +3964,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -3960,7 +3984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>224</v>
       </c>
@@ -3986,7 +4010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -4003,7 +4027,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>232</v>
       </c>
@@ -4029,7 +4053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -4046,7 +4070,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>239</v>
       </c>
@@ -4063,7 +4087,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -4083,7 +4107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -4100,7 +4124,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>249</v>
       </c>
@@ -4126,7 +4150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>252</v>
       </c>
@@ -4146,7 +4170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>255</v>
       </c>
@@ -4166,7 +4190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>258</v>
       </c>
@@ -4186,7 +4210,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>261</v>
       </c>
@@ -4203,7 +4227,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>264</v>
       </c>
@@ -4220,7 +4244,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>267</v>
       </c>
@@ -4237,7 +4261,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
@@ -4254,7 +4278,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>273</v>
       </c>
@@ -4280,7 +4304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>276</v>
       </c>
@@ -4297,7 +4321,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>279</v>
       </c>
@@ -4314,7 +4338,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>282</v>
       </c>
@@ -4327,11 +4351,14 @@
       <c r="E91" s="15" t="s">
         <v>285</v>
       </c>
+      <c r="K91" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="Q91" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>287</v>
       </c>
@@ -4344,11 +4371,14 @@
       <c r="E92" s="15" t="s">
         <v>285</v>
       </c>
+      <c r="K92" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="Q92" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
@@ -4361,11 +4391,14 @@
       <c r="E93" s="15" t="s">
         <v>292</v>
       </c>
+      <c r="K93" s="1" t="s">
+        <v>673</v>
+      </c>
       <c r="Q93" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>293</v>
       </c>
@@ -4378,11 +4411,14 @@
       <c r="E94" s="15" t="s">
         <v>292</v>
       </c>
+      <c r="K94" s="1" t="s">
+        <v>673</v>
+      </c>
       <c r="Q94" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>296</v>
       </c>
@@ -4395,11 +4431,14 @@
       <c r="E95" s="15" t="s">
         <v>298</v>
       </c>
+      <c r="K95" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="Q95" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
@@ -4412,11 +4451,14 @@
       <c r="E96" s="15" t="s">
         <v>301</v>
       </c>
+      <c r="K96" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="Q96" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>302</v>
       </c>
@@ -4429,8 +4471,11 @@
       <c r="E97" s="15" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K97" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>305</v>
       </c>
@@ -4443,8 +4488,11 @@
       <c r="E98" s="15" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K98" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>308</v>
       </c>
@@ -4457,8 +4505,11 @@
       <c r="E99" s="15" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K99" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>311</v>
       </c>
@@ -4474,6 +4525,9 @@
       <c r="E100" s="15" t="s">
         <v>313</v>
       </c>
+      <c r="K100" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="P100" s="8" t="s">
         <v>30</v>
       </c>
@@ -4481,7 +4535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>314</v>
       </c>
@@ -4494,11 +4548,14 @@
       <c r="E101" s="15" t="s">
         <v>301</v>
       </c>
+      <c r="K101" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="Q101" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>316</v>
       </c>
@@ -4511,11 +4568,14 @@
       <c r="E102" s="15" t="s">
         <v>301</v>
       </c>
+      <c r="K102" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="Q102" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>318</v>
       </c>
@@ -4528,11 +4588,14 @@
       <c r="E103" s="15" t="s">
         <v>320</v>
       </c>
+      <c r="K103" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="Q103" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>321</v>
       </c>
@@ -4545,11 +4608,14 @@
       <c r="E104" s="15" t="s">
         <v>323</v>
       </c>
+      <c r="K104" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="Q104" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>324</v>
       </c>
@@ -4562,11 +4628,14 @@
       <c r="E105" s="15" t="s">
         <v>326</v>
       </c>
+      <c r="K105" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="Q105" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>327</v>
       </c>
@@ -4579,11 +4648,14 @@
       <c r="E106" s="15" t="s">
         <v>326</v>
       </c>
+      <c r="K106" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="Q106" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>329</v>
       </c>
@@ -4597,9 +4669,12 @@
       <c r="E107" s="5" t="s">
         <v>332</v>
       </c>
+      <c r="K107" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>333</v>
       </c>
@@ -4613,9 +4688,12 @@
       <c r="E108" s="5" t="s">
         <v>332</v>
       </c>
+      <c r="K108" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>335</v>
       </c>
@@ -4629,9 +4707,12 @@
       <c r="E109" s="5" t="s">
         <v>337</v>
       </c>
+      <c r="K109" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>338</v>
       </c>
@@ -4647,7 +4728,7 @@
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>340</v>
       </c>
@@ -4663,7 +4744,7 @@
       </c>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>342</v>
       </c>
@@ -4679,7 +4760,7 @@
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>344</v>
       </c>
@@ -4695,7 +4776,7 @@
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>347</v>
       </c>
@@ -4711,7 +4792,7 @@
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>349</v>
       </c>
@@ -4727,7 +4808,7 @@
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>351</v>
       </c>
@@ -4743,7 +4824,7 @@
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>354</v>
       </c>
@@ -4759,7 +4840,7 @@
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>356</v>
       </c>
@@ -4775,7 +4856,7 @@
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>358</v>
       </c>
@@ -4791,7 +4872,7 @@
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>360</v>
       </c>
@@ -4807,7 +4888,7 @@
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>362</v>
       </c>
@@ -4823,7 +4904,7 @@
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>365</v>
       </c>
@@ -4839,7 +4920,7 @@
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>367</v>
       </c>
@@ -4855,7 +4936,7 @@
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>369</v>
       </c>
@@ -4871,7 +4952,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>371</v>
       </c>
@@ -4887,7 +4968,7 @@
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>373</v>
       </c>
@@ -4903,7 +4984,7 @@
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>375</v>
       </c>
@@ -4919,7 +5000,7 @@
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>379</v>
       </c>
@@ -4942,7 +5023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>382</v>
       </c>
@@ -4958,7 +5039,7 @@
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>385</v>
       </c>
@@ -4974,7 +5055,7 @@
       </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>387</v>
       </c>
@@ -4990,7 +5071,7 @@
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>390</v>
       </c>
@@ -5006,7 +5087,7 @@
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>393</v>
       </c>
@@ -5022,7 +5103,7 @@
       </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>396</v>
       </c>
@@ -5038,7 +5119,7 @@
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>399</v>
       </c>
@@ -5054,7 +5135,7 @@
       </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>402</v>
       </c>
@@ -5070,7 +5151,7 @@
       </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>405</v>
       </c>
@@ -5086,7 +5167,7 @@
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>408</v>
       </c>
@@ -5102,7 +5183,7 @@
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>411</v>
       </c>
@@ -5118,7 +5199,7 @@
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>415</v>
       </c>
@@ -5134,7 +5215,7 @@
       </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="16" t="s">
         <v>418</v>
       </c>
@@ -5150,7 +5231,7 @@
       </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
         <v>421</v>
       </c>
@@ -5167,7 +5248,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
         <v>426</v>
       </c>
@@ -5182,7 +5263,7 @@
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
         <v>429</v>
       </c>
@@ -5199,7 +5280,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
         <v>432</v>
       </c>
@@ -5216,7 +5297,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
         <v>435</v>
       </c>
@@ -5232,7 +5313,7 @@
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
         <v>438</v>
       </c>
@@ -5248,7 +5329,7 @@
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
         <v>441</v>
       </c>
@@ -5264,7 +5345,7 @@
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
         <v>444</v>
       </c>
@@ -5280,7 +5361,7 @@
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
         <v>447</v>
       </c>
@@ -5296,7 +5377,7 @@
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
         <v>450</v>
       </c>
@@ -5312,7 +5393,7 @@
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
         <v>453</v>
       </c>
@@ -5328,7 +5409,7 @@
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
         <v>456</v>
       </c>
@@ -5344,7 +5425,7 @@
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>458</v>
       </c>
@@ -5357,8 +5438,11 @@
       <c r="E154" s="18" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K154" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
@@ -5374,6 +5458,9 @@
       <c r="E155" s="18" t="s">
         <v>464</v>
       </c>
+      <c r="K155" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P155" s="8" t="s">
         <v>30</v>
       </c>
@@ -5381,7 +5468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>465</v>
       </c>
@@ -5394,8 +5481,11 @@
       <c r="E156" s="18" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K156" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>468</v>
       </c>
@@ -5408,8 +5498,11 @@
       <c r="E157" s="18" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K157" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>471</v>
       </c>
@@ -5422,8 +5515,11 @@
       <c r="E158" s="18" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K158" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>474</v>
       </c>
@@ -5436,8 +5532,11 @@
       <c r="E159" s="18" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K159" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>476</v>
       </c>
@@ -5450,8 +5549,11 @@
       <c r="E160" s="18" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K160" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>479</v>
       </c>
@@ -5464,8 +5566,11 @@
       <c r="E161" s="18" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K161" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>482</v>
       </c>
@@ -5478,8 +5583,11 @@
       <c r="E162" s="18" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K162" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>484</v>
       </c>
@@ -5492,8 +5600,11 @@
       <c r="E163" s="18" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K163" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>486</v>
       </c>
@@ -5506,8 +5617,11 @@
       <c r="E164" s="18" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K164" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>489</v>
       </c>
@@ -5520,8 +5634,11 @@
       <c r="E165" s="18" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K165" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>492</v>
       </c>
@@ -5534,8 +5651,11 @@
       <c r="E166" s="18" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K166" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>495</v>
       </c>
@@ -5548,8 +5668,11 @@
       <c r="E167" s="18" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K167" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>498</v>
       </c>
@@ -5562,8 +5685,11 @@
       <c r="E168" s="18" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K168" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>501</v>
       </c>
@@ -5576,8 +5702,11 @@
       <c r="E169" s="18" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K169" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>504</v>
       </c>
@@ -5590,8 +5719,11 @@
       <c r="E170" s="18" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K170" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>507</v>
       </c>
@@ -5604,8 +5736,11 @@
       <c r="E171" s="18" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K171" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>509</v>
       </c>
@@ -5618,8 +5753,11 @@
       <c r="E172" s="18" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K172" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>511</v>
       </c>
@@ -5632,8 +5770,11 @@
       <c r="E173" s="18" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K173" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>514</v>
       </c>
@@ -5646,8 +5787,11 @@
       <c r="E174" s="18" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+      <c r="K174" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
         <v>517</v>
       </c>
@@ -5670,7 +5814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
         <v>521</v>
       </c>
@@ -5693,7 +5837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>524</v>
       </c>
@@ -5716,7 +5860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="72" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" ht="80" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
         <v>527</v>
       </c>
@@ -5739,7 +5883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="72" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" ht="80" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
         <v>530</v>
       </c>
@@ -5762,7 +5906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="54" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
         <v>532</v>
       </c>
@@ -5785,7 +5929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
         <v>535</v>
       </c>
@@ -5811,7 +5955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
         <v>539</v>
       </c>
@@ -5837,7 +5981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
         <v>542</v>
       </c>
@@ -5863,7 +6007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>545</v>
       </c>
@@ -5889,7 +6033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
         <v>548</v>
       </c>
@@ -5915,7 +6059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
         <v>551</v>
       </c>
@@ -5941,7 +6085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
         <v>554</v>
       </c>
@@ -5967,7 +6111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="54" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
         <v>557</v>
       </c>
@@ -5993,7 +6137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
         <v>560</v>
       </c>
@@ -6019,7 +6163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
         <v>563</v>
       </c>
@@ -6045,7 +6189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
         <v>566</v>
       </c>
@@ -6068,7 +6212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
         <v>569</v>
       </c>
@@ -6091,7 +6235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
         <v>572</v>
       </c>
@@ -6114,7 +6258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
         <v>575</v>
       </c>
@@ -6137,7 +6281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
         <v>578</v>
       </c>
@@ -6154,7 +6298,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
         <v>581</v>
       </c>
@@ -6177,7 +6321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
         <v>583</v>
       </c>
@@ -6194,7 +6338,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
         <v>586</v>
       </c>
@@ -6211,7 +6355,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
         <v>589</v>
       </c>
@@ -6234,7 +6378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
         <v>591</v>
       </c>
@@ -6251,7 +6395,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
         <v>594</v>
       </c>
@@ -6274,7 +6418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
         <v>597</v>
       </c>
@@ -6297,7 +6441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
         <v>599</v>
       </c>
@@ -6314,7 +6458,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
         <v>602</v>
       </c>
@@ -6330,7 +6474,7 @@
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
         <v>605</v>
       </c>
@@ -6346,7 +6490,7 @@
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>608</v>
       </c>
@@ -6362,7 +6506,7 @@
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
         <v>611</v>
       </c>
@@ -6385,7 +6529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
         <v>614</v>
       </c>
@@ -6408,7 +6552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="54" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
         <v>617</v>
       </c>
@@ -6431,7 +6575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
         <v>620</v>
       </c>
@@ -6454,7 +6598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
         <v>623</v>
       </c>
@@ -6477,7 +6621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>626</v>
       </c>
@@ -6494,7 +6638,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>631</v>
       </c>
@@ -6517,7 +6661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>634</v>
       </c>
@@ -6537,7 +6681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>638</v>
       </c>
@@ -6554,7 +6698,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>642</v>
       </c>
@@ -6574,7 +6718,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>646</v>
       </c>
@@ -6594,7 +6738,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>651</v>
       </c>
@@ -6614,7 +6758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>655</v>
       </c>
@@ -6631,7 +6775,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>658</v>
       </c>
@@ -6649,7 +6793,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>661</v>
       </c>
@@ -6667,7 +6811,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>664</v>
       </c>
@@ -6685,7 +6829,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>667</v>
       </c>
@@ -6719,7 +6863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardankarki/Desktop/cse3310-sp25-004/FinalRequirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanshugart/cse3310-sp25-004/FinalRequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34788134-EBA4-CE4D-9431-B18B33C71783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DCD7E-2F3B-1543-B269-0AEA40A8B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="800" windowWidth="28800" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="681">
   <si>
     <t>Tested By</t>
   </si>
@@ -2079,6 +2079,9 @@
   </si>
   <si>
     <t>Step 4, fail</t>
+  </si>
+  <si>
+    <t>ut</t>
   </si>
 </sst>
 </file>
@@ -2521,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="63" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K175" sqref="K175"/>
+    <sheetView tabSelected="1" topLeftCell="E116" zoomScale="63" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3194,6 +3197,9 @@
       <c r="E33" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="K33" s="1" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -3208,6 +3214,9 @@
       <c r="E34" s="5" t="s">
         <v>103</v>
       </c>
+      <c r="K34" s="1" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -3225,6 +3234,9 @@
       <c r="E35" s="5" t="s">
         <v>106</v>
       </c>
+      <c r="K35" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="N35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3251,6 +3263,9 @@
       <c r="E36" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="K36" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="N36" s="1" t="s">
         <v>30</v>
       </c>
@@ -3277,6 +3292,9 @@
       <c r="E37" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="K37" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>30</v>
       </c>
@@ -3303,6 +3321,9 @@
       <c r="E38" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="K38" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>30</v>
       </c>
@@ -3329,6 +3350,9 @@
       <c r="E39" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="K39" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="P39" s="8" t="s">
         <v>30</v>
       </c>
@@ -3352,6 +3376,9 @@
       <c r="E40" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="K40" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="P40" s="8" t="s">
         <v>30</v>
       </c>
@@ -3375,6 +3402,9 @@
       <c r="E41" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="K41" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="P41" s="8" t="s">
         <v>30</v>
       </c>
@@ -3395,6 +3425,9 @@
       <c r="E42" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="K42" s="1" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -3412,6 +3445,9 @@
       <c r="E43" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="K43" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="P43" s="8" t="s">
         <v>30</v>
       </c>
@@ -3435,6 +3471,9 @@
       <c r="E44" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="K44" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="P44" s="8" t="s">
         <v>30</v>
       </c>
@@ -3455,6 +3494,9 @@
       <c r="E45" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="K45" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -3469,6 +3511,9 @@
       <c r="E46" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="K46" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q46" s="1" t="s">
         <v>140</v>
       </c>
@@ -3486,6 +3531,9 @@
       <c r="E47" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="K47" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -3500,6 +3548,9 @@
       <c r="E48" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="K48" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -3514,6 +3565,9 @@
       <c r="E49" s="5" t="s">
         <v>149</v>
       </c>
+      <c r="K49" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -3531,6 +3585,9 @@
       <c r="E50" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="K50" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="P50" s="8" t="s">
         <v>30</v>
       </c>
@@ -3551,6 +3608,9 @@
       <c r="E51" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="K51" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -3565,6 +3625,9 @@
       <c r="E52" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="K52" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -3579,6 +3642,9 @@
       <c r="E53" s="5" t="s">
         <v>149</v>
       </c>
+      <c r="K53" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -3593,6 +3659,9 @@
       <c r="E54" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="K54" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -3607,6 +3676,9 @@
       <c r="E55" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="K55" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -3624,6 +3696,9 @@
       <c r="E56" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="K56" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="P56" s="8" t="s">
         <v>30</v>
       </c>
@@ -5244,6 +5319,9 @@
       <c r="E142" s="17" t="s">
         <v>424</v>
       </c>
+      <c r="K142" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q142" s="1" t="s">
         <v>425</v>
       </c>
@@ -5261,6 +5339,9 @@
       <c r="E143" s="17" t="s">
         <v>428</v>
       </c>
+      <c r="K143" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q143" s="17"/>
     </row>
     <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -5276,6 +5357,9 @@
       <c r="E144" s="17" t="s">
         <v>431</v>
       </c>
+      <c r="K144" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q144" s="17" t="s">
         <v>425</v>
       </c>
@@ -5293,6 +5377,9 @@
       <c r="E145" s="17" t="s">
         <v>434</v>
       </c>
+      <c r="K145" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q145" s="17" t="s">
         <v>425</v>
       </c>
@@ -5311,6 +5398,9 @@
       <c r="E146" s="17" t="s">
         <v>437</v>
       </c>
+      <c r="K146" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q146" s="17"/>
     </row>
     <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -5327,6 +5417,9 @@
       <c r="E147" s="17" t="s">
         <v>440</v>
       </c>
+      <c r="K147" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q147" s="17"/>
     </row>
     <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -5343,6 +5436,9 @@
       <c r="E148" s="17" t="s">
         <v>443</v>
       </c>
+      <c r="K148" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q148" s="17"/>
     </row>
     <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -5359,6 +5455,9 @@
       <c r="E149" s="17" t="s">
         <v>446</v>
       </c>
+      <c r="K149" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q149" s="17"/>
     </row>
     <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -5375,6 +5474,9 @@
       <c r="E150" s="17" t="s">
         <v>449</v>
       </c>
+      <c r="K150" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q150" s="17"/>
     </row>
     <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -5391,6 +5493,9 @@
       <c r="E151" s="17" t="s">
         <v>452</v>
       </c>
+      <c r="K151" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q151" s="17"/>
     </row>
     <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -5407,6 +5512,9 @@
       <c r="E152" s="17" t="s">
         <v>455</v>
       </c>
+      <c r="K152" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="Q152" s="17"/>
     </row>
     <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -5422,6 +5530,9 @@
       </c>
       <c r="E153" s="17" t="s">
         <v>455</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="Q153" s="17"/>
     </row>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanshugart/cse3310-sp25-004/FinalRequirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pier_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DCD7E-2F3B-1543-B269-0AEA40A8B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BAC183-B340-4A2C-A2F2-5CA785AB6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="800" windowWidth="28800" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="34605" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="681">
   <si>
     <t>Tested By</t>
   </si>
@@ -2524,37 +2524,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E116" zoomScale="63" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" topLeftCell="B188" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M213" sqref="M213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" style="1"/>
-    <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="1"/>
-    <col min="20" max="20" width="36.5" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="1"/>
+    <col min="20" max="20" width="36.42578125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2646,27 +2647,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2685,6 +2686,9 @@
       <c r="K10" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P10" s="8" t="s">
         <v>30</v>
       </c>
@@ -2692,7 +2696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2711,6 +2715,9 @@
       <c r="K11" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M11" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P11" s="8" t="s">
         <v>30</v>
       </c>
@@ -2718,7 +2725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2737,6 +2744,9 @@
       <c r="K12" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P12" s="8" t="s">
         <v>30</v>
       </c>
@@ -2744,7 +2754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -2763,6 +2773,9 @@
       <c r="K13" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M13" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P13" s="8" t="s">
         <v>30</v>
       </c>
@@ -2770,7 +2783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -2790,7 +2803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -2809,7 +2822,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
@@ -2828,7 +2841,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -2848,7 +2861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -2867,7 +2880,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -2886,7 +2899,7 @@
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
@@ -2905,7 +2918,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -2924,6 +2937,9 @@
       <c r="K21" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M21" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P21" s="8" t="s">
         <v>30</v>
       </c>
@@ -2931,7 +2947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -2950,7 +2966,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
@@ -2969,6 +2985,9 @@
       <c r="K23" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M23" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P23" s="8" t="s">
         <v>30</v>
       </c>
@@ -2976,7 +2995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -2996,6 +3015,9 @@
       <c r="K24" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M24" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P24" s="8" t="s">
         <v>30</v>
       </c>
@@ -3003,7 +3025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -3023,6 +3045,9 @@
       <c r="K25" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M25" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P25" s="8" t="s">
         <v>30</v>
       </c>
@@ -3030,7 +3055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -3047,8 +3072,11 @@
       <c r="K26" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M26" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -3068,6 +3096,9 @@
       <c r="K27" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M27" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P27" s="8" t="s">
         <v>30</v>
       </c>
@@ -3075,7 +3106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -3098,7 +3129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -3119,7 +3150,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -3137,11 +3168,14 @@
       <c r="K30" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M30" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="Q30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -3164,7 +3198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -3184,7 +3218,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3201,7 +3235,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3218,7 +3252,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3237,6 +3271,9 @@
       <c r="K35" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="M35" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="N35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3247,7 +3284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3266,6 +3303,9 @@
       <c r="K36" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="M36" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="N36" s="1" t="s">
         <v>30</v>
       </c>
@@ -3276,7 +3316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3295,6 +3335,9 @@
       <c r="K37" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="M37" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>30</v>
       </c>
@@ -3305,7 +3348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3324,6 +3367,9 @@
       <c r="K38" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="M38" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>30</v>
       </c>
@@ -3334,7 +3380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -3353,6 +3399,9 @@
       <c r="K39" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="M39" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P39" s="8" t="s">
         <v>30</v>
       </c>
@@ -3360,7 +3409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -3379,6 +3428,9 @@
       <c r="K40" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="M40" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P40" s="8" t="s">
         <v>30</v>
       </c>
@@ -3386,7 +3438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -3405,6 +3457,9 @@
       <c r="K41" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="M41" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P41" s="8" t="s">
         <v>30</v>
       </c>
@@ -3412,7 +3467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -3429,7 +3484,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -3448,6 +3503,9 @@
       <c r="K43" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="M43" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P43" s="8" t="s">
         <v>30</v>
       </c>
@@ -3455,7 +3513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -3474,6 +3532,9 @@
       <c r="K44" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="M44" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P44" s="8" t="s">
         <v>30</v>
       </c>
@@ -3481,7 +3542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3498,7 +3559,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -3518,7 +3579,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3535,7 +3596,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3552,7 +3613,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3569,7 +3630,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3588,6 +3649,9 @@
       <c r="K50" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="M50" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P50" s="8" t="s">
         <v>30</v>
       </c>
@@ -3595,7 +3659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3612,7 +3676,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3629,7 +3693,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -3646,7 +3710,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3663,7 +3727,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -3680,7 +3744,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -3699,6 +3763,9 @@
       <c r="K56" s="1" t="s">
         <v>670</v>
       </c>
+      <c r="M56" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P56" s="8" t="s">
         <v>30</v>
       </c>
@@ -3706,7 +3773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -3728,6 +3795,9 @@
       <c r="K57" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M57" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P57" s="8" t="s">
         <v>30</v>
       </c>
@@ -3735,7 +3805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -3754,6 +3824,9 @@
       <c r="K58" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M58" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P58" s="8" t="s">
         <v>30</v>
       </c>
@@ -3761,7 +3834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3780,6 +3853,9 @@
       <c r="K59" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M59" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P59" s="8" t="s">
         <v>30</v>
       </c>
@@ -3787,7 +3863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -3803,8 +3879,11 @@
       <c r="K60" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M60" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -3823,6 +3902,9 @@
       <c r="K61" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M61" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P61" s="8" t="s">
         <v>30</v>
       </c>
@@ -3830,7 +3912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3850,7 +3932,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>191</v>
       </c>
@@ -3869,6 +3951,9 @@
       <c r="K63" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M63" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P63" s="8" t="s">
         <v>30</v>
       </c>
@@ -3876,7 +3961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>195</v>
       </c>
@@ -3895,6 +3980,9 @@
       <c r="K64" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M64" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P64" s="8" t="s">
         <v>30</v>
       </c>
@@ -3902,7 +3990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>199</v>
       </c>
@@ -3922,7 +4010,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -3939,7 +4027,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>206</v>
       </c>
@@ -3958,6 +4046,9 @@
       <c r="K67" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M67" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P67" s="8" t="s">
         <v>30</v>
       </c>
@@ -3965,7 +4056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>209</v>
       </c>
@@ -3985,7 +4076,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>212</v>
       </c>
@@ -4005,7 +4096,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>215</v>
       </c>
@@ -4022,7 +4113,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>218</v>
       </c>
@@ -4038,8 +4129,11 @@
       <c r="K71" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M71" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -4059,7 +4153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>224</v>
       </c>
@@ -4078,6 +4172,9 @@
       <c r="K73" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M73" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P73" s="8" t="s">
         <v>30</v>
       </c>
@@ -4085,7 +4182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -4102,7 +4199,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>232</v>
       </c>
@@ -4121,6 +4218,9 @@
       <c r="K75" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M75" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P75" s="8" t="s">
         <v>30</v>
       </c>
@@ -4128,7 +4228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -4144,8 +4244,11 @@
       <c r="K76" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M76" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>239</v>
       </c>
@@ -4162,7 +4265,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -4182,7 +4285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -4198,8 +4301,11 @@
       <c r="K79" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M79" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>249</v>
       </c>
@@ -4218,6 +4324,9 @@
       <c r="K80" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M80" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P80" s="8" t="s">
         <v>30</v>
       </c>
@@ -4225,7 +4334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>252</v>
       </c>
@@ -4245,7 +4354,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>255</v>
       </c>
@@ -4265,7 +4374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>258</v>
       </c>
@@ -4285,7 +4394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>261</v>
       </c>
@@ -4301,8 +4410,11 @@
       <c r="K84" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M84" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>264</v>
       </c>
@@ -4318,8 +4430,11 @@
       <c r="K85" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M85" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>267</v>
       </c>
@@ -4335,8 +4450,11 @@
       <c r="K86" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M86" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
@@ -4352,8 +4470,11 @@
       <c r="K87" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M87" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>273</v>
       </c>
@@ -4372,6 +4493,9 @@
       <c r="K88" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M88" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P88" s="8" t="s">
         <v>30</v>
       </c>
@@ -4379,7 +4503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>276</v>
       </c>
@@ -4395,8 +4519,11 @@
       <c r="K89" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M89" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>279</v>
       </c>
@@ -4412,8 +4539,11 @@
       <c r="K90" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="M90" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>282</v>
       </c>
@@ -4433,7 +4563,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>287</v>
       </c>
@@ -4453,7 +4583,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
@@ -4473,7 +4603,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>293</v>
       </c>
@@ -4493,7 +4623,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>296</v>
       </c>
@@ -4513,7 +4643,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
@@ -4533,7 +4663,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>302</v>
       </c>
@@ -4550,7 +4680,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>305</v>
       </c>
@@ -4567,7 +4697,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>308</v>
       </c>
@@ -4584,7 +4714,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>311</v>
       </c>
@@ -4603,6 +4733,9 @@
       <c r="K100" s="1" t="s">
         <v>678</v>
       </c>
+      <c r="M100" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P100" s="8" t="s">
         <v>30</v>
       </c>
@@ -4610,7 +4743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>314</v>
       </c>
@@ -4630,7 +4763,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>316</v>
       </c>
@@ -4650,7 +4783,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>318</v>
       </c>
@@ -4670,7 +4803,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>321</v>
       </c>
@@ -4690,7 +4823,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>324</v>
       </c>
@@ -4710,7 +4843,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>327</v>
       </c>
@@ -4730,7 +4863,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>329</v>
       </c>
@@ -4749,7 +4882,7 @@
       </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>333</v>
       </c>
@@ -4768,7 +4901,7 @@
       </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>335</v>
       </c>
@@ -4787,7 +4920,7 @@
       </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>338</v>
       </c>
@@ -4803,7 +4936,7 @@
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>340</v>
       </c>
@@ -4819,7 +4952,7 @@
       </c>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>342</v>
       </c>
@@ -4835,7 +4968,7 @@
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>344</v>
       </c>
@@ -4851,7 +4984,7 @@
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>347</v>
       </c>
@@ -4867,7 +5000,7 @@
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>349</v>
       </c>
@@ -4883,7 +5016,7 @@
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>351</v>
       </c>
@@ -4899,7 +5032,7 @@
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>354</v>
       </c>
@@ -4915,7 +5048,7 @@
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>356</v>
       </c>
@@ -4931,7 +5064,7 @@
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>358</v>
       </c>
@@ -4947,7 +5080,7 @@
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>360</v>
       </c>
@@ -4963,7 +5096,7 @@
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>362</v>
       </c>
@@ -4979,7 +5112,7 @@
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>365</v>
       </c>
@@ -4995,7 +5128,7 @@
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>367</v>
       </c>
@@ -5011,7 +5144,7 @@
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>369</v>
       </c>
@@ -5027,7 +5160,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>371</v>
       </c>
@@ -5043,7 +5176,7 @@
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>373</v>
       </c>
@@ -5059,7 +5192,7 @@
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>375</v>
       </c>
@@ -5075,7 +5208,7 @@
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>379</v>
       </c>
@@ -5091,6 +5224,9 @@
       <c r="E128" s="10" t="s">
         <v>381</v>
       </c>
+      <c r="M128" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P128" s="8" t="s">
         <v>30</v>
       </c>
@@ -5098,7 +5234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>382</v>
       </c>
@@ -5114,7 +5250,7 @@
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>385</v>
       </c>
@@ -5130,7 +5266,7 @@
       </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>387</v>
       </c>
@@ -5146,7 +5282,7 @@
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>390</v>
       </c>
@@ -5162,7 +5298,7 @@
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>393</v>
       </c>
@@ -5178,7 +5314,7 @@
       </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>396</v>
       </c>
@@ -5194,7 +5330,7 @@
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>399</v>
       </c>
@@ -5210,7 +5346,7 @@
       </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>402</v>
       </c>
@@ -5226,7 +5362,7 @@
       </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>405</v>
       </c>
@@ -5242,7 +5378,7 @@
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>408</v>
       </c>
@@ -5258,7 +5394,7 @@
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>411</v>
       </c>
@@ -5274,7 +5410,7 @@
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>415</v>
       </c>
@@ -5290,7 +5426,7 @@
       </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
         <v>418</v>
       </c>
@@ -5306,7 +5442,7 @@
       </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
         <v>421</v>
       </c>
@@ -5326,7 +5462,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
         <v>426</v>
       </c>
@@ -5344,7 +5480,7 @@
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
         <v>429</v>
       </c>
@@ -5364,7 +5500,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
         <v>432</v>
       </c>
@@ -5384,7 +5520,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
         <v>435</v>
       </c>
@@ -5403,7 +5539,7 @@
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="17" t="s">
         <v>438</v>
       </c>
@@ -5422,7 +5558,7 @@
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
         <v>441</v>
       </c>
@@ -5441,7 +5577,7 @@
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
         <v>444</v>
       </c>
@@ -5460,7 +5596,7 @@
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
         <v>447</v>
       </c>
@@ -5479,7 +5615,7 @@
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="s">
         <v>450</v>
       </c>
@@ -5498,7 +5634,7 @@
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
         <v>453</v>
       </c>
@@ -5517,7 +5653,7 @@
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
         <v>456</v>
       </c>
@@ -5536,7 +5672,7 @@
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>458</v>
       </c>
@@ -5553,7 +5689,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
@@ -5572,6 +5708,9 @@
       <c r="K155" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M155" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P155" s="8" t="s">
         <v>30</v>
       </c>
@@ -5579,7 +5718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>465</v>
       </c>
@@ -5596,7 +5735,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>468</v>
       </c>
@@ -5613,7 +5752,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>471</v>
       </c>
@@ -5630,7 +5769,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>474</v>
       </c>
@@ -5647,7 +5786,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>476</v>
       </c>
@@ -5664,7 +5803,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>479</v>
       </c>
@@ -5681,7 +5820,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>482</v>
       </c>
@@ -5698,7 +5837,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>484</v>
       </c>
@@ -5715,7 +5854,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>486</v>
       </c>
@@ -5732,7 +5871,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>489</v>
       </c>
@@ -5749,7 +5888,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>492</v>
       </c>
@@ -5766,7 +5905,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>495</v>
       </c>
@@ -5783,7 +5922,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>498</v>
       </c>
@@ -5800,7 +5939,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>501</v>
       </c>
@@ -5817,7 +5956,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>504</v>
       </c>
@@ -5834,7 +5973,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>507</v>
       </c>
@@ -5851,7 +5990,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>509</v>
       </c>
@@ -5868,7 +6007,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>511</v>
       </c>
@@ -5885,7 +6024,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>514</v>
       </c>
@@ -5902,7 +6041,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A175" s="18" t="s">
         <v>517</v>
       </c>
@@ -5918,6 +6057,9 @@
       <c r="E175" s="20" t="s">
         <v>520</v>
       </c>
+      <c r="M175" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P175" s="8" t="s">
         <v>30</v>
       </c>
@@ -5925,7 +6067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A176" s="18" t="s">
         <v>521</v>
       </c>
@@ -5941,6 +6083,9 @@
       <c r="E176" s="20" t="s">
         <v>523</v>
       </c>
+      <c r="M176" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P176" s="8" t="s">
         <v>30</v>
       </c>
@@ -5948,7 +6093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A177" s="18" t="s">
         <v>524</v>
       </c>
@@ -5964,6 +6109,9 @@
       <c r="E177" s="20" t="s">
         <v>526</v>
       </c>
+      <c r="M177" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P177" s="8" t="s">
         <v>30</v>
       </c>
@@ -5971,7 +6119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="80" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="75" x14ac:dyDescent="0.3">
       <c r="A178" s="18" t="s">
         <v>527</v>
       </c>
@@ -5987,6 +6135,9 @@
       <c r="E178" s="21" t="s">
         <v>529</v>
       </c>
+      <c r="M178" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P178" s="8" t="s">
         <v>30</v>
       </c>
@@ -5994,7 +6145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="80" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="75" x14ac:dyDescent="0.3">
       <c r="A179" s="18" t="s">
         <v>530</v>
       </c>
@@ -6010,6 +6161,9 @@
       <c r="E179" s="21" t="s">
         <v>529</v>
       </c>
+      <c r="M179" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P179" s="8" t="s">
         <v>30</v>
       </c>
@@ -6017,7 +6171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A180" s="18" t="s">
         <v>532</v>
       </c>
@@ -6033,6 +6187,9 @@
       <c r="E180" s="20" t="s">
         <v>534</v>
       </c>
+      <c r="M180" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P180" s="8" t="s">
         <v>30</v>
       </c>
@@ -6040,7 +6197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="18" t="s">
         <v>535</v>
       </c>
@@ -6059,6 +6216,9 @@
       <c r="K181" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M181" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P181" s="8" t="s">
         <v>30</v>
       </c>
@@ -6066,7 +6226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="18" t="s">
         <v>539</v>
       </c>
@@ -6085,6 +6245,9 @@
       <c r="K182" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M182" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P182" s="8" t="s">
         <v>30</v>
       </c>
@@ -6092,7 +6255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="18" t="s">
         <v>542</v>
       </c>
@@ -6111,6 +6274,9 @@
       <c r="K183" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M183" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P183" s="8" t="s">
         <v>30</v>
       </c>
@@ -6118,7 +6284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="18" t="s">
         <v>545</v>
       </c>
@@ -6137,6 +6303,9 @@
       <c r="K184" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M184" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P184" s="8" t="s">
         <v>30</v>
       </c>
@@ -6144,7 +6313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
         <v>548</v>
       </c>
@@ -6163,6 +6332,9 @@
       <c r="K185" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M185" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P185" s="8" t="s">
         <v>30</v>
       </c>
@@ -6170,7 +6342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A186" s="18" t="s">
         <v>551</v>
       </c>
@@ -6189,6 +6361,9 @@
       <c r="K186" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M186" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P186" s="8" t="s">
         <v>30</v>
       </c>
@@ -6196,7 +6371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A187" s="18" t="s">
         <v>554</v>
       </c>
@@ -6215,6 +6390,9 @@
       <c r="K187" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M187" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P187" s="8" t="s">
         <v>30</v>
       </c>
@@ -6222,7 +6400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A188" s="18" t="s">
         <v>557</v>
       </c>
@@ -6241,6 +6419,9 @@
       <c r="K188" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M188" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P188" s="8" t="s">
         <v>30</v>
       </c>
@@ -6248,7 +6429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A189" s="18" t="s">
         <v>560</v>
       </c>
@@ -6267,6 +6448,9 @@
       <c r="K189" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M189" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P189" s="8" t="s">
         <v>30</v>
       </c>
@@ -6274,7 +6458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="18" t="s">
         <v>563</v>
       </c>
@@ -6293,6 +6477,9 @@
       <c r="K190" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="M190" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P190" s="8" t="s">
         <v>30</v>
       </c>
@@ -6300,7 +6487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A191" s="18" t="s">
         <v>566</v>
       </c>
@@ -6316,6 +6503,9 @@
       <c r="E191" s="20" t="s">
         <v>568</v>
       </c>
+      <c r="M191" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P191" s="8" t="s">
         <v>30</v>
       </c>
@@ -6323,7 +6513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="18" t="s">
         <v>569</v>
       </c>
@@ -6339,6 +6529,9 @@
       <c r="E192" s="20" t="s">
         <v>571</v>
       </c>
+      <c r="M192" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P192" s="8" t="s">
         <v>30</v>
       </c>
@@ -6346,7 +6539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A193" s="18" t="s">
         <v>572</v>
       </c>
@@ -6362,6 +6555,9 @@
       <c r="E193" s="20" t="s">
         <v>574</v>
       </c>
+      <c r="M193" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P193" s="8" t="s">
         <v>30</v>
       </c>
@@ -6369,7 +6565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A194" s="18" t="s">
         <v>575</v>
       </c>
@@ -6385,6 +6581,9 @@
       <c r="E194" s="20" t="s">
         <v>577</v>
       </c>
+      <c r="M194" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P194" s="8" t="s">
         <v>30</v>
       </c>
@@ -6392,7 +6591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="18" t="s">
         <v>578</v>
       </c>
@@ -6409,7 +6608,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A196" s="18" t="s">
         <v>581</v>
       </c>
@@ -6425,6 +6624,9 @@
       <c r="E196" s="20" t="s">
         <v>580</v>
       </c>
+      <c r="M196" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P196" s="8" t="s">
         <v>30</v>
       </c>
@@ -6432,7 +6634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="18" t="s">
         <v>583</v>
       </c>
@@ -6449,7 +6651,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="18" t="s">
         <v>586</v>
       </c>
@@ -6466,7 +6668,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="18" t="s">
         <v>589</v>
       </c>
@@ -6482,6 +6684,9 @@
       <c r="E199" s="20" t="s">
         <v>571</v>
       </c>
+      <c r="M199" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P199" s="8" t="s">
         <v>30</v>
       </c>
@@ -6489,7 +6694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A200" s="18" t="s">
         <v>591</v>
       </c>
@@ -6506,7 +6711,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="18" t="s">
         <v>594</v>
       </c>
@@ -6522,6 +6727,9 @@
       <c r="E201" s="20" t="s">
         <v>596</v>
       </c>
+      <c r="M201" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P201" s="8" t="s">
         <v>30</v>
       </c>
@@ -6529,7 +6737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A202" s="18" t="s">
         <v>597</v>
       </c>
@@ -6545,6 +6753,9 @@
       <c r="E202" s="20" t="s">
         <v>571</v>
       </c>
+      <c r="M202" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P202" s="8" t="s">
         <v>30</v>
       </c>
@@ -6552,7 +6763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="18" t="s">
         <v>599</v>
       </c>
@@ -6569,7 +6780,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="18" t="s">
         <v>602</v>
       </c>
@@ -6585,7 +6796,7 @@
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="18" t="s">
         <v>605</v>
       </c>
@@ -6601,7 +6812,7 @@
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="18" t="s">
         <v>608</v>
       </c>
@@ -6617,7 +6828,7 @@
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A207" s="18" t="s">
         <v>611</v>
       </c>
@@ -6633,6 +6844,9 @@
       <c r="E207" s="20" t="s">
         <v>613</v>
       </c>
+      <c r="M207" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P207" s="8" t="s">
         <v>30</v>
       </c>
@@ -6640,7 +6854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="18" t="s">
         <v>614</v>
       </c>
@@ -6656,6 +6870,9 @@
       <c r="E208" s="20" t="s">
         <v>616</v>
       </c>
+      <c r="M208" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P208" s="8" t="s">
         <v>30</v>
       </c>
@@ -6663,7 +6880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" ht="75" x14ac:dyDescent="0.3">
       <c r="A209" s="18" t="s">
         <v>617</v>
       </c>
@@ -6679,6 +6896,9 @@
       <c r="E209" s="20" t="s">
         <v>619</v>
       </c>
+      <c r="M209" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P209" s="8" t="s">
         <v>30</v>
       </c>
@@ -6686,7 +6906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A210" s="18" t="s">
         <v>620</v>
       </c>
@@ -6702,6 +6922,9 @@
       <c r="E210" s="20" t="s">
         <v>622</v>
       </c>
+      <c r="M210" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P210" s="8" t="s">
         <v>30</v>
       </c>
@@ -6709,7 +6932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="18" t="s">
         <v>623</v>
       </c>
@@ -6725,6 +6948,9 @@
       <c r="E211" s="20" t="s">
         <v>625</v>
       </c>
+      <c r="M211" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P211" s="8" t="s">
         <v>30</v>
       </c>
@@ -6732,7 +6958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>626</v>
       </c>
@@ -6749,7 +6975,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>631</v>
       </c>
@@ -6765,6 +6991,9 @@
       <c r="E213" s="1" t="s">
         <v>633</v>
       </c>
+      <c r="M213" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="P213" s="8" t="s">
         <v>30</v>
       </c>
@@ -6772,7 +7001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>634</v>
       </c>
@@ -6792,7 +7021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>638</v>
       </c>
@@ -6809,7 +7038,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>642</v>
       </c>
@@ -6829,7 +7058,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>646</v>
       </c>
@@ -6849,7 +7078,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>651</v>
       </c>
@@ -6869,7 +7098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>655</v>
       </c>
@@ -6886,7 +7115,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>658</v>
       </c>
@@ -6904,7 +7133,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>661</v>
       </c>
@@ -6922,7 +7151,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>664</v>
       </c>
@@ -6940,7 +7169,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>667</v>
       </c>
@@ -6974,7 +7203,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pier_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf526d0a72a0725/Desktop/'24-'25 Year/CSE 3310/Project/cse3310-sp25-004/FinalRequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BAC183-B340-4A2C-A2F2-5CA785AB6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{24BAC183-B340-4A2C-A2F2-5CA785AB6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA4959AB-C040-4B71-ABAC-FF3F59C461EE}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="34605" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="682">
   <si>
     <t>Tested By</t>
   </si>
@@ -2082,6 +2082,9 @@
   </si>
   <si>
     <t>ut</t>
+  </si>
+  <si>
+    <t>Test 2, Step 4</t>
   </si>
 </sst>
 </file>
@@ -2524,38 +2527,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B188" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M213" sqref="M213"/>
+    <sheetView tabSelected="1" topLeftCell="F222" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" style="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" style="1"/>
-    <col min="20" max="20" width="36.42578125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="36.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" style="1"/>
+    <col min="20" max="20" width="36.453125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2647,27 +2650,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2689,6 +2692,9 @@
       <c r="M10" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P10" s="8" t="s">
         <v>30</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2718,6 +2724,9 @@
       <c r="M11" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P11" s="8" t="s">
         <v>30</v>
       </c>
@@ -2725,7 +2734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2747,6 +2756,9 @@
       <c r="M12" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P12" s="8" t="s">
         <v>30</v>
       </c>
@@ -2754,7 +2766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -2776,6 +2788,9 @@
       <c r="M13" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P13" s="8" t="s">
         <v>30</v>
       </c>
@@ -2783,7 +2798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -2803,7 +2818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -2822,7 +2837,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
@@ -2841,7 +2856,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -2861,7 +2876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -2880,7 +2895,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -2899,7 +2914,7 @@
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
@@ -2918,7 +2933,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -2940,6 +2955,9 @@
       <c r="M21" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N21" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P21" s="8" t="s">
         <v>30</v>
       </c>
@@ -2947,7 +2965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -2966,7 +2984,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
@@ -2988,6 +3006,9 @@
       <c r="M23" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P23" s="8" t="s">
         <v>30</v>
       </c>
@@ -2995,7 +3016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -3018,6 +3039,9 @@
       <c r="M24" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N24" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P24" s="8" t="s">
         <v>30</v>
       </c>
@@ -3025,7 +3049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -3048,6 +3072,9 @@
       <c r="M25" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N25" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P25" s="8" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +3082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -3075,8 +3102,11 @@
       <c r="M26" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,6 +3129,9 @@
       <c r="M27" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N27" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P27" s="8" t="s">
         <v>30</v>
       </c>
@@ -3106,7 +3139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -3129,7 +3162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -3150,7 +3183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -3171,11 +3204,14 @@
       <c r="M30" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N30" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Q30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -3198,7 +3234,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -3218,7 +3254,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3234,8 +3270,11 @@
       <c r="K33" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N33" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3251,8 +3290,11 @@
       <c r="K34" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N34" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3284,7 +3326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3316,7 +3358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3348,7 +3390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3380,7 +3422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -3402,6 +3444,9 @@
       <c r="M39" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N39" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P39" s="8" t="s">
         <v>30</v>
       </c>
@@ -3409,7 +3454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -3431,6 +3476,9 @@
       <c r="M40" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N40" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P40" s="8" t="s">
         <v>30</v>
       </c>
@@ -3438,7 +3486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -3460,6 +3508,9 @@
       <c r="M41" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N41" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P41" s="8" t="s">
         <v>30</v>
       </c>
@@ -3467,7 +3518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -3484,7 +3535,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -3506,6 +3557,9 @@
       <c r="M43" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N43" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P43" s="8" t="s">
         <v>30</v>
       </c>
@@ -3513,7 +3567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -3535,6 +3589,9 @@
       <c r="M44" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N44" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P44" s="8" t="s">
         <v>30</v>
       </c>
@@ -3542,7 +3599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3559,7 +3616,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -3579,7 +3636,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3596,7 +3653,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3613,7 +3670,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3630,7 +3687,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3652,6 +3709,9 @@
       <c r="M50" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N50" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P50" s="8" t="s">
         <v>30</v>
       </c>
@@ -3659,7 +3719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3676,7 +3736,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3693,7 +3753,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -3710,7 +3770,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3727,7 +3787,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -3744,7 +3804,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -3766,6 +3826,9 @@
       <c r="M56" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N56" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P56" s="8" t="s">
         <v>30</v>
       </c>
@@ -3773,7 +3836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -3798,6 +3861,9 @@
       <c r="M57" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N57" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P57" s="8" t="s">
         <v>30</v>
       </c>
@@ -3805,7 +3871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -3827,6 +3893,9 @@
       <c r="M58" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N58" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P58" s="8" t="s">
         <v>30</v>
       </c>
@@ -3834,7 +3903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3856,6 +3925,9 @@
       <c r="M59" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N59" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P59" s="8" t="s">
         <v>30</v>
       </c>
@@ -3863,7 +3935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -3882,8 +3954,11 @@
       <c r="M60" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="N60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -3905,6 +3980,9 @@
       <c r="M61" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N61" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P61" s="8" t="s">
         <v>30</v>
       </c>
@@ -3912,7 +3990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3932,7 +4010,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>191</v>
       </c>
@@ -3954,6 +4032,9 @@
       <c r="M63" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N63" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P63" s="8" t="s">
         <v>30</v>
       </c>
@@ -3961,7 +4042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>195</v>
       </c>
@@ -3983,6 +4064,9 @@
       <c r="M64" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N64" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P64" s="8" t="s">
         <v>30</v>
       </c>
@@ -3990,7 +4074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>199</v>
       </c>
@@ -4010,7 +4094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -4027,7 +4111,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>206</v>
       </c>
@@ -4049,6 +4133,9 @@
       <c r="M67" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N67" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P67" s="8" t="s">
         <v>30</v>
       </c>
@@ -4056,7 +4143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>209</v>
       </c>
@@ -4076,7 +4163,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>212</v>
       </c>
@@ -4096,7 +4183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>215</v>
       </c>
@@ -4113,7 +4200,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>218</v>
       </c>
@@ -4132,8 +4219,11 @@
       <c r="M71" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N71" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -4153,7 +4243,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>224</v>
       </c>
@@ -4175,6 +4265,9 @@
       <c r="M73" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N73" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P73" s="8" t="s">
         <v>30</v>
       </c>
@@ -4182,7 +4275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -4199,7 +4292,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>232</v>
       </c>
@@ -4221,6 +4314,9 @@
       <c r="M75" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N75" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P75" s="8" t="s">
         <v>30</v>
       </c>
@@ -4228,7 +4324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -4247,8 +4343,11 @@
       <c r="M76" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N76" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>239</v>
       </c>
@@ -4265,7 +4364,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -4285,7 +4384,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -4304,8 +4403,11 @@
       <c r="M79" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N79" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>249</v>
       </c>
@@ -4327,6 +4429,9 @@
       <c r="M80" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N80" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P80" s="8" t="s">
         <v>30</v>
       </c>
@@ -4334,7 +4439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>252</v>
       </c>
@@ -4354,7 +4459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>255</v>
       </c>
@@ -4374,7 +4479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>258</v>
       </c>
@@ -4394,7 +4499,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>261</v>
       </c>
@@ -4413,8 +4518,11 @@
       <c r="M84" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N84" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>264</v>
       </c>
@@ -4433,8 +4541,11 @@
       <c r="M85" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N85" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>267</v>
       </c>
@@ -4453,8 +4564,11 @@
       <c r="M86" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N86" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
@@ -4473,8 +4587,11 @@
       <c r="M87" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="N87" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>273</v>
       </c>
@@ -4496,6 +4613,9 @@
       <c r="M88" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N88" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P88" s="8" t="s">
         <v>30</v>
       </c>
@@ -4503,7 +4623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>276</v>
       </c>
@@ -4522,8 +4642,11 @@
       <c r="M89" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N89" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>279</v>
       </c>
@@ -4542,8 +4665,11 @@
       <c r="M90" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N90" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>282</v>
       </c>
@@ -4563,7 +4689,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>287</v>
       </c>
@@ -4583,7 +4709,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
@@ -4603,7 +4729,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>293</v>
       </c>
@@ -4623,7 +4749,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>296</v>
       </c>
@@ -4643,7 +4769,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
@@ -4663,7 +4789,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>302</v>
       </c>
@@ -4680,7 +4806,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>305</v>
       </c>
@@ -4697,7 +4823,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>308</v>
       </c>
@@ -4714,7 +4840,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>311</v>
       </c>
@@ -4736,6 +4862,9 @@
       <c r="M100" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N100" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P100" s="8" t="s">
         <v>30</v>
       </c>
@@ -4743,7 +4872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>314</v>
       </c>
@@ -4763,7 +4892,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>316</v>
       </c>
@@ -4783,7 +4912,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>318</v>
       </c>
@@ -4803,7 +4932,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>321</v>
       </c>
@@ -4823,7 +4952,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>324</v>
       </c>
@@ -4843,7 +4972,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>327</v>
       </c>
@@ -4863,7 +4992,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>329</v>
       </c>
@@ -4882,7 +5011,7 @@
       </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>333</v>
       </c>
@@ -4901,7 +5030,7 @@
       </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>335</v>
       </c>
@@ -4920,7 +5049,7 @@
       </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>338</v>
       </c>
@@ -4936,7 +5065,7 @@
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>340</v>
       </c>
@@ -4952,7 +5081,7 @@
       </c>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>342</v>
       </c>
@@ -4968,7 +5097,7 @@
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>344</v>
       </c>
@@ -4984,7 +5113,7 @@
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>347</v>
       </c>
@@ -5000,7 +5129,7 @@
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>349</v>
       </c>
@@ -5016,7 +5145,7 @@
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>351</v>
       </c>
@@ -5032,7 +5161,7 @@
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>354</v>
       </c>
@@ -5048,7 +5177,7 @@
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>356</v>
       </c>
@@ -5064,7 +5193,7 @@
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>358</v>
       </c>
@@ -5080,7 +5209,7 @@
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>360</v>
       </c>
@@ -5096,7 +5225,7 @@
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>362</v>
       </c>
@@ -5112,7 +5241,7 @@
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>365</v>
       </c>
@@ -5128,7 +5257,7 @@
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>367</v>
       </c>
@@ -5144,7 +5273,7 @@
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>369</v>
       </c>
@@ -5160,7 +5289,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>371</v>
       </c>
@@ -5176,7 +5305,7 @@
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>373</v>
       </c>
@@ -5192,7 +5321,7 @@
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
         <v>375</v>
       </c>
@@ -5208,7 +5337,7 @@
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
         <v>379</v>
       </c>
@@ -5227,6 +5356,9 @@
       <c r="M128" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N128" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P128" s="8" t="s">
         <v>30</v>
       </c>
@@ -5234,7 +5366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
         <v>382</v>
       </c>
@@ -5250,7 +5382,7 @@
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
         <v>385</v>
       </c>
@@ -5266,7 +5398,7 @@
       </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
         <v>387</v>
       </c>
@@ -5282,7 +5414,7 @@
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
         <v>390</v>
       </c>
@@ -5298,7 +5430,7 @@
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>393</v>
       </c>
@@ -5314,7 +5446,7 @@
       </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
         <v>396</v>
       </c>
@@ -5330,7 +5462,7 @@
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
         <v>399</v>
       </c>
@@ -5346,7 +5478,7 @@
       </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
         <v>402</v>
       </c>
@@ -5362,7 +5494,7 @@
       </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
         <v>405</v>
       </c>
@@ -5378,7 +5510,7 @@
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
         <v>408</v>
       </c>
@@ -5394,7 +5526,7 @@
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
         <v>411</v>
       </c>
@@ -5410,7 +5542,7 @@
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
         <v>415</v>
       </c>
@@ -5426,7 +5558,7 @@
       </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" ht="16" x14ac:dyDescent="0.4">
       <c r="A141" s="16" t="s">
         <v>418</v>
       </c>
@@ -5442,7 +5574,7 @@
       </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A142" s="17" t="s">
         <v>421</v>
       </c>
@@ -5462,7 +5594,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A143" s="17" t="s">
         <v>426</v>
       </c>
@@ -5480,7 +5612,7 @@
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A144" s="17" t="s">
         <v>429</v>
       </c>
@@ -5500,7 +5632,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="17" t="s">
         <v>432</v>
       </c>
@@ -5520,7 +5652,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A146" s="17" t="s">
         <v>435</v>
       </c>
@@ -5539,7 +5671,7 @@
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A147" s="17" t="s">
         <v>438</v>
       </c>
@@ -5558,7 +5690,7 @@
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A148" s="17" t="s">
         <v>441</v>
       </c>
@@ -5577,7 +5709,7 @@
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A149" s="17" t="s">
         <v>444</v>
       </c>
@@ -5596,7 +5728,7 @@
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A150" s="17" t="s">
         <v>447</v>
       </c>
@@ -5615,7 +5747,7 @@
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A151" s="17" t="s">
         <v>450</v>
       </c>
@@ -5634,7 +5766,7 @@
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A152" s="17" t="s">
         <v>453</v>
       </c>
@@ -5653,7 +5785,7 @@
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A153" s="17" t="s">
         <v>456</v>
       </c>
@@ -5672,7 +5804,7 @@
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>458</v>
       </c>
@@ -5689,7 +5821,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
@@ -5711,6 +5843,9 @@
       <c r="M155" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N155" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P155" s="8" t="s">
         <v>30</v>
       </c>
@@ -5718,7 +5853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>465</v>
       </c>
@@ -5735,7 +5870,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>468</v>
       </c>
@@ -5752,7 +5887,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>471</v>
       </c>
@@ -5769,7 +5904,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>474</v>
       </c>
@@ -5786,7 +5921,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>476</v>
       </c>
@@ -5803,7 +5938,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>479</v>
       </c>
@@ -5820,7 +5955,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>482</v>
       </c>
@@ -5837,7 +5972,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>484</v>
       </c>
@@ -5854,7 +5989,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>486</v>
       </c>
@@ -5871,7 +6006,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>489</v>
       </c>
@@ -5888,7 +6023,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>492</v>
       </c>
@@ -5905,7 +6040,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>495</v>
       </c>
@@ -5922,7 +6057,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>498</v>
       </c>
@@ -5939,7 +6074,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>501</v>
       </c>
@@ -5956,7 +6091,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>504</v>
       </c>
@@ -5973,7 +6108,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>507</v>
       </c>
@@ -5990,7 +6125,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>509</v>
       </c>
@@ -6007,7 +6142,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>511</v>
       </c>
@@ -6024,7 +6159,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>514</v>
       </c>
@@ -6041,7 +6176,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A175" s="18" t="s">
         <v>517</v>
       </c>
@@ -6060,6 +6195,9 @@
       <c r="M175" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N175" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P175" s="8" t="s">
         <v>30</v>
       </c>
@@ -6067,7 +6205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A176" s="18" t="s">
         <v>521</v>
       </c>
@@ -6086,6 +6224,9 @@
       <c r="M176" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N176" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P176" s="8" t="s">
         <v>30</v>
       </c>
@@ -6093,7 +6234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A177" s="18" t="s">
         <v>524</v>
       </c>
@@ -6112,6 +6253,9 @@
       <c r="M177" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N177" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P177" s="8" t="s">
         <v>30</v>
       </c>
@@ -6119,7 +6263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" ht="74" x14ac:dyDescent="0.45">
       <c r="A178" s="18" t="s">
         <v>527</v>
       </c>
@@ -6138,6 +6282,9 @@
       <c r="M178" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N178" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P178" s="8" t="s">
         <v>30</v>
       </c>
@@ -6145,7 +6292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" ht="74" x14ac:dyDescent="0.45">
       <c r="A179" s="18" t="s">
         <v>530</v>
       </c>
@@ -6164,6 +6311,9 @@
       <c r="M179" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N179" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P179" s="8" t="s">
         <v>30</v>
       </c>
@@ -6171,7 +6321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A180" s="18" t="s">
         <v>532</v>
       </c>
@@ -6190,6 +6340,9 @@
       <c r="M180" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N180" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P180" s="8" t="s">
         <v>30</v>
       </c>
@@ -6197,7 +6350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A181" s="18" t="s">
         <v>535</v>
       </c>
@@ -6219,6 +6372,9 @@
       <c r="M181" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N181" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P181" s="8" t="s">
         <v>30</v>
       </c>
@@ -6226,7 +6382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A182" s="18" t="s">
         <v>539</v>
       </c>
@@ -6248,6 +6404,9 @@
       <c r="M182" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N182" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P182" s="8" t="s">
         <v>30</v>
       </c>
@@ -6255,7 +6414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="18" t="s">
         <v>542</v>
       </c>
@@ -6277,6 +6436,9 @@
       <c r="M183" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N183" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P183" s="8" t="s">
         <v>30</v>
       </c>
@@ -6284,7 +6446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="18" t="s">
         <v>545</v>
       </c>
@@ -6306,6 +6468,9 @@
       <c r="M184" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N184" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P184" s="8" t="s">
         <v>30</v>
       </c>
@@ -6313,7 +6478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A185" s="18" t="s">
         <v>548</v>
       </c>
@@ -6335,6 +6500,9 @@
       <c r="M185" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N185" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P185" s="8" t="s">
         <v>30</v>
       </c>
@@ -6342,7 +6510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A186" s="18" t="s">
         <v>551</v>
       </c>
@@ -6364,6 +6532,9 @@
       <c r="M186" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N186" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P186" s="8" t="s">
         <v>30</v>
       </c>
@@ -6371,7 +6542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A187" s="18" t="s">
         <v>554</v>
       </c>
@@ -6393,6 +6564,9 @@
       <c r="M187" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N187" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P187" s="8" t="s">
         <v>30</v>
       </c>
@@ -6400,7 +6574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A188" s="18" t="s">
         <v>557</v>
       </c>
@@ -6422,6 +6596,9 @@
       <c r="M188" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N188" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P188" s="8" t="s">
         <v>30</v>
       </c>
@@ -6429,7 +6606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A189" s="18" t="s">
         <v>560</v>
       </c>
@@ -6451,6 +6628,9 @@
       <c r="M189" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N189" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P189" s="8" t="s">
         <v>30</v>
       </c>
@@ -6458,7 +6638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A190" s="18" t="s">
         <v>563</v>
       </c>
@@ -6480,6 +6660,9 @@
       <c r="M190" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N190" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P190" s="8" t="s">
         <v>30</v>
       </c>
@@ -6487,7 +6670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A191" s="18" t="s">
         <v>566</v>
       </c>
@@ -6506,6 +6689,9 @@
       <c r="M191" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N191" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P191" s="8" t="s">
         <v>30</v>
       </c>
@@ -6513,7 +6699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A192" s="18" t="s">
         <v>569</v>
       </c>
@@ -6532,6 +6718,9 @@
       <c r="M192" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N192" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P192" s="8" t="s">
         <v>30</v>
       </c>
@@ -6539,7 +6728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A193" s="18" t="s">
         <v>572</v>
       </c>
@@ -6558,6 +6747,9 @@
       <c r="M193" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N193" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P193" s="8" t="s">
         <v>30</v>
       </c>
@@ -6565,7 +6757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A194" s="18" t="s">
         <v>575</v>
       </c>
@@ -6584,6 +6776,9 @@
       <c r="M194" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N194" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P194" s="8" t="s">
         <v>30</v>
       </c>
@@ -6591,7 +6786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A195" s="18" t="s">
         <v>578</v>
       </c>
@@ -6608,7 +6803,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A196" s="18" t="s">
         <v>581</v>
       </c>
@@ -6627,6 +6822,9 @@
       <c r="M196" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N196" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P196" s="8" t="s">
         <v>30</v>
       </c>
@@ -6634,7 +6832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A197" s="18" t="s">
         <v>583</v>
       </c>
@@ -6651,7 +6849,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A198" s="18" t="s">
         <v>586</v>
       </c>
@@ -6668,7 +6866,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A199" s="18" t="s">
         <v>589</v>
       </c>
@@ -6687,6 +6885,9 @@
       <c r="M199" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N199" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P199" s="8" t="s">
         <v>30</v>
       </c>
@@ -6694,7 +6895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A200" s="18" t="s">
         <v>591</v>
       </c>
@@ -6711,7 +6912,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A201" s="18" t="s">
         <v>594</v>
       </c>
@@ -6730,6 +6931,9 @@
       <c r="M201" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N201" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P201" s="8" t="s">
         <v>30</v>
       </c>
@@ -6737,7 +6941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A202" s="18" t="s">
         <v>597</v>
       </c>
@@ -6756,6 +6960,9 @@
       <c r="M202" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N202" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P202" s="8" t="s">
         <v>30</v>
       </c>
@@ -6763,7 +6970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A203" s="18" t="s">
         <v>599</v>
       </c>
@@ -6780,7 +6987,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A204" s="18" t="s">
         <v>602</v>
       </c>
@@ -6796,7 +7003,7 @@
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A205" s="18" t="s">
         <v>605</v>
       </c>
@@ -6812,7 +7019,7 @@
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A206" s="18" t="s">
         <v>608</v>
       </c>
@@ -6828,7 +7035,7 @@
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A207" s="18" t="s">
         <v>611</v>
       </c>
@@ -6847,6 +7054,9 @@
       <c r="M207" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N207" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P207" s="8" t="s">
         <v>30</v>
       </c>
@@ -6854,7 +7064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A208" s="18" t="s">
         <v>614</v>
       </c>
@@ -6873,6 +7083,9 @@
       <c r="M208" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N208" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P208" s="8" t="s">
         <v>30</v>
       </c>
@@ -6880,7 +7093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A209" s="18" t="s">
         <v>617</v>
       </c>
@@ -6899,6 +7112,9 @@
       <c r="M209" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N209" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P209" s="8" t="s">
         <v>30</v>
       </c>
@@ -6906,7 +7122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" ht="37" x14ac:dyDescent="0.45">
       <c r="A210" s="18" t="s">
         <v>620</v>
       </c>
@@ -6925,6 +7141,9 @@
       <c r="M210" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N210" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P210" s="8" t="s">
         <v>30</v>
       </c>
@@ -6932,7 +7151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A211" s="18" t="s">
         <v>623</v>
       </c>
@@ -6951,6 +7170,9 @@
       <c r="M211" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N211" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P211" s="8" t="s">
         <v>30</v>
       </c>
@@ -6958,7 +7180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>626</v>
       </c>
@@ -6975,7 +7197,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>631</v>
       </c>
@@ -6994,6 +7216,9 @@
       <c r="M213" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="N213" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P213" s="8" t="s">
         <v>30</v>
       </c>
@@ -7001,7 +7226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>634</v>
       </c>
@@ -7021,7 +7246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>638</v>
       </c>
@@ -7038,7 +7263,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>642</v>
       </c>
@@ -7058,7 +7283,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>646</v>
       </c>
@@ -7078,7 +7303,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>651</v>
       </c>
@@ -7098,7 +7323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>655</v>
       </c>
@@ -7115,7 +7340,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>658</v>
       </c>
@@ -7133,7 +7358,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>661</v>
       </c>
@@ -7151,7 +7376,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>664</v>
       </c>
@@ -7169,7 +7394,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>667</v>
       </c>
@@ -7203,7 +7428,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf526d0a72a0725/Desktop/'24-'25 Year/CSE 3310/Project/cse3310-sp25-004/FinalRequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{24BAC183-B340-4A2C-A2F2-5CA785AB6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA4959AB-C040-4B71-ABAC-FF3F59C461EE}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{24BAC183-B340-4A2C-A2F2-5CA785AB6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6175BE79-1F09-4F9F-9FBC-86540886BE22}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="683">
   <si>
     <t>Tested By</t>
   </si>
@@ -2085,6 +2085,9 @@
   </si>
   <si>
     <t>Test 2, Step 4</t>
+  </si>
+  <si>
+    <t>Test 10, Step 3</t>
   </si>
 </sst>
 </file>
@@ -2527,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F222" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2544,7 +2547,7 @@
     <col min="11" max="11" width="11.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="1"/>
     <col min="13" max="13" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.08984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" style="1" customWidth="1"/>
     <col min="15" max="16" width="9.453125" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.1796875" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.81640625" style="3" customWidth="1"/>
@@ -3533,6 +3536,9 @@
       </c>
       <c r="K42" s="1" t="s">
         <v>671</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf526d0a72a0725/Desktop/'24-'25 Year/CSE 3310/Project/cse3310-sp25-004/FinalRequirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardankarki/Desktop/cse3310-sp25-004/FinalRequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{24BAC183-B340-4A2C-A2F2-5CA785AB6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6175BE79-1F09-4F9F-9FBC-86540886BE22}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C466EA3-9A60-E744-A48A-C83CAAAE85E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="683">
   <si>
     <t>Tested By</t>
   </si>
@@ -2530,38 +2530,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="E104" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="36.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="2" customWidth="1"/>
-    <col min="8" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1796875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" style="1"/>
-    <col min="20" max="20" width="36.453125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1"/>
+    <col min="13" max="13" width="12.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="1"/>
+    <col min="20" max="20" width="36.5" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2653,27 +2653,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>191</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>195</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>199</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>206</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>209</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>212</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>215</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>218</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>224</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>232</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>239</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>249</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>252</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>255</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>258</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>261</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>264</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>267</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>273</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>276</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>279</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>282</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>287</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>293</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>296</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>302</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>305</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>308</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>311</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>314</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>316</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>318</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>321</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>324</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>327</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>329</v>
       </c>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>333</v>
       </c>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>335</v>
       </c>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>338</v>
       </c>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>340</v>
       </c>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>342</v>
       </c>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>344</v>
       </c>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>347</v>
       </c>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>349</v>
       </c>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>351</v>
       </c>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>354</v>
       </c>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>356</v>
       </c>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>358</v>
       </c>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>360</v>
       </c>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>362</v>
       </c>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>365</v>
       </c>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>367</v>
       </c>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>369</v>
       </c>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>371</v>
       </c>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>373</v>
       </c>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>375</v>
       </c>
@@ -5341,9 +5341,12 @@
       <c r="E127" s="10" t="s">
         <v>378</v>
       </c>
+      <c r="K127" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>379</v>
       </c>
@@ -5359,6 +5362,9 @@
       <c r="E128" s="10" t="s">
         <v>381</v>
       </c>
+      <c r="K128" s="1" t="s">
+        <v>673</v>
+      </c>
       <c r="M128" s="1" t="s">
         <v>538</v>
       </c>
@@ -5372,7 +5378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>382</v>
       </c>
@@ -5386,9 +5392,12 @@
       <c r="E129" s="10" t="s">
         <v>384</v>
       </c>
+      <c r="K129" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>385</v>
       </c>
@@ -5402,9 +5411,12 @@
       <c r="E130" s="10" t="s">
         <v>378</v>
       </c>
+      <c r="K130" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>387</v>
       </c>
@@ -5418,9 +5430,12 @@
       <c r="E131" s="10" t="s">
         <v>389</v>
       </c>
+      <c r="K131" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>390</v>
       </c>
@@ -5434,9 +5449,12 @@
       <c r="E132" s="10" t="s">
         <v>392</v>
       </c>
+      <c r="K132" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>393</v>
       </c>
@@ -5450,9 +5468,12 @@
       <c r="E133" s="10" t="s">
         <v>395</v>
       </c>
+      <c r="K133" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>396</v>
       </c>
@@ -5466,9 +5487,12 @@
       <c r="E134" s="10" t="s">
         <v>398</v>
       </c>
+      <c r="K134" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>399</v>
       </c>
@@ -5482,9 +5506,12 @@
       <c r="E135" s="10" t="s">
         <v>401</v>
       </c>
+      <c r="K135" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>402</v>
       </c>
@@ -5498,9 +5525,12 @@
       <c r="E136" s="10" t="s">
         <v>404</v>
       </c>
+      <c r="K136" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>405</v>
       </c>
@@ -5514,9 +5544,12 @@
       <c r="E137" s="10" t="s">
         <v>407</v>
       </c>
+      <c r="K137" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>408</v>
       </c>
@@ -5530,9 +5563,12 @@
       <c r="E138" s="10" t="s">
         <v>410</v>
       </c>
+      <c r="K138" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>411</v>
       </c>
@@ -5546,9 +5582,12 @@
       <c r="E139" s="10" t="s">
         <v>414</v>
       </c>
+      <c r="K139" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>415</v>
       </c>
@@ -5562,9 +5601,12 @@
       <c r="E140" s="10" t="s">
         <v>417</v>
       </c>
+      <c r="K140" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" spans="1:17" ht="16" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="16" t="s">
         <v>418</v>
       </c>
@@ -5578,9 +5620,12 @@
       <c r="E141" s="1" t="s">
         <v>420</v>
       </c>
+      <c r="K141" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
         <v>421</v>
       </c>
@@ -5600,7 +5645,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
         <v>426</v>
       </c>
@@ -5618,7 +5663,7 @@
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
         <v>429</v>
       </c>
@@ -5638,7 +5683,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
         <v>432</v>
       </c>
@@ -5658,7 +5703,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
         <v>435</v>
       </c>
@@ -5677,7 +5722,7 @@
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
         <v>438</v>
       </c>
@@ -5696,7 +5741,7 @@
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
         <v>441</v>
       </c>
@@ -5715,7 +5760,7 @@
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
         <v>444</v>
       </c>
@@ -5734,7 +5779,7 @@
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
         <v>447</v>
       </c>
@@ -5753,7 +5798,7 @@
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
         <v>450</v>
       </c>
@@ -5772,7 +5817,7 @@
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
         <v>453</v>
       </c>
@@ -5791,7 +5836,7 @@
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
         <v>456</v>
       </c>
@@ -5810,7 +5855,7 @@
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>458</v>
       </c>
@@ -5827,7 +5872,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
@@ -5859,7 +5904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>465</v>
       </c>
@@ -5876,7 +5921,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>468</v>
       </c>
@@ -5893,7 +5938,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>471</v>
       </c>
@@ -5910,7 +5955,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>474</v>
       </c>
@@ -5927,7 +5972,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>476</v>
       </c>
@@ -5944,7 +5989,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>479</v>
       </c>
@@ -5961,7 +6006,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>482</v>
       </c>
@@ -5978,7 +6023,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>484</v>
       </c>
@@ -5995,7 +6040,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>486</v>
       </c>
@@ -6012,7 +6057,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>489</v>
       </c>
@@ -6029,7 +6074,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>492</v>
       </c>
@@ -6046,7 +6091,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>495</v>
       </c>
@@ -6063,7 +6108,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>498</v>
       </c>
@@ -6080,7 +6125,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>501</v>
       </c>
@@ -6097,7 +6142,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>504</v>
       </c>
@@ -6114,7 +6159,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>507</v>
       </c>
@@ -6131,7 +6176,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>509</v>
       </c>
@@ -6148,7 +6193,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>511</v>
       </c>
@@ -6165,7 +6210,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>514</v>
       </c>
@@ -6182,7 +6227,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
         <v>517</v>
       </c>
@@ -6211,7 +6256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
         <v>521</v>
       </c>
@@ -6240,7 +6285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>524</v>
       </c>
@@ -6269,7 +6314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="74" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:17" ht="80" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
         <v>527</v>
       </c>
@@ -6298,7 +6343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="74" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:17" ht="80" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
         <v>530</v>
       </c>
@@ -6327,7 +6372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
         <v>532</v>
       </c>
@@ -6356,7 +6401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
         <v>535</v>
       </c>
@@ -6388,7 +6433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
         <v>539</v>
       </c>
@@ -6420,7 +6465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
         <v>542</v>
       </c>
@@ -6452,7 +6497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>545</v>
       </c>
@@ -6484,7 +6529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
         <v>548</v>
       </c>
@@ -6516,7 +6561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
         <v>551</v>
       </c>
@@ -6548,7 +6593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
         <v>554</v>
       </c>
@@ -6580,7 +6625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
         <v>557</v>
       </c>
@@ -6612,7 +6657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
         <v>560</v>
       </c>
@@ -6644,7 +6689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
         <v>563</v>
       </c>
@@ -6676,7 +6721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
         <v>566</v>
       </c>
@@ -6705,7 +6750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
         <v>569</v>
       </c>
@@ -6734,7 +6779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
         <v>572</v>
       </c>
@@ -6763,7 +6808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
         <v>575</v>
       </c>
@@ -6792,7 +6837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
         <v>578</v>
       </c>
@@ -6809,7 +6854,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
         <v>581</v>
       </c>
@@ -6838,7 +6883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
         <v>583</v>
       </c>
@@ -6855,7 +6900,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
         <v>586</v>
       </c>
@@ -6872,7 +6917,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
         <v>589</v>
       </c>
@@ -6901,7 +6946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
         <v>591</v>
       </c>
@@ -6918,7 +6963,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
         <v>594</v>
       </c>
@@ -6947,7 +6992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
         <v>597</v>
       </c>
@@ -6976,7 +7021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
         <v>599</v>
       </c>
@@ -6993,7 +7038,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
         <v>602</v>
       </c>
@@ -7009,7 +7054,7 @@
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
         <v>605</v>
       </c>
@@ -7025,7 +7070,7 @@
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>608</v>
       </c>
@@ -7041,7 +7086,7 @@
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
         <v>611</v>
       </c>
@@ -7070,7 +7115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
         <v>614</v>
       </c>
@@ -7099,7 +7144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
         <v>617</v>
       </c>
@@ -7128,7 +7173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="37" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
         <v>620</v>
       </c>
@@ -7157,7 +7202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
         <v>623</v>
       </c>
@@ -7186,7 +7231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>626</v>
       </c>
@@ -7203,7 +7248,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>631</v>
       </c>
@@ -7232,7 +7277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>634</v>
       </c>
@@ -7252,7 +7297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>638</v>
       </c>
@@ -7269,7 +7314,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>642</v>
       </c>
@@ -7289,7 +7334,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>646</v>
       </c>
@@ -7309,7 +7354,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>651</v>
       </c>
@@ -7329,7 +7374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>655</v>
       </c>
@@ -7346,7 +7391,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>658</v>
       </c>
@@ -7364,7 +7409,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>661</v>
       </c>
@@ -7382,7 +7427,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>664</v>
       </c>
@@ -7400,7 +7445,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>667</v>
       </c>
@@ -7434,7 +7479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardankarki/Desktop/cse3310-sp25-004/FinalRequirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf526d0a72a0725/Desktop/'24-'25 Year/CSE 3310/Project/cse3310-sp25-004/FinalRequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C466EA3-9A60-E744-A48A-C83CAAAE85E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{6C466EA3-9A60-E744-A48A-C83CAAAE85E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6D9E89A-9451-4A3E-A0F4-4C47BD26C340}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="681">
   <si>
     <t>Tested By</t>
   </si>
@@ -2082,12 +2082,6 @@
   </si>
   <si>
     <t>ut</t>
-  </si>
-  <si>
-    <t>Test 2, Step 4</t>
-  </si>
-  <si>
-    <t>Test 10, Step 3</t>
   </si>
 </sst>
 </file>
@@ -2530,38 +2524,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E104" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K130" sqref="K130"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1"/>
-    <col min="13" max="13" width="12.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="1"/>
-    <col min="20" max="20" width="36.5" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="1"/>
+    <col min="20" max="20" width="36.42578125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2599,7 +2593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2622,7 +2616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2645,7 +2639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2653,27 +2647,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2705,7 +2699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2737,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2769,7 +2763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -2801,7 +2795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -2817,11 +2811,14 @@
       <c r="K14" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N14" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -2838,9 +2835,12 @@
       <c r="K15" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N15" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -3161,11 +3161,14 @@
       <c r="K28" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N28" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q28" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -3182,11 +3185,14 @@
       <c r="K29" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N29" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -3233,11 +3239,14 @@
       <c r="K31" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N31" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -3256,8 +3265,11 @@
       <c r="K32" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="N32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3274,10 +3286,10 @@
         <v>671</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3294,10 +3306,10 @@
         <v>671</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3329,7 +3341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3361,7 +3373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3425,7 +3437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -3457,7 +3469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -3489,7 +3501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -3521,7 +3533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -3538,10 +3550,10 @@
         <v>671</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -3573,7 +3585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -3605,7 +3617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3622,7 +3634,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -3642,7 +3654,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3676,7 +3688,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3725,7 +3737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3742,7 +3754,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3759,7 +3771,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -3776,7 +3788,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -3842,7 +3854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -3877,7 +3889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -3909,7 +3921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3941,7 +3953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -3964,7 +3976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -3996,7 +4008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4012,11 +4024,14 @@
       <c r="K62" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N62" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q62" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>191</v>
       </c>
@@ -4048,7 +4063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>195</v>
       </c>
@@ -4080,7 +4095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>199</v>
       </c>
@@ -4096,11 +4111,14 @@
       <c r="K65" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N65" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q65" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -4116,8 +4134,11 @@
       <c r="K66" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="N66" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>206</v>
       </c>
@@ -4149,7 +4170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>209</v>
       </c>
@@ -4165,11 +4186,14 @@
       <c r="K68" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N68" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q68" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>212</v>
       </c>
@@ -4185,11 +4209,14 @@
       <c r="K69" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N69" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q69" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>215</v>
       </c>
@@ -4205,8 +4232,11 @@
       <c r="K70" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="N70" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>218</v>
       </c>
@@ -4229,7 +4259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -4245,11 +4275,14 @@
       <c r="K72" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N72" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q72" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>224</v>
       </c>
@@ -4281,7 +4314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -4297,8 +4330,11 @@
       <c r="K74" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="N74" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>232</v>
       </c>
@@ -4330,7 +4366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -4353,7 +4389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>239</v>
       </c>
@@ -4369,8 +4405,11 @@
       <c r="K77" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="N77" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -4386,11 +4425,14 @@
       <c r="K78" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N78" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q78" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -4413,7 +4455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>249</v>
       </c>
@@ -4445,7 +4487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>252</v>
       </c>
@@ -4461,11 +4503,14 @@
       <c r="K81" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N81" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q81" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>255</v>
       </c>
@@ -4481,11 +4526,14 @@
       <c r="K82" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N82" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q82" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>258</v>
       </c>
@@ -4501,11 +4549,14 @@
       <c r="K83" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="N83" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q83" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>261</v>
       </c>
@@ -4528,7 +4579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>264</v>
       </c>
@@ -4551,7 +4602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>267</v>
       </c>
@@ -4574,7 +4625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
@@ -4597,7 +4648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>273</v>
       </c>
@@ -4629,7 +4680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>276</v>
       </c>
@@ -4652,7 +4703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>279</v>
       </c>
@@ -4675,7 +4726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>282</v>
       </c>
@@ -4691,11 +4742,14 @@
       <c r="K91" s="1" t="s">
         <v>672</v>
       </c>
+      <c r="N91" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q91" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>287</v>
       </c>
@@ -4711,11 +4765,14 @@
       <c r="K92" s="1" t="s">
         <v>672</v>
       </c>
+      <c r="N92" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q92" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
@@ -4731,11 +4788,14 @@
       <c r="K93" s="1" t="s">
         <v>673</v>
       </c>
+      <c r="N93" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q93" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>293</v>
       </c>
@@ -4751,11 +4811,14 @@
       <c r="K94" s="1" t="s">
         <v>673</v>
       </c>
+      <c r="N94" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q94" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>296</v>
       </c>
@@ -4771,11 +4834,14 @@
       <c r="K95" s="1" t="s">
         <v>674</v>
       </c>
+      <c r="N95" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q95" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
@@ -4791,11 +4857,14 @@
       <c r="K96" s="1" t="s">
         <v>672</v>
       </c>
+      <c r="N96" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Q96" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>302</v>
       </c>
@@ -4812,7 +4881,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>305</v>
       </c>
@@ -4829,7 +4898,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>308</v>
       </c>
@@ -4845,8 +4914,11 @@
       <c r="K99" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="N99" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>311</v>
       </c>
@@ -4878,7 +4950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>314</v>
       </c>
@@ -4898,7 +4970,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>316</v>
       </c>
@@ -4918,7 +4990,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>318</v>
       </c>
@@ -4938,7 +5010,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>321</v>
       </c>
@@ -4958,7 +5030,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>324</v>
       </c>
@@ -4978,7 +5050,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>327</v>
       </c>
@@ -4998,7 +5070,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>329</v>
       </c>
@@ -5017,7 +5089,7 @@
       </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>333</v>
       </c>
@@ -5036,7 +5108,7 @@
       </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>335</v>
       </c>
@@ -5055,7 +5127,7 @@
       </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>338</v>
       </c>
@@ -5071,7 +5143,7 @@
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>340</v>
       </c>
@@ -5087,7 +5159,7 @@
       </c>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>342</v>
       </c>
@@ -5103,7 +5175,7 @@
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>344</v>
       </c>
@@ -5119,7 +5191,7 @@
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>347</v>
       </c>
@@ -5135,7 +5207,7 @@
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>349</v>
       </c>
@@ -5151,7 +5223,7 @@
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>351</v>
       </c>
@@ -5167,7 +5239,7 @@
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>354</v>
       </c>
@@ -5183,7 +5255,7 @@
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>356</v>
       </c>
@@ -5199,7 +5271,7 @@
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>358</v>
       </c>
@@ -5215,7 +5287,7 @@
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>360</v>
       </c>
@@ -5231,7 +5303,7 @@
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>362</v>
       </c>
@@ -5247,7 +5319,7 @@
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>365</v>
       </c>
@@ -5263,7 +5335,7 @@
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>367</v>
       </c>
@@ -5279,7 +5351,7 @@
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>369</v>
       </c>
@@ -5295,7 +5367,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>371</v>
       </c>
@@ -5311,7 +5383,7 @@
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>373</v>
       </c>
@@ -5327,7 +5399,7 @@
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>375</v>
       </c>
@@ -5346,7 +5418,7 @@
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>379</v>
       </c>
@@ -5378,7 +5450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>382</v>
       </c>
@@ -5397,7 +5469,7 @@
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>385</v>
       </c>
@@ -5416,7 +5488,7 @@
       </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>387</v>
       </c>
@@ -5435,7 +5507,7 @@
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>390</v>
       </c>
@@ -5454,7 +5526,7 @@
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>393</v>
       </c>
@@ -5473,7 +5545,7 @@
       </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>396</v>
       </c>
@@ -5492,7 +5564,7 @@
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>399</v>
       </c>
@@ -5511,7 +5583,7 @@
       </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>402</v>
       </c>
@@ -5530,7 +5602,7 @@
       </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>405</v>
       </c>
@@ -5549,7 +5621,7 @@
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>408</v>
       </c>
@@ -5568,7 +5640,7 @@
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>411</v>
       </c>
@@ -5587,7 +5659,7 @@
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>415</v>
       </c>
@@ -5606,7 +5678,7 @@
       </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
         <v>418</v>
       </c>
@@ -5625,7 +5697,7 @@
       </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
         <v>421</v>
       </c>
@@ -5645,7 +5717,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
         <v>426</v>
       </c>
@@ -5663,7 +5735,7 @@
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
         <v>429</v>
       </c>
@@ -5683,7 +5755,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
         <v>432</v>
       </c>
@@ -5703,7 +5775,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
         <v>435</v>
       </c>
@@ -5722,7 +5794,7 @@
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="17" t="s">
         <v>438</v>
       </c>
@@ -5741,7 +5813,7 @@
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
         <v>441</v>
       </c>
@@ -5760,7 +5832,7 @@
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
         <v>444</v>
       </c>
@@ -5779,7 +5851,7 @@
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
         <v>447</v>
       </c>
@@ -5798,7 +5870,7 @@
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="s">
         <v>450</v>
       </c>
@@ -5817,7 +5889,7 @@
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
         <v>453</v>
       </c>
@@ -5836,7 +5908,7 @@
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
         <v>456</v>
       </c>
@@ -5855,7 +5927,7 @@
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>458</v>
       </c>
@@ -5872,7 +5944,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
@@ -5904,7 +5976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>465</v>
       </c>
@@ -5921,7 +5993,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>468</v>
       </c>
@@ -5938,7 +6010,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>471</v>
       </c>
@@ -5955,7 +6027,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>474</v>
       </c>
@@ -5972,7 +6044,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>476</v>
       </c>
@@ -5989,7 +6061,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>479</v>
       </c>
@@ -6006,7 +6078,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>482</v>
       </c>
@@ -6023,7 +6095,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>484</v>
       </c>
@@ -6040,7 +6112,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>486</v>
       </c>
@@ -6057,7 +6129,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>489</v>
       </c>
@@ -6074,7 +6146,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>492</v>
       </c>
@@ -6091,7 +6163,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>495</v>
       </c>
@@ -6108,7 +6180,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>498</v>
       </c>
@@ -6125,7 +6197,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>501</v>
       </c>
@@ -6142,7 +6214,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>504</v>
       </c>
@@ -6159,7 +6231,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>507</v>
       </c>
@@ -6176,7 +6248,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>509</v>
       </c>
@@ -6193,7 +6265,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>511</v>
       </c>
@@ -6210,7 +6282,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>514</v>
       </c>
@@ -6227,7 +6299,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A175" s="18" t="s">
         <v>517</v>
       </c>
@@ -6256,7 +6328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A176" s="18" t="s">
         <v>521</v>
       </c>
@@ -6285,7 +6357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A177" s="18" t="s">
         <v>524</v>
       </c>
@@ -6314,7 +6386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="80" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="75" x14ac:dyDescent="0.3">
       <c r="A178" s="18" t="s">
         <v>527</v>
       </c>
@@ -6343,7 +6415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="80" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="75" x14ac:dyDescent="0.3">
       <c r="A179" s="18" t="s">
         <v>530</v>
       </c>
@@ -6372,7 +6444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A180" s="18" t="s">
         <v>532</v>
       </c>
@@ -6401,7 +6473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="18" t="s">
         <v>535</v>
       </c>
@@ -6433,7 +6505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="18" t="s">
         <v>539</v>
       </c>
@@ -6465,7 +6537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="18" t="s">
         <v>542</v>
       </c>
@@ -6497,7 +6569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="18" t="s">
         <v>545</v>
       </c>
@@ -6529,7 +6601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
         <v>548</v>
       </c>
@@ -6561,7 +6633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A186" s="18" t="s">
         <v>551</v>
       </c>
@@ -6593,7 +6665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A187" s="18" t="s">
         <v>554</v>
       </c>
@@ -6625,7 +6697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A188" s="18" t="s">
         <v>557</v>
       </c>
@@ -6657,7 +6729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A189" s="18" t="s">
         <v>560</v>
       </c>
@@ -6689,7 +6761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="18" t="s">
         <v>563</v>
       </c>
@@ -6721,7 +6793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A191" s="18" t="s">
         <v>566</v>
       </c>
@@ -6750,7 +6822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="18" t="s">
         <v>569</v>
       </c>
@@ -6779,7 +6851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A193" s="18" t="s">
         <v>572</v>
       </c>
@@ -6808,7 +6880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A194" s="18" t="s">
         <v>575</v>
       </c>
@@ -6837,7 +6909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="18" t="s">
         <v>578</v>
       </c>
@@ -6854,7 +6926,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A196" s="18" t="s">
         <v>581</v>
       </c>
@@ -6883,7 +6955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="18" t="s">
         <v>583</v>
       </c>
@@ -6900,7 +6972,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="18" t="s">
         <v>586</v>
       </c>
@@ -6917,7 +6989,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="18" t="s">
         <v>589</v>
       </c>
@@ -6946,7 +7018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A200" s="18" t="s">
         <v>591</v>
       </c>
@@ -6963,7 +7035,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="18" t="s">
         <v>594</v>
       </c>
@@ -6992,7 +7064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A202" s="18" t="s">
         <v>597</v>
       </c>
@@ -7021,7 +7093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="18" t="s">
         <v>599</v>
       </c>
@@ -7038,7 +7110,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="18" t="s">
         <v>602</v>
       </c>
@@ -7054,7 +7126,7 @@
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="18" t="s">
         <v>605</v>
       </c>
@@ -7070,7 +7142,7 @@
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="18" t="s">
         <v>608</v>
       </c>
@@ -7086,7 +7158,7 @@
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" spans="1:17" ht="40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A207" s="18" t="s">
         <v>611</v>
       </c>
@@ -7115,7 +7187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="18" t="s">
         <v>614</v>
       </c>
@@ -7144,7 +7216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" ht="75" x14ac:dyDescent="0.3">
       <c r="A209" s="18" t="s">
         <v>617</v>
       </c>
@@ -7173,7 +7245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A210" s="18" t="s">
         <v>620</v>
       </c>
@@ -7202,7 +7274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="18" t="s">
         <v>623</v>
       </c>
@@ -7231,7 +7303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>626</v>
       </c>
@@ -7248,7 +7320,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>631</v>
       </c>
@@ -7277,7 +7349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>634</v>
       </c>
@@ -7297,7 +7369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>638</v>
       </c>
@@ -7314,7 +7386,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>642</v>
       </c>
@@ -7334,7 +7406,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>646</v>
       </c>
@@ -7354,7 +7426,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>651</v>
       </c>
@@ -7374,7 +7446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>655</v>
       </c>
@@ -7391,7 +7463,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>658</v>
       </c>
@@ -7409,7 +7481,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>661</v>
       </c>
@@ -7427,7 +7499,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>664</v>
       </c>
@@ -7445,7 +7517,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>667</v>
       </c>
@@ -7479,7 +7551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf526d0a72a0725/Desktop/'24-'25 Year/CSE 3310/Project/cse3310-sp25-004/FinalRequirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{6C466EA3-9A60-E744-A48A-C83CAAAE85E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6D9E89A-9451-4A3E-A0F4-4C47BD26C340}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CEE6CF-1026-49FD-822F-118F91525DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2524,38 +2524,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" style="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" style="1"/>
-    <col min="20" max="20" width="36.42578125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1"/>
+    <col min="13" max="13" width="12.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="1"/>
+    <col min="20" max="20" width="36.44140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2647,27 +2647,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
@@ -2855,11 +2855,11 @@
         <v>40</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -2873,13 +2873,13 @@
         <v>49</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -2894,11 +2894,11 @@
         <v>53</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -2913,11 +2913,11 @@
         <v>56</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>191</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>195</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>199</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>206</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>209</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>212</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>215</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>218</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>224</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>232</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>239</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>249</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>252</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>255</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>258</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>261</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>264</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>267</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>273</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>276</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>279</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>282</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>287</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>293</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>296</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>302</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>305</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>308</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>311</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>314</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>316</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>318</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>321</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>324</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>327</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>329</v>
       </c>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>333</v>
       </c>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>335</v>
       </c>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>338</v>
       </c>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>340</v>
       </c>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>342</v>
       </c>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>344</v>
       </c>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>347</v>
       </c>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>349</v>
       </c>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>351</v>
       </c>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>354</v>
       </c>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>356</v>
       </c>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>358</v>
       </c>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>360</v>
       </c>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>362</v>
       </c>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>365</v>
       </c>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>367</v>
       </c>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>369</v>
       </c>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>371</v>
       </c>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>373</v>
       </c>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>375</v>
       </c>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>379</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>382</v>
       </c>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>385</v>
       </c>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>387</v>
       </c>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>390</v>
       </c>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>393</v>
       </c>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>396</v>
       </c>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>399</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>402</v>
       </c>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>405</v>
       </c>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>408</v>
       </c>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>411</v>
       </c>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>415</v>
       </c>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="16" t="s">
         <v>418</v>
       </c>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="17" t="s">
         <v>421</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="17" t="s">
         <v>426</v>
       </c>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="17" t="s">
         <v>429</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="17" t="s">
         <v>432</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="17" t="s">
         <v>435</v>
       </c>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="17" t="s">
         <v>438</v>
       </c>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="17" t="s">
         <v>441</v>
       </c>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="17" t="s">
         <v>444</v>
       </c>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="17" t="s">
         <v>447</v>
       </c>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="17" t="s">
         <v>450</v>
       </c>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="17" t="s">
         <v>453</v>
       </c>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="17" t="s">
         <v>456</v>
       </c>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>458</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>465</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>468</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>471</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>474</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>476</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>479</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>482</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>484</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>486</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>489</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>492</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>495</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>498</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>501</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>504</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>507</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>509</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>511</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>514</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>517</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>521</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>524</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" ht="72" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>527</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" ht="72" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>530</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" ht="54" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>532</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>535</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>539</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>542</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>545</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>548</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>551</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A187" s="18" t="s">
         <v>554</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" ht="54" x14ac:dyDescent="0.35">
       <c r="A188" s="18" t="s">
         <v>557</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A189" s="18" t="s">
         <v>560</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="18" t="s">
         <v>563</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="18" t="s">
         <v>566</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
         <v>569</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A193" s="18" t="s">
         <v>572</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A194" s="18" t="s">
         <v>575</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="18" t="s">
         <v>578</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
         <v>581</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
         <v>583</v>
       </c>
@@ -6972,7 +6972,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
         <v>586</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
         <v>589</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
         <v>591</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="18" t="s">
         <v>594</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A202" s="18" t="s">
         <v>597</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>599</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
         <v>602</v>
       </c>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>605</v>
       </c>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>608</v>
       </c>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A207" s="18" t="s">
         <v>611</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
         <v>614</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" ht="54" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>617</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
         <v>620</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
         <v>623</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>626</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>631</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>634</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>638</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>642</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>646</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>651</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>655</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>658</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>661</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>664</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>667</v>
       </c>
@@ -7551,7 +7551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,18 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniesoonyadeth/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10A82B9-BF03-1144-BEAC-406EC8725CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,63 +35,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="681">
-  <si>
-    <t xml:space="preserve">Tested By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNTESTABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI XREF</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="693">
+  <si>
+    <t>Tested By</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>Group 3</t>
+  </si>
+  <si>
+    <t>Group 4</t>
+  </si>
+  <si>
+    <t>Group 5</t>
+  </si>
+  <si>
+    <t>Group 6</t>
+  </si>
+  <si>
+    <t>Group 7</t>
+  </si>
+  <si>
+    <t>Group 8</t>
+  </si>
+  <si>
+    <t>Group 18</t>
+  </si>
+  <si>
+    <t>Group 19</t>
+  </si>
+  <si>
+    <t>Group 20</t>
+  </si>
+  <si>
+    <t>Group 21</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>UNTESTABLE</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Implemented In</t>
+  </si>
+  <si>
+    <t>UI XREF</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -88,2015 +102,2033 @@
 on the Join Game page.</t>
   </si>
   <si>
-    <t xml:space="preserve">displayPlayers()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test 1, steps 10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cut and paste the screenshot of each page in this part of the spreadsheet, please. use as much space is needed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-Gameplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall implement the state of the current checker board as a 2d array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class Board, initCheckers()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">untestable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untestable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall be able to receive and send information to the Game Manager and Game termination, Game manager will create an instance of Gameplay and Gameplay will use the Game Termination class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move(), getBoard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall create a starting game board on instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall receive Player ID, requested checker piece and requested designation place from the Game Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall ensure all checkers move diagonally and only diagonally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moveForwardCheck(), moveBackwardCheck()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall ensure that all 'men' (non kinged checkers) only move in the foward direction (away from the player controling them)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_9</t>
+    <t>displayPlayers()</t>
+  </si>
+  <si>
+    <t>UI001</t>
+  </si>
+  <si>
+    <t>test 1, steps 10-20</t>
+  </si>
+  <si>
+    <t>cut and paste the screenshot of each page in this part of the spreadsheet, please. use as much space is needed.</t>
+  </si>
+  <si>
+    <t>GP_2</t>
+  </si>
+  <si>
+    <t>21-Gameplay</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>The system shall implement the state of the current checker board as a 2d array</t>
+  </si>
+  <si>
+    <t>Class Board, initCheckers()</t>
+  </si>
+  <si>
+    <t>untestable</t>
+  </si>
+  <si>
+    <t>Untestable</t>
+  </si>
+  <si>
+    <t>GP_4</t>
+  </si>
+  <si>
+    <t>The system shall be able to receive and send information to the Game Manager and Game termination, Game manager will create an instance of Gameplay and Gameplay will use the Game Termination class</t>
+  </si>
+  <si>
+    <t>move(), getBoard()</t>
+  </si>
+  <si>
+    <t>GP_5</t>
+  </si>
+  <si>
+    <t>The system shall create a starting game board on instance</t>
+  </si>
+  <si>
+    <t>GP_6</t>
+  </si>
+  <si>
+    <t>The system shall receive Player ID, requested checker piece and requested designation place from the Game Manager</t>
+  </si>
+  <si>
+    <t>GP_7</t>
+  </si>
+  <si>
+    <t>The system shall ensure all checkers move diagonally and only diagonally</t>
+  </si>
+  <si>
+    <t>moveForwardCheck(), moveBackwardCheck()</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Test 1, Step 6</t>
+  </si>
+  <si>
+    <t>GP_8</t>
+  </si>
+  <si>
+    <t>The system shall ensure that all 'men' (non kinged checkers) only move in the foward direction (away from the player controling them)</t>
+  </si>
+  <si>
+    <t>move()</t>
+  </si>
+  <si>
+    <t>GP_9</t>
   </si>
   <si>
     <t xml:space="preserve"> The system shall ensure the checkers are only allowed to move on the dark squares of the board</t>
   </si>
   <si>
-    <t xml:space="preserve">GP_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall allow checkers controlled by one player to 'jump' checkers controlled by the other player by "moving a piece that is diagonally adjacent an opponent's piece, to an empty square immediately beyond it in the same direction"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getPossibleForwardJump(), getPossibleBackwardJump()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall mandate a 'jump' (or series of jumps) to be performed when they are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concurrentJumps()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall promote a player's  'men' checker into a 'king' checker with a king's privileges if the checker reaches the closest rank (row) to the opposing player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kingMe()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall allow all king checkers to move in both forward and backwards directions (towards AND away from the player controlling them)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall send new game states to the Game Manager once a valid move is processed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getBoard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP_18</t>
+    <t>GP_10</t>
+  </si>
+  <si>
+    <t>The system shall allow checkers controlled by one player to 'jump' checkers controlled by the other player by "moving a piece that is diagonally adjacent an opponent's piece, to an empty square immediately beyond it in the same direction"</t>
+  </si>
+  <si>
+    <t>getPossibleForwardJump(), getPossibleBackwardJump()</t>
+  </si>
+  <si>
+    <t>Test 1, Step 7</t>
+  </si>
+  <si>
+    <t>GP_11</t>
+  </si>
+  <si>
+    <t>The system shall mandate a 'jump' (or series of jumps) to be performed when they are available</t>
+  </si>
+  <si>
+    <t>concurrentJumps()</t>
+  </si>
+  <si>
+    <t>GP_12</t>
+  </si>
+  <si>
+    <t>The system shall promote a player's  'men' checker into a 'king' checker with a king's privileges if the checker reaches the closest rank (row) to the opposing player</t>
+  </si>
+  <si>
+    <t>kingMe()</t>
+  </si>
+  <si>
+    <t>GP_13</t>
+  </si>
+  <si>
+    <t>The system shall allow all king checkers to move in both forward and backwards directions (towards AND away from the player controlling them)</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>GP_14</t>
+  </si>
+  <si>
+    <t>The system shall send new game states to the Game Manager once a valid move is processed</t>
+  </si>
+  <si>
+    <t>getBoard()</t>
+  </si>
+  <si>
+    <t>GP_18</t>
   </si>
   <si>
     <t xml:space="preserve">The system shall require the player to make a jump with a checker to choose which series of jumps to be performed when multiple are available  </t>
   </si>
   <si>
-    <t xml:space="preserve">GP_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall be assigned an ID by Game Manager on instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlay class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Pair Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Player class shall be an abstract class which BotPlayer and HumanPlayer shall extend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botVBot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_2</t>
+    <t>GP_19</t>
+  </si>
+  <si>
+    <t>The system shall be assigned an ID by Game Manager on instance</t>
+  </si>
+  <si>
+    <t>GamePlay class</t>
+  </si>
+  <si>
+    <t>PU_1</t>
+  </si>
+  <si>
+    <t>7 Pair Up</t>
+  </si>
+  <si>
+    <t>The Player class shall be an abstract class which BotPlayer and HumanPlayer shall extend</t>
+  </si>
+  <si>
+    <t>botVBot</t>
+  </si>
+  <si>
+    <t>PU_2</t>
   </si>
   <si>
     <t xml:space="preserve">The system shall have an ELO system to rank the players </t>
   </si>
   <si>
-    <t xml:space="preserve">ELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall not pair players whose ELO is more than 200 apart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isInRange()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall have a linkedlist of all the players. PageManager shall hold it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plpayers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall have a queue of players who are waiting to join a match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall have a match request feature that allows players to match up against whomever they request despite elo disparity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requestChallenge()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Player class shall have a status field that is either "In Game" or "Waiting"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum status{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall accept challenges between bots, between a bot and player, and between two players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Challenge()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall remove players from the queue if they disconnect before joining a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removeFromQueue()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 - Game Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall initialize the first 10 games by creating new objects of games and adding them to the ArrayList games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initializeGames()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall check if a game is null or if the game is active and which returns the number of non-occupied Games</t>
+    <t>ELO</t>
+  </si>
+  <si>
+    <t>PU_3</t>
+  </si>
+  <si>
+    <t>The system shall not pair players whose ELO is more than 200 apart</t>
+  </si>
+  <si>
+    <t>isInRange()</t>
+  </si>
+  <si>
+    <t>PU_4</t>
+  </si>
+  <si>
+    <t>The system shall have a linkedlist of all the players. PageManager shall hold it</t>
+  </si>
+  <si>
+    <t>plpayers</t>
+  </si>
+  <si>
+    <t>PU_5</t>
+  </si>
+  <si>
+    <t>The system shall have a queue of players who are waiting to join a match</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Test 1, Step 3</t>
+  </si>
+  <si>
+    <t>PU_6</t>
+  </si>
+  <si>
+    <t>The system shall have a match request feature that allows players to match up against whomever they request despite elo disparity</t>
+  </si>
+  <si>
+    <t>requestChallenge()</t>
+  </si>
+  <si>
+    <t>PU_7</t>
+  </si>
+  <si>
+    <t>The Player class shall have a status field that is either "In Game" or "Waiting"</t>
+  </si>
+  <si>
+    <t>enum status{}</t>
+  </si>
+  <si>
+    <t>PU_8</t>
+  </si>
+  <si>
+    <t>The system shall accept challenges between bots, between a bot and player, and between two players</t>
+  </si>
+  <si>
+    <t>Challenge()</t>
+  </si>
+  <si>
+    <t>PU_9</t>
+  </si>
+  <si>
+    <t>The system shall remove players from the queue if they disconnect before joining a game</t>
+  </si>
+  <si>
+    <t>removeFromQueue()</t>
+  </si>
+  <si>
+    <t>GM_1</t>
+  </si>
+  <si>
+    <t>8 - Game Manager</t>
+  </si>
+  <si>
+    <t>The system shall initialize the first 10 games by creating new objects of games and adding them to the ArrayList games</t>
+  </si>
+  <si>
+    <t>initializeGames()</t>
+  </si>
+  <si>
+    <t>GM_2</t>
+  </si>
+  <si>
+    <t>The system shall check if a game is null or if the game is active and which returns the number of non-occupied Games</t>
   </si>
   <si>
     <t xml:space="preserve">getNumofGames() </t>
   </si>
   <si>
-    <t xml:space="preserve">GM_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall assign gameID, player1, and player2 upon instantiation of a new Game object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall allow setting player2 using the setPlayer2(int playerId) method after game creation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setPlayer1(), setPlayer2()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall allow retrieval of player1, player2, and gameID using getter methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getPlayer1(), getPlayer2()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall return the GamePlay board object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall return a Updated GameMove object containing Checker piece and destination from Page Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall allow the creation of a new game from two Player objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall remove a Game from the game ArrayList if game is finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removeGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall mark the game as during creation and inactive  during initialization or removal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setGameActive()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall call both Player objects when a game is created to initialize their participation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall send an updated board to the caller after updating the Checker piece's coordinates using processMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendUpdateBoard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 - Game Termination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A leaderboard shall be displayed after each game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: GameTermination Method: generateLeaderboard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The results of every game played shall be stored in a database and used for generating the leaderboard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: GameTermination Method: saveResults()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System Detects if a player leaves early</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: GameTermination Method: endGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall detect a winning player when no moves are left or if all opponent's pieces are captured.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: gameState Method: checkForWinningPlayer()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall detect a draw when neither player has a valid move and display this outcome.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: gameState Method: gameStateDraw()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall receive the game board state from the Game Play module after every move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: gameState gameState (stored in Board object)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall check if the losing player has any available moves by verifying diagonal movement possibilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class: gameState Method: canPlayerMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the losing player has no valid moves, the system shall declare the other player as the winner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If both players have the same number of checkers left, the system shall check if any moves are available for either player. If no moves are available, the game shall end in a draw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall log the game termination details, including the winning player, losing player, and final board state, for debugging and analytics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall ensure all game terminations are processed before updating the leaderboard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall notify the Game Play module when a game has ended, indicating whether the result was a win, loss, or draw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data with list of player names shall be fetched from PageManager with a list of players in String Json when a player is logged in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getActivePlayer() method from PageManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface/Team2-Join_Game.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data fetched from PageManager shall be parsed into JSON where a for each loop with iterate through the list of players to get the current player and call T2_33 to dyanmically add players to the html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displayJoinGame(player) , updateJoinGameList(data)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 - Join game</t>
+    <t>GM_3</t>
+  </si>
+  <si>
+    <t>The system shall assign gameID, player1, and player2 upon instantiation of a new Game object.</t>
+  </si>
+  <si>
+    <t>Game()</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>GM_4</t>
+  </si>
+  <si>
+    <t>The system shall allow setting player2 using the setPlayer2(int playerId) method after game creation.</t>
+  </si>
+  <si>
+    <t>setPlayer1(), setPlayer2()</t>
+  </si>
+  <si>
+    <t>GM_5</t>
+  </si>
+  <si>
+    <t>The system shall allow retrieval of player1, player2, and gameID using getter methods.</t>
+  </si>
+  <si>
+    <t>getPlayer1(), getPlayer2()</t>
+  </si>
+  <si>
+    <t>GM_6</t>
+  </si>
+  <si>
+    <t>The system shall return the GamePlay board object</t>
+  </si>
+  <si>
+    <t>GM_7</t>
+  </si>
+  <si>
+    <t>The system shall return a Updated GameMove object containing Checker piece and destination from Page Manager</t>
+  </si>
+  <si>
+    <t>processMove()</t>
+  </si>
+  <si>
+    <t>GM_8</t>
+  </si>
+  <si>
+    <t>The system shall allow the creation of a new game from two Player objects</t>
+  </si>
+  <si>
+    <t>createGame()</t>
+  </si>
+  <si>
+    <t>GM_9</t>
+  </si>
+  <si>
+    <t>The system shall remove a Game from the game ArrayList if game is finished</t>
+  </si>
+  <si>
+    <t>removeGame()</t>
+  </si>
+  <si>
+    <t>GM_10</t>
+  </si>
+  <si>
+    <t>The system shall mark the game as during creation and inactive  during initialization or removal.</t>
+  </si>
+  <si>
+    <t>setGameActive()</t>
+  </si>
+  <si>
+    <t>GM_11</t>
+  </si>
+  <si>
+    <t>The system shall call both Player objects when a game is created to initialize their participation.</t>
+  </si>
+  <si>
+    <t>startGame()</t>
+  </si>
+  <si>
+    <t>GM_12</t>
+  </si>
+  <si>
+    <t>The system shall send an updated board to the caller after updating the Checker piece's coordinates using processMove()</t>
+  </si>
+  <si>
+    <t>sendUpdateBoard()</t>
+  </si>
+  <si>
+    <t>GT-1</t>
+  </si>
+  <si>
+    <t>20 - Game Termination</t>
+  </si>
+  <si>
+    <t>A leaderboard shall be displayed after each game.</t>
+  </si>
+  <si>
+    <t>Class: GameTermination Method: generateLeaderboard()</t>
+  </si>
+  <si>
+    <t>GT-2</t>
+  </si>
+  <si>
+    <t>The results of every game played shall be stored in a database and used for generating the leaderboard.</t>
+  </si>
+  <si>
+    <t>Class: GameTermination Method: saveResults()</t>
+  </si>
+  <si>
+    <t>Test 1, Step 4</t>
+  </si>
+  <si>
+    <t>GT-3</t>
+  </si>
+  <si>
+    <t>System Detects if a player leaves early</t>
+  </si>
+  <si>
+    <t>Class: GameTermination Method: endGame()</t>
+  </si>
+  <si>
+    <t>GT-4</t>
+  </si>
+  <si>
+    <t>The system shall detect a winning player when no moves are left or if all opponent's pieces are captured.</t>
+  </si>
+  <si>
+    <t>Class: gameState Method: checkForWinningPlayer()</t>
+  </si>
+  <si>
+    <t>GT-5</t>
+  </si>
+  <si>
+    <t>The system shall detect a draw when neither player has a valid move and display this outcome.</t>
+  </si>
+  <si>
+    <t>Class: gameState Method: gameStateDraw()</t>
+  </si>
+  <si>
+    <t>GT-6</t>
+  </si>
+  <si>
+    <t>The system shall receive the game board state from the Game Play module after every move.</t>
+  </si>
+  <si>
+    <t>Class: gameState gameState (stored in Board object)</t>
+  </si>
+  <si>
+    <t>GT-7</t>
+  </si>
+  <si>
+    <t>The system shall check if the losing player has any available moves by verifying diagonal movement possibilities.</t>
+  </si>
+  <si>
+    <t>Class: gameState Method: canPlayerMove()</t>
+  </si>
+  <si>
+    <t>GT-8</t>
+  </si>
+  <si>
+    <t>If the losing player has no valid moves, the system shall declare the other player as the winner.</t>
+  </si>
+  <si>
+    <t>GT-9</t>
+  </si>
+  <si>
+    <t>If both players have the same number of checkers left, the system shall check if any moves are available for either player. If no moves are available, the game shall end in a draw.</t>
+  </si>
+  <si>
+    <t>GT-10</t>
+  </si>
+  <si>
+    <t>The system shall log the game termination details, including the winning player, losing player, and final board state, for debugging and analytics.</t>
+  </si>
+  <si>
+    <t>GT-11</t>
+  </si>
+  <si>
+    <t>The system shall ensure all game terminations are processed before updating the leaderboard.</t>
+  </si>
+  <si>
+    <t>GT-12</t>
+  </si>
+  <si>
+    <t>The system shall notify the Game Play module when a game has ended, indicating whether the result was a win, loss, or draw.</t>
+  </si>
+  <si>
+    <t>T2_001</t>
+  </si>
+  <si>
+    <t>2 - Join game</t>
+  </si>
+  <si>
+    <t>Data with list of player names shall be fetched from PageManager with a list of players in String Json when a player is logged in</t>
+  </si>
+  <si>
+    <t>getActivePlayer() method from PageManager</t>
+  </si>
+  <si>
+    <t>Interface/Team2-Join_Game.md</t>
+  </si>
+  <si>
+    <t>T2_002</t>
+  </si>
+  <si>
+    <t>3 - Join game</t>
+  </si>
+  <si>
+    <t>Data fetched from PageManager shall be parsed into JSON where a for each loop with iterate through the list of players to get the current player and call T2_33 to dyanmically add players to the html</t>
+  </si>
+  <si>
+    <t>displayJoinGame(player) , updateJoinGameList(data)</t>
+  </si>
+  <si>
+    <t>T2_003</t>
+  </si>
+  <si>
+    <t>4 - Join game</t>
   </si>
   <si>
     <t xml:space="preserve">any event from each player shall be sent to page manager directly to transfer to other element of the game </t>
   </si>
   <si>
-    <t xml:space="preserve">sendMessage({'action':typeEvent})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human players  shall have a "name, elo" tied to them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displayJoinGame(player)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If selected to join queue shall update the json with message type on that user Id and refer the player to PageManager with type 'JoinQueue'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendMessage({action:'joinQueue', playerClientId: globalClientID})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once a player enters loggined their name shall be added to the list of players in lobby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case loginSuccessful; swapToPage("join_game");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If user select to challenge shall update the json type for  the challenger "req_challenge" and refer to page manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendMessage({ action: "challengePlayer", "opponentClientId": player_info.ClientID });</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If select to view a match shall update the json along with the action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deprecated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a player is active shall be added to list of players for challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateStatus(playerID, status)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Players in a challenge cannot be challenged until they have completed their current match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a player is not online, they won't be in the lobby list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a player is online, status shall show as active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If player is in challenge, status shall show as in challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If player is in queue , status shall as busy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If player views a match,  shall redirect through the updated json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall display number of players currently logged in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 - Join game</t>
+    <t>sendMessage({'action':typeEvent})</t>
+  </si>
+  <si>
+    <t>T2_005</t>
+  </si>
+  <si>
+    <t>6 - Join game</t>
+  </si>
+  <si>
+    <t>Human players  shall have a "name, elo" tied to them</t>
+  </si>
+  <si>
+    <t>displayJoinGame(player)</t>
+  </si>
+  <si>
+    <t>T2_006</t>
+  </si>
+  <si>
+    <t>7 - Join game</t>
+  </si>
+  <si>
+    <t>If selected to join queue shall update the json with message type on that user Id and refer the player to PageManager with type 'JoinQueue'</t>
+  </si>
+  <si>
+    <t>sendMessage({action:'joinQueue', playerClientId: globalClientID})</t>
+  </si>
+  <si>
+    <t>T2_007</t>
+  </si>
+  <si>
+    <t>8 - Join game</t>
+  </si>
+  <si>
+    <t>Once a player enters loggined their name shall be added to the list of players in lobby</t>
+  </si>
+  <si>
+    <t>case loginSuccessful; swapToPage("join_game");</t>
+  </si>
+  <si>
+    <t>T2_008</t>
+  </si>
+  <si>
+    <t>9 - Join game</t>
+  </si>
+  <si>
+    <t>If user select to challenge shall update the json type for  the challenger "req_challenge" and refer to page manager</t>
+  </si>
+  <si>
+    <t>sendMessage({ action: "challengePlayer", "opponentClientId": player_info.ClientID });</t>
+  </si>
+  <si>
+    <t>T2_009</t>
+  </si>
+  <si>
+    <t>10 - Join game</t>
+  </si>
+  <si>
+    <t>If select to view a match shall update the json along with the action</t>
+  </si>
+  <si>
+    <t>deprecated</t>
+  </si>
+  <si>
+    <t>T2_010</t>
+  </si>
+  <si>
+    <t>11 - Join game</t>
+  </si>
+  <si>
+    <t>If a player is active shall be added to list of players for challenge</t>
+  </si>
+  <si>
+    <t>updateStatus(playerID, status)</t>
+  </si>
+  <si>
+    <t>T2_011</t>
+  </si>
+  <si>
+    <t>12 - Join game</t>
+  </si>
+  <si>
+    <t>Players in a challenge cannot be challenged until they have completed their current match</t>
+  </si>
+  <si>
+    <t>T2_012</t>
+  </si>
+  <si>
+    <t>13 - Join game</t>
+  </si>
+  <si>
+    <t>If a player is not online, they won't be in the lobby list</t>
+  </si>
+  <si>
+    <t>T2_013</t>
+  </si>
+  <si>
+    <t>14 - Join game</t>
+  </si>
+  <si>
+    <t>If a player is online, status shall show as active</t>
+  </si>
+  <si>
+    <t>T2_014</t>
+  </si>
+  <si>
+    <t>15 - Join game</t>
+  </si>
+  <si>
+    <t>If player is in challenge, status shall show as in challenge</t>
+  </si>
+  <si>
+    <t>T2_015</t>
+  </si>
+  <si>
+    <t>16 - Join game</t>
+  </si>
+  <si>
+    <t>If player is in queue , status shall as busy</t>
+  </si>
+  <si>
+    <t>T2_016</t>
+  </si>
+  <si>
+    <t>17 - Join game</t>
+  </si>
+  <si>
+    <t>If player views a match,  shall redirect through the updated json</t>
+  </si>
+  <si>
+    <t>T2_017</t>
+  </si>
+  <si>
+    <t>18 - Join game</t>
+  </si>
+  <si>
+    <t>shall display number of players currently logged in</t>
+  </si>
+  <si>
+    <t>T2_019</t>
+  </si>
+  <si>
+    <t>20 - Join game</t>
   </si>
   <si>
     <t xml:space="preserve">players shall have unique userIDs </t>
   </si>
   <si>
-    <t xml:space="preserve">globalClientID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 - Join game</t>
+    <t>globalClientID</t>
+  </si>
+  <si>
+    <t>T2_020</t>
+  </si>
+  <si>
+    <t>21 - Join game</t>
   </si>
   <si>
     <t xml:space="preserve">default shall have 2 bots to be played against </t>
   </si>
   <si>
-    <t xml:space="preserve">sendMessage({'action':'challengeBot', 'botId': 0/1})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall update html and send to Page manager JSON for player request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SwapToPage()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall try to reconnect if matchmaking failed in challenge mode</t>
+    <t>sendMessage({'action':'challengeBot', 'botId': 0/1})</t>
+  </si>
+  <si>
+    <t>T2_021</t>
+  </si>
+  <si>
+    <t>22 - Join game</t>
+  </si>
+  <si>
+    <t>shall update html and send to Page manager JSON for player request</t>
+  </si>
+  <si>
+    <t>SwapToPage()</t>
+  </si>
+  <si>
+    <t>T2_025</t>
+  </si>
+  <si>
+    <t>26 - Join game</t>
+  </si>
+  <si>
+    <t>shall try to reconnect if matchmaking failed in challenge mode</t>
   </si>
   <si>
     <t xml:space="preserve">T2_025 </t>
   </si>
   <si>
-    <t xml:space="preserve">27 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall have a button to request a checkers game between two bots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shall have a button for the player to play aganist a bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There shall be a scroll controll in the lobby to preserve height of the div in index page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The join game front end shall show the user in the lobby menu with different action buttons and options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There shall be a color indicator to show the status of the player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The color status indicator shall be green to show that the player is idle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The color status indicator shall be red to show that the player is busy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A function with the parameter of a player's info shall create a list element with the requirements T2_... and append to the id "lobby_list_items"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a paragraph element with the id "UID{player_id}" and the innerText of "{player_username} - (ELO: (player_elo})" and T2_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A span element shall have the class "status free" if the player_status is ONLINE else it will be initialized with "status busy"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A challange button shall have the id "chall_btn-{player_id}", an onclick function that calls T2_37, and the inner text "Challenge"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A challenge function shall take in the parameters of the challenged player and current player then send it to PageManager with the correct format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A view button shall have the id "view_btn-{player_id}", an onclick function that call T2_39, and inner text of "view match"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 - Join game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a view match function shall take in the requested player's info and send to page manager in the corrent JSON format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 - Login/Signup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a username box for the returning user to enter thier unique identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1, pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a password box for the returning user to enter their created password.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Login/Signup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a login button for directing returning users to login page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 4, pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a sign up button for directing new users to new account page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a game title (logo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">img</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 2, pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a sign up information input to create new accounts for new users.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System users shall have a unique username with at least 4 characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniqueUser, span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System users shall have a password with at least 6 unique characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniquePass, span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 5, fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall display a message if no account is found matching the entered username.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 8, pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System will comunicate with Page Manager to send data to database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 5, pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a username box for the new user to enter thier unique identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a password box for the new user to enter their created password.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a functioning button to log the user in using their entered credentials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login (id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a functioning button to create a user account using their entered credentials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_account (id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a function to show the signup page and simultaneuously hide the login screen upon click. Function for Requirement(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auth.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System shall have a function to show the login page and simultaneuously hide the signup screen upon click. Function for Requirement(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 3, pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 - Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall ensure that each username is unique and associated with a UUID.</t>
+    <t>27 - Join game</t>
+  </si>
+  <si>
+    <t>shall have a button to request a checkers game between two bots</t>
+  </si>
+  <si>
+    <t>T2_026</t>
+  </si>
+  <si>
+    <t>28 - Join game</t>
+  </si>
+  <si>
+    <t>shall have a button for the player to play aganist a bot</t>
+  </si>
+  <si>
+    <t>T2_027</t>
+  </si>
+  <si>
+    <t>29 - Join game</t>
+  </si>
+  <si>
+    <t>There shall be a scroll controll in the lobby to preserve height of the div in index page</t>
+  </si>
+  <si>
+    <t>not implemented</t>
+  </si>
+  <si>
+    <t>T2_029</t>
+  </si>
+  <si>
+    <t>31 - Join game</t>
+  </si>
+  <si>
+    <t>The join game front end shall show the user in the lobby menu with different action buttons and options</t>
+  </si>
+  <si>
+    <t>T2_030</t>
+  </si>
+  <si>
+    <t>32 - Join game</t>
+  </si>
+  <si>
+    <t>There shall be a color indicator to show the status of the player</t>
+  </si>
+  <si>
+    <t>T2_031</t>
+  </si>
+  <si>
+    <t>33 - Join game</t>
+  </si>
+  <si>
+    <t>The color status indicator shall be green to show that the player is idle</t>
+  </si>
+  <si>
+    <t>T2_032</t>
+  </si>
+  <si>
+    <t>34 - Join game</t>
+  </si>
+  <si>
+    <t>The color status indicator shall be red to show that the player is busy</t>
+  </si>
+  <si>
+    <t>T2_33</t>
+  </si>
+  <si>
+    <t>35 - Join game</t>
+  </si>
+  <si>
+    <t>A function with the parameter of a player's info shall create a list element with the requirements T2_... and append to the id "lobby_list_items"</t>
+  </si>
+  <si>
+    <t>T2_34</t>
+  </si>
+  <si>
+    <t>36 - Join game</t>
+  </si>
+  <si>
+    <t>Create a paragraph element with the id "UID{player_id}" and the innerText of "{player_username} - (ELO: (player_elo})" and T2_35</t>
+  </si>
+  <si>
+    <t>T2_35</t>
+  </si>
+  <si>
+    <t>37 - Join game</t>
+  </si>
+  <si>
+    <t>A span element shall have the class "status free" if the player_status is ONLINE else it will be initialized with "status busy"</t>
+  </si>
+  <si>
+    <t>T2_36</t>
+  </si>
+  <si>
+    <t>38 - Join game</t>
+  </si>
+  <si>
+    <t>A challange button shall have the id "chall_btn-{player_id}", an onclick function that calls T2_37, and the inner text "Challenge"</t>
+  </si>
+  <si>
+    <t>T2_37</t>
+  </si>
+  <si>
+    <t>39 - Join game</t>
+  </si>
+  <si>
+    <t>A challenge function shall take in the parameters of the challenged player and current player then send it to PageManager with the correct format</t>
+  </si>
+  <si>
+    <t>T2_38</t>
+  </si>
+  <si>
+    <t>40 - Join game</t>
+  </si>
+  <si>
+    <t>A view button shall have the id "view_btn-{player_id}", an onclick function that call T2_39, and inner text of "view match"</t>
+  </si>
+  <si>
+    <t>T2_39</t>
+  </si>
+  <si>
+    <t>41 - Join game</t>
+  </si>
+  <si>
+    <t>a view match function shall take in the requested player's info and send to page manager in the corrent JSON format</t>
+  </si>
+  <si>
+    <t>LS_01</t>
+  </si>
+  <si>
+    <t>01 - Login/Signup</t>
+  </si>
+  <si>
+    <t>System shall have a username box for the returning user to enter thier unique identifier</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Step 1, pass</t>
+  </si>
+  <si>
+    <t>Test 1, Step 1</t>
+  </si>
+  <si>
+    <t>LS_02</t>
+  </si>
+  <si>
+    <t>System shall have a password box for the returning user to enter their created password.</t>
+  </si>
+  <si>
+    <t>LS_03</t>
+  </si>
+  <si>
+    <t>1 - Login/Signup</t>
+  </si>
+  <si>
+    <t>System shall have a login button for directing returning users to login page.</t>
+  </si>
+  <si>
+    <t>btn</t>
+  </si>
+  <si>
+    <t>Step 4, pass</t>
+  </si>
+  <si>
+    <t>LS_04</t>
+  </si>
+  <si>
+    <t>System shall have a sign up button for directing new users to new account page.</t>
+  </si>
+  <si>
+    <t>Test 1, Step 2</t>
+  </si>
+  <si>
+    <t>LS_05</t>
+  </si>
+  <si>
+    <t>System shall have a game title (logo)</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>Step 2, pass</t>
+  </si>
+  <si>
+    <t>LS_06</t>
+  </si>
+  <si>
+    <t>System shall have a sign up information input to create new accounts for new users.</t>
+  </si>
+  <si>
+    <t>new_account</t>
+  </si>
+  <si>
+    <t>LS_07</t>
+  </si>
+  <si>
+    <t>System users shall have a unique username with at least 4 characters.</t>
+  </si>
+  <si>
+    <t>uniqueUser, span</t>
+  </si>
+  <si>
+    <t>LS_08</t>
+  </si>
+  <si>
+    <t>System users shall have a password with at least 6 unique characters.</t>
+  </si>
+  <si>
+    <t>uniquePass, span</t>
+  </si>
+  <si>
+    <t>Step 5, fail</t>
+  </si>
+  <si>
+    <t>LS_09</t>
+  </si>
+  <si>
+    <t>System shall display a message if no account is found matching the entered username.</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>Step 8, pass</t>
+  </si>
+  <si>
+    <t>LS_10</t>
+  </si>
+  <si>
+    <t>System will comunicate with Page Manager to send data to database</t>
+  </si>
+  <si>
+    <t>sendInfo</t>
+  </si>
+  <si>
+    <t>Step 5, pass</t>
+  </si>
+  <si>
+    <t>LS_11</t>
+  </si>
+  <si>
+    <t>System shall have a username box for the new user to enter thier unique identifier</t>
+  </si>
+  <si>
+    <t>LS_12</t>
+  </si>
+  <si>
+    <t>System shall have a password box for the new user to enter their created password.</t>
+  </si>
+  <si>
+    <t>LS_13</t>
+  </si>
+  <si>
+    <t>System shall have a functioning button to log the user in using their entered credentials.</t>
+  </si>
+  <si>
+    <t>login (id)</t>
+  </si>
+  <si>
+    <t>LS_14</t>
+  </si>
+  <si>
+    <t>System shall have a functioning button to create a user account using their entered credentials.</t>
+  </si>
+  <si>
+    <t>new_account (id)</t>
+  </si>
+  <si>
+    <t>LS_15</t>
+  </si>
+  <si>
+    <t>System shall have a function to show the signup page and simultaneuously hide the login screen upon click. Function for Requirement(4)</t>
+  </si>
+  <si>
+    <t>auth.js</t>
+  </si>
+  <si>
+    <t>LS_16</t>
+  </si>
+  <si>
+    <t>System shall have a function to show the login page and simultaneuously hide the signup screen upon click. Function for Requirement(3)</t>
+  </si>
+  <si>
+    <t>Step 3, pass</t>
+  </si>
+  <si>
+    <t>DB_1</t>
+  </si>
+  <si>
+    <t>6 - Database</t>
+  </si>
+  <si>
+    <t>The database shall ensure that each username is unique and associated with a UUID.</t>
   </si>
   <si>
     <t xml:space="preserve">initializeDatabase() </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall generate a UUID for each new user record upon creation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall provide an interface that allows the page manager to request and retrieve stored user information by username, UUID, or other attributes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getPlayer(String username, String password)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support deletion of user records manually if needed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall maintain data and value ranges for all fields to maintain consistency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall respond to requests from page manager and deliver the requested information within a short span of time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall ensure consistency by preventing duplicate names by using the UUID's.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addPlayer(String username, String password)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall be scalable to handle an increasing number of user records.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support the insertion of new user records.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support the update of a user's win count.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recordMatchResult(int winnerId, int loserId)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support the update of a user's loss count.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support the update of a user's total games played.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall support the update of a user's elo value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall provide a user's elo value to pair up system upon request.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's username.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updatePlayerStats(int playerId, int wins, int losses, int ELO, int gamesPlayed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's UUID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's wins.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's losses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's total games.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The database shall store player's elo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot II - 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to prioritize defensive moves to protect its own pieces.</t>
+    <t>DB_2</t>
+  </si>
+  <si>
+    <t>The database shall generate a UUID for each new user record upon creation.</t>
+  </si>
+  <si>
+    <t>DB_3</t>
+  </si>
+  <si>
+    <t>The database shall provide an interface that allows the page manager to request and retrieve stored user information by username, UUID, or other attributes.</t>
+  </si>
+  <si>
+    <t>getPlayer(String username, String password)</t>
+  </si>
+  <si>
+    <t>DB_4</t>
+  </si>
+  <si>
+    <t>The database shall support deletion of user records manually if needed.</t>
+  </si>
+  <si>
+    <t>DB_5</t>
+  </si>
+  <si>
+    <t>The database shall maintain data and value ranges for all fields to maintain consistency.</t>
+  </si>
+  <si>
+    <t>DB_6</t>
+  </si>
+  <si>
+    <t>The database shall respond to requests from page manager and deliver the requested information within a short span of time.</t>
+  </si>
+  <si>
+    <t>DB_7</t>
+  </si>
+  <si>
+    <t>The database shall ensure consistency by preventing duplicate names by using the UUID's.</t>
+  </si>
+  <si>
+    <t>addPlayer(String username, String password)</t>
+  </si>
+  <si>
+    <t>DB_8</t>
+  </si>
+  <si>
+    <t>The database shall be scalable to handle an increasing number of user records.</t>
+  </si>
+  <si>
+    <t>DB_9</t>
+  </si>
+  <si>
+    <t>The database shall support the insertion of new user records.</t>
+  </si>
+  <si>
+    <t>DB_10</t>
+  </si>
+  <si>
+    <t>The database shall support the update of a user's win count.</t>
+  </si>
+  <si>
+    <t>recordMatchResult(int winnerId, int loserId)</t>
+  </si>
+  <si>
+    <t>DB_11</t>
+  </si>
+  <si>
+    <t>The database shall support the update of a user's loss count.</t>
+  </si>
+  <si>
+    <t>DB_12</t>
+  </si>
+  <si>
+    <t>The database shall support the update of a user's total games played.</t>
+  </si>
+  <si>
+    <t>DB_13</t>
+  </si>
+  <si>
+    <t>The database shall support the update of a user's elo value.</t>
+  </si>
+  <si>
+    <t>DB_14</t>
+  </si>
+  <si>
+    <t>The database shall provide a user's elo value to pair up system upon request.</t>
+  </si>
+  <si>
+    <t>DB_15</t>
+  </si>
+  <si>
+    <t>The database shall store player's username.</t>
+  </si>
+  <si>
+    <t>updatePlayerStats(int playerId, int wins, int losses, int ELO, int gamesPlayed)</t>
+  </si>
+  <si>
+    <t>DB_16</t>
+  </si>
+  <si>
+    <t>The database shall store player's UUID.</t>
+  </si>
+  <si>
+    <t>DB_17</t>
+  </si>
+  <si>
+    <t>The database shall store player's wins.</t>
+  </si>
+  <si>
+    <t>DB_18</t>
+  </si>
+  <si>
+    <t>The database shall store player's losses.</t>
+  </si>
+  <si>
+    <t>DB_19</t>
+  </si>
+  <si>
+    <t>The database shall store player's total games.</t>
+  </si>
+  <si>
+    <t>DB_20</t>
+  </si>
+  <si>
+    <t>The database shall store player's elo.</t>
+  </si>
+  <si>
+    <t>BII-3</t>
+  </si>
+  <si>
+    <t>Bot II - 19</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to prioritize defensive moves to protect its own pieces.</t>
   </si>
   <si>
     <t xml:space="preserve">public void defendPieces() </t>
   </si>
   <si>
-    <t xml:space="preserve">Step 4, fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall wait until the opponent has made a valid move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public void waitForOpponent()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall adapt its strategy based on the game phase (e.g., early, mid, late game)</t>
+    <t>Step 4, fail</t>
+  </si>
+  <si>
+    <t>BII-9</t>
+  </si>
+  <si>
+    <t>Bot 2 shall wait until the opponent has made a valid move.</t>
+  </si>
+  <si>
+    <t>public void waitForOpponent()</t>
+  </si>
+  <si>
+    <t>BII-10</t>
+  </si>
+  <si>
+    <t>Bot 2 shall adapt its strategy based on the game phase (e.g., early, mid, late game)</t>
   </si>
   <si>
     <t xml:space="preserve">public void adjustStrategy() </t>
   </si>
   <si>
-    <t xml:space="preserve">BII-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to optimally figure out the best route to block their opponent in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to recognize when to play "offensive" if there is an opportunity to capture an opponent's piece during a turn.</t>
+    <t>BII-11</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to optimally figure out the best route to block their opponent in.</t>
+  </si>
+  <si>
+    <t>BII-12</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to recognize when to play "offensive" if there is an opportunity to capture an opponent's piece during a turn.</t>
   </si>
   <si>
     <t xml:space="preserve">public void findOffensiveMove() </t>
   </si>
   <si>
-    <t xml:space="preserve">BII-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall recognize when one of its checker pieces have been captured by the opponent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public boolean isPieceCaptured(int pieceId)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall recognize when more than one of its checker pieces have been captured by the opponent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public void adjustStrategy()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall keep the back line pieces in place unless needed</t>
+    <t>BII-13</t>
+  </si>
+  <si>
+    <t>Bot 2 shall recognize when one of its checker pieces have been captured by the opponent.</t>
+  </si>
+  <si>
+    <t>public boolean isPieceCaptured(int pieceId)</t>
+  </si>
+  <si>
+    <t>BII-14</t>
+  </si>
+  <si>
+    <t>Bot 2 shall recognize when more than one of its checker pieces have been captured by the opponent.</t>
+  </si>
+  <si>
+    <t>public void adjustStrategy()</t>
+  </si>
+  <si>
+    <t>BII-15</t>
+  </si>
+  <si>
+    <t>Bot 2 shall keep the back line pieces in place unless needed</t>
   </si>
   <si>
     <t xml:space="preserve">public void protectBackLine() </t>
   </si>
   <si>
-    <t xml:space="preserve">BII-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to detect if a move in the future will be within danger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private static boolean wouldBeInDangerAfterMove(Checker piece, Cord dest, Board board)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to create a list of all possible safe moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public static ArrayList&lt;Cord&gt; getSafeMoves(Checker checker, Board board)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall detect if a piece is in danger after opponent moves</t>
+    <t>BII-18</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to detect if a move in the future will be within danger</t>
+  </si>
+  <si>
+    <t>private static boolean wouldBeInDangerAfterMove(Checker piece, Cord dest, Board board)</t>
+  </si>
+  <si>
+    <t>BII-19</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to create a list of all possible safe moves</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;Cord&gt; getSafeMoves(Checker checker, Board board)</t>
+  </si>
+  <si>
+    <t>BII-20</t>
+  </si>
+  <si>
+    <t>Bot 2 shall detect if a piece is in danger after opponent moves</t>
   </si>
   <si>
     <t xml:space="preserve">public static boolean isInDanger(Checker checker, Board board) </t>
   </si>
   <si>
-    <t xml:space="preserve">BII-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to move in order to defend its pieces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public static Move defendPieces(Board board)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot II -19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall act on its defensive strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public void makeDefensiveMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall determine the safest move for a piece in order to follow its defensive strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private boolean attemptDefensiveMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot 2 shall be able to capture opponent's pieces when diagonally passing over an opponent piece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public void capturePiece()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 - Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall display gold, silver, and bronze medals for the top three players.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fillTable()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall be shown on page load, populated with sorted player data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renderLeaderboard(), loadData()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall sort players in descending order based on Elo rating.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loadData()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall display each player's total games as the sum of games won and games lost.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player.getTotalGames(), fillTable()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The page shall request summary leaderboard data from the server on load.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renderLeaderboard(), sendMessage()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall clear previous data before displaying new player data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renderLeaderboard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall handle 'summaryData' server messages by passing the top 10 players to the leaderboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loadData(jsonMsg.top10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The UI shall hide the 'LEADERBOARD' button and display the leaderboard on click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summaryShow()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The UI shall display a 'Back to Home' button to hide the leaderboard and show the display button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summaryHide()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard shall be rendered inside a scrollable HTML table container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">div.scrollable-table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard table columns shall support click-to-sort functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sortTable()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sortTable function shall handle numeric and string-based sorting in ascending/descending order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot1 - 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two 'bots' shall be provided. They will play with different strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general case, makeMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall play checkers like a real players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">makeMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall negotiate with Bot II and Game Manager for game decisions and strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall consistently follow game rules and strategies without failure, ensuring a fair playing environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getAvailableCheckers(), getAllJumpMoves(), getAllNormalMoves()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall go before Bot II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateBoard() -&gt;game manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall exceute each move within 1 second of the opponent's move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall execute moves correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">executeMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall respond and execute moves efficiently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moveChecker(), moveKing()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 9</t>
+    <t>BII-21</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to move in order to defend its pieces</t>
+  </si>
+  <si>
+    <t>public static Move defendPieces(Board board)</t>
+  </si>
+  <si>
+    <t>BII-22</t>
+  </si>
+  <si>
+    <t>Bot II -19</t>
+  </si>
+  <si>
+    <t>Bot 2 shall act on its defensive strategy</t>
+  </si>
+  <si>
+    <t>public void makeDefensiveMove()</t>
+  </si>
+  <si>
+    <t>BII-23</t>
+  </si>
+  <si>
+    <t>Bot 2 shall determine the safest move for a piece in order to follow its defensive strategy</t>
+  </si>
+  <si>
+    <t>private boolean attemptDefensiveMove()</t>
+  </si>
+  <si>
+    <t>BII-4</t>
+  </si>
+  <si>
+    <t>Bot 2 shall be able to capture opponent's pieces when diagonally passing over an opponent piece.</t>
+  </si>
+  <si>
+    <t>public void capturePiece()</t>
+  </si>
+  <si>
+    <t>SM-001</t>
+  </si>
+  <si>
+    <t>4 - Summary</t>
+  </si>
+  <si>
+    <t>The leaderboard shall display gold, silver, and bronze medals for the top three players.</t>
+  </si>
+  <si>
+    <t>fillTable()</t>
+  </si>
+  <si>
+    <t>Test 1, Step 5</t>
+  </si>
+  <si>
+    <t>SM-002</t>
+  </si>
+  <si>
+    <t>The leaderboard shall be shown on page load, populated with sorted player data.</t>
+  </si>
+  <si>
+    <t>renderLeaderboard(), loadData()</t>
+  </si>
+  <si>
+    <t>SM-003</t>
+  </si>
+  <si>
+    <t>The leaderboard shall sort players in descending order based on Elo rating.</t>
+  </si>
+  <si>
+    <t>loadData()</t>
+  </si>
+  <si>
+    <t>SM-004</t>
+  </si>
+  <si>
+    <t>The leaderboard shall display each player's total games as the sum of games won and games lost.</t>
+  </si>
+  <si>
+    <t>Player.getTotalGames(), fillTable()</t>
+  </si>
+  <si>
+    <t>SM-005</t>
+  </si>
+  <si>
+    <t>The page shall request summary leaderboard data from the server on load.</t>
+  </si>
+  <si>
+    <t>renderLeaderboard(), sendMessage()</t>
+  </si>
+  <si>
+    <t>SM-006</t>
+  </si>
+  <si>
+    <t>The leaderboard shall clear previous data before displaying new player data.</t>
+  </si>
+  <si>
+    <t>renderLeaderboard()</t>
+  </si>
+  <si>
+    <t>SM-007</t>
+  </si>
+  <si>
+    <t>The system shall handle 'summaryData' server messages by passing the top 10 players to the leaderboard</t>
+  </si>
+  <si>
+    <t>loadData(jsonMsg.top10)</t>
+  </si>
+  <si>
+    <t>SM-008</t>
+  </si>
+  <si>
+    <t>The UI shall hide the 'LEADERBOARD' button and display the leaderboard on click</t>
+  </si>
+  <si>
+    <t>summaryShow()</t>
+  </si>
+  <si>
+    <t>SM-009</t>
+  </si>
+  <si>
+    <t>The UI shall display a 'Back to Home' button to hide the leaderboard and show the display button</t>
+  </si>
+  <si>
+    <t>summaryHide()</t>
+  </si>
+  <si>
+    <t>SM-010</t>
+  </si>
+  <si>
+    <t>The leaderboard shall be rendered inside a scrollable HTML table container</t>
+  </si>
+  <si>
+    <t>div.scrollable-table</t>
+  </si>
+  <si>
+    <t>SM-011</t>
+  </si>
+  <si>
+    <t>The leaderboard table columns shall support click-to-sort functionality</t>
+  </si>
+  <si>
+    <t>sortTable()</t>
+  </si>
+  <si>
+    <t>SM-012</t>
+  </si>
+  <si>
+    <t>The sortTable function shall handle numeric and string-based sorting in ascending/descending order</t>
+  </si>
+  <si>
+    <t>BI - 1</t>
+  </si>
+  <si>
+    <t>Bot1 - 18</t>
+  </si>
+  <si>
+    <t>Two 'bots' shall be provided. They will play with different strategies</t>
+  </si>
+  <si>
+    <t>general case, makeMove()</t>
+  </si>
+  <si>
+    <t>BI - 2</t>
+  </si>
+  <si>
+    <t>BotI shall play checkers like a real players</t>
+  </si>
+  <si>
+    <t>makeMove()</t>
+  </si>
+  <si>
+    <t>BI - 3</t>
+  </si>
+  <si>
+    <t>BotI shall negotiate with Bot II and Game Manager for game decisions and strategies</t>
+  </si>
+  <si>
+    <t>in general</t>
+  </si>
+  <si>
+    <t>BI - 4</t>
+  </si>
+  <si>
+    <t>BotI shall consistently follow game rules and strategies without failure, ensuring a fair playing environment</t>
+  </si>
+  <si>
+    <t>getAvailableCheckers(), getAllJumpMoves(), getAllNormalMoves()</t>
+  </si>
+  <si>
+    <t>BI - 5</t>
+  </si>
+  <si>
+    <t>BotI shall go before Bot II</t>
+  </si>
+  <si>
+    <t>updateBoard() -&gt;game manager</t>
+  </si>
+  <si>
+    <t>BI - 6</t>
+  </si>
+  <si>
+    <t>BotI shall exceute each move within 1 second of the opponent's move</t>
+  </si>
+  <si>
+    <t>BI - 7</t>
+  </si>
+  <si>
+    <t>BotI shall execute moves correctly</t>
+  </si>
+  <si>
+    <t>executeMove()</t>
+  </si>
+  <si>
+    <t>BI - 8</t>
+  </si>
+  <si>
+    <t>BotI shall respond and execute moves efficiently</t>
+  </si>
+  <si>
+    <t>moveChecker(), moveKing()</t>
+  </si>
+  <si>
+    <t>BI - 9</t>
   </si>
   <si>
     <t xml:space="preserve">BotI will go first during the bot match </t>
   </si>
   <si>
-    <t xml:space="preserve">BI - 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI wins if the opponent has no legal moves or the opponent has no pieces left.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall be designed to accommodate future changes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall attempt to block opponent's moves when possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isSafeMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall prioritize offensive moves when safe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectBestJumpMove(), selectBestNormalMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall avoid moving backline peices unless necessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IsAdvancingMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall support multiple kings on the board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isKing(), wouldBecomeKing()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall check ande exectue multiple jumps if available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getAllJumpMoves()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall support Player vs Bot 1 matches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateBoard(), makeMove()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall suppport Bot 1 vs Bot 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot I shall operate independently in Player vs Player matches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotI shall keep updating board after moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateBoard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI - 21</t>
+    <t>BI - 10</t>
+  </si>
+  <si>
+    <t>BotI wins if the opponent has no legal moves or the opponent has no pieces left.</t>
+  </si>
+  <si>
+    <t>BI - 11</t>
+  </si>
+  <si>
+    <t>BotI shall be designed to accommodate future changes</t>
+  </si>
+  <si>
+    <t>general case</t>
+  </si>
+  <si>
+    <t>BI - 12</t>
+  </si>
+  <si>
+    <t>BotI shall attempt to block opponent's moves when possible</t>
+  </si>
+  <si>
+    <t>isSafeMove()</t>
+  </si>
+  <si>
+    <t>BI - 13</t>
+  </si>
+  <si>
+    <t>BotI shall prioritize offensive moves when safe</t>
+  </si>
+  <si>
+    <t>selectBestJumpMove(), selectBestNormalMove()</t>
+  </si>
+  <si>
+    <t>BI - 14</t>
+  </si>
+  <si>
+    <t>BotI shall avoid moving backline peices unless necessary</t>
+  </si>
+  <si>
+    <t>IsAdvancingMove()</t>
+  </si>
+  <si>
+    <t>BI - 15</t>
+  </si>
+  <si>
+    <t>BotI shall support multiple kings on the board</t>
+  </si>
+  <si>
+    <t>isKing(), wouldBecomeKing()</t>
+  </si>
+  <si>
+    <t>BI - 16</t>
+  </si>
+  <si>
+    <t>BotI shall check ande exectue multiple jumps if available</t>
+  </si>
+  <si>
+    <t>getAllJumpMoves()</t>
+  </si>
+  <si>
+    <t>BI - 17</t>
+  </si>
+  <si>
+    <t>BotI shall support Player vs Bot 1 matches</t>
+  </si>
+  <si>
+    <t>updateBoard(), makeMove()</t>
+  </si>
+  <si>
+    <t>BI - 18</t>
+  </si>
+  <si>
+    <t>BotI shall suppport Bot 1 vs Bot 2</t>
+  </si>
+  <si>
+    <t>BI - 19</t>
+  </si>
+  <si>
+    <t>Bot I shall operate independently in Player vs Player matches</t>
+  </si>
+  <si>
+    <t>BI - 20</t>
+  </si>
+  <si>
+    <t>BotI shall keep updating board after moves</t>
+  </si>
+  <si>
+    <t>updateBoard()</t>
+  </si>
+  <si>
+    <t>BI - 21</t>
   </si>
   <si>
     <t xml:space="preserve">BotI should end game </t>
   </si>
   <si>
-    <t xml:space="preserve">endGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page Manager - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should receive data from Pair Up in Java format and convert it into JSON format before sending it to the Game Display.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getGameMove(jsonObj, Id) to get the Json object and turn it to java class that can be sent to Game Manger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should send the player data (received from Pair Up) as a JSON-formatted string to the Game Display using WebSockets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using GameManager GM = new GameManager();  so that we can send them the Java objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should receive a Java object from the Game Manager, containing game updates (e.g., move validity, game status), and convert it into a JSON-formatted string before sending it to the Game Display.</t>
+    <t>endGame()</t>
+  </si>
+  <si>
+    <t>PG - 1</t>
+  </si>
+  <si>
+    <t>Page Manager - 5</t>
+  </si>
+  <si>
+    <t>The Page Manager should receive data from Pair Up in Java format and convert it into JSON format before sending it to the Game Display.</t>
+  </si>
+  <si>
+    <t>getGameMove(jsonObj, Id) to get the Json object and turn it to java class that can be sent to Game Manger</t>
+  </si>
+  <si>
+    <t>PG - 2</t>
+  </si>
+  <si>
+    <t>The Page Manager should send the player data (received from Pair Up) as a JSON-formatted string to the Game Display using WebSockets.</t>
+  </si>
+  <si>
+    <t>Using GameManager GM = new GameManager();  so that we can send them the Java objects</t>
+  </si>
+  <si>
+    <t>PG - 3</t>
+  </si>
+  <si>
+    <t>The Page Manager should receive a Java object from the Game Manager, containing game updates (e.g., move validity, game status), and convert it into a JSON-formatted string before sending it to the Game Display.</t>
   </si>
   <si>
     <t xml:space="preserve">Created a pubic class GameUpdate to represent a move in the game. It alloess us to store updates </t>
   </si>
   <si>
-    <t xml:space="preserve">PG - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should send updates from the Game Manager as a JSON-formatted string to the Game Display, including whether the move was valid or invalid, the game status (win, loss, draw, or in progress), and the winner's name (if applicable).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using import com.google.gson.Gson and import com.google.gson.GsonBuilder so that we can use gson.fromJson() and gson.toJson() to convert between JSON strings and Java objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should receive a JSON-formatted string from the Game Display with the move made in the game. The Page Manager should then convert this JSON data into a Java object (GameMove) and send it to the Game Manager.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager should send a Java object (GameMove) to the Game Manager containing the move data. This data will be received from the Game Display and converted from JSON format.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created a public class GameMove to represent a move in the game. It allows us to store move details and send them to GameManager for processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall recieve data from the client-side in the form of a JSON-formatted string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserEvent class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall send data to the client-side in the form of a JSON-formatted string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserEventReply class, omMessage() or onSend()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall  associate each player as a HumanPlayer object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanPlayer()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall store all player information in the respective HumanPlayer object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanPlayer class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall send client ID to Pair Up subsystem if the client chooses to queue</t>
+    <t>PG - 4</t>
+  </si>
+  <si>
+    <t>The Page Manager should send updates from the Game Manager as a JSON-formatted string to the Game Display, including whether the move was valid or invalid, the game status (win, loss, draw, or in progress), and the winner's name (if applicable).</t>
+  </si>
+  <si>
+    <t>Using import com.google.gson.Gson and import com.google.gson.GsonBuilder so that we can use gson.fromJson() and gson.toJson() to convert between JSON strings and Java objects.</t>
+  </si>
+  <si>
+    <t>PG - 5</t>
+  </si>
+  <si>
+    <t>The Page Manager should receive a JSON-formatted string from the Game Display with the move made in the game. The Page Manager should then convert this JSON data into a Java object (GameMove) and send it to the Game Manager.</t>
+  </si>
+  <si>
+    <t>PG - 6</t>
+  </si>
+  <si>
+    <t>The Page Manager should send a Java object (GameMove) to the Game Manager containing the move data. This data will be received from the Game Display and converted from JSON format.</t>
+  </si>
+  <si>
+    <t>Created a public class GameMove to represent a move in the game. It allows us to store move details and send them to GameManager for processing</t>
+  </si>
+  <si>
+    <t>PG - 7</t>
+  </si>
+  <si>
+    <t>The Page Manager shall recieve data from the client-side in the form of a JSON-formatted string</t>
+  </si>
+  <si>
+    <t>UserEvent class</t>
+  </si>
+  <si>
+    <t>PG - 8</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send data to the client-side in the form of a JSON-formatted string</t>
+  </si>
+  <si>
+    <t>UserEventReply class, omMessage() or onSend()</t>
+  </si>
+  <si>
+    <t>PG - 9</t>
+  </si>
+  <si>
+    <t>The Page Manager shall  associate each player as a HumanPlayer object</t>
+  </si>
+  <si>
+    <t>HumanPlayer()</t>
+  </si>
+  <si>
+    <t>PG - 10</t>
+  </si>
+  <si>
+    <t>The Page Manager shall store all player information in the respective HumanPlayer object</t>
+  </si>
+  <si>
+    <t>HumanPlayer class</t>
+  </si>
+  <si>
+    <t>PG - 11</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send client ID to Pair Up subsystem if the client chooses to queue</t>
   </si>
   <si>
     <t xml:space="preserve">joinQueue(jsonObj, Id) </t>
   </si>
   <si>
-    <t xml:space="preserve">PG - 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall send client ID and opponenets ID to Pair Up subsystem if the client chooses to challenge a player</t>
+    <t>PG - 12</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send client ID and opponenets ID to Pair Up subsystem if the client chooses to challenge a player</t>
   </si>
   <si>
     <t xml:space="preserve">challengePlayer(jsonObj, Id) , challengePlayerReply(jsonObj, Id) </t>
   </si>
   <si>
-    <t xml:space="preserve">PG - 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall send client ID and bot type to Pair Up subsystem if the client chooses to challenge a bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">challengeBot(jsonObj, Id)  : requirement will be fufilled in implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall recieve from the Join Game subsystem whether the client wants to queue, challenge a player, and  challenge a bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joinQueue(jsonObj, Id), challengeBot(jsonObj, Id), challengePlayer(jsonObj, Id), challengePlayerReply(jsonObj, Id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall  send that the pair has failed to the Join Game subsystem if the request to challenge a player has expired or failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">challengePlayerReply(jsonObj, Id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall send the list of active players to the Join Game subsystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getActivePlayers(jsonObj, Id)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager will be updated on client's locations (such as if they are currently logging in or playing a game)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Player()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager will produce Json with a "tag" to let other modules know if the information is for them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserEventReply class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager will provide the "Summary" module with Json-formatted data about the current players and top ten players. Java information will be converted to JSON to send to summary module.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JsonObject retrieveUserJson(int player_ID), JsonObject retrieveUserJson()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager will get returning active player from the database to store on the active player list. New IDs created for new players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current player list and handleNewUser()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Login module shall allow the player to input a handle upon loading the page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onMessage()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Login module shall send the inputted handle as a JSON-formatted WebSocket message to the Page Manager.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall check with the Database subsystem to verify if the player handle already exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handleLogin(userEvent U)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the handle exists, the Database shall return the associated player information to the Page Manager.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db.getPasswordForUser()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall forward the existing player information to the Login module as a JSON response.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the handle does not exist, the Page Manager shall create a new player record by sending the handle to the Database subsystem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handleNewUser(UserEvent U)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Database shall create a new player entry with a unique client ID and return it to the Page Manager.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db.adduser()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Page Manager shall forward the new player’s information (including client ID) to the Login module as a JSON message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Login module shall display a welcome message upon successful login or account creation.</t>
+    <t>PG - 13</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send client ID and bot type to Pair Up subsystem if the client chooses to challenge a bot</t>
+  </si>
+  <si>
+    <t>challengeBot(jsonObj, Id)  : requirement will be fufilled in implementation</t>
+  </si>
+  <si>
+    <t>PG - 14</t>
+  </si>
+  <si>
+    <t>The Page Manager shall recieve from the Join Game subsystem whether the client wants to queue, challenge a player, and  challenge a bot</t>
+  </si>
+  <si>
+    <t>joinQueue(jsonObj, Id), challengeBot(jsonObj, Id), challengePlayer(jsonObj, Id), challengePlayerReply(jsonObj, Id)</t>
+  </si>
+  <si>
+    <t>PG - 15</t>
+  </si>
+  <si>
+    <t>The Page Manager shall  send that the pair has failed to the Join Game subsystem if the request to challenge a player has expired or failed</t>
+  </si>
+  <si>
+    <t>challengePlayerReply(jsonObj, Id)</t>
+  </si>
+  <si>
+    <t>PG - 16</t>
+  </si>
+  <si>
+    <t>The Page Manager shall send the list of active players to the Join Game subsystem</t>
+  </si>
+  <si>
+    <t>getActivePlayers(jsonObj, Id)</t>
+  </si>
+  <si>
+    <t>PG - 17</t>
+  </si>
+  <si>
+    <t>The Page Manager will be updated on client's locations (such as if they are currently logging in or playing a game)</t>
+  </si>
+  <si>
+    <t>Human Player()</t>
+  </si>
+  <si>
+    <t>PG - 18</t>
+  </si>
+  <si>
+    <t>The Page Manager will produce Json with a "tag" to let other modules know if the information is for them</t>
+  </si>
+  <si>
+    <t>UserEventReply class</t>
+  </si>
+  <si>
+    <t>PG - 19</t>
+  </si>
+  <si>
+    <t>The Page Manager will provide the "Summary" module with Json-formatted data about the current players and top ten players. Java information will be converted to JSON to send to summary module.</t>
+  </si>
+  <si>
+    <t>JsonObject retrieveUserJson(int player_ID), JsonObject retrieveUserJson()</t>
+  </si>
+  <si>
+    <t>PG - 20</t>
+  </si>
+  <si>
+    <t>The Page Manager will get returning active player from the database to store on the active player list. New IDs created for new players</t>
+  </si>
+  <si>
+    <t>current player list and handleNewUser()</t>
+  </si>
+  <si>
+    <t>PG - 21</t>
+  </si>
+  <si>
+    <t>The Login module shall allow the player to input a handle upon loading the page.</t>
+  </si>
+  <si>
+    <t>onMessage()</t>
+  </si>
+  <si>
+    <t>PG - 22</t>
+  </si>
+  <si>
+    <t>The Login module shall send the inputted handle as a JSON-formatted WebSocket message to the Page Manager.</t>
+  </si>
+  <si>
+    <t>PG - 23</t>
+  </si>
+  <si>
+    <t>The Page Manager shall check with the Database subsystem to verify if the player handle already exists.</t>
+  </si>
+  <si>
+    <t>handleLogin(userEvent U)</t>
+  </si>
+  <si>
+    <t>PG - 24</t>
+  </si>
+  <si>
+    <t>If the handle exists, the Database shall return the associated player information to the Page Manager.</t>
+  </si>
+  <si>
+    <t>db.getPasswordForUser()</t>
+  </si>
+  <si>
+    <t>PG - 25</t>
+  </si>
+  <si>
+    <t>The Page Manager shall forward the existing player information to the Login module as a JSON response.</t>
+  </si>
+  <si>
+    <t>PG - 26</t>
+  </si>
+  <si>
+    <t>If the handle does not exist, the Page Manager shall create a new player record by sending the handle to the Database subsystem.</t>
+  </si>
+  <si>
+    <t>handleNewUser(UserEvent U)</t>
+  </si>
+  <si>
+    <t>PG - 27</t>
+  </si>
+  <si>
+    <t>The Database shall create a new player entry with a unique client ID and return it to the Page Manager.</t>
+  </si>
+  <si>
+    <t>db.adduser()</t>
+  </si>
+  <si>
+    <t>PG - 28</t>
+  </si>
+  <si>
+    <t>The Page Manager shall forward the new player’s information (including client ID) to the Login module as a JSON message</t>
+  </si>
+  <si>
+    <t>PG - 29</t>
+  </si>
+  <si>
+    <t>The Login module shall display a welcome message upon successful login or account creation.</t>
   </si>
   <si>
     <t xml:space="preserve">frontend, but our response triggers it </t>
   </si>
   <si>
-    <t xml:space="preserve">PG - 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Login module shall alert the player if the handle is invalid (e.g., blank or too long).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frontend validation, but backed by backend enforcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Login module shall not allow the player to proceed unless a valid handle is entered and accepted.</t>
+    <t>PG - 30</t>
+  </si>
+  <si>
+    <t>The Login module shall alert the player if the handle is invalid (e.g., blank or too long).</t>
+  </si>
+  <si>
+    <t>frontend validation, but backed by backend enforcement</t>
+  </si>
+  <si>
+    <t>PG - 31</t>
+  </si>
+  <si>
+    <t>The Login module shall not allow the player to proceed unless a valid handle is entered and accepted.</t>
   </si>
   <si>
     <t xml:space="preserve">frontend , but backed by our response </t>
   </si>
   <si>
-    <t xml:space="preserve">PG - 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All communication between the Login module and the backend shall occur using JSON over WebSockets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onMessage() + userEvent+userEventReplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page manager should store list of active players.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hashtable&lt;HumanPlayer, Integer&gt; activePlayers = new Hashtable&lt;&gt;();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page manager should efficiently handle the converison back and forth between json and java.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handled inside each method.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page manager should manage the process of switching webpage information when user goes from one subsystem to theh other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transitionPage(int clientId, GameState newState) - automatic transitions of pages,  backToHome(int clientId) - transitions from summary to home page via button press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page manager should track the player current state (in which subsytem they are at) - for transitioning purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HashMap&lt;Integer, GameState&gt; clientStates = new HashMap&lt;&gt;();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG - 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page Manager should handle the case a user closes the tab and update clients and player info accordingly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">App.Java onClose, pm.userLeave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall display board with appropriate places</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createBoard()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game display shall communicate with Page Manager through web sockets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socket.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall display the piece movement</t>
+    <t>PG - 32</t>
+  </si>
+  <si>
+    <t>All communication between the Login module and the backend shall occur using JSON over WebSockets.</t>
+  </si>
+  <si>
+    <t>onMessage() + userEvent+userEventReplay</t>
+  </si>
+  <si>
+    <t>PG - 33</t>
+  </si>
+  <si>
+    <t>Page manager should store list of active players.</t>
+  </si>
+  <si>
+    <t>Hashtable&lt;HumanPlayer, Integer&gt; activePlayers = new Hashtable&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>PG - 34</t>
+  </si>
+  <si>
+    <t>Page manager should efficiently handle the converison back and forth between json and java.</t>
+  </si>
+  <si>
+    <t>handled inside each method.</t>
+  </si>
+  <si>
+    <t>PG - 35</t>
+  </si>
+  <si>
+    <t>Page manager should manage the process of switching webpage information when user goes from one subsystem to theh other</t>
+  </si>
+  <si>
+    <t>transitionPage(int clientId, GameState newState) - automatic transitions of pages,  backToHome(int clientId) - transitions from summary to home page via button press</t>
+  </si>
+  <si>
+    <t>PG - 36</t>
+  </si>
+  <si>
+    <t>Page manager should track the player current state (in which subsytem they are at) - for transitioning purpose</t>
+  </si>
+  <si>
+    <t>HashMap&lt;Integer, GameState&gt; clientStates = new HashMap&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>PG - 37</t>
+  </si>
+  <si>
+    <t>Page Manager should handle the case a user closes the tab and update clients and player info accordingly</t>
+  </si>
+  <si>
+    <t>App.Java onClose, pm.userLeave</t>
+  </si>
+  <si>
+    <t>GD - 1</t>
+  </si>
+  <si>
+    <t>Game Display - 3</t>
+  </si>
+  <si>
+    <t>Game Display shall display board with appropriate places</t>
+  </si>
+  <si>
+    <t>createBoard()</t>
+  </si>
+  <si>
+    <t>UI_001</t>
+  </si>
+  <si>
+    <t>GD - 2</t>
+  </si>
+  <si>
+    <t>Game display shall communicate with Page Manager through web sockets</t>
+  </si>
+  <si>
+    <t>socket.js</t>
+  </si>
+  <si>
+    <t>GD - 3</t>
+  </si>
+  <si>
+    <t>Game Display shall display the piece movement</t>
   </si>
   <si>
     <t xml:space="preserve">handleClick(clickedId), movePiece(fromId, toId), </t>
   </si>
   <si>
-    <t xml:space="preserve">UI_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall display the current players of the game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updatePlayerTurn(), switchPlayer()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">game Display shall have a log that dislays the history of moves as well as status of the game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addLog(message, type='info')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall allow users to quit and request draw with buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quitGame(), sendDrawRequest()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1, Step 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall allow users to move pieces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">movePiece(fromId, toId), handleClick(clickedId), sendGameMove(fromId, toId)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall show whose turn it is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display Shall validate if a move is legal with backend before executing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendGameMove(fromtId, toId)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD - 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall remove caputred pieces from the board upon successful jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handleMoveResult(moveData)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD- 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall implement CSS styling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Display shall contain all HTML on one page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index.html</t>
+    <t>UI_002</t>
+  </si>
+  <si>
+    <t>GD - 4</t>
+  </si>
+  <si>
+    <t>Game Display shall display the current players of the game</t>
+  </si>
+  <si>
+    <t>updatePlayerTurn(), switchPlayer()</t>
+  </si>
+  <si>
+    <t>UI_003</t>
+  </si>
+  <si>
+    <t>GD - 5</t>
+  </si>
+  <si>
+    <t>game Display shall have a log that dislays the history of moves as well as status of the game</t>
+  </si>
+  <si>
+    <t>addLog(message, type='info')</t>
+  </si>
+  <si>
+    <t>UI_004</t>
+  </si>
+  <si>
+    <t>GD - 6</t>
+  </si>
+  <si>
+    <t>Game Display shall allow users to quit and request draw with buttons</t>
+  </si>
+  <si>
+    <t>quitGame(), sendDrawRequest()</t>
+  </si>
+  <si>
+    <t>UI_005</t>
+  </si>
+  <si>
+    <t>Test 1, Step 8</t>
+  </si>
+  <si>
+    <t>GD - 7</t>
+  </si>
+  <si>
+    <t>Game Display shall allow users to move pieces</t>
+  </si>
+  <si>
+    <t>movePiece(fromId, toId), handleClick(clickedId), sendGameMove(fromId, toId)</t>
+  </si>
+  <si>
+    <t>UI_006</t>
+  </si>
+  <si>
+    <t>GD - 8</t>
+  </si>
+  <si>
+    <t>Game Display shall show whose turn it is</t>
+  </si>
+  <si>
+    <t>UI_007</t>
+  </si>
+  <si>
+    <t>GD - 9</t>
+  </si>
+  <si>
+    <t>Game Display Shall validate if a move is legal with backend before executing</t>
+  </si>
+  <si>
+    <t>sendGameMove(fromtId, toId)</t>
+  </si>
+  <si>
+    <t>GD - 10</t>
+  </si>
+  <si>
+    <t>Game Display shall remove caputred pieces from the board upon successful jump</t>
+  </si>
+  <si>
+    <t>handleMoveResult(moveData)</t>
+  </si>
+  <si>
+    <t>GD- 11</t>
+  </si>
+  <si>
+    <t>Game Display shall implement CSS styling</t>
+  </si>
+  <si>
+    <t>display.css</t>
+  </si>
+  <si>
+    <t>GD-12</t>
+  </si>
+  <si>
+    <t>Game Display shall contain all HTML on one page</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>Step 1, fail</t>
+  </si>
+  <si>
+    <t>Step 3,untestable</t>
+  </si>
+  <si>
+    <t>Step 6, fail</t>
+  </si>
+  <si>
+    <t>Step 7, fail</t>
+  </si>
+  <si>
+    <t>Step 8, fail</t>
+  </si>
+  <si>
+    <t>Step 9, fail</t>
+  </si>
+  <si>
+    <t>Step 10, fail</t>
+  </si>
+  <si>
+    <t>Step 11, fail</t>
+  </si>
+  <si>
+    <t>Step 12, fail</t>
+  </si>
+  <si>
+    <t>Step 13, fail</t>
+  </si>
+  <si>
+    <t>Step 14, fail</t>
+  </si>
+  <si>
+    <t>Step 15, fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2106,7 +2138,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -2184,159 +2216,91 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Neutral" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2395,60 +2359,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF242424"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145f82"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e87331"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186c24"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -2480,7 +2460,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -2504,7 +2484,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2564,53 +2544,55 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P74" activeCellId="0" sqref="P74"/>
+    <sheetView tabSelected="1" topLeftCell="E147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P141" sqref="P141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="65.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="47.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="18.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="10.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="36.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="21" style="1" width="8.67"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1"/>
+    <col min="13" max="13" width="12.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="1"/>
+    <col min="20" max="20" width="36.5" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2648,7 +2630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2671,11 +2653,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2694,35 +2676,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2754,7 +2736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -2786,7 +2768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -2818,7 +2800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -2850,7 +2832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -2876,7 +2858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2901,7 +2883,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -2923,7 +2905,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -2943,7 +2925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
@@ -2962,7 +2944,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
@@ -2981,7 +2963,7 @@
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
@@ -3000,7 +2982,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -3032,7 +3014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
@@ -3051,7 +3033,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -3083,7 +3065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -3116,7 +3098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -3149,7 +3131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -3173,7 +3155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -3206,7 +3188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -3235,7 +3217,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -3262,7 +3244,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -3293,7 +3275,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -3322,7 +3304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -3348,7 +3330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
@@ -3371,7 +3353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
@@ -3394,7 +3376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -3426,7 +3408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
@@ -3458,7 +3440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
@@ -3490,7 +3472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -3522,7 +3504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
@@ -3554,7 +3536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -3586,7 +3568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -3618,7 +3600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>128</v>
       </c>
@@ -3641,7 +3623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>131</v>
       </c>
@@ -3673,7 +3655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>134</v>
       </c>
@@ -3705,7 +3687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
@@ -3722,7 +3704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>141</v>
       </c>
@@ -3742,7 +3724,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
@@ -3762,7 +3744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -3782,7 +3764,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>151</v>
       </c>
@@ -3802,7 +3784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>154</v>
       </c>
@@ -3834,7 +3816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>157</v>
       </c>
@@ -3854,7 +3836,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>160</v>
       </c>
@@ -3871,7 +3853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>162</v>
       </c>
@@ -3888,7 +3870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>164</v>
       </c>
@@ -3908,7 +3890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -3928,7 +3910,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -3960,7 +3942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>170</v>
       </c>
@@ -3995,7 +3977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4027,7 +4009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
@@ -4059,7 +4041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>183</v>
       </c>
@@ -4082,7 +4064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>187</v>
       </c>
@@ -4114,7 +4096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -4140,7 +4122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>195</v>
       </c>
@@ -4172,7 +4154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
@@ -4204,7 +4186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>203</v>
       </c>
@@ -4230,7 +4212,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>207</v>
       </c>
@@ -4253,7 +4235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>210</v>
       </c>
@@ -4285,7 +4267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>213</v>
       </c>
@@ -4311,7 +4293,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>216</v>
       </c>
@@ -4337,7 +4319,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>219</v>
       </c>
@@ -4360,7 +4342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>222</v>
       </c>
@@ -4386,7 +4368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>225</v>
       </c>
@@ -4412,7 +4394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>228</v>
       </c>
@@ -4444,7 +4426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>232</v>
       </c>
@@ -4464,7 +4446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>236</v>
       </c>
@@ -4496,7 +4478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>240</v>
       </c>
@@ -4519,7 +4501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>243</v>
       </c>
@@ -4539,7 +4521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>246</v>
       </c>
@@ -4562,7 +4544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>249</v>
       </c>
@@ -4585,7 +4567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>253</v>
       </c>
@@ -4617,7 +4599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>256</v>
       </c>
@@ -4640,7 +4622,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>259</v>
       </c>
@@ -4663,7 +4645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>262</v>
       </c>
@@ -4686,7 +4668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>265</v>
       </c>
@@ -4709,7 +4691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>268</v>
       </c>
@@ -4732,7 +4714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>271</v>
       </c>
@@ -4755,7 +4737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>274</v>
       </c>
@@ -4778,7 +4760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>277</v>
       </c>
@@ -4810,7 +4792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>280</v>
       </c>
@@ -4833,7 +4815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>283</v>
       </c>
@@ -4856,7 +4838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>286</v>
       </c>
@@ -4879,7 +4861,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>292</v>
       </c>
@@ -4902,7 +4884,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>294</v>
       </c>
@@ -4925,7 +4907,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>299</v>
       </c>
@@ -4948,7 +4930,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>302</v>
       </c>
@@ -4971,7 +4953,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>306</v>
       </c>
@@ -4994,7 +4976,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>309</v>
       </c>
@@ -5011,7 +4993,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>312</v>
       </c>
@@ -5028,7 +5010,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>316</v>
       </c>
@@ -5048,7 +5030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>320</v>
       </c>
@@ -5080,7 +5062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>324</v>
       </c>
@@ -5100,7 +5082,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>326</v>
       </c>
@@ -5120,7 +5102,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>328</v>
       </c>
@@ -5140,7 +5122,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>331</v>
       </c>
@@ -5160,7 +5142,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>334</v>
       </c>
@@ -5180,7 +5162,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>337</v>
       </c>
@@ -5200,7 +5182,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>340</v>
       </c>
@@ -5219,7 +5201,7 @@
       </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>344</v>
       </c>
@@ -5238,7 +5220,7 @@
       </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>346</v>
       </c>
@@ -5257,7 +5239,7 @@
       </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>349</v>
       </c>
@@ -5273,7 +5255,7 @@
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>351</v>
       </c>
@@ -5289,7 +5271,7 @@
       </c>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>353</v>
       </c>
@@ -5305,7 +5287,7 @@
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>355</v>
       </c>
@@ -5321,7 +5303,7 @@
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>358</v>
       </c>
@@ -5337,7 +5319,7 @@
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>360</v>
       </c>
@@ -5353,7 +5335,7 @@
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>362</v>
       </c>
@@ -5369,7 +5351,7 @@
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>365</v>
       </c>
@@ -5385,7 +5367,7 @@
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>367</v>
       </c>
@@ -5401,7 +5383,7 @@
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>369</v>
       </c>
@@ -5417,7 +5399,7 @@
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>371</v>
       </c>
@@ -5433,7 +5415,7 @@
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>373</v>
       </c>
@@ -5449,7 +5431,7 @@
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>376</v>
       </c>
@@ -5465,7 +5447,7 @@
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>378</v>
       </c>
@@ -5481,7 +5463,7 @@
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>380</v>
       </c>
@@ -5497,7 +5479,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>382</v>
       </c>
@@ -5513,7 +5495,7 @@
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>384</v>
       </c>
@@ -5529,7 +5511,7 @@
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>386</v>
       </c>
@@ -5543,12 +5525,12 @@
       <c r="E127" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>390</v>
+      <c r="K127" s="5" t="s">
+        <v>681</v>
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>391</v>
       </c>
@@ -5564,11 +5546,11 @@
       <c r="E128" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>298</v>
+      <c r="K128" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N128" s="1" t="s">
         <v>31</v>
@@ -5580,7 +5562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>394</v>
       </c>
@@ -5594,12 +5576,12 @@
       <c r="E129" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>30</v>
+      <c r="K129" s="5" t="s">
+        <v>682</v>
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>397</v>
       </c>
@@ -5613,12 +5595,12 @@
       <c r="E130" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="K130" s="1" t="s">
+      <c r="K130" s="5" t="s">
         <v>390</v>
       </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>399</v>
       </c>
@@ -5633,11 +5615,11 @@
         <v>401</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>402</v>
       </c>
@@ -5652,11 +5634,11 @@
         <v>404</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>390</v>
+        <v>683</v>
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>405</v>
       </c>
@@ -5671,11 +5653,11 @@
         <v>407</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>390</v>
+        <v>684</v>
       </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>408</v>
       </c>
@@ -5690,11 +5672,11 @@
         <v>410</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>390</v>
+        <v>685</v>
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>411</v>
       </c>
@@ -5709,11 +5691,11 @@
         <v>413</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>390</v>
+        <v>686</v>
       </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>414</v>
       </c>
@@ -5728,11 +5710,11 @@
         <v>416</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>390</v>
+        <v>687</v>
       </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>417</v>
       </c>
@@ -5747,11 +5729,11 @@
         <v>419</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>390</v>
+        <v>688</v>
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>420</v>
       </c>
@@ -5766,11 +5748,11 @@
         <v>422</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>390</v>
+        <v>689</v>
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>423</v>
       </c>
@@ -5785,11 +5767,11 @@
         <v>426</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>390</v>
+        <v>690</v>
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>427</v>
       </c>
@@ -5804,11 +5786,11 @@
         <v>429</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>390</v>
+        <v>691</v>
       </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="16" t="s">
         <v>430</v>
       </c>
@@ -5823,11 +5805,11 @@
         <v>432</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>390</v>
+        <v>692</v>
       </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
         <v>433</v>
       </c>
@@ -5847,7 +5829,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
         <v>438</v>
       </c>
@@ -5865,7 +5847,7 @@
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
         <v>441</v>
       </c>
@@ -5885,7 +5867,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
         <v>444</v>
       </c>
@@ -5905,7 +5887,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
         <v>447</v>
       </c>
@@ -5924,7 +5906,7 @@
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
         <v>450</v>
       </c>
@@ -5943,7 +5925,7 @@
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
         <v>453</v>
       </c>
@@ -5962,7 +5944,7 @@
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
         <v>456</v>
       </c>
@@ -5981,7 +5963,7 @@
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
         <v>459</v>
       </c>
@@ -6000,7 +5982,7 @@
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
         <v>462</v>
       </c>
@@ -6019,7 +6001,7 @@
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
         <v>465</v>
       </c>
@@ -6038,7 +6020,7 @@
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
         <v>468</v>
       </c>
@@ -6057,7 +6039,7 @@
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>470</v>
       </c>
@@ -6074,7 +6056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>474</v>
       </c>
@@ -6106,7 +6088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>477</v>
       </c>
@@ -6123,7 +6105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>480</v>
       </c>
@@ -6140,7 +6122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>483</v>
       </c>
@@ -6157,7 +6139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>486</v>
       </c>
@@ -6174,7 +6156,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>488</v>
       </c>
@@ -6191,7 +6173,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>491</v>
       </c>
@@ -6208,7 +6190,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>494</v>
       </c>
@@ -6225,7 +6207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>496</v>
       </c>
@@ -6242,7 +6224,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>498</v>
       </c>
@@ -6259,7 +6241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>501</v>
       </c>
@@ -6276,7 +6258,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>504</v>
       </c>
@@ -6293,7 +6275,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>507</v>
       </c>
@@ -6310,7 +6292,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>510</v>
       </c>
@@ -6327,7 +6309,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>513</v>
       </c>
@@ -6344,7 +6326,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>516</v>
       </c>
@@ -6361,7 +6343,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>519</v>
       </c>
@@ -6378,7 +6360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>521</v>
       </c>
@@ -6395,7 +6377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>523</v>
       </c>
@@ -6412,7 +6394,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>526</v>
       </c>
@@ -6429,7 +6411,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:17" ht="38" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
         <v>529</v>
       </c>
@@ -6458,7 +6440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:17" ht="38" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
         <v>533</v>
       </c>
@@ -6487,7 +6469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:17" ht="38" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>536</v>
       </c>
@@ -6516,7 +6498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:17" ht="76" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
         <v>539</v>
       </c>
@@ -6545,7 +6527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:17" ht="76" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
         <v>542</v>
       </c>
@@ -6574,7 +6556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
         <v>544</v>
       </c>
@@ -6603,7 +6585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
         <v>547</v>
       </c>
@@ -6635,7 +6617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
         <v>550</v>
       </c>
@@ -6667,7 +6649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
         <v>553</v>
       </c>
@@ -6699,7 +6681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>556</v>
       </c>
@@ -6731,7 +6713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
         <v>559</v>
       </c>
@@ -6763,7 +6745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
         <v>562</v>
       </c>
@@ -6795,7 +6777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:17" ht="38" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
         <v>565</v>
       </c>
@@ -6827,7 +6809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:17" ht="38" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
         <v>568</v>
       </c>
@@ -6859,7 +6841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:17" ht="38" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
         <v>571</v>
       </c>
@@ -6891,7 +6873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
         <v>574</v>
       </c>
@@ -6923,7 +6905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
         <v>577</v>
       </c>
@@ -6952,7 +6934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
         <v>580</v>
       </c>
@@ -6981,7 +6963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:17" ht="38" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
         <v>583</v>
       </c>
@@ -7010,7 +6992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:17" ht="38" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
         <v>586</v>
       </c>
@@ -7039,7 +7021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
         <v>589</v>
       </c>
@@ -7056,7 +7038,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
         <v>592</v>
       </c>
@@ -7085,7 +7067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
         <v>594</v>
       </c>
@@ -7102,7 +7084,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
         <v>597</v>
       </c>
@@ -7119,7 +7101,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
         <v>600</v>
       </c>
@@ -7148,7 +7130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:17" ht="38" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
         <v>602</v>
       </c>
@@ -7165,7 +7147,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
         <v>605</v>
       </c>
@@ -7194,7 +7176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
         <v>608</v>
       </c>
@@ -7223,7 +7205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
         <v>610</v>
       </c>
@@ -7240,7 +7222,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
         <v>613</v>
       </c>
@@ -7256,7 +7238,7 @@
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
         <v>616</v>
       </c>
@@ -7272,7 +7254,7 @@
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>619</v>
       </c>
@@ -7288,7 +7270,7 @@
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:17" ht="38" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
         <v>622</v>
       </c>
@@ -7317,7 +7299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
         <v>625</v>
       </c>
@@ -7346,7 +7328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
         <v>628</v>
       </c>
@@ -7375,7 +7357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
         <v>631</v>
       </c>
@@ -7404,7 +7386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
         <v>634</v>
       </c>
@@ -7433,7 +7415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>637</v>
       </c>
@@ -7450,7 +7432,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>642</v>
       </c>
@@ -7479,7 +7461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>645</v>
       </c>
@@ -7499,7 +7481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>649</v>
       </c>
@@ -7516,7 +7498,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>653</v>
       </c>
@@ -7536,7 +7518,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>657</v>
       </c>
@@ -7556,7 +7538,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>662</v>
       </c>
@@ -7576,7 +7558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>666</v>
       </c>
@@ -7593,7 +7575,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="211.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>669</v>
       </c>
@@ -7607,11 +7589,11 @@
         <v>671</v>
       </c>
       <c r="F220" s="1" t="e">
-        <f aca="false">#VALUE!</f>
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="204.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>672</v>
       </c>
@@ -7625,11 +7607,11 @@
         <v>674</v>
       </c>
       <c r="F221" s="1" t="e">
-        <f aca="false">#VALUE!</f>
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="169.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>675</v>
       </c>
@@ -7643,11 +7625,11 @@
         <v>677</v>
       </c>
       <c r="F222" s="1" t="e">
-        <f aca="false">#VALUE!</f>
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>678</v>
       </c>
@@ -7661,44 +7643,29 @@
         <v>680</v>
       </c>
       <c r="F223" s="1" t="e">
-        <f aca="false">#VALUE!</f>
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D167" r:id="rId1" display="BotI shall avoid moving backline peices unless necessary"/>
-    <hyperlink ref="D168" r:id="rId2" display="BotI shall support multiple kings on the board"/>
+    <hyperlink ref="D167" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D168" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniesoonyadeth/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10A82B9-BF03-1144-BEAC-406EC8725CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4E43DB-E412-410B-B4E6-CC68BA241112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2265,7 +2265,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2273,10 +2273,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2558,33 +2558,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P141" sqref="P141"/>
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
     <col min="8" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="1"/>
-    <col min="13" max="13" width="12.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.6640625" style="1"/>
-    <col min="20" max="20" width="36.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="36.44140625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2684,27 +2684,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
@@ -2978,11 +2978,11 @@
         <v>47</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>128</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>131</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>134</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>141</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>151</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>154</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>157</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>160</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>162</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>164</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>170</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>183</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>187</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>195</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>203</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>207</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>210</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>213</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>216</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>219</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>222</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>225</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>228</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>232</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>236</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>240</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>243</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>246</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>249</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>253</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>256</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>259</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>262</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>265</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>268</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>271</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>274</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>277</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>280</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>283</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>286</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>292</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>294</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>299</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>302</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>306</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>309</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>312</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>316</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>320</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>324</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>326</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>328</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>331</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>334</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>337</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>340</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>344</v>
       </c>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>346</v>
       </c>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>349</v>
       </c>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>351</v>
       </c>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>353</v>
       </c>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>355</v>
       </c>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>358</v>
       </c>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>360</v>
       </c>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>362</v>
       </c>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>365</v>
       </c>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>367</v>
       </c>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>369</v>
       </c>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>371</v>
       </c>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>373</v>
       </c>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>376</v>
       </c>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>378</v>
       </c>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>380</v>
       </c>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>382</v>
       </c>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>384</v>
       </c>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>386</v>
       </c>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>391</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>394</v>
       </c>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>397</v>
       </c>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>399</v>
       </c>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>402</v>
       </c>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>405</v>
       </c>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>408</v>
       </c>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>411</v>
       </c>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>414</v>
       </c>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>417</v>
       </c>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>420</v>
       </c>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>423</v>
       </c>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>427</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="16" t="s">
         <v>430</v>
       </c>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="17" t="s">
         <v>433</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="17" t="s">
         <v>438</v>
       </c>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="17" t="s">
         <v>441</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="17" t="s">
         <v>444</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="17" t="s">
         <v>447</v>
       </c>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="17" t="s">
         <v>450</v>
       </c>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="17" t="s">
         <v>453</v>
       </c>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="17" t="s">
         <v>456</v>
       </c>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="17" t="s">
         <v>459</v>
       </c>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="17" t="s">
         <v>462</v>
       </c>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="17" t="s">
         <v>465</v>
       </c>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="17" t="s">
         <v>468</v>
       </c>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>470</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>474</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>477</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>480</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>483</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>486</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>488</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>491</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>494</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>496</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>498</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>501</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>504</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>507</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>510</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>513</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>516</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>519</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>521</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>523</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>526</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>529</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>533</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>536</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="76" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="72" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>539</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="76" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="72" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>542</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="54" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>544</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>547</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>550</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>553</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>556</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>559</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>562</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="38" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A187" s="18" t="s">
         <v>565</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="38" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" ht="54" x14ac:dyDescent="0.35">
       <c r="A188" s="18" t="s">
         <v>568</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="38" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A189" s="18" t="s">
         <v>571</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="18" t="s">
         <v>574</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="18" t="s">
         <v>577</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
         <v>580</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="38" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A193" s="18" t="s">
         <v>583</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="38" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A194" s="18" t="s">
         <v>586</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="18" t="s">
         <v>589</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
         <v>592</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
         <v>594</v>
       </c>
@@ -7084,7 +7084,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
         <v>597</v>
       </c>
@@ -7101,7 +7101,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
         <v>600</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="38" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
         <v>602</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="18" t="s">
         <v>605</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A202" s="18" t="s">
         <v>608</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>610</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
         <v>613</v>
       </c>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>616</v>
       </c>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>619</v>
       </c>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" spans="1:17" ht="38" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A207" s="18" t="s">
         <v>622</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
         <v>625</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" ht="54" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>628</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="36" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
         <v>631</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
         <v>634</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>637</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>642</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>645</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>649</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>653</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>657</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>662</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>666</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>669</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>672</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>675</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>678</v>
       </c>
@@ -7663,7 +7663,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyncthingServiceAcct\school work\2025\Spring 2025\CSE 3310 FUNDAMENTALS OF SOFTWARE ENGR\cse3310-sp25-004\FinalRequirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf526d0a72a0725/Desktop/'24-'25 Year/CSE 3310/Project/cse3310-sp25-004/FinalRequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4E43DB-E412-410B-B4E6-CC68BA241112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6F4E43DB-E412-410B-B4E6-CC68BA241112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FAB1986-B0DB-45B9-AA8A-1A744E4CA99B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="695">
   <si>
     <t>Tested By</t>
   </si>
@@ -2116,6 +2116,12 @@
   </si>
   <si>
     <t>Step 15, fail</t>
+  </si>
+  <si>
+    <t>Test 2, Step 4</t>
+  </si>
+  <si>
+    <t>Test 3, Step 4</t>
   </si>
 </sst>
 </file>
@@ -2558,33 +2564,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="E24" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
-    <col min="8" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="11.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1"/>
-    <col min="13" max="13" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="1"/>
-    <col min="20" max="20" width="36.44140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.5703125" style="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="1"/>
+    <col min="20" max="20" width="36.42578125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2684,27 +2690,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2883,7 +2889,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -2905,7 +2911,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -2925,7 +2931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
@@ -2944,7 +2950,7 @@
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
@@ -2963,7 +2969,7 @@
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
@@ -2982,7 +2988,7 @@
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -3014,7 +3020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
@@ -3033,7 +3039,7 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -3330,7 +3336,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
@@ -3347,13 +3353,13 @@
         <v>42</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
@@ -3370,13 +3376,13 @@
         <v>42</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>43</v>
+        <v>693</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>128</v>
       </c>
@@ -3617,13 +3623,13 @@
         <v>42</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>43</v>
+        <v>694</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>131</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>134</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>141</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>151</v>
       </c>
@@ -3784,7 +3790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>154</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>157</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>160</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>162</v>
       </c>
@@ -3870,7 +3876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>164</v>
       </c>
@@ -3890,7 +3896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -3910,7 +3916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -3942,7 +3948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>170</v>
       </c>
@@ -3977,7 +3983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>183</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>187</v>
       </c>
@@ -4096,7 +4102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>195</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>203</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>207</v>
       </c>
@@ -4235,7 +4241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>210</v>
       </c>
@@ -4267,7 +4273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>213</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>216</v>
       </c>
@@ -4319,7 +4325,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>219</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>222</v>
       </c>
@@ -4368,7 +4374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>225</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>228</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>232</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>236</v>
       </c>
@@ -4478,7 +4484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>240</v>
       </c>
@@ -4501,7 +4507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>243</v>
       </c>
@@ -4521,7 +4527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>246</v>
       </c>
@@ -4544,7 +4550,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>249</v>
       </c>
@@ -4567,7 +4573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>253</v>
       </c>
@@ -4599,7 +4605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>256</v>
       </c>
@@ -4622,7 +4628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>259</v>
       </c>
@@ -4645,7 +4651,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>262</v>
       </c>
@@ -4668,7 +4674,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>265</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>268</v>
       </c>
@@ -4714,7 +4720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>271</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>274</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>277</v>
       </c>
@@ -4792,7 +4798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>280</v>
       </c>
@@ -4815,7 +4821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>283</v>
       </c>
@@ -4838,7 +4844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>286</v>
       </c>
@@ -4861,7 +4867,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>292</v>
       </c>
@@ -4884,7 +4890,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>294</v>
       </c>
@@ -4907,7 +4913,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>299</v>
       </c>
@@ -4930,7 +4936,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>302</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>306</v>
       </c>
@@ -4976,7 +4982,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>309</v>
       </c>
@@ -4993,7 +4999,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>312</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>316</v>
       </c>
@@ -5030,7 +5036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>320</v>
       </c>
@@ -5062,7 +5068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>324</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>326</v>
       </c>
@@ -5102,7 +5108,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>328</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>331</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>334</v>
       </c>
@@ -5162,7 +5168,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>337</v>
       </c>
@@ -5182,7 +5188,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>340</v>
       </c>
@@ -5201,7 +5207,7 @@
       </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>344</v>
       </c>
@@ -5220,7 +5226,7 @@
       </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>346</v>
       </c>
@@ -5239,7 +5245,7 @@
       </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>349</v>
       </c>
@@ -5255,7 +5261,7 @@
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>351</v>
       </c>
@@ -5271,7 +5277,7 @@
       </c>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>353</v>
       </c>
@@ -5287,7 +5293,7 @@
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>355</v>
       </c>
@@ -5303,7 +5309,7 @@
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>358</v>
       </c>
@@ -5319,7 +5325,7 @@
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>360</v>
       </c>
@@ -5335,7 +5341,7 @@
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>362</v>
       </c>
@@ -5351,7 +5357,7 @@
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>365</v>
       </c>
@@ -5367,7 +5373,7 @@
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>367</v>
       </c>
@@ -5383,7 +5389,7 @@
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>369</v>
       </c>
@@ -5399,7 +5405,7 @@
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>371</v>
       </c>
@@ -5415,7 +5421,7 @@
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>373</v>
       </c>
@@ -5431,7 +5437,7 @@
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>376</v>
       </c>
@@ -5447,7 +5453,7 @@
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>378</v>
       </c>
@@ -5463,7 +5469,7 @@
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>380</v>
       </c>
@@ -5479,7 +5485,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>382</v>
       </c>
@@ -5495,7 +5501,7 @@
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>384</v>
       </c>
@@ -5511,7 +5517,7 @@
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>386</v>
       </c>
@@ -5530,7 +5536,7 @@
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>391</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>394</v>
       </c>
@@ -5581,7 +5587,7 @@
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>397</v>
       </c>
@@ -5600,7 +5606,7 @@
       </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>399</v>
       </c>
@@ -5619,7 +5625,7 @@
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>402</v>
       </c>
@@ -5638,7 +5644,7 @@
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>405</v>
       </c>
@@ -5657,7 +5663,7 @@
       </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>408</v>
       </c>
@@ -5676,7 +5682,7 @@
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>411</v>
       </c>
@@ -5695,7 +5701,7 @@
       </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>414</v>
       </c>
@@ -5714,7 +5720,7 @@
       </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>417</v>
       </c>
@@ -5733,7 +5739,7 @@
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>420</v>
       </c>
@@ -5752,7 +5758,7 @@
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>423</v>
       </c>
@@ -5771,7 +5777,7 @@
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>427</v>
       </c>
@@ -5790,7 +5796,7 @@
       </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
         <v>430</v>
       </c>
@@ -5809,7 +5815,7 @@
       </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
         <v>433</v>
       </c>
@@ -5829,7 +5835,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
         <v>438</v>
       </c>
@@ -5847,7 +5853,7 @@
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
         <v>441</v>
       </c>
@@ -5867,7 +5873,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
         <v>444</v>
       </c>
@@ -5887,7 +5893,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
         <v>447</v>
       </c>
@@ -5906,7 +5912,7 @@
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="17" t="s">
         <v>450</v>
       </c>
@@ -5925,7 +5931,7 @@
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
         <v>453</v>
       </c>
@@ -5944,7 +5950,7 @@
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
         <v>456</v>
       </c>
@@ -5963,7 +5969,7 @@
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
         <v>459</v>
       </c>
@@ -5982,7 +5988,7 @@
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="s">
         <v>462</v>
       </c>
@@ -6001,7 +6007,7 @@
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
         <v>465</v>
       </c>
@@ -6020,7 +6026,7 @@
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
         <v>468</v>
       </c>
@@ -6039,7 +6045,7 @@
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>470</v>
       </c>
@@ -6056,7 +6062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>474</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>477</v>
       </c>
@@ -6105,7 +6111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>480</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>483</v>
       </c>
@@ -6139,7 +6145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>486</v>
       </c>
@@ -6156,7 +6162,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>488</v>
       </c>
@@ -6173,7 +6179,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>491</v>
       </c>
@@ -6190,7 +6196,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>494</v>
       </c>
@@ -6207,7 +6213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>496</v>
       </c>
@@ -6224,7 +6230,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>498</v>
       </c>
@@ -6241,7 +6247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>501</v>
       </c>
@@ -6258,7 +6264,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>504</v>
       </c>
@@ -6275,7 +6281,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>507</v>
       </c>
@@ -6292,7 +6298,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>510</v>
       </c>
@@ -6309,7 +6315,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>513</v>
       </c>
@@ -6326,7 +6332,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>516</v>
       </c>
@@ -6343,7 +6349,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>519</v>
       </c>
@@ -6360,7 +6366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>521</v>
       </c>
@@ -6377,7 +6383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>523</v>
       </c>
@@ -6394,7 +6400,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>526</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A175" s="18" t="s">
         <v>529</v>
       </c>
@@ -6440,7 +6446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A176" s="18" t="s">
         <v>533</v>
       </c>
@@ -6469,7 +6475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A177" s="18" t="s">
         <v>536</v>
       </c>
@@ -6498,7 +6504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="72" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" ht="75" x14ac:dyDescent="0.3">
       <c r="A178" s="18" t="s">
         <v>539</v>
       </c>
@@ -6527,7 +6533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="72" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" ht="75" x14ac:dyDescent="0.3">
       <c r="A179" s="18" t="s">
         <v>542</v>
       </c>
@@ -6556,7 +6562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="54" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A180" s="18" t="s">
         <v>544</v>
       </c>
@@ -6585,7 +6591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="18" t="s">
         <v>547</v>
       </c>
@@ -6617,7 +6623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="18" t="s">
         <v>550</v>
       </c>
@@ -6649,7 +6655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="18" t="s">
         <v>553</v>
       </c>
@@ -6681,7 +6687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="18" t="s">
         <v>556</v>
       </c>
@@ -6713,7 +6719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
         <v>559</v>
       </c>
@@ -6745,7 +6751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A186" s="18" t="s">
         <v>562</v>
       </c>
@@ -6777,7 +6783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A187" s="18" t="s">
         <v>565</v>
       </c>
@@ -6809,7 +6815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="54" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A188" s="18" t="s">
         <v>568</v>
       </c>
@@ -6841,7 +6847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A189" s="18" t="s">
         <v>571</v>
       </c>
@@ -6873,7 +6879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="18" t="s">
         <v>574</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A191" s="18" t="s">
         <v>577</v>
       </c>
@@ -6934,7 +6940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="18" t="s">
         <v>580</v>
       </c>
@@ -6963,7 +6969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A193" s="18" t="s">
         <v>583</v>
       </c>
@@ -6992,7 +6998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A194" s="18" t="s">
         <v>586</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="18" t="s">
         <v>589</v>
       </c>
@@ -7038,7 +7044,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A196" s="18" t="s">
         <v>592</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="18" t="s">
         <v>594</v>
       </c>
@@ -7084,7 +7090,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="18" t="s">
         <v>597</v>
       </c>
@@ -7101,7 +7107,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="18" t="s">
         <v>600</v>
       </c>
@@ -7130,7 +7136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A200" s="18" t="s">
         <v>602</v>
       </c>
@@ -7147,7 +7153,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="18" t="s">
         <v>605</v>
       </c>
@@ -7176,7 +7182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A202" s="18" t="s">
         <v>608</v>
       </c>
@@ -7205,7 +7211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="18" t="s">
         <v>610</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="18" t="s">
         <v>613</v>
       </c>
@@ -7238,7 +7244,7 @@
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="18" t="s">
         <v>616</v>
       </c>
@@ -7254,7 +7260,7 @@
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="18" t="s">
         <v>619</v>
       </c>
@@ -7270,7 +7276,7 @@
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A207" s="18" t="s">
         <v>622</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="18" t="s">
         <v>625</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="54" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" ht="75" x14ac:dyDescent="0.3">
       <c r="A209" s="18" t="s">
         <v>628</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A210" s="18" t="s">
         <v>631</v>
       </c>
@@ -7386,7 +7392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="18" t="s">
         <v>634</v>
       </c>
@@ -7415,7 +7421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>637</v>
       </c>
@@ -7432,7 +7438,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>642</v>
       </c>
@@ -7461,7 +7467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>645</v>
       </c>
@@ -7481,7 +7487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>649</v>
       </c>
@@ -7498,7 +7504,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>653</v>
       </c>
@@ -7518,7 +7524,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>657</v>
       </c>
@@ -7538,7 +7544,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>662</v>
       </c>
@@ -7558,7 +7564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>666</v>
       </c>
@@ -7575,7 +7581,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>669</v>
       </c>
@@ -7593,7 +7599,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>672</v>
       </c>
@@ -7611,7 +7617,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>675</v>
       </c>
@@ -7629,7 +7635,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>678</v>
       </c>
@@ -7663,7 +7669,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pritamgurung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF360E7-5051-4CED-9C00-67313FE61C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A93E9A-CF26-6249-B3E0-C778E823FACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="695">
   <si>
     <t>Tested By</t>
   </si>
@@ -131,6 +129,9 @@
     <t>Class Board, initCheckers()</t>
   </si>
   <si>
+    <t>untestable</t>
+  </si>
+  <si>
     <t>Untestable</t>
   </si>
   <si>
@@ -164,6 +165,12 @@
     <t>moveForwardCheck(), moveBackwardCheck()</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Test 1, Step 6</t>
   </si>
   <si>
@@ -218,6 +225,9 @@
     <t>The system shall allow all king checkers to move in both forward and backwards directions (towards AND away from the player controlling them)</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
     <t>GP_14</t>
   </si>
   <si>
@@ -290,9 +300,6 @@
     <t>Queue</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Test 1, Step 3</t>
   </si>
   <si>
@@ -362,6 +369,9 @@
     <t>Game()</t>
   </si>
   <si>
+    <t>ut</t>
+  </si>
+  <si>
     <t>GM_4</t>
   </si>
   <si>
@@ -899,6 +909,9 @@
     <t>login</t>
   </si>
   <si>
+    <t>Step 1, pass</t>
+  </si>
+  <si>
     <t>Test 1, Step 1</t>
   </si>
   <si>
@@ -920,6 +933,9 @@
     <t>btn</t>
   </si>
   <si>
+    <t>Step 4, pass</t>
+  </si>
+  <si>
     <t>LS_04</t>
   </si>
   <si>
@@ -938,6 +954,9 @@
     <t>img</t>
   </si>
   <si>
+    <t>Step 2, pass</t>
+  </si>
+  <si>
     <t>LS_06</t>
   </si>
   <si>
@@ -965,6 +984,9 @@
     <t>uniquePass, span</t>
   </si>
   <si>
+    <t>Step 5, fail</t>
+  </si>
+  <si>
     <t>LS_09</t>
   </si>
   <si>
@@ -974,6 +996,9 @@
     <t>span</t>
   </si>
   <si>
+    <t>Step 8, pass</t>
+  </si>
+  <si>
     <t>LS_10</t>
   </si>
   <si>
@@ -983,6 +1008,9 @@
     <t>sendInfo</t>
   </si>
   <si>
+    <t>Step 5, pass</t>
+  </si>
+  <si>
     <t>LS_11</t>
   </si>
   <si>
@@ -1028,6 +1056,9 @@
     <t>System shall have a function to show the login page and simultaneuously hide the signup screen upon click. Function for Requirement(3)</t>
   </si>
   <si>
+    <t>Step 3, pass</t>
+  </si>
+  <si>
     <t>DB_1</t>
   </si>
   <si>
@@ -1178,6 +1209,9 @@
     <t xml:space="preserve">public void defendPieces() </t>
   </si>
   <si>
+    <t>Step 4, fail</t>
+  </si>
+  <si>
     <t>BII-9</t>
   </si>
   <si>
@@ -1655,9 +1689,6 @@
     <t>UserEvent class</t>
   </si>
   <si>
-    <t>untestable</t>
-  </si>
-  <si>
     <t>PG - 8</t>
   </si>
   <si>
@@ -2051,46 +2082,46 @@
     <t>index.html</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Step 1, pass</t>
-  </si>
-  <si>
-    <t>Step 4, pass</t>
-  </si>
-  <si>
-    <t>Step 2, pass</t>
-  </si>
-  <si>
-    <t>Step 5, fail</t>
-  </si>
-  <si>
-    <t>Step 8, pass</t>
-  </si>
-  <si>
-    <t>Step 3, pass</t>
-  </si>
-  <si>
-    <t>Step 5, pass</t>
-  </si>
-  <si>
-    <t>Step 4, fail</t>
-  </si>
-  <si>
-    <t>ut</t>
-  </si>
-  <si>
-    <t>fail (on bot1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fail </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fails to end game </t>
+    <t>Step 1, fail</t>
+  </si>
+  <si>
+    <t>Step 3,untestable</t>
+  </si>
+  <si>
+    <t>Step 6, fail</t>
+  </si>
+  <si>
+    <t>Step 7, fail</t>
+  </si>
+  <si>
+    <t>Step 8, fail</t>
+  </si>
+  <si>
+    <t>Step 9, fail</t>
+  </si>
+  <si>
+    <t>Step 10, fail</t>
+  </si>
+  <si>
+    <t>Step 11, fail</t>
+  </si>
+  <si>
+    <t>Step 12, fail</t>
+  </si>
+  <si>
+    <t>Step 13, fail</t>
+  </si>
+  <si>
+    <t>Step 14, fail</t>
+  </si>
+  <si>
+    <t>Step 15, fail</t>
+  </si>
+  <si>
+    <t>test2, step1, passed</t>
+  </si>
+  <si>
+    <t>test2, step2, passed</t>
   </si>
 </sst>
 </file>
@@ -2533,38 +2564,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="64" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="2" customWidth="1"/>
     <col min="8" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="1"/>
-    <col min="13" max="13" width="12.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.6640625" style="1"/>
-    <col min="20" max="20" width="36.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="36.5" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2602,7 +2636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2625,7 +2659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2648,7 +2682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2656,27 +2690,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2693,24 +2727,24 @@
         <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>26</v>
@@ -2719,30 +2753,30 @@
         <v>27</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>26</v>
@@ -2751,30 +2785,30 @@
         <v>27</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>26</v>
@@ -2783,183 +2817,180 @@
         <v>27</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>83</v>
+      <c r="P15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>681</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>682</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>670</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>26</v>
@@ -2968,49 +2999,49 @@
         <v>27</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>26</v>
@@ -3019,4558 +3050,4633 @@
         <v>27</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G24" s="11"/>
       <c r="K24" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G25" s="11"/>
       <c r="K25" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G26" s="11"/>
       <c r="K26" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G27" s="11"/>
       <c r="K27" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G29" s="11"/>
       <c r="K29" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="13"/>
       <c r="K30" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D34" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D47" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="K53" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>670</v>
+        <v>62</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E69" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="K71" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E75" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P75" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q75" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P75" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q75" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="K78" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>285</v>
+        <v>289</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>672</v>
+        <v>290</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="D92" s="5" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>285</v>
+        <v>289</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>672</v>
+        <v>290</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="N96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q94" s="1" t="s">
+    </row>
+    <row r="98" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q96" s="1" t="s">
+      <c r="D98" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="D99" s="5" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>310</v>
+        <v>318</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>676</v>
+        <v>319</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>678</v>
+        <v>323</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E101" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q101" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="D102" s="5" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="E102" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q102" s="1" t="s">
+    </row>
+    <row r="103" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="D103" s="5" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>320</v>
+        <v>330</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>674</v>
+        <v>305</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>674</v>
+        <v>305</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>326</v>
+        <v>336</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>671</v>
+        <v>339</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="10" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>671</v>
+        <v>323</v>
       </c>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="10" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>674</v>
+        <v>305</v>
       </c>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="10" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>671</v>
+        <v>339</v>
       </c>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="10" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q111" s="5"/>
+    </row>
+    <row r="112" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q111" s="5"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="10" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="10" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="10" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="10" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="10" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="10" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="10" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="10" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="10" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="10" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="10" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="10" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="10" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="10" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="10" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>679</v>
+        <v>389</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>681</v>
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>673</v>
+        <v>393</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>538</v>
+        <v>31</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q128" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="10" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>538</v>
+        <v>396</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>682</v>
       </c>
       <c r="Q129" s="10"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>679</v>
+        <v>389</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="Q130" s="10"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>376</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>679</v>
+        <v>315</v>
       </c>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="Q133" s="10"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="Q134" s="10"/>
     </row>
-    <row r="135" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="10" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="Q138" s="10"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="10" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="Q139" s="10"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="10" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="Q140" s="10"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="16" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="1" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q144" s="17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="E145" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q145" s="17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A146" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B146" s="17" t="s">
         <v>434</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q145" s="17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A146" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>422</v>
       </c>
       <c r="C146" s="17"/>
       <c r="D146" s="17" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C147" s="17"/>
       <c r="D147" s="17" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C148" s="17"/>
       <c r="D148" s="17" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C149" s="17"/>
       <c r="D149" s="17" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C150" s="17"/>
       <c r="D150" s="17" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C151" s="17"/>
       <c r="D151" s="17" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C152" s="17"/>
       <c r="D152" s="17" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C153" s="17"/>
       <c r="D153" s="17" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>671</v>
+        <v>42</v>
       </c>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="E154" s="18" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P155" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q155" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="D158" s="18" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E163" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D160" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="E160" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D161" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="E161" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A162" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="E162" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A163" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D163" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>464</v>
-      </c>
       <c r="K163" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="E166" s="18" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="M168" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="M174" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C175" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P175" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q175" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="E176" s="20" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P176" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q176" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C177" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P177" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q177" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" ht="72" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" ht="80" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C178" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P178" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q178" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" ht="72" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" ht="80" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="B179" s="18" t="s">
         <v>530</v>
-      </c>
-      <c r="B179" s="18" t="s">
-        <v>518</v>
       </c>
       <c r="C179" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P179" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q179" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" ht="54" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="E180" s="20" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P180" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q180" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C181" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="E181" s="20" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P181" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q181" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C182" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="E182" s="20" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P182" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q182" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C183" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P183" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q183" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="E184" s="20" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P184" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q184" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C185" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="E185" s="20" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P185" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q185" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C186" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="E186" s="20" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P186" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q186" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C187" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="E187" s="20" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P187" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q187" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" ht="54" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C188" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="E188" s="20" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P188" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q188" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="E189" s="20" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P189" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q189" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C190" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="E190" s="20" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P190" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q190" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C191" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="E191" s="20" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P191" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q191" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C192" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="E192" s="20" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P192" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q192" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C193" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E193" s="20" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P193" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q193" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C194" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="E194" s="20" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P194" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q194" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="Q195" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C196" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="E196" s="20" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P196" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q196" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C197" s="18"/>
       <c r="D197" s="20" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E197" s="20" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
     </row>
-    <row r="198" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C198" s="18"/>
       <c r="D198" s="20" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="E198" s="20" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
     </row>
-    <row r="199" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C199" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="E199" s="20" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P199" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q199" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C200" s="18"/>
       <c r="D200" s="20" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="E200" s="20" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
     </row>
-    <row r="201" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C201" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="E201" s="20" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P201" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q201" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C202" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E202" s="20" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P202" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q202" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="203" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="E203" s="20" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="Q203" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="20" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="E204" s="20" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="Q204" s="18"/>
     </row>
-    <row r="205" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C205" s="18"/>
       <c r="D205" s="22" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="E205" s="20" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="Q205" s="18"/>
     </row>
-    <row r="206" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="20" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="E206" s="20" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="Q206" s="18"/>
     </row>
-    <row r="207" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" ht="40" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C207" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="E207" s="20" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P207" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q207" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C208" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="E208" s="20" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P208" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q208" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20" ht="54" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="E209" s="20" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P209" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q209" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="210" spans="1:20" ht="36" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="E210" s="20" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P210" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q210" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="211" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="E211" s="20" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P211" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q211" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P213" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q213" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="Q214" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="D215" s="1" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="T217" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q218" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="F219" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="F220" s="1" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="F221" s="1" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="F222" s="1" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="F223" s="1" t="e">
         <f>#VALUE!</f>
@@ -7588,13 +7694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E37C232-79F2-40BF-8492-ECD04340236D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/FinalRequirements/FinalRequirements.xlsx
+++ b/FinalRequirements/FinalRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prita\cse3310-sp25-004\FinalRequirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DDD9A7-6DD9-4DD6-B21F-8210602B9AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99969EB5-D373-4C1B-AEE2-E8E58F39E932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="iXC3eHguLt9H34McPaHvGPI6TasCT56pHWW+C+wJNFs="/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="701">
   <si>
     <t